--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -463,6 +463,18 @@
   </si>
   <si>
     <t>220720000984</t>
+  </si>
+  <si>
+    <t>220720000986</t>
+  </si>
+  <si>
+    <t>220720000987</t>
+  </si>
+  <si>
+    <t>220720000988</t>
+  </si>
+  <si>
+    <t>220720000989</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1259,7 @@
         <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1294,7 +1306,7 @@
         <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1341,7 +1353,7 @@
         <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1388,7 +1400,7 @@
         <v>96</v>
       </c>
       <c r="Y5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="151">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -475,6 +475,24 @@
   </si>
   <si>
     <t>220720000989</t>
+  </si>
+  <si>
+    <t>230720001051</t>
+  </si>
+  <si>
+    <t>230720001052</t>
+  </si>
+  <si>
+    <t>230720001053</t>
+  </si>
+  <si>
+    <t>230720001054</t>
+  </si>
+  <si>
+    <t>230720001055</t>
+  </si>
+  <si>
+    <t>230720001056</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1277,7 @@
         <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1306,7 +1324,7 @@
         <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1353,7 +1371,7 @@
         <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1400,7 +1418,7 @@
         <v>96</v>
       </c>
       <c r="Y5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -493,6 +493,30 @@
   </si>
   <si>
     <t>230720001056</t>
+  </si>
+  <si>
+    <t>240720001004</t>
+  </si>
+  <si>
+    <t>240720001005</t>
+  </si>
+  <si>
+    <t>240720001006</t>
+  </si>
+  <si>
+    <t>240720001007</t>
+  </si>
+  <si>
+    <t>240720001008</t>
+  </si>
+  <si>
+    <t>240720001009</t>
+  </si>
+  <si>
+    <t>240720001010</t>
+  </si>
+  <si>
+    <t>240720001011</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1301,7 @@
         <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1324,7 +1348,7 @@
         <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1371,7 +1395,7 @@
         <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1418,7 +1442,7 @@
         <v>96</v>
       </c>
       <c r="Y5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="167">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -517,6 +517,30 @@
   </si>
   <si>
     <t>240720001011</t>
+  </si>
+  <si>
+    <t>270720001022</t>
+  </si>
+  <si>
+    <t>270720001023</t>
+  </si>
+  <si>
+    <t>270720001024</t>
+  </si>
+  <si>
+    <t>270720001025</t>
+  </si>
+  <si>
+    <t>270720001027</t>
+  </si>
+  <si>
+    <t>270720001028</t>
+  </si>
+  <si>
+    <t>270720001029</t>
+  </si>
+  <si>
+    <t>270720001030</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1325,7 @@
         <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1348,7 +1372,7 @@
         <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1395,7 +1419,7 @@
         <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1442,7 +1466,7 @@
         <v>96</v>
       </c>
       <c r="Y5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a2388006/git/CS_PORTAL/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51DC590-8B83-D742-81F7-6D7629AB4F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54FF998-F242-DC4D-9B0F-4CAD6CACCBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" xr2:uid="{1FFDF3F0-6759-694F-9CB5-F32127F0BD7D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -463,6 +463,27 @@
   </si>
   <si>
     <t>API</t>
+  </si>
+  <si>
+    <t>string string string</t>
+  </si>
+  <si>
+    <t>National ID</t>
+  </si>
+  <si>
+    <t>***22222</t>
+  </si>
+  <si>
+    <t>8925403522001884647</t>
+  </si>
+  <si>
+    <t>01: 17 AM</t>
+  </si>
+  <si>
+    <t>28 May 2020</t>
+  </si>
+  <si>
+    <t>08-Jul-2020</t>
   </si>
 </sst>
 </file>
@@ -940,7 +961,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,37 +1028,7 @@
         <v>131</v>
       </c>
       <c r="D2">
-        <v>735873718</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>20772248</v>
-      </c>
-      <c r="L2">
-        <v>10441790</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
+        <v>782945113</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1050,6 +1041,39 @@
       <c r="C3" t="s">
         <v>130</v>
       </c>
+      <c r="D3">
+        <v>783425592</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>22418813</v>
+      </c>
+      <c r="L3">
+        <v>28905441</v>
+      </c>
+      <c r="M3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1060,6 +1084,39 @@
       </c>
       <c r="C4" t="s">
         <v>140</v>
+      </c>
+      <c r="D4">
+        <v>735873718</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>20772248</v>
+      </c>
+      <c r="L4">
+        <v>10441790</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1068,6 +1125,7 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{033D127A-F434-CE46-9548-8CBA06150182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a2388006/git/CS_PORTAL/Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17467F3A-4C0A-7549-A87B-F7AA9C1F7E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" activeTab="1" xr2:uid="{1FFDF3F0-6759-694F-9CB5-F32127F0BD7D}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="InteractionChannel" sheetId="4" r:id="rId7"/>
     <sheet name="Ticket State" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -393,9 +392,6 @@
     <t>Social media</t>
   </si>
   <si>
-    <t>Secure@2024</t>
-  </si>
-  <si>
     <t>Tag Name</t>
   </si>
   <si>
@@ -453,84 +449,6 @@
     <t xml:space="preserve">Noise on Call </t>
   </si>
   <si>
-    <t>220720000981</t>
-  </si>
-  <si>
-    <t>220720000982</t>
-  </si>
-  <si>
-    <t>220720000983</t>
-  </si>
-  <si>
-    <t>220720000984</t>
-  </si>
-  <si>
-    <t>220720000986</t>
-  </si>
-  <si>
-    <t>220720000987</t>
-  </si>
-  <si>
-    <t>220720000988</t>
-  </si>
-  <si>
-    <t>220720000989</t>
-  </si>
-  <si>
-    <t>230720001051</t>
-  </si>
-  <si>
-    <t>230720001052</t>
-  </si>
-  <si>
-    <t>230720001053</t>
-  </si>
-  <si>
-    <t>230720001054</t>
-  </si>
-  <si>
-    <t>230720001055</t>
-  </si>
-  <si>
-    <t>230720001056</t>
-  </si>
-  <si>
-    <t>240720001004</t>
-  </si>
-  <si>
-    <t>240720001005</t>
-  </si>
-  <si>
-    <t>240720001006</t>
-  </si>
-  <si>
-    <t>240720001007</t>
-  </si>
-  <si>
-    <t>240720001008</t>
-  </si>
-  <si>
-    <t>240720001009</t>
-  </si>
-  <si>
-    <t>240720001010</t>
-  </si>
-  <si>
-    <t>240720001011</t>
-  </si>
-  <si>
-    <t>270720001022</t>
-  </si>
-  <si>
-    <t>270720001023</t>
-  </si>
-  <si>
-    <t>270720001024</t>
-  </si>
-  <si>
-    <t>270720001025</t>
-  </si>
-  <si>
     <t>270720001027</t>
   </si>
   <si>
@@ -541,12 +459,27 @@
   </si>
   <si>
     <t>270720001030</t>
+  </si>
+  <si>
+    <t>Jul@2020</t>
+  </si>
+  <si>
+    <t>280720001032</t>
+  </si>
+  <si>
+    <t>280720001033</t>
+  </si>
+  <si>
+    <t>280720001034</t>
+  </si>
+  <si>
+    <t>280720001035</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1015,23 +948,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E7A5F-3E6A-E248-889F-23B3A6B34B5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
     <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,15 +1008,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2388006</v>
+        <v>2390932</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2">
         <v>735873718</v>
@@ -1119,62 +1052,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2394650</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E8376607-2FF2-6F45-92FA-BC7B676EA2F8}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{033D127A-F434-CE46-9548-8CBA06150182}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADE7D9A-20CD-0642-B0EB-506ABCE7F81B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="125" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2:Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.83203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.83203125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
@@ -1251,7 +1184,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
@@ -1325,10 +1258,10 @@
         <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
@@ -1372,10 +1305,10 @@
         <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>62</v>
       </c>
@@ -1419,10 +1352,10 @@
         <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
@@ -1466,7 +1399,7 @@
         <v>96</v>
       </c>
       <c r="Y5" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1475,22 +1408,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18D7CE-432C-7A43-A937-8C3A527B0618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="186" workbookViewId="0">
       <selection activeCell="E7" sqref="A7:E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
     <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -1507,7 +1440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1524,7 +1457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1541,7 +1474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1558,7 +1491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1575,7 +1508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1598,74 +1531,74 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABC7933-64C1-7849-8110-0D430F2D9447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>92</v>
       </c>
@@ -1676,106 +1609,106 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2075ED1E-EF94-2C4E-9A1E-007E8D0BAE3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>92</v>
       </c>
@@ -1786,32 +1719,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E291AC0-838D-6744-8DB9-09A3DAD3E491}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>58</v>
@@ -1823,9 +1756,9 @@
         <v>735873718</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>58</v>
@@ -1837,9 +1770,9 @@
         <v>735873718</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>58</v>
@@ -1858,43 +1791,43 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87245F3F-7DE1-BD46-9DB5-A9FF4078DC57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="28.375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>116</v>
       </c>
@@ -1905,7 +1838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27323111-864D-DF45-AB3E-D4F27B17566B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -1915,62 +1848,62 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="PinnedTags" sheetId="5" r:id="rId6"/>
     <sheet name="InteractionChannel" sheetId="4" r:id="rId7"/>
     <sheet name="Ticket State" sheetId="6" r:id="rId8"/>
+    <sheet name="Priority" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -449,18 +450,6 @@
     <t xml:space="preserve">Noise on Call </t>
   </si>
   <si>
-    <t>270720001027</t>
-  </si>
-  <si>
-    <t>270720001028</t>
-  </si>
-  <si>
-    <t>270720001029</t>
-  </si>
-  <si>
-    <t>270720001030</t>
-  </si>
-  <si>
     <t>Jul@2020</t>
   </si>
   <si>
@@ -474,6 +463,48 @@
   </si>
   <si>
     <t>280720001035</t>
+  </si>
+  <si>
+    <t>Ticket Priority</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>290720001037</t>
+  </si>
+  <si>
+    <t>290720001038</t>
+  </si>
+  <si>
+    <t>290720001039</t>
+  </si>
+  <si>
+    <t>290720001040</t>
+  </si>
+  <si>
+    <t>290720001042</t>
+  </si>
+  <si>
+    <t>290720001043</t>
+  </si>
+  <si>
+    <t>290720001044</t>
   </si>
 </sst>
 </file>
@@ -525,7 +556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +578,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -634,6 +671,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -951,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1013,7 +1051,7 @@
         <v>2390932</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>132</v>
@@ -1076,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="R7" zoomScale="125" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2:Y5"/>
     </sheetView>
   </sheetViews>
@@ -1258,7 +1296,7 @@
         <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1305,7 +1343,7 @@
         <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1352,7 +1390,7 @@
         <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1399,7 +1437,7 @@
         <v>96</v>
       </c>
       <c r="Y5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1913,4 +1951,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a2388006/git/CS_PORTAL/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54FF998-F242-DC4D-9B0F-4CAD6CACCBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7E7E5-6ED1-D644-9242-39D22F65173E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" xr2:uid="{1FFDF3F0-6759-694F-9CB5-F32127F0BD7D}"/>
   </bookViews>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a2388006/git/CS_PORTAL/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF7E7E5-6ED1-D644-9242-39D22F65173E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EEADD8-A3D4-1D41-858B-6264D3A86DCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" xr2:uid="{1FFDF3F0-6759-694F-9CB5-F32127F0BD7D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" activeTab="1" xr2:uid="{1FFDF3F0-6759-694F-9CB5-F32127F0BD7D}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="148">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -960,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E7A5F-3E6A-E248-889F-23B3A6B34B5F}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1131,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADE7D9A-20CD-0642-B0EB-506ABCE7F81B}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y2:Y5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1164,7 @@
     <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
@@ -1226,22 +1226,31 @@
         <v>45</v>
       </c>
       <c r="U1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
@@ -1303,22 +1312,31 @@
         <v>56</v>
       </c>
       <c r="U2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
@@ -1349,23 +1367,26 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
@@ -1396,23 +1417,26 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -1443,19 +1467,22 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="Z5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="AA5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AB5" t="s">
         <v>138</v>
       </c>
     </row>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a2388006/git/CS_PORTAL/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73966AA0-A4BE-6D41-BE6D-38D10976BE3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -23,23 +24,15 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -62,12 +55,6 @@
     <t>Customer DOB</t>
   </si>
   <si>
-    <t>16-Nov-1989</t>
-  </si>
-  <si>
-    <t>20 May 2020</t>
-  </si>
-  <si>
     <t>Activation Time</t>
   </si>
   <si>
@@ -101,12 +88,6 @@
     <t>Activation date</t>
   </si>
   <si>
-    <t>8925403532007591753</t>
-  </si>
-  <si>
-    <t>01: 21 AM</t>
-  </si>
-  <si>
     <t>Service Enquiry</t>
   </si>
   <si>
@@ -449,21 +430,6 @@
     <t xml:space="preserve">Noise on Call </t>
   </si>
   <si>
-    <t>270720001027</t>
-  </si>
-  <si>
-    <t>270720001028</t>
-  </si>
-  <si>
-    <t>270720001029</t>
-  </si>
-  <si>
-    <t>270720001030</t>
-  </si>
-  <si>
-    <t>Jul@2020</t>
-  </si>
-  <si>
     <t>280720001032</t>
   </si>
   <si>
@@ -474,25 +440,40 @@
   </si>
   <si>
     <t>280720001035</t>
+  </si>
+  <si>
+    <t>Secure@2024</t>
+  </si>
+  <si>
+    <t>string string string</t>
+  </si>
+  <si>
+    <t>National ID</t>
+  </si>
+  <si>
+    <t>***22222</t>
+  </si>
+  <si>
+    <t>secure#321</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Issue Field 6 - Label</t>
+  </si>
+  <si>
+    <t>Field 6 Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -520,6 +501,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0066CC"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -614,29 +603,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -948,23 +936,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,43 +968,43 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2390932</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>2394650</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>735873718</v>
@@ -1024,20 +1012,20 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
+      <c r="F2" s="10">
+        <v>32828</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43971</v>
+      </c>
+      <c r="H2" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="I2">
+        <v>8.9254035320075899E+18</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K2">
         <v>20772248</v>
@@ -1046,360 +1034,424 @@
         <v>10441790</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2394650</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>2388006</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>127</v>
+      </c>
+      <c r="D3">
+        <v>783425592</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="10">
+        <v>44020</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43979</v>
+      </c>
+      <c r="H3" s="11">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="I3">
+        <v>8.9254035220018801E+18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>22418813</v>
+      </c>
+      <c r="L3">
+        <v>28905441</v>
+      </c>
+      <c r="M3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2388192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4">
+        <v>782945113</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y5"/>
+    <sheetView topLeftCell="M1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="W2" sqref="U2:W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="N1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="P1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="S1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="10" t="s">
+      <c r="T1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="I2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="10" t="s">
+      <c r="L2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="Z4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>144</v>
+      <c r="Y5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1408,121 +1460,121 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="186" workbookViewId="0">
+    <sheetView zoomScale="186" workbookViewId="0">
       <selection activeCell="E7" sqref="A7:E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1531,76 +1583,76 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="1" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1609,108 +1661,108 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1719,68 +1771,68 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4">
         <v>735873718</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4">
         <v>735873718</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4">
         <v>735873718</v>
       </c>
     </row>
@@ -1791,45 +1843,45 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="28.375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>116</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1838,7 +1890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -1848,62 +1900,62 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>121</v>
       </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
       <c r="B4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="148">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -432,9 +432,6 @@
     <t>Ticket State Name</t>
   </si>
   <si>
-    <t>July@123</t>
-  </si>
-  <si>
     <t>BA</t>
   </si>
   <si>
@@ -450,21 +447,6 @@
     <t xml:space="preserve">Noise on Call </t>
   </si>
   <si>
-    <t>Jul@2020</t>
-  </si>
-  <si>
-    <t>280720001032</t>
-  </si>
-  <si>
-    <t>280720001033</t>
-  </si>
-  <si>
-    <t>280720001034</t>
-  </si>
-  <si>
-    <t>280720001035</t>
-  </si>
-  <si>
     <t>Ticket Priority</t>
   </si>
   <si>
@@ -486,15 +468,6 @@
     <t>Urgent</t>
   </si>
   <si>
-    <t>290720001037</t>
-  </si>
-  <si>
-    <t>290720001038</t>
-  </si>
-  <si>
-    <t>290720001039</t>
-  </si>
-  <si>
     <t>290720001040</t>
   </si>
   <si>
@@ -505,13 +478,18 @@
   </si>
   <si>
     <t>290720001044</t>
+  </si>
+  <si>
+    <t>July@123$</t>
+  </si>
+  <si>
+    <t>secure#321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -989,17 +967,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1048,13 +1026,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2390932</v>
+        <v>2388192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2">
         <v>735873718</v>
@@ -1092,18 +1070,18 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2394650</v>
+        <v>2390495</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
         <v>130</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="Jul@2020"/>
     <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1120,29 +1098,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,7 +1274,7 @@
         <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1343,7 +1321,7 @@
         <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1390,7 +1368,7 @@
         <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1437,7 +1415,7 @@
         <v>96</v>
       </c>
       <c r="Y5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1455,10 +1433,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1578,7 +1556,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1782,7 +1760,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>58</v>
@@ -1796,7 +1774,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>58</v>
@@ -1810,7 +1788,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>58</v>
@@ -1830,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C26"/>
@@ -1838,11 +1816,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="28.375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="28.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1888,9 +1866,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,48 +1935,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
@@ -24,7 +24,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -484,12 +484,34 @@
   </si>
   <si>
     <t>secure#321</t>
+  </si>
+  <si>
+    <t>040820001131</t>
+  </si>
+  <si>
+    <t>040820001132</t>
+  </si>
+  <si>
+    <t>040820001133</t>
+  </si>
+  <si>
+    <t>040820001134</t>
+  </si>
+  <si>
+    <t>040820001136</t>
+  </si>
+  <si>
+    <t>040820001137</t>
+  </si>
+  <si>
+    <t>040820001138</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -973,11 +995,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1098,29 +1120,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1296,7 @@
         <v>96</v>
       </c>
       <c r="Y2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1321,7 +1343,7 @@
         <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1368,7 +1390,7 @@
         <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1415,7 +1437,7 @@
         <v>96</v>
       </c>
       <c r="Y5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1433,10 +1455,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1556,7 +1578,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1808,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C26"/>
@@ -1816,11 +1838,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="28.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="28.375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1866,9 +1888,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1941,7 +1963,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a2388006/git/CS_PORTAL/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73966AA0-A4BE-6D41-BE6D-38D10976BE3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB782F74-667C-AE48-920A-327F301962FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="NFTRTickets" sheetId="3" r:id="rId2"/>
-    <sheet name="FTRTickets" sheetId="2" r:id="rId3"/>
-    <sheet name="WorkFlows" sheetId="7" r:id="rId4"/>
-    <sheet name="LoginQueue" sheetId="8" r:id="rId5"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId6"/>
-    <sheet name="InteractionChannel" sheetId="4" r:id="rId7"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId8"/>
+    <sheet name="Headers" sheetId="9" r:id="rId2"/>
+    <sheet name="NFTRTickets" sheetId="3" r:id="rId3"/>
+    <sheet name="FTRTickets" sheetId="2" r:id="rId4"/>
+    <sheet name="WorkFlows" sheetId="7" r:id="rId5"/>
+    <sheet name="LoginQueue" sheetId="8" r:id="rId6"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId7"/>
+    <sheet name="InteractionChannel" sheetId="4" r:id="rId8"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="187">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -464,13 +465,143 @@
   </si>
   <si>
     <t>Field 6 Type</t>
+  </si>
+  <si>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>Row1</t>
+  </si>
+  <si>
+    <t>Row2</t>
+  </si>
+  <si>
+    <t>Row3</t>
+  </si>
+  <si>
+    <t>Row4</t>
+  </si>
+  <si>
+    <t>Row5</t>
+  </si>
+  <si>
+    <t>Row6</t>
+  </si>
+  <si>
+    <t>Row7</t>
+  </si>
+  <si>
+    <t>Amount (Ksh)</t>
+  </si>
+  <si>
+    <t>To/From</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Txn ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Usage History</t>
+  </si>
+  <si>
+    <t>Charges</t>
+  </si>
+  <si>
+    <t>Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Start Balance</t>
+  </si>
+  <si>
+    <t>End Balance</t>
+  </si>
+  <si>
+    <t>Charges (Ksh)</t>
+  </si>
+  <si>
+    <t>Bundle Name</t>
+  </si>
+  <si>
+    <t>Recharge History</t>
+  </si>
+  <si>
+    <t>Benefit
+Voice|Data|SMS</t>
+  </si>
+  <si>
+    <t>Package Category</t>
+  </si>
+  <si>
+    <t>Transaction Number</t>
+  </si>
+  <si>
+    <t>Subscription Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Expires On</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>Bundle Price (Ksh)</t>
+  </si>
+  <si>
+    <t>SMS To</t>
+  </si>
+  <si>
+    <t>Used Data</t>
+  </si>
+  <si>
+    <t>Call Duration</t>
+  </si>
+  <si>
+    <t>Call To</t>
+  </si>
+  <si>
+    <t>Row8</t>
+  </si>
+  <si>
+    <t>DA Id</t>
+  </si>
+  <si>
+    <t>DA Description</t>
+  </si>
+  <si>
+    <t>Bundle Type</t>
+  </si>
+  <si>
+    <t>Current DA Balance</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>Bundle Subscription History</t>
+  </si>
+  <si>
+    <t>SMS History</t>
+  </si>
+  <si>
+    <t>Data History</t>
+  </si>
+  <si>
+    <t>Call History</t>
+  </si>
+  <si>
+    <t>Da Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -509,6 +640,12 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0066CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -638,6 +775,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9217" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1841500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,10 +1188,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2394650</v>
+        <v>2388006</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>128</v>
@@ -1042,10 +1232,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2388006</v>
+        <v>2394650</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -1104,6 +1294,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5957FE73-F683-F440-8166-0945AED3D9E0}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
@@ -1459,7 +1893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1582,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -1660,7 +2094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
@@ -1770,7 +2204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1842,7 +2276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1889,7 +2323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -1,46 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a2388006/git/CS_PORTAL/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E63DCDC-6EF6-914A-8479-6CFE9EEA4BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="NFTRTickets" sheetId="3" r:id="rId2"/>
-    <sheet name="FTRTickets" sheetId="2" r:id="rId3"/>
-    <sheet name="WorkFlows" sheetId="7" r:id="rId4"/>
-    <sheet name="LoginQueue" sheetId="8" r:id="rId5"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId6"/>
-    <sheet name="InteractionChannel" sheetId="4" r:id="rId7"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId8"/>
-    <sheet name="Priority" sheetId="10" r:id="rId9"/>
+    <sheet name="Headers" sheetId="9" r:id="rId2"/>
+    <sheet name="NFTRTickets" sheetId="3" r:id="rId3"/>
+    <sheet name="FTRTickets" sheetId="2" r:id="rId4"/>
+    <sheet name="WorkFlows" sheetId="7" r:id="rId5"/>
+    <sheet name="LoginQueue" sheetId="8" r:id="rId6"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId7"/>
+    <sheet name="InteractionChannel" sheetId="4" r:id="rId8"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="189">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -63,12 +56,6 @@
     <t>Customer DOB</t>
   </si>
   <si>
-    <t>16-Nov-1989</t>
-  </si>
-  <si>
-    <t>20 May 2020</t>
-  </si>
-  <si>
     <t>Activation Time</t>
   </si>
   <si>
@@ -102,12 +89,6 @@
     <t>Activation date</t>
   </si>
   <si>
-    <t>8925403532007591753</t>
-  </si>
-  <si>
-    <t>01: 21 AM</t>
-  </si>
-  <si>
     <t>Service Enquiry</t>
   </si>
   <si>
@@ -432,6 +413,9 @@
     <t>Ticket State Name</t>
   </si>
   <si>
+    <t>July@123</t>
+  </si>
+  <si>
     <t>BA</t>
   </si>
   <si>
@@ -447,83 +431,186 @@
     <t xml:space="preserve">Noise on Call </t>
   </si>
   <si>
-    <t>Ticket Priority</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium </t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Urgent</t>
-  </si>
-  <si>
-    <t>290720001040</t>
-  </si>
-  <si>
-    <t>290720001042</t>
-  </si>
-  <si>
-    <t>290720001043</t>
-  </si>
-  <si>
-    <t>290720001044</t>
-  </si>
-  <si>
-    <t>July@123$</t>
+    <t>280720001032</t>
+  </si>
+  <si>
+    <t>280720001033</t>
+  </si>
+  <si>
+    <t>280720001034</t>
+  </si>
+  <si>
+    <t>280720001035</t>
+  </si>
+  <si>
+    <t>Secure@2024</t>
+  </si>
+  <si>
+    <t>string string string</t>
+  </si>
+  <si>
+    <t>National ID</t>
+  </si>
+  <si>
+    <t>***22222</t>
   </si>
   <si>
     <t>secure#321</t>
   </si>
   <si>
-    <t>040820001131</t>
-  </si>
-  <si>
-    <t>040820001132</t>
-  </si>
-  <si>
-    <t>040820001133</t>
-  </si>
-  <si>
-    <t>040820001134</t>
-  </si>
-  <si>
-    <t>040820001136</t>
-  </si>
-  <si>
-    <t>040820001137</t>
-  </si>
-  <si>
-    <t>040820001138</t>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Issue Field 6 - Label</t>
+  </si>
+  <si>
+    <t>Field 6 Type</t>
+  </si>
+  <si>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>Row1</t>
+  </si>
+  <si>
+    <t>Row2</t>
+  </si>
+  <si>
+    <t>Row3</t>
+  </si>
+  <si>
+    <t>Row4</t>
+  </si>
+  <si>
+    <t>Row5</t>
+  </si>
+  <si>
+    <t>Row6</t>
+  </si>
+  <si>
+    <t>Row7</t>
+  </si>
+  <si>
+    <t>Amount (Ksh)</t>
+  </si>
+  <si>
+    <t>To/From</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Txn ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Usage History</t>
+  </si>
+  <si>
+    <t>Charges</t>
+  </si>
+  <si>
+    <t>Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Start Balance</t>
+  </si>
+  <si>
+    <t>End Balance</t>
+  </si>
+  <si>
+    <t>Charges (Ksh)</t>
+  </si>
+  <si>
+    <t>Bundle Name</t>
+  </si>
+  <si>
+    <t>Recharge History</t>
+  </si>
+  <si>
+    <t>Benefit
+Voice|Data|SMS</t>
+  </si>
+  <si>
+    <t>Package Category</t>
+  </si>
+  <si>
+    <t>Transaction Number</t>
+  </si>
+  <si>
+    <t>Subscription Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Expires On</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>Bundle Price (Ksh)</t>
+  </si>
+  <si>
+    <t>SMS To</t>
+  </si>
+  <si>
+    <t>Used Data</t>
+  </si>
+  <si>
+    <t>Call Duration</t>
+  </si>
+  <si>
+    <t>Call To</t>
+  </si>
+  <si>
+    <t>Row8</t>
+  </si>
+  <si>
+    <t>DA Id</t>
+  </si>
+  <si>
+    <t>DA Description</t>
+  </si>
+  <si>
+    <t>Bundle Type</t>
+  </si>
+  <si>
+    <t>Current DA Balance</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>DA DETAILS</t>
+  </si>
+  <si>
+    <t>Bundle Subscription History</t>
+  </si>
+  <si>
+    <t>SMS History</t>
+  </si>
+  <si>
+    <t>Data History</t>
+  </si>
+  <si>
+    <t>Call History</t>
+  </si>
+  <si>
+    <t>Role Type</t>
+  </si>
+  <si>
+    <t>CS Portal Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -555,8 +642,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0066CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,12 +679,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,30 +746,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,6 +781,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9217" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1841500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,23 +1132,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,43 +1164,46 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
       <c r="L1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2388192</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>2388006</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>735873718</v>
@@ -1062,20 +1211,20 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
+      <c r="F2" s="10">
+        <v>32828</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43971</v>
+      </c>
+      <c r="H2" s="11">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="I2">
+        <v>8.9254035320075899E+18</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K2">
         <v>20772248</v>
@@ -1084,483 +1233,671 @@
         <v>10441790</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2390495</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>2394650</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D3">
+        <v>783425592</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="10">
+        <v>44020</v>
+      </c>
+      <c r="G3" s="10">
+        <v>43979</v>
+      </c>
+      <c r="H3" s="11">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="I3">
+        <v>8.9254035220018801E+18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>22418813</v>
+      </c>
+      <c r="L3">
+        <v>28905441</v>
+      </c>
+      <c r="M3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2388192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4">
+        <v>782945113</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Jul@2020"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5957FE73-F683-F440-8166-0945AED3D9E0}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="R7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="B2" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="C2" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="D2" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="186" workbookViewId="0">
-      <selection activeCell="E7" sqref="A7:E117"/>
+    <sheetView topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+      <c r="J1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1569,76 +1906,199 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="186" workbookViewId="0">
+      <selection activeCell="E7" sqref="A7:E117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="1" spans="1:1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1646,109 +2106,109 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1756,69 +2216,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4">
         <v>735873718</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4">
         <v>735873718</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4">
         <v>735873718</v>
       </c>
     </row>
@@ -1828,46 +2288,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="28.375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>116</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1875,8 +2335,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -1886,62 +2346,62 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>121</v>
       </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
       <c r="B4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1951,57 +2411,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1025">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2717,15 +2717,6 @@
   </si>
   <si>
     <t>200920001413</t>
-  </si>
-  <si>
-    <t>200920001414</t>
-  </si>
-  <si>
-    <t>200920001415</t>
-  </si>
-  <si>
-    <t>200920001416</t>
   </si>
   <si>
     <t>200920001418</t>
@@ -3585,7 +3576,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4389,19 +4380,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4409,10 +4400,10 @@
         <v>634</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>91</v>
@@ -4426,16 +4417,16 @@
         <v>634</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4443,10 +4434,10 @@
         <v>636</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>88</v>
@@ -4460,10 +4451,10 @@
         <v>636</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>88</v>
@@ -4477,16 +4468,16 @@
         <v>723</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4494,16 +4485,16 @@
         <v>723</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4511,16 +4502,16 @@
         <v>726</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4528,16 +4519,16 @@
         <v>726</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4545,16 +4536,16 @@
         <v>729</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4562,16 +4553,16 @@
         <v>729</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4579,16 +4570,16 @@
         <v>732</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4596,16 +4587,16 @@
         <v>732</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4613,16 +4604,16 @@
         <v>735</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4630,16 +4621,16 @@
         <v>735</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4647,16 +4638,16 @@
         <v>738</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4664,16 +4655,16 @@
         <v>738</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4681,16 +4672,16 @@
         <v>741</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4698,16 +4689,16 @@
         <v>741</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4715,16 +4706,16 @@
         <v>743</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4732,16 +4723,16 @@
         <v>743</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4749,16 +4740,16 @@
         <v>223</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4766,16 +4757,16 @@
         <v>223</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4783,7 +4774,7 @@
         <v>223</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>207</v>
@@ -4800,7 +4791,7 @@
         <v>223</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>208</v>
@@ -4817,16 +4808,16 @@
         <v>226</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4834,16 +4825,16 @@
         <v>226</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4851,7 +4842,7 @@
         <v>226</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>207</v>
@@ -4868,7 +4859,7 @@
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>208</v>
@@ -4885,16 +4876,16 @@
         <v>772</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4902,16 +4893,16 @@
         <v>772</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4919,7 +4910,7 @@
         <v>772</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>207</v>
@@ -4936,7 +4927,7 @@
         <v>772</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>208</v>
@@ -4953,16 +4944,16 @@
         <v>229</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4970,16 +4961,16 @@
         <v>229</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4987,7 +4978,7 @@
         <v>229</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>207</v>
@@ -5004,7 +4995,7 @@
         <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>208</v>
@@ -5021,16 +5012,16 @@
         <v>844</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5038,16 +5029,16 @@
         <v>844</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5055,7 +5046,7 @@
         <v>844</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>207</v>
@@ -5072,7 +5063,7 @@
         <v>844</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>208</v>
@@ -5089,16 +5080,16 @@
         <v>847</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5106,16 +5097,16 @@
         <v>847</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5123,7 +5114,7 @@
         <v>847</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>207</v>
@@ -5140,7 +5131,7 @@
         <v>847</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>208</v>
@@ -5157,16 +5148,16 @@
         <v>850</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5174,16 +5165,16 @@
         <v>850</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5191,7 +5182,7 @@
         <v>850</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>207</v>
@@ -5208,7 +5199,7 @@
         <v>850</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>208</v>
@@ -5225,16 +5216,16 @@
         <v>852</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5242,16 +5233,16 @@
         <v>852</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5259,7 +5250,7 @@
         <v>852</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>207</v>
@@ -5276,7 +5267,7 @@
         <v>852</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>208</v>
@@ -5293,7 +5284,7 @@
         <v>775</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>209</v>
@@ -5310,16 +5301,16 @@
         <v>800</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5327,16 +5318,16 @@
         <v>800</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5344,16 +5335,16 @@
         <v>812</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5361,16 +5352,16 @@
         <v>812</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5378,7 +5369,7 @@
         <v>812</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>207</v>
@@ -5392,44 +5383,44 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>207</v>
@@ -5443,10 +5434,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>208</v>
@@ -5460,44 +5451,44 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>207</v>
@@ -5511,10 +5502,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>208</v>
@@ -5528,44 +5519,44 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>207</v>
@@ -5579,10 +5570,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>208</v>
@@ -5596,44 +5587,44 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>207</v>
@@ -5647,10 +5638,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>208</v>
@@ -5664,44 +5655,44 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>207</v>
@@ -5715,10 +5706,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>208</v>
@@ -5732,44 +5723,44 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>207</v>
@@ -5783,10 +5774,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>208</v>
@@ -5800,44 +5791,44 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>207</v>
@@ -5851,10 +5842,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>208</v>
@@ -6173,7 +6164,7 @@
   <dimension ref="A1:AL168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6291,25 +6282,25 @@
         <v>75</v>
       </c>
       <c r="AC1" s="26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AG1" s="26" t="s">
         <v>1021</v>
       </c>
-      <c r="AD1" s="26" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AH1" s="26" t="s">
         <v>1023</v>
       </c>
-      <c r="AF1" s="26" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AI1" s="45" t="s">
         <v>1024</v>
-      </c>
-      <c r="AH1" s="26" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AI1" s="45" t="s">
-        <v>1027</v>
       </c>
       <c r="AJ1" t="s">
         <v>86</v>
@@ -6388,8 +6379,6 @@
       <c r="AB2">
         <v>3</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="34"/>
@@ -6446,9 +6435,6 @@
       <c r="AK3" t="s">
         <v>89</v>
       </c>
-      <c r="AL3" t="s">
-        <v>885</v>
-      </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6488,9 +6474,6 @@
       <c r="AK4" t="s">
         <v>89</v>
       </c>
-      <c r="AL4" t="s">
-        <v>886</v>
-      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6530,9 +6513,6 @@
       <c r="AK5" t="s">
         <v>89</v>
       </c>
-      <c r="AL5" t="s">
-        <v>887</v>
-      </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6698,7 +6678,7 @@
         <v>244</v>
       </c>
       <c r="P9" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q9" t="s">
         <v>243</v>
@@ -6707,7 +6687,7 @@
         <v>245</v>
       </c>
       <c r="S9" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T9" t="s">
         <v>54</v>
@@ -6791,7 +6771,7 @@
         <v>244</v>
       </c>
       <c r="P10" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q10" t="s">
         <v>243</v>
@@ -6800,7 +6780,7 @@
         <v>245</v>
       </c>
       <c r="S10" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T10" t="s">
         <v>54</v>
@@ -6884,7 +6864,7 @@
         <v>244</v>
       </c>
       <c r="P11" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q11" t="s">
         <v>243</v>
@@ -6893,7 +6873,7 @@
         <v>245</v>
       </c>
       <c r="S11" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T11" t="s">
         <v>54</v>
@@ -6977,7 +6957,7 @@
         <v>244</v>
       </c>
       <c r="P12" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q12" t="s">
         <v>243</v>
@@ -6986,7 +6966,7 @@
         <v>245</v>
       </c>
       <c r="S12" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T12" t="s">
         <v>54</v>
@@ -8700,22 +8680,22 @@
         <v>75</v>
       </c>
       <c r="AC1" s="26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AG1" s="26" t="s">
         <v>1021</v>
       </c>
-      <c r="AD1" s="26" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AH1" s="26" t="s">
         <v>1023</v>
-      </c>
-      <c r="AF1" s="26" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AG1" s="26" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AH1" s="26" t="s">
-        <v>1026</v>
       </c>
       <c r="AI1" s="26" t="s">
         <v>86</v>
@@ -8807,7 +8787,7 @@
         <v>89</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -8866,7 +8846,7 @@
         <v>89</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -8955,7 +8935,7 @@
         <v>89</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
@@ -9038,7 +9018,7 @@
         <v>89</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -9115,7 +9095,7 @@
         <v>89</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -9192,7 +9172,7 @@
         <v>89</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -9269,7 +9249,7 @@
         <v>89</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -9346,7 +9326,7 @@
         <v>89</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -9423,7 +9403,7 @@
         <v>89</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -9500,7 +9480,7 @@
         <v>89</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -9577,7 +9557,7 @@
         <v>89</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -9660,7 +9640,7 @@
         <v>89</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -9719,7 +9699,7 @@
         <v>89</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -9778,7 +9758,7 @@
         <v>89</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -9837,7 +9817,7 @@
         <v>89</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -9896,7 +9876,7 @@
         <v>89</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -9967,7 +9947,7 @@
         <v>89</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -10026,7 +10006,7 @@
         <v>89</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -10085,7 +10065,7 @@
         <v>89</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -10144,7 +10124,7 @@
         <v>89</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -10203,7 +10183,7 @@
         <v>89</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
@@ -10268,7 +10248,7 @@
         <v>89</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -10345,7 +10325,7 @@
         <v>89</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -10509,7 +10489,7 @@
         <v>89</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -10598,7 +10578,7 @@
         <v>89</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
@@ -10831,7 +10811,7 @@
         <v>89</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
@@ -10890,7 +10870,7 @@
         <v>89</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -10973,7 +10953,7 @@
         <v>89</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -11050,7 +11030,7 @@
         <v>89</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -11127,7 +11107,7 @@
         <v>89</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -11204,7 +11184,7 @@
         <v>89</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -11263,7 +11243,7 @@
         <v>89</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -11352,7 +11332,7 @@
         <v>89</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="38" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -11417,7 +11397,7 @@
         <v>89</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="39" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -11482,7 +11462,7 @@
         <v>89</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="40" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
@@ -11553,7 +11533,7 @@
         <v>89</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="41" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -11618,7 +11598,7 @@
         <v>89</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="42" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -11683,7 +11663,7 @@
         <v>89</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="127.5" x14ac:dyDescent="0.25">
@@ -11748,7 +11728,7 @@
         <v>89</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="44" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
@@ -11813,7 +11793,7 @@
         <v>89</v>
       </c>
       <c r="AK44" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="45" spans="1:37" ht="102" x14ac:dyDescent="0.25">
@@ -11876,7 +11856,7 @@
         <v>89</v>
       </c>
       <c r="AK45" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="46" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -11953,7 +11933,7 @@
         <v>89</v>
       </c>
       <c r="AK46" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="47" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -12093,7 +12073,7 @@
         <v>89</v>
       </c>
       <c r="AK48" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="49" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -12170,7 +12150,7 @@
         <v>89</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="50" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
@@ -12247,7 +12227,7 @@
         <v>89</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="51" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -12324,7 +12304,7 @@
         <v>89</v>
       </c>
       <c r="AK51" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="52" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -12389,7 +12369,7 @@
         <v>89</v>
       </c>
       <c r="AK52" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="53" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -12460,7 +12440,7 @@
         <v>89</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="54" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
@@ -12549,7 +12529,7 @@
         <v>89</v>
       </c>
       <c r="AK54" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="55" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -12608,7 +12588,7 @@
         <v>89</v>
       </c>
       <c r="AK55" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="56" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
@@ -12673,7 +12653,7 @@
         <v>89</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="57" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -12738,7 +12718,7 @@
         <v>89</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="58" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -12815,7 +12795,7 @@
         <v>89</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="59" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -12892,7 +12872,7 @@
         <v>89</v>
       </c>
       <c r="AK59" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="60" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -12975,7 +12955,7 @@
         <v>89</v>
       </c>
       <c r="AK60" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="61" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -13058,7 +13038,7 @@
         <v>89</v>
       </c>
       <c r="AK61" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="62" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -13123,7 +13103,7 @@
         <v>89</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="63" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -13188,7 +13168,7 @@
         <v>89</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="64" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -13253,7 +13233,7 @@
         <v>89</v>
       </c>
       <c r="AK64" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="65" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -13318,7 +13298,7 @@
         <v>89</v>
       </c>
       <c r="AK65" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="66" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -13395,7 +13375,7 @@
         <v>89</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="67" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -13466,7 +13446,7 @@
         <v>89</v>
       </c>
       <c r="AK67" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="68" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -13543,7 +13523,7 @@
         <v>89</v>
       </c>
       <c r="AK68" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="69" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -13608,7 +13588,7 @@
         <v>89</v>
       </c>
       <c r="AK69" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="70" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -13685,7 +13665,7 @@
         <v>89</v>
       </c>
       <c r="AK70" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="71" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -13762,7 +13742,7 @@
         <v>89</v>
       </c>
       <c r="AK71" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="72" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -13827,7 +13807,7 @@
         <v>89</v>
       </c>
       <c r="AK72" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="73" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -13898,7 +13878,7 @@
         <v>89</v>
       </c>
       <c r="AK73" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="74" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -13969,7 +13949,7 @@
         <v>89</v>
       </c>
       <c r="AK74" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="75" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -14046,7 +14026,7 @@
         <v>89</v>
       </c>
       <c r="AK75" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="76" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -14123,7 +14103,7 @@
         <v>89</v>
       </c>
       <c r="AK76" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -14188,7 +14168,7 @@
         <v>89</v>
       </c>
       <c r="AK77" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="78" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -14253,7 +14233,7 @@
         <v>89</v>
       </c>
       <c r="AK78" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="79" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -14318,7 +14298,7 @@
         <v>89</v>
       </c>
       <c r="AK79" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="80" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -14395,7 +14375,7 @@
         <v>89</v>
       </c>
       <c r="AK80" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="81" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -14454,7 +14434,7 @@
         <v>89</v>
       </c>
       <c r="AK81" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="82" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -14519,7 +14499,7 @@
         <v>89</v>
       </c>
       <c r="AK82" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="83" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -14590,7 +14570,7 @@
         <v>89</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="84" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -14655,7 +14635,7 @@
         <v>89</v>
       </c>
       <c r="AK84" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="85" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -14714,7 +14694,7 @@
         <v>89</v>
       </c>
       <c r="AK85" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="86" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -14953,7 +14933,7 @@
         <v>89</v>
       </c>
       <c r="AK88" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.25">
@@ -15030,7 +15010,7 @@
         <v>89</v>
       </c>
       <c r="AK89" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="90" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
@@ -15119,7 +15099,7 @@
         <v>89</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="91" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -15184,7 +15164,7 @@
         <v>89</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="92" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -15249,7 +15229,7 @@
         <v>89</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="93" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -15314,7 +15294,7 @@
         <v>89</v>
       </c>
       <c r="AK93" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="94" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -15379,7 +15359,7 @@
         <v>89</v>
       </c>
       <c r="AK94" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="95" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -15444,7 +15424,7 @@
         <v>89</v>
       </c>
       <c r="AK95" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="102" x14ac:dyDescent="0.25">
@@ -15509,7 +15489,7 @@
         <v>89</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="97" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -15586,7 +15566,7 @@
         <v>89</v>
       </c>
       <c r="AK97" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -15663,7 +15643,7 @@
         <v>89</v>
       </c>
       <c r="AK98" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="99" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -15740,7 +15720,7 @@
         <v>89</v>
       </c>
       <c r="AK99" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="100" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -15817,7 +15797,7 @@
         <v>89</v>
       </c>
       <c r="AK100" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -15894,7 +15874,7 @@
         <v>89</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="89.25" x14ac:dyDescent="0.25">
@@ -15983,7 +15963,7 @@
         <v>89</v>
       </c>
       <c r="AK102" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -16048,7 +16028,7 @@
         <v>89</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -16125,7 +16105,7 @@
         <v>89</v>
       </c>
       <c r="AK104" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="105" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -16202,7 +16182,7 @@
         <v>89</v>
       </c>
       <c r="AK105" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -16279,7 +16259,7 @@
         <v>89</v>
       </c>
       <c r="AK106" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="107" spans="1:37" ht="38.25" x14ac:dyDescent="0.25">
@@ -16362,7 +16342,7 @@
         <v>89</v>
       </c>
       <c r="AK107" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="108" spans="1:37" ht="63.75" x14ac:dyDescent="0.25">
@@ -16427,7 +16407,7 @@
         <v>89</v>
       </c>
       <c r="AK108" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="109" spans="1:37" ht="76.5" x14ac:dyDescent="0.25">
@@ -16492,7 +16472,7 @@
         <v>89</v>
       </c>
       <c r="AK109" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="51" x14ac:dyDescent="0.25">
@@ -16557,7 +16537,7 @@
         <v>89</v>
       </c>
       <c r="AK110" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="111" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -16616,7 +16596,7 @@
         <v>89</v>
       </c>
       <c r="AK111" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -16675,7 +16655,7 @@
         <v>89</v>
       </c>
       <c r="AK112" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="113" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -16734,7 +16714,7 @@
         <v>89</v>
       </c>
       <c r="AK113" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="114" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -16793,7 +16773,7 @@
         <v>89</v>
       </c>
       <c r="AK114" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="115" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -16852,7 +16832,7 @@
         <v>89</v>
       </c>
       <c r="AK115" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="116" spans="1:37" ht="25.5" x14ac:dyDescent="0.25">
@@ -16911,7 +16891,7 @@
         <v>89</v>
       </c>
       <c r="AK116" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="117" spans="1:37" x14ac:dyDescent="0.25">
@@ -16961,7 +16941,7 @@
         <v>244</v>
       </c>
       <c r="P117" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q117" s="13" t="s">
         <v>243</v>
@@ -16970,7 +16950,7 @@
         <v>245</v>
       </c>
       <c r="S117" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T117" s="13" t="s">
         <v>54</v>
@@ -17060,7 +17040,7 @@
         <v>244</v>
       </c>
       <c r="P118" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q118" s="13" t="s">
         <v>243</v>
@@ -17069,7 +17049,7 @@
         <v>245</v>
       </c>
       <c r="S118" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T118" s="13" t="s">
         <v>54</v>
@@ -17159,7 +17139,7 @@
         <v>244</v>
       </c>
       <c r="P119" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q119" s="13" t="s">
         <v>243</v>
@@ -17168,7 +17148,7 @@
         <v>245</v>
       </c>
       <c r="S119" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T119" s="13" t="s">
         <v>54</v>
@@ -17252,7 +17232,7 @@
         <v>244</v>
       </c>
       <c r="P120" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q120" s="13" t="s">
         <v>243</v>
@@ -17261,7 +17241,7 @@
         <v>245</v>
       </c>
       <c r="S120" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T120" s="13" t="s">
         <v>54</v>
@@ -17345,7 +17325,7 @@
         <v>244</v>
       </c>
       <c r="P121" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q121" s="13" t="s">
         <v>243</v>
@@ -17354,7 +17334,7 @@
         <v>245</v>
       </c>
       <c r="S121" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T121" s="13" t="s">
         <v>54</v>
@@ -17444,7 +17424,7 @@
         <v>244</v>
       </c>
       <c r="P122" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q122" s="13" t="s">
         <v>243</v>
@@ -17453,7 +17433,7 @@
         <v>245</v>
       </c>
       <c r="S122" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T122" s="13" t="s">
         <v>54</v>
@@ -17537,7 +17517,7 @@
         <v>244</v>
       </c>
       <c r="P123" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q123" s="13" t="s">
         <v>243</v>
@@ -17546,7 +17526,7 @@
         <v>245</v>
       </c>
       <c r="S123" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T123" s="13" t="s">
         <v>54</v>
@@ -17636,7 +17616,7 @@
         <v>244</v>
       </c>
       <c r="P124" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q124" s="13" t="s">
         <v>243</v>
@@ -17645,7 +17625,7 @@
         <v>245</v>
       </c>
       <c r="S124" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T124" s="13" t="s">
         <v>54</v>
@@ -17729,7 +17709,7 @@
         <v>244</v>
       </c>
       <c r="P125" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q125" s="13" t="s">
         <v>243</v>
@@ -17738,7 +17718,7 @@
         <v>245</v>
       </c>
       <c r="S125" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T125" s="13" t="s">
         <v>54</v>
@@ -17822,7 +17802,7 @@
         <v>244</v>
       </c>
       <c r="P126" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q126" s="13" t="s">
         <v>243</v>
@@ -17831,7 +17811,7 @@
         <v>245</v>
       </c>
       <c r="S126" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T126" s="13" t="s">
         <v>54</v>
@@ -17915,7 +17895,7 @@
         <v>244</v>
       </c>
       <c r="P127" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q127" s="13" t="s">
         <v>243</v>
@@ -17924,7 +17904,7 @@
         <v>245</v>
       </c>
       <c r="S127" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T127" s="13" t="s">
         <v>54</v>
@@ -18008,7 +17988,7 @@
         <v>244</v>
       </c>
       <c r="P128" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q128" s="13" t="s">
         <v>243</v>
@@ -18017,7 +17997,7 @@
         <v>245</v>
       </c>
       <c r="S128" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T128" s="13" t="s">
         <v>54</v>
@@ -18101,7 +18081,7 @@
         <v>244</v>
       </c>
       <c r="P129" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q129" s="13" t="s">
         <v>243</v>
@@ -18110,7 +18090,7 @@
         <v>245</v>
       </c>
       <c r="S129" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T129" s="13" t="s">
         <v>54</v>
@@ -18194,7 +18174,7 @@
         <v>244</v>
       </c>
       <c r="P130" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Q130" s="13" t="s">
         <v>243</v>
@@ -18203,7 +18183,7 @@
         <v>245</v>
       </c>
       <c r="S130" s="13" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="T130" s="13" t="s">
         <v>54</v>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,12 @@
     <sheet name="InteractionChannel" sheetId="4" r:id="rId11"/>
     <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
     <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId13"/>
+    <sheet name="Authentication Policy" sheetId="17" r:id="rId14"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3531" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="1045">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2716,12 +2718,6 @@
     <t>Paybill Partners Name</t>
   </si>
   <si>
-    <t>200920001413</t>
-  </si>
-  <si>
-    <t>200920001414</t>
-  </si>
-  <si>
     <t>NFTR Issue Code</t>
   </si>
   <si>
@@ -3106,32 +3102,109 @@
     <t>250920001851</t>
   </si>
   <si>
-    <t>061020001885</t>
-  </si>
-  <si>
-    <t>061020001886</t>
-  </si>
-  <si>
-    <t>061020001887</t>
-  </si>
-  <si>
-    <t>061020001888</t>
-  </si>
-  <si>
-    <t>061020001889</t>
-  </si>
-  <si>
     <t>061020001891</t>
   </si>
   <si>
     <t>061020001892</t>
+  </si>
+  <si>
+    <t>Policy Name</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Question4</t>
+  </si>
+  <si>
+    <t>Question5</t>
+  </si>
+  <si>
+    <t>Question6</t>
+  </si>
+  <si>
+    <t>Question7</t>
+  </si>
+  <si>
+    <t>Question8</t>
+  </si>
+  <si>
+    <t>Question9</t>
+  </si>
+  <si>
+    <t>Question10</t>
+  </si>
+  <si>
+    <t>Policy Message</t>
+  </si>
+  <si>
+    <t>Minimum Question</t>
+  </si>
+  <si>
+    <t>KE Action Authentication</t>
+  </si>
+  <si>
+    <t>No authentication policy statement configured</t>
+  </si>
+  <si>
+    <t>Customer Name (Mandatory)</t>
+  </si>
+  <si>
+    <t>National ID/Passport/Alien Number (Mandatory)</t>
+  </si>
+  <si>
+    <t>Last Recharge Value (For Prepaid)</t>
+  </si>
+  <si>
+    <t>Frequently dialled number (at least two) – 2 last dialled number, validated on ECMS:</t>
+  </si>
+  <si>
+    <t>Last Recharge Date (For Pre-Paid)</t>
+  </si>
+  <si>
+    <t>Available Credit Balance (For Prepaid)</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>SIM Bar Unbar</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>SIM Lost</t>
+  </si>
+  <si>
+    <t>SIM Broken</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Option4</t>
+  </si>
+  <si>
+    <t>Option5</t>
+  </si>
+  <si>
+    <t>Category code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3313,7 +3386,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3400,53 +3473,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3560,7 +3596,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3898,11 +3934,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4151,7 +4187,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -4159,11 +4195,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="22.5" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="28.375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="28.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -4209,9 +4245,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4356,27 +4392,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4384,10 +4420,10 @@
         <v>634</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>91</v>
@@ -4401,16 +4437,16 @@
         <v>634</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4418,10 +4454,10 @@
         <v>636</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>88</v>
@@ -4435,10 +4471,10 @@
         <v>636</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>88</v>
@@ -4452,16 +4488,16 @@
         <v>723</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4469,16 +4505,16 @@
         <v>723</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,16 +4522,16 @@
         <v>726</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4503,16 +4539,16 @@
         <v>726</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4520,16 +4556,16 @@
         <v>729</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4537,16 +4573,16 @@
         <v>729</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4554,16 +4590,16 @@
         <v>732</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4571,16 +4607,16 @@
         <v>732</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4588,16 +4624,16 @@
         <v>735</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4605,16 +4641,16 @@
         <v>735</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4622,16 +4658,16 @@
         <v>738</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,16 +4675,16 @@
         <v>738</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4656,16 +4692,16 @@
         <v>741</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4673,16 +4709,16 @@
         <v>741</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4690,16 +4726,16 @@
         <v>743</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4707,16 +4743,16 @@
         <v>743</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4724,16 +4760,16 @@
         <v>223</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4741,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4758,7 +4794,7 @@
         <v>223</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>207</v>
@@ -4775,7 +4811,7 @@
         <v>223</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>208</v>
@@ -4792,16 +4828,16 @@
         <v>226</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4809,16 +4845,16 @@
         <v>226</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4826,7 +4862,7 @@
         <v>226</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>207</v>
@@ -4843,7 +4879,7 @@
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>208</v>
@@ -4860,16 +4896,16 @@
         <v>772</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4877,16 +4913,16 @@
         <v>772</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4894,7 +4930,7 @@
         <v>772</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>207</v>
@@ -4911,7 +4947,7 @@
         <v>772</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>208</v>
@@ -4928,16 +4964,16 @@
         <v>229</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4945,16 +4981,16 @@
         <v>229</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4962,7 +4998,7 @@
         <v>229</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>207</v>
@@ -4979,7 +5015,7 @@
         <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>208</v>
@@ -4996,16 +5032,16 @@
         <v>844</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5013,16 +5049,16 @@
         <v>844</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5030,7 +5066,7 @@
         <v>844</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>207</v>
@@ -5047,7 +5083,7 @@
         <v>844</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>208</v>
@@ -5064,16 +5100,16 @@
         <v>847</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -5081,16 +5117,16 @@
         <v>847</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5098,7 +5134,7 @@
         <v>847</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>207</v>
@@ -5115,7 +5151,7 @@
         <v>847</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>208</v>
@@ -5132,16 +5168,16 @@
         <v>850</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5149,16 +5185,16 @@
         <v>850</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5166,7 +5202,7 @@
         <v>850</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>207</v>
@@ -5183,7 +5219,7 @@
         <v>850</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>208</v>
@@ -5200,16 +5236,16 @@
         <v>852</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5217,16 +5253,16 @@
         <v>852</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5234,7 +5270,7 @@
         <v>852</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>207</v>
@@ -5251,7 +5287,7 @@
         <v>852</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>208</v>
@@ -5268,7 +5304,7 @@
         <v>775</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>209</v>
@@ -5285,16 +5321,16 @@
         <v>800</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5302,16 +5338,16 @@
         <v>800</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5319,16 +5355,16 @@
         <v>812</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5336,16 +5372,16 @@
         <v>812</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5353,7 +5389,7 @@
         <v>812</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>207</v>
@@ -5367,44 +5403,44 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>207</v>
@@ -5418,10 +5454,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>208</v>
@@ -5435,44 +5471,44 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>207</v>
@@ -5486,10 +5522,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>208</v>
@@ -5503,44 +5539,44 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>207</v>
@@ -5554,10 +5590,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>208</v>
@@ -5571,44 +5607,44 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>207</v>
@@ -5622,10 +5658,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>208</v>
@@ -5639,44 +5675,44 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>207</v>
@@ -5690,10 +5726,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>208</v>
@@ -5707,44 +5743,44 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>207</v>
@@ -5758,10 +5794,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>208</v>
@@ -5775,44 +5811,44 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>207</v>
@@ -5826,10 +5862,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>208</v>
@@ -5843,6 +5879,163 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="10" style="44" customWidth="1"/>
+    <col min="8" max="8" width="11" style="44" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="44" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="44" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5856,7 +6049,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -5909,15 +6102,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6147,36 +6340,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="X1" zoomScale="125" workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6348,7 +6541,7 @@
         <v>89</v>
       </c>
       <c r="AE2" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -6380,7 +6573,7 @@
         <v>89</v>
       </c>
       <c r="AE3" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -6398,10 +6591,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6473,7 +6666,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="26" style="8" width="9.0" collapsed="true"/>
+    <col min="21" max="26" width="9" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -6645,7 +6838,7 @@
         <v>89</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -6698,7 +6891,7 @@
         <v>89</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -6781,7 +6974,7 @@
         <v>89</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -6858,7 +7051,7 @@
         <v>89</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -6929,7 +7122,7 @@
         <v>89</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -7000,7 +7193,7 @@
         <v>89</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -7071,7 +7264,7 @@
         <v>89</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -7142,7 +7335,7 @@
         <v>89</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -7213,7 +7406,7 @@
         <v>89</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -7284,7 +7477,7 @@
         <v>89</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -7355,7 +7548,7 @@
         <v>89</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -7432,7 +7625,7 @@
         <v>89</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -7485,7 +7678,7 @@
         <v>89</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -7538,7 +7731,7 @@
         <v>89</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -7591,7 +7784,7 @@
         <v>89</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -7644,7 +7837,7 @@
         <v>89</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -7709,7 +7902,7 @@
         <v>89</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -7762,7 +7955,7 @@
         <v>89</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -7815,7 +8008,7 @@
         <v>89</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -7868,7 +8061,7 @@
         <v>89</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -7921,7 +8114,7 @@
         <v>89</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="89.25" x14ac:dyDescent="0.25">
@@ -7980,7 +8173,7 @@
         <v>89</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -8051,7 +8244,7 @@
         <v>89</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -8203,7 +8396,7 @@
         <v>89</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -8286,7 +8479,7 @@
         <v>89</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="76.5" x14ac:dyDescent="0.25">
@@ -8501,7 +8694,7 @@
         <v>89</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="76.5" x14ac:dyDescent="0.25">
@@ -8554,7 +8747,7 @@
         <v>89</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -8631,7 +8824,7 @@
         <v>89</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -8702,7 +8895,7 @@
         <v>89</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -8773,7 +8966,7 @@
         <v>89</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -8844,7 +9037,7 @@
         <v>89</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -8897,7 +9090,7 @@
         <v>89</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -8980,7 +9173,7 @@
         <v>89</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -9039,7 +9232,7 @@
         <v>89</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -9098,7 +9291,7 @@
         <v>89</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="76.5" x14ac:dyDescent="0.25">
@@ -9163,7 +9356,7 @@
         <v>89</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -10216,7 +10409,7 @@
         <v>89</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -10287,7 +10480,7 @@
         <v>89</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -10358,7 +10551,7 @@
         <v>89</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -10435,7 +10628,7 @@
         <v>89</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -10512,7 +10705,7 @@
         <v>89</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -10571,7 +10764,7 @@
         <v>89</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -10630,7 +10823,7 @@
         <v>89</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -10689,7 +10882,7 @@
         <v>89</v>
       </c>
       <c r="AE64" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -10748,7 +10941,7 @@
         <v>89</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -10819,7 +11012,7 @@
         <v>89</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -10884,7 +11077,7 @@
         <v>89</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -10955,7 +11148,7 @@
         <v>89</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -11014,7 +11207,7 @@
         <v>89</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -11085,7 +11278,7 @@
         <v>89</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -11156,7 +11349,7 @@
         <v>89</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -11215,7 +11408,7 @@
         <v>89</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -11280,7 +11473,7 @@
         <v>89</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -11345,7 +11538,7 @@
         <v>89</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -11416,7 +11609,7 @@
         <v>89</v>
       </c>
       <c r="AE75" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -11487,7 +11680,7 @@
         <v>89</v>
       </c>
       <c r="AE76" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -11546,7 +11739,7 @@
         <v>89</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -11605,7 +11798,7 @@
         <v>89</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="79" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -11664,7 +11857,7 @@
         <v>89</v>
       </c>
       <c r="AE79" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -11735,7 +11928,7 @@
         <v>89</v>
       </c>
       <c r="AE80" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -11788,7 +11981,7 @@
         <v>89</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -11847,7 +12040,7 @@
         <v>89</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -11912,7 +12105,7 @@
         <v>89</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -11971,7 +12164,7 @@
         <v>89</v>
       </c>
       <c r="AE84" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -12024,7 +12217,7 @@
         <v>89</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -12245,7 +12438,7 @@
         <v>89</v>
       </c>
       <c r="AE88" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
@@ -12316,7 +12509,7 @@
         <v>89</v>
       </c>
       <c r="AE89" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="89.25" x14ac:dyDescent="0.25">
@@ -12399,7 +12592,7 @@
         <v>89</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -12458,7 +12651,7 @@
         <v>89</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -12517,7 +12710,7 @@
         <v>89</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -12576,7 +12769,7 @@
         <v>89</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -12635,7 +12828,7 @@
         <v>89</v>
       </c>
       <c r="AE94" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -12694,7 +12887,7 @@
         <v>89</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="102" x14ac:dyDescent="0.25">
@@ -12753,7 +12946,7 @@
         <v>89</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -12824,7 +13017,7 @@
         <v>89</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -12895,7 +13088,7 @@
         <v>89</v>
       </c>
       <c r="AE98" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -12966,7 +13159,7 @@
         <v>89</v>
       </c>
       <c r="AE99" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -13037,7 +13230,7 @@
         <v>89</v>
       </c>
       <c r="AE100" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -13108,7 +13301,7 @@
         <v>89</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="89.25" x14ac:dyDescent="0.25">
@@ -13191,7 +13384,7 @@
         <v>89</v>
       </c>
       <c r="AE102" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -13250,7 +13443,7 @@
         <v>89</v>
       </c>
       <c r="AE103" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -13321,7 +13514,7 @@
         <v>89</v>
       </c>
       <c r="AE104" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -13392,7 +13585,7 @@
         <v>89</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -13463,7 +13656,7 @@
         <v>89</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
@@ -13540,7 +13733,7 @@
         <v>89</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="63.75" x14ac:dyDescent="0.25">
@@ -13599,7 +13792,7 @@
         <v>89</v>
       </c>
       <c r="AE108" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="76.5" x14ac:dyDescent="0.25">
@@ -13658,7 +13851,7 @@
         <v>89</v>
       </c>
       <c r="AE109" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="51" x14ac:dyDescent="0.25">
@@ -13717,7 +13910,7 @@
         <v>89</v>
       </c>
       <c r="AE110" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -13770,7 +13963,7 @@
         <v>89</v>
       </c>
       <c r="AE111" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -13823,7 +14016,7 @@
         <v>89</v>
       </c>
       <c r="AE112" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -13927,7 +14120,7 @@
         <v>89</v>
       </c>
       <c r="AE114" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="115" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -13980,7 +14173,7 @@
         <v>89</v>
       </c>
       <c r="AE115" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
@@ -14081,7 +14274,7 @@
         <v>244</v>
       </c>
       <c r="P117" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q117" s="12" t="s">
         <v>243</v>
@@ -14090,7 +14283,7 @@
         <v>245</v>
       </c>
       <c r="S117" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T117" s="12" t="s">
         <v>54</v>
@@ -14174,7 +14367,7 @@
         <v>244</v>
       </c>
       <c r="P118" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q118" s="12" t="s">
         <v>243</v>
@@ -14183,7 +14376,7 @@
         <v>245</v>
       </c>
       <c r="S118" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T118" s="12" t="s">
         <v>54</v>
@@ -14267,7 +14460,7 @@
         <v>244</v>
       </c>
       <c r="P119" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q119" s="12" t="s">
         <v>243</v>
@@ -14276,7 +14469,7 @@
         <v>245</v>
       </c>
       <c r="S119" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T119" s="12" t="s">
         <v>54</v>
@@ -14306,7 +14499,7 @@
         <v>89</v>
       </c>
       <c r="AE119" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.25">
@@ -14356,7 +14549,7 @@
         <v>244</v>
       </c>
       <c r="P120" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q120" s="12" t="s">
         <v>243</v>
@@ -14365,7 +14558,7 @@
         <v>245</v>
       </c>
       <c r="S120" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T120" s="12" t="s">
         <v>54</v>
@@ -14395,7 +14588,7 @@
         <v>89</v>
       </c>
       <c r="AE120" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.25">
@@ -14445,7 +14638,7 @@
         <v>244</v>
       </c>
       <c r="P121" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q121" s="12" t="s">
         <v>243</v>
@@ -14454,7 +14647,7 @@
         <v>245</v>
       </c>
       <c r="S121" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T121" s="12" t="s">
         <v>54</v>
@@ -14490,7 +14683,7 @@
         <v>89</v>
       </c>
       <c r="AE121" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.25">
@@ -14540,7 +14733,7 @@
         <v>244</v>
       </c>
       <c r="P122" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q122" s="12" t="s">
         <v>243</v>
@@ -14549,7 +14742,7 @@
         <v>245</v>
       </c>
       <c r="S122" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T122" s="12" t="s">
         <v>54</v>
@@ -14579,7 +14772,7 @@
         <v>89</v>
       </c>
       <c r="AE122" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.25">
@@ -14629,7 +14822,7 @@
         <v>244</v>
       </c>
       <c r="P123" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q123" s="12" t="s">
         <v>243</v>
@@ -14638,7 +14831,7 @@
         <v>245</v>
       </c>
       <c r="S123" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T123" s="12" t="s">
         <v>54</v>
@@ -14674,7 +14867,7 @@
         <v>89</v>
       </c>
       <c r="AE123" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.25">
@@ -14724,7 +14917,7 @@
         <v>244</v>
       </c>
       <c r="P124" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q124" s="12" t="s">
         <v>243</v>
@@ -14733,7 +14926,7 @@
         <v>245</v>
       </c>
       <c r="S124" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T124" s="12" t="s">
         <v>54</v>
@@ -14763,7 +14956,7 @@
         <v>89</v>
       </c>
       <c r="AE124" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.25">
@@ -14813,7 +15006,7 @@
         <v>244</v>
       </c>
       <c r="P125" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q125" s="12" t="s">
         <v>243</v>
@@ -14822,7 +15015,7 @@
         <v>245</v>
       </c>
       <c r="S125" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T125" s="12" t="s">
         <v>54</v>
@@ -14852,7 +15045,7 @@
         <v>89</v>
       </c>
       <c r="AE125" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.25">
@@ -14902,7 +15095,7 @@
         <v>244</v>
       </c>
       <c r="P126" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q126" s="12" t="s">
         <v>243</v>
@@ -14911,7 +15104,7 @@
         <v>245</v>
       </c>
       <c r="S126" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T126" s="12" t="s">
         <v>54</v>
@@ -14941,7 +15134,7 @@
         <v>89</v>
       </c>
       <c r="AE126" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.25">
@@ -14991,7 +15184,7 @@
         <v>244</v>
       </c>
       <c r="P127" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q127" s="12" t="s">
         <v>243</v>
@@ -15000,7 +15193,7 @@
         <v>245</v>
       </c>
       <c r="S127" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T127" s="12" t="s">
         <v>54</v>
@@ -15030,7 +15223,7 @@
         <v>89</v>
       </c>
       <c r="AE127" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.25">
@@ -15080,7 +15273,7 @@
         <v>244</v>
       </c>
       <c r="P128" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q128" s="12" t="s">
         <v>243</v>
@@ -15089,7 +15282,7 @@
         <v>245</v>
       </c>
       <c r="S128" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T128" s="12" t="s">
         <v>54</v>
@@ -15167,7 +15360,7 @@
         <v>244</v>
       </c>
       <c r="P129" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q129" s="12" t="s">
         <v>243</v>
@@ -15176,7 +15369,7 @@
         <v>245</v>
       </c>
       <c r="S129" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T129" s="12" t="s">
         <v>54</v>
@@ -15206,7 +15399,7 @@
         <v>89</v>
       </c>
       <c r="AE129" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.25">
@@ -15256,7 +15449,7 @@
         <v>244</v>
       </c>
       <c r="P130" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q130" s="12" t="s">
         <v>243</v>
@@ -15265,7 +15458,7 @@
         <v>245</v>
       </c>
       <c r="S130" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="T130" s="12" t="s">
         <v>54</v>
@@ -15529,7 +15722,7 @@
         <v>89</v>
       </c>
       <c r="AE134" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="135" spans="1:31" ht="76.5" x14ac:dyDescent="0.25">
@@ -15645,7 +15838,7 @@
         <v>89</v>
       </c>
       <c r="AE136" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -17796,7 +17989,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -5989,7 +5989,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
@@ -19,18 +19,18 @@
     <sheet name="FTRTickets-San" sheetId="2" r:id="rId5"/>
     <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId6"/>
     <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId7"/>
-    <sheet name="WorkFlows" sheetId="7" r:id="rId8"/>
-    <sheet name="LoginQueue" sheetId="8" r:id="rId9"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId10"/>
-    <sheet name="InteractionChannel" sheetId="4" r:id="rId11"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId13"/>
-    <sheet name="Authentication Policy" sheetId="17" r:id="rId14"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId15"/>
+    <sheet name="UserManagement" sheetId="19" r:id="rId8"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId9"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId10"/>
+    <sheet name="TemplateManagement" sheetId="20" r:id="rId11"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId12"/>
+    <sheet name="Authentication Policy" sheetId="17" r:id="rId13"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId14"/>
+    <sheet name="State Queue Mapping" sheetId="21" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="1068">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3200,14 +3200,91 @@
   <si>
     <t>Category code</t>
   </si>
+  <si>
+    <t>Customer Service Backend Supervisor</t>
+  </si>
+  <si>
+    <t>Advisor Supervisor</t>
+  </si>
+  <si>
+    <t>Customer Service Frontend Agent</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>Customer Service Backend Agent</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>CS SMS Management</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>CS Profile Management</t>
+  </si>
+  <si>
+    <t>Langugae</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Queue Name</t>
+  </si>
+  <si>
+    <t>State name1</t>
+  </si>
+  <si>
+    <t>State name2</t>
+  </si>
+  <si>
+    <t>State name3</t>
+  </si>
+  <si>
+    <t>State name4</t>
+  </si>
+  <si>
+    <t>State name5</t>
+  </si>
+  <si>
+    <t>State name6</t>
+  </si>
+  <si>
+    <t>State name7</t>
+  </si>
+  <si>
+    <t>State name8</t>
+  </si>
+  <si>
+    <t>State name9</t>
+  </si>
+  <si>
+    <t>State name10</t>
+  </si>
+  <si>
+    <t>141020001898</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3272,7 +3349,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3315,8 +3392,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3378,25 +3461,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3410,77 +3507,86 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -3596,7 +3702,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3934,11 +4040,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4114,125 +4220,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1">
-        <v>735873718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1">
-        <v>735873718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1">
-        <v>735873718</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="28.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4245,9 +4232,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4382,20 +4369,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" activeCellId="1" sqref="I1 J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="47" width="30.875" collapsed="true"/>
+    <col min="2" max="16384" style="47" width="9.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5882,7 +5935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -5892,19 +5945,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="44" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="10" style="44" customWidth="1"/>
-    <col min="8" max="8" width="11" style="44" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="44" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="44" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="44" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="8" width="15.875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="8" width="19.75" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="44" width="10.875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="44" width="11.5" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="44" width="10.125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="44" width="10.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="44" width="11.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="44" width="10.25" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="44" width="10.125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="44" width="10.5" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="44" width="11.625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="44" width="11.875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -5984,19 +6037,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6032,6 +6085,127 @@
       <c r="C2" t="s">
         <v>1040</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="50" width="19.25" collapsed="false"/>
+    <col min="2" max="2" style="50" width="9.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="50" width="13.875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="50" width="11.5" collapsed="false"/>
+    <col min="5" max="16384" style="50" width="9.0" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6049,7 +6223,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6102,15 +6276,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6329,7 +6503,7 @@
       <c r="I9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -6338,7 +6512,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView topLeftCell="X1" zoomScale="125" workbookViewId="0">
       <selection activeCell="V4" sqref="V4"/>
@@ -6346,30 +6520,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6542,6 +6716,9 @@
       </c>
       <c r="AE2" t="s">
         <v>1012</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -6591,10 +6768,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6666,7 +6843,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="26" width="9" style="8" collapsed="1"/>
+    <col min="21" max="26" style="8" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -17981,89 +18158,185 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="false"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="46" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="46" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="46" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C14" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -18074,125 +18347,72 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>201</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>735873718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>735873718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1">
+        <v>735873718</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3707,7 +3707,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6101,8 +6101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6111,7 +6111,9 @@
     <col min="2" max="2" width="9" style="47"/>
     <col min="3" max="3" width="13.875" style="47" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="47" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="47"/>
+    <col min="5" max="10" width="9" style="47"/>
+    <col min="11" max="11" width="11" style="47" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6276,7 +6278,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6519,7 +6521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="AA1" zoomScale="125" workbookViewId="0">
       <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3603" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="1082">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3286,6 +3286,30 @@
   </si>
   <si>
     <t>Total Committed SLA</t>
+  </si>
+  <si>
+    <t>Ticket Field 1 - Label</t>
+  </si>
+  <si>
+    <t>Ticket 1 Type</t>
+  </si>
+  <si>
+    <t>Ticket Field 2 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 3 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 4 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 5 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 6 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 7 - Label</t>
   </si>
 </sst>
 </file>
@@ -3707,7 +3731,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6517,10 +6541,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL3"/>
+  <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AI7" sqref="AI7"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD3" sqref="BD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6551,7 +6575,7 @@
     <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>36</v>
       </c>
@@ -6631,43 +6655,106 @@
         <v>43</v>
       </c>
       <c r="AA1" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AX1" s="24" t="s">
         <v>1067</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AY1" s="24" t="s">
         <v>1068</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AZ1" s="24" t="s">
         <v>1069</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="BA1" s="24" t="s">
         <v>1070</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="BB1" s="24" t="s">
         <v>1071</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="AI1" s="51" t="s">
+      <c r="BD1" s="51" t="s">
         <v>1073</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="BF1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -6728,14 +6815,8 @@
       <c r="T2" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB2">
-        <v>3</v>
-      </c>
       <c r="AI2" s="7">
-        <f>SUM(AB2,AD2,AF2,AH2)</f>
+        <f>SUM(AW2,AD2,AF2,AH2)</f>
         <v>3</v>
       </c>
       <c r="AJ2" t="s">
@@ -6747,8 +6828,27 @@
       <c r="AL2" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AV2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW2">
+        <v>3</v>
+      </c>
+      <c r="BD2" s="7">
+        <f>SUM(AW2,AY2,BA2,BC2)</f>
+        <v>3</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -6764,14 +6864,8 @@
       <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB3">
-        <v>8</v>
-      </c>
       <c r="AI3" s="7">
-        <f>SUM(AB3,AD3,AF3,AH3)</f>
+        <f>SUM(AW3,AD3,AF3,AH3)</f>
         <v>8</v>
       </c>
       <c r="AJ3" t="s">
@@ -6781,6 +6875,25 @@
         <v>89</v>
       </c>
       <c r="AL3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW3">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="7">
+        <f>SUM(AW3,AY3,BA3,BC3)</f>
+        <v>8</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG3" s="7" t="s">
         <v>1013</v>
       </c>
     </row>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
@@ -30,7 +30,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="1083">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3311,11 +3311,15 @@
   <si>
     <t>Ticket Field 7 - Label</t>
   </si>
+  <si>
+    <t>201020001933</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3731,7 +3735,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4069,11 +4073,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4261,9 +4265,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,8 +4412,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="44" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="44" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="44" width="30.875" collapsed="true"/>
+    <col min="2" max="16384" style="44" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4474,10 +4478,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5974,19 +5978,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="41" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="10" style="41" customWidth="1"/>
-    <col min="8" max="8" width="11" style="41" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="41" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="41" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="41" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="41" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="7" width="15.875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="7" width="19.75" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="41" width="10.875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="41" width="11.5" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="41" width="10.125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="41" width="10.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="41" width="11.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="41" width="10.25" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="41" width="10.125" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="41" width="10.5" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="41" width="11.625" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="41" width="11.875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -6076,9 +6080,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="14.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6131,11 +6135,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="47" customWidth="1"/>
-    <col min="2" max="2" width="9" style="47"/>
-    <col min="3" max="3" width="13.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="47" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="47"/>
+    <col min="1" max="1" customWidth="true" style="47" width="19.25" collapsed="false"/>
+    <col min="2" max="2" style="47" width="9.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="47" width="13.875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="47" width="11.5" collapsed="false"/>
+    <col min="5" max="16384" style="47" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6252,7 +6256,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6305,15 +6309,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6549,30 +6553,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6845,7 +6849,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>1012</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -6912,10 +6916,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6987,7 +6991,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="26" width="9" style="7" collapsed="1"/>
+    <col min="21" max="26" style="7" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -18871,8 +18875,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="false"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="1083">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3319,7 +3319,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3735,7 +3734,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4073,11 +4072,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4265,9 +4264,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4412,8 +4411,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="44" width="30.875" collapsed="true"/>
-    <col min="2" max="16384" style="44" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="30.875" style="44" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9" style="44" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4478,10 +4477,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5978,19 +5977,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="7" width="15.875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="7" width="19.75" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="41" width="10.875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="41" width="11.5" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="41" width="10.125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="41" width="10.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="41" width="11.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="41" width="10.25" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="41" width="10.125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="41" width="10.5" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="41" width="11.625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="41" width="11.875" collapsed="false"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="41" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="41" customWidth="1"/>
+    <col min="7" max="7" width="10" style="41" customWidth="1"/>
+    <col min="8" max="8" width="11" style="41" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="41" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="41" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="41" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="41" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -6080,9 +6079,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6135,11 +6134,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="47" width="19.25" collapsed="false"/>
-    <col min="2" max="2" style="47" width="9.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="47" width="13.875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="47" width="11.5" collapsed="false"/>
-    <col min="5" max="16384" style="47" width="9.0" collapsed="false"/>
+    <col min="1" max="1" width="19.25" style="47" customWidth="1"/>
+    <col min="2" max="2" width="9" style="47"/>
+    <col min="3" max="3" width="13.875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="47" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6256,7 +6255,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6309,15 +6308,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6547,36 +6546,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD3" sqref="BD3"/>
+    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6916,10 +6915,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6983,18 +6982,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL136"/>
+  <dimension ref="A1:BH137"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BF4" sqref="BF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="26" style="7" width="9.0" collapsed="true"/>
+    <col min="21" max="26" width="9" style="7" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>36</v>
       </c>
@@ -7074,43 +7073,106 @@
         <v>43</v>
       </c>
       <c r="AA1" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AX1" s="24" t="s">
         <v>1067</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AY1" s="24" t="s">
         <v>1068</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AZ1" s="24" t="s">
         <v>1069</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="BA1" s="24" t="s">
         <v>1070</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="BB1" s="24" t="s">
         <v>1071</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="AI1" s="51" t="s">
+      <c r="BD1" s="51" t="s">
         <v>1073</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="BF1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>256</v>
       </c>
@@ -7171,27 +7233,28 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="31" t="s">
+      <c r="AV2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="32">
+      <c r="AW2" s="32">
         <v>24</v>
       </c>
-      <c r="AI2">
-        <f>SUM(AB2,AD2,AF2,AH2)</f>
+      <c r="BD2" s="7">
+        <f>SUM(AW2,AY2,BA2,BC2)</f>
         <v>24</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="BE2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK2" s="34" t="s">
+      <c r="BF2" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH2" s="7"/>
+    </row>
+    <row r="3" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>256</v>
       </c>
@@ -7228,27 +7291,28 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="31" t="s">
+      <c r="AV3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB3" s="32">
+      <c r="AW3" s="32">
         <v>24</v>
       </c>
-      <c r="AI3" s="7">
-        <f t="shared" ref="AI3:AI66" si="0">SUM(AB3,AD3,AF3,AH3)</f>
+      <c r="BD3" s="7">
+        <f t="shared" ref="BD3:BD66" si="0">SUM(AW3,AY3,BA3,BC3)</f>
         <v>24</v>
       </c>
-      <c r="AJ3" s="33" t="s">
+      <c r="BE3" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" s="34" t="s">
+      <c r="BF3" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="BG3" s="1" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH3" s="7"/>
+    </row>
+    <row r="4" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>58</v>
       </c>
@@ -7315,27 +7379,28 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="31" t="s">
+      <c r="AV4" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB4" s="32">
+      <c r="AW4" s="32">
         <v>3</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="BD4" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AJ4" s="33" t="s">
+      <c r="BE4" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK4" s="34" t="s">
+      <c r="BF4" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH4" s="7"/>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>256</v>
       </c>
@@ -7396,27 +7461,28 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="31" t="s">
+      <c r="AV5" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB5" s="32">
+      <c r="AW5" s="32">
         <v>4</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="BD5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AJ5" s="33" t="s">
+      <c r="BE5" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK5" s="34" t="s">
+      <c r="BF5" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="BG5" s="1" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH5" s="7"/>
+    </row>
+    <row r="6" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>256</v>
       </c>
@@ -7471,27 +7537,28 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="31" t="s">
+      <c r="AV6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB6" s="32">
+      <c r="AW6" s="32">
         <v>2</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="BD6" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AJ6" s="33" t="s">
+      <c r="BE6" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK6" s="34" t="s">
+      <c r="BF6" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="BG6" s="1" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH6" s="7"/>
+    </row>
+    <row r="7" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>256</v>
       </c>
@@ -7546,27 +7613,28 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="31" t="s">
+      <c r="AV7" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="32">
+      <c r="AW7" s="32">
         <v>2</v>
       </c>
-      <c r="AI7" s="7">
+      <c r="BD7" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AJ7" s="33" t="s">
+      <c r="BE7" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK7" s="34" t="s">
+      <c r="BF7" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="BG7" s="1" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH7" s="7"/>
+    </row>
+    <row r="8" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>256</v>
       </c>
@@ -7621,27 +7689,28 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="31" t="s">
+      <c r="AV8" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB8" s="32">
+      <c r="AW8" s="32">
         <v>2</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="BD8" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AJ8" s="33" t="s">
+      <c r="BE8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK8" s="34" t="s">
+      <c r="BF8" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="BG8" s="1" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH8" s="7"/>
+    </row>
+    <row r="9" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>256</v>
       </c>
@@ -7696,27 +7765,28 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="31" t="s">
+      <c r="AV9" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB9" s="32">
+      <c r="AW9" s="32">
         <v>2</v>
       </c>
-      <c r="AI9" s="7">
+      <c r="BD9" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AJ9" s="33" t="s">
+      <c r="BE9" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK9" s="34" t="s">
+      <c r="BF9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="BG9" s="1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH9" s="7"/>
+    </row>
+    <row r="10" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>256</v>
       </c>
@@ -7771,27 +7841,28 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="31" t="s">
+      <c r="AV10" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB10" s="32">
+      <c r="AW10" s="32">
         <v>2</v>
       </c>
-      <c r="AI10" s="7">
+      <c r="BD10" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AJ10" s="33" t="s">
+      <c r="BE10" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK10" s="34" t="s">
+      <c r="BF10" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="BG10" s="1" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH10" s="7"/>
+    </row>
+    <row r="11" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>256</v>
       </c>
@@ -7846,27 +7917,28 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="31" t="s">
+      <c r="AV11" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB11" s="32">
+      <c r="AW11" s="32">
         <v>2</v>
       </c>
-      <c r="AI11" s="7">
+      <c r="BD11" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AJ11" s="33" t="s">
+      <c r="BE11" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK11" s="34" t="s">
+      <c r="BF11" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="BG11" s="1" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH11" s="7"/>
+    </row>
+    <row r="12" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>256</v>
       </c>
@@ -7921,27 +7993,28 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="35" t="s">
+      <c r="AV12" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="AB12" s="32">
+      <c r="AW12" s="32">
         <v>4</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="BD12" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AJ12" s="33" t="s">
+      <c r="BE12" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AK12" s="34" t="s">
+      <c r="BF12" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL12" s="1" t="s">
+      <c r="BG12" s="1" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH12" s="7"/>
+    </row>
+    <row r="13" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>256</v>
       </c>
@@ -8002,27 +8075,28 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="31" t="s">
+      <c r="AV13" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB13" s="32">
+      <c r="AW13" s="32">
         <v>4</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="BD13" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AJ13" s="33" t="s">
+      <c r="BE13" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK13" s="34" t="s">
+      <c r="BF13" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL13" s="1" t="s">
+      <c r="BG13" s="1" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH13" s="7"/>
+    </row>
+    <row r="14" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>256</v>
       </c>
@@ -8059,27 +8133,28 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="31" t="s">
+      <c r="AV14" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB14" s="32">
+      <c r="AW14" s="32">
         <v>8</v>
       </c>
-      <c r="AI14" s="7">
+      <c r="BD14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ14" s="33" t="s">
+      <c r="BE14" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK14" s="34" t="s">
+      <c r="BF14" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="BG14" s="1" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH14" s="7"/>
+    </row>
+    <row r="15" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>58</v>
       </c>
@@ -8116,27 +8191,28 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="31" t="s">
+      <c r="AV15" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB15" s="32">
+      <c r="AW15" s="32">
         <v>8</v>
       </c>
-      <c r="AI15" s="7">
+      <c r="BD15" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ15" s="33" t="s">
+      <c r="BE15" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK15" s="34" t="s">
+      <c r="BF15" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="BG15" s="1" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH15" s="7"/>
+    </row>
+    <row r="16" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>256</v>
       </c>
@@ -8173,27 +8249,28 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="31" t="s">
+      <c r="AV16" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" s="32">
+      <c r="AW16" s="32">
         <v>8</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="BD16" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ16" s="33" t="s">
+      <c r="BE16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK16" s="34" t="s">
+      <c r="BF16" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="BG16" s="1" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH16" s="7"/>
+    </row>
+    <row r="17" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>58</v>
       </c>
@@ -8230,27 +8307,28 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="31" t="s">
+      <c r="AV17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB17" s="32">
+      <c r="AW17" s="32">
         <v>4</v>
       </c>
-      <c r="AI17" s="7">
+      <c r="BD17" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AJ17" s="33" t="s">
+      <c r="BE17" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK17" s="34" t="s">
+      <c r="BF17" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL17" s="1" t="s">
+      <c r="BG17" s="1" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH17" s="7"/>
+    </row>
+    <row r="18" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>256</v>
       </c>
@@ -8299,27 +8377,28 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="31" t="s">
+      <c r="AV18" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB18" s="32">
+      <c r="AW18" s="32">
         <v>4</v>
       </c>
-      <c r="AI18" s="7">
+      <c r="BD18" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AJ18" s="33" t="s">
+      <c r="BE18" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK18" s="34" t="s">
+      <c r="BF18" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL18" s="1" t="s">
+      <c r="BG18" s="1" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH18" s="7"/>
+    </row>
+    <row r="19" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>58</v>
       </c>
@@ -8356,27 +8435,28 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="31" t="s">
+      <c r="AV19" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB19" s="32">
+      <c r="AW19" s="32">
         <v>8</v>
       </c>
-      <c r="AI19" s="7">
+      <c r="BD19" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ19" s="33" t="s">
+      <c r="BE19" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK19" s="34" t="s">
+      <c r="BF19" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL19" s="1" t="s">
+      <c r="BG19" s="1" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH19" s="7"/>
+    </row>
+    <row r="20" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>256</v>
       </c>
@@ -8413,27 +8493,28 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="31" t="s">
+      <c r="AV20" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB20" s="32">
+      <c r="AW20" s="32">
         <v>8</v>
       </c>
-      <c r="AI20" s="7">
+      <c r="BD20" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ20" s="33" t="s">
+      <c r="BE20" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK20" s="34" t="s">
+      <c r="BF20" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="BG20" s="1" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH20" s="7"/>
+    </row>
+    <row r="21" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>256</v>
       </c>
@@ -8470,27 +8551,28 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="31" t="s">
+      <c r="AV21" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB21" s="32">
+      <c r="AW21" s="32">
         <v>8</v>
       </c>
-      <c r="AI21" s="7">
+      <c r="BD21" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ21" s="33" t="s">
+      <c r="BE21" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK21" s="34" t="s">
+      <c r="BF21" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="BG21" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH21" s="7"/>
+    </row>
+    <row r="22" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>256</v>
       </c>
@@ -8527,27 +8609,28 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="31" t="s">
+      <c r="AV22" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB22" s="32">
+      <c r="AW22" s="32">
         <v>8</v>
       </c>
-      <c r="AI22" s="7">
+      <c r="BD22" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ22" s="33" t="s">
+      <c r="BE22" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK22" s="34" t="s">
+      <c r="BF22" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL22" s="1" t="s">
+      <c r="BG22" s="1" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="BH22" s="7"/>
+    </row>
+    <row r="23" spans="1:60" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>256</v>
       </c>
@@ -8590,27 +8673,28 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="31" t="s">
+      <c r="AV23" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB23" s="32">
+      <c r="AW23" s="32">
         <v>24</v>
       </c>
-      <c r="AI23" s="7">
+      <c r="BD23" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ23" s="33" t="s">
+      <c r="BE23" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK23" s="34" t="s">
+      <c r="BF23" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="BG23" s="1" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH23" s="7"/>
+    </row>
+    <row r="24" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>58</v>
       </c>
@@ -8665,27 +8749,28 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="31" t="s">
+      <c r="AV24" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB24" s="32">
+      <c r="AW24" s="32">
         <v>48</v>
       </c>
-      <c r="AI24" s="7">
+      <c r="BD24" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ24" s="33" t="s">
+      <c r="BE24" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK24" s="34" t="s">
+      <c r="BF24" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL24" s="1" t="s">
+      <c r="BG24" s="1" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH24" s="7"/>
+    </row>
+    <row r="25" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>58</v>
       </c>
@@ -8740,25 +8825,26 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="31" t="s">
+      <c r="AV25" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB25" s="32">
+      <c r="AW25" s="32">
         <v>48</v>
       </c>
-      <c r="AI25" s="7">
+      <c r="BD25" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ25" s="33" t="s">
+      <c r="BE25" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK25" s="34" t="s">
+      <c r="BF25" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL25" s="1"/>
-    </row>
-    <row r="26" spans="1:38" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="BG25" s="1"/>
+      <c r="BH25" s="7"/>
+    </row>
+    <row r="26" spans="1:60" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>256</v>
       </c>
@@ -8825,27 +8911,28 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="35" t="s">
+      <c r="AV26" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="AB26" s="32">
+      <c r="AW26" s="32">
         <v>48</v>
       </c>
-      <c r="AI26" s="7">
+      <c r="BD26" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ26" s="33" t="s">
+      <c r="BE26" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AK26" s="34" t="s">
+      <c r="BF26" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL26" s="1" t="s">
+      <c r="BG26" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH26" s="7"/>
+    </row>
+    <row r="27" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>256</v>
       </c>
@@ -8912,27 +8999,28 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="31" t="s">
+      <c r="AV27" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="AB27" s="32">
+      <c r="AW27" s="32">
         <v>168</v>
       </c>
-      <c r="AI27" s="7">
+      <c r="BD27" s="7">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="AJ27" s="33" t="s">
+      <c r="BE27" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AK27" s="34" t="s">
+      <c r="BF27" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL27" s="1" t="s">
+      <c r="BG27" s="1" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="BH27" s="7"/>
+    </row>
+    <row r="28" spans="1:60" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>58</v>
       </c>
@@ -8999,25 +9087,26 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="31" t="s">
+      <c r="AV28" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB28" s="32">
+      <c r="AW28" s="32">
         <v>8</v>
       </c>
-      <c r="AI28" s="7">
+      <c r="BD28" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ28" s="33" t="s">
+      <c r="BE28" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK28" s="34" t="s">
+      <c r="BF28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL28" s="1"/>
-    </row>
-    <row r="29" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="BG28" s="1"/>
+      <c r="BH28" s="7"/>
+    </row>
+    <row r="29" spans="1:60" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>58</v>
       </c>
@@ -9084,25 +9173,26 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="35" t="s">
+      <c r="AV29" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="AB29" s="32">
+      <c r="AW29" s="32">
         <v>8</v>
       </c>
-      <c r="AI29" s="7">
+      <c r="BD29" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AJ29" s="33" t="s">
+      <c r="BE29" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AK29" s="34" t="s">
+      <c r="BF29" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL29" s="1"/>
-    </row>
-    <row r="30" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BG29" s="1"/>
+      <c r="BH29" s="7"/>
+    </row>
+    <row r="30" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>58</v>
       </c>
@@ -9139,27 +9229,28 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="31" t="s">
+      <c r="AV30" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB30" s="32">
+      <c r="AW30" s="32">
         <v>24</v>
       </c>
-      <c r="AI30" s="7">
+      <c r="BD30" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ30" s="33" t="s">
+      <c r="BE30" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK30" s="34" t="s">
+      <c r="BF30" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL30" s="1" t="s">
+      <c r="BG30" s="1" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="BH30" s="7"/>
+    </row>
+    <row r="31" spans="1:60" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>58</v>
       </c>
@@ -9196,27 +9287,28 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="35" t="s">
+      <c r="AV31" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="AB31" s="32">
+      <c r="AW31" s="32">
         <v>48</v>
       </c>
-      <c r="AI31" s="7">
+      <c r="BD31" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ31" s="33" t="s">
+      <c r="BE31" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AK31" s="34" t="s">
+      <c r="BF31" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH31" s="7"/>
+    </row>
+    <row r="32" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>58</v>
       </c>
@@ -9277,27 +9369,28 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="31" t="s">
+      <c r="AV32" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB32" s="32">
+      <c r="AW32" s="32">
         <v>24</v>
       </c>
-      <c r="AI32" s="7">
+      <c r="BD32" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ32" s="33" t="s">
+      <c r="BE32" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK32" s="34" t="s">
+      <c r="BF32" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL32" s="1" t="s">
+      <c r="BG32" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="33" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH32" s="7"/>
+    </row>
+    <row r="33" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>58</v>
       </c>
@@ -9352,27 +9445,28 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="31" t="s">
+      <c r="AV33" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB33" s="32">
+      <c r="AW33" s="32">
         <v>24</v>
       </c>
-      <c r="AI33" s="7">
+      <c r="BD33" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ33" s="33" t="s">
+      <c r="BE33" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK33" s="34" t="s">
+      <c r="BF33" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL33" s="1" t="s">
+      <c r="BG33" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="34" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH33" s="7"/>
+    </row>
+    <row r="34" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>58</v>
       </c>
@@ -9427,27 +9521,28 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="36" t="s">
+      <c r="AV34" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="AB34" s="32">
+      <c r="AW34" s="32">
         <v>48</v>
       </c>
-      <c r="AI34" s="7">
+      <c r="BD34" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ34" s="33" t="s">
+      <c r="BE34" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK34" s="34" t="s">
+      <c r="BF34" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL34" s="1" t="s">
+      <c r="BG34" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="35" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH34" s="7"/>
+    </row>
+    <row r="35" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>58</v>
       </c>
@@ -9502,27 +9597,28 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="31" t="s">
+      <c r="AV35" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB35" s="32">
+      <c r="AW35" s="32">
         <v>48</v>
       </c>
-      <c r="AI35" s="7">
+      <c r="BD35" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ35" s="33" t="s">
+      <c r="BE35" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK35" s="34" t="s">
+      <c r="BF35" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL35" s="1" t="s">
+      <c r="BG35" s="1" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="36" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH35" s="7"/>
+    </row>
+    <row r="36" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>58</v>
       </c>
@@ -9559,27 +9655,28 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="31" t="s">
+      <c r="AV36" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB36" s="32">
+      <c r="AW36" s="32">
         <v>24</v>
       </c>
-      <c r="AI36" s="7">
+      <c r="BD36" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ36" s="33" t="s">
+      <c r="BE36" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK36" s="34" t="s">
+      <c r="BF36" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL36" s="1" t="s">
+      <c r="BG36" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="37" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH36" s="7"/>
+    </row>
+    <row r="37" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>58</v>
       </c>
@@ -9646,27 +9743,28 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-      <c r="AA37" s="31" t="s">
+      <c r="AV37" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB37" s="32">
+      <c r="AW37" s="32">
         <v>48</v>
       </c>
-      <c r="AI37" s="7">
+      <c r="BD37" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ37" s="33" t="s">
+      <c r="BE37" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK37" s="34" t="s">
+      <c r="BF37" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL37" s="1" t="s">
+      <c r="BG37" s="1" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="38" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH37" s="7"/>
+    </row>
+    <row r="38" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>58</v>
       </c>
@@ -9709,27 +9807,28 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-      <c r="AA38" s="31" t="s">
+      <c r="AV38" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB38" s="32">
+      <c r="AW38" s="32">
         <v>24</v>
       </c>
-      <c r="AI38" s="7">
+      <c r="BD38" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ38" s="33" t="s">
+      <c r="BE38" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK38" s="34" t="s">
+      <c r="BF38" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL38" s="1" t="s">
+      <c r="BG38" s="1" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="39" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH38" s="7"/>
+    </row>
+    <row r="39" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>256</v>
       </c>
@@ -9772,27 +9871,28 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="31" t="s">
+      <c r="AV39" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB39" s="32">
+      <c r="AW39" s="32">
         <v>24</v>
       </c>
-      <c r="AI39" s="7">
+      <c r="BD39" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ39" s="33" t="s">
+      <c r="BE39" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK39" s="34" t="s">
+      <c r="BF39" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL39" s="1" t="s">
+      <c r="BG39" s="1" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="40" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="BH39" s="7"/>
+    </row>
+    <row r="40" spans="1:60" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>58</v>
       </c>
@@ -9841,27 +9941,28 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-      <c r="AA40" s="31" t="s">
+      <c r="AV40" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB40" s="32">
+      <c r="AW40" s="32">
         <v>24</v>
       </c>
-      <c r="AI40" s="7">
+      <c r="BD40" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ40" s="33" t="s">
+      <c r="BE40" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK40" s="34" t="s">
+      <c r="BF40" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL40" s="1" t="s">
+      <c r="BG40" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="41" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH40" s="7"/>
+    </row>
+    <row r="41" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>256</v>
       </c>
@@ -9904,25 +10005,26 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="31" t="s">
+      <c r="AV41" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB41" s="32">
+      <c r="AW41" s="32">
         <v>24</v>
       </c>
-      <c r="AI41" s="7">
+      <c r="BD41" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ41" s="33" t="s">
+      <c r="BE41" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK41" s="34" t="s">
+      <c r="BF41" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL41" s="1"/>
-    </row>
-    <row r="42" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="7"/>
+    </row>
+    <row r="42" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>58</v>
       </c>
@@ -9965,25 +10067,26 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-      <c r="AA42" s="31" t="s">
+      <c r="AV42" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB42" s="32">
+      <c r="AW42" s="32">
         <v>24</v>
       </c>
-      <c r="AI42" s="7">
+      <c r="BD42" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ42" s="33" t="s">
+      <c r="BE42" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK42" s="34" t="s">
+      <c r="BF42" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL42" s="1"/>
-    </row>
-    <row r="43" spans="1:38" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="7"/>
+    </row>
+    <row r="43" spans="1:60" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>256</v>
       </c>
@@ -10026,25 +10129,26 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
-      <c r="AA43" s="31" t="s">
+      <c r="AV43" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB43" s="32">
+      <c r="AW43" s="32">
         <v>24</v>
       </c>
-      <c r="AI43" s="7">
+      <c r="BD43" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ43" s="33" t="s">
+      <c r="BE43" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK43" s="34" t="s">
+      <c r="BF43" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL43" s="1"/>
-    </row>
-    <row r="44" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="7"/>
+    </row>
+    <row r="44" spans="1:60" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>58</v>
       </c>
@@ -10087,25 +10191,26 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
-      <c r="AA44" s="31" t="s">
+      <c r="AV44" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB44" s="32">
+      <c r="AW44" s="32">
         <v>24</v>
       </c>
-      <c r="AI44" s="7">
+      <c r="BD44" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ44" s="33" t="s">
+      <c r="BE44" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK44" s="34" t="s">
+      <c r="BF44" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL44" s="1"/>
-    </row>
-    <row r="45" spans="1:38" ht="102" x14ac:dyDescent="0.25">
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="7"/>
+    </row>
+    <row r="45" spans="1:60" ht="102" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>58</v>
       </c>
@@ -10146,25 +10251,26 @@
       <c r="X45" s="40"/>
       <c r="Y45" s="40"/>
       <c r="Z45" s="40"/>
-      <c r="AA45" s="31" t="s">
+      <c r="AV45" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB45" s="32">
+      <c r="AW45" s="32">
         <v>24</v>
       </c>
-      <c r="AI45" s="7">
+      <c r="BD45" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ45" s="33" t="s">
+      <c r="BE45" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK45" s="34" t="s">
+      <c r="BF45" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL45" s="1"/>
-    </row>
-    <row r="46" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="7"/>
+    </row>
+    <row r="46" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>58</v>
       </c>
@@ -10219,25 +10325,26 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
-      <c r="AA46" s="31" t="s">
+      <c r="AV46" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB46" s="32">
+      <c r="AW46" s="32">
         <v>24</v>
       </c>
-      <c r="AI46" s="7">
+      <c r="BD46" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ46" s="33" t="s">
+      <c r="BE46" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK46" s="34" t="s">
+      <c r="BF46" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL46" s="1"/>
-    </row>
-    <row r="47" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="7"/>
+    </row>
+    <row r="47" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>58</v>
       </c>
@@ -10280,25 +10387,26 @@
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
-      <c r="AA47" s="31" t="s">
+      <c r="AV47" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB47" s="32">
+      <c r="AW47" s="32">
         <v>24</v>
       </c>
-      <c r="AI47" s="7">
+      <c r="BD47" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ47" s="33" t="s">
+      <c r="BE47" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK47" s="34" t="s">
+      <c r="BF47" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL47" s="1"/>
-    </row>
-    <row r="48" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="7"/>
+    </row>
+    <row r="48" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>58</v>
       </c>
@@ -10353,25 +10461,26 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
-      <c r="AA48" s="31" t="s">
+      <c r="AV48" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB48" s="32">
+      <c r="AW48" s="32">
         <v>24</v>
       </c>
-      <c r="AI48" s="7">
+      <c r="BD48" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ48" s="33" t="s">
+      <c r="BE48" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK48" s="34" t="s">
+      <c r="BF48" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL48" s="1"/>
-    </row>
-    <row r="49" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="7"/>
+    </row>
+    <row r="49" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>58</v>
       </c>
@@ -10426,25 +10535,26 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-      <c r="AA49" s="31" t="s">
+      <c r="AV49" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB49" s="32">
+      <c r="AW49" s="32">
         <v>24</v>
       </c>
-      <c r="AI49" s="7">
+      <c r="BD49" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ49" s="33" t="s">
+      <c r="BE49" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK49" s="34" t="s">
+      <c r="BF49" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL49" s="1"/>
-    </row>
-    <row r="50" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="7"/>
+    </row>
+    <row r="50" spans="1:60" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>58</v>
       </c>
@@ -10499,25 +10609,26 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
-      <c r="AA50" s="31" t="s">
+      <c r="AV50" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB50" s="32">
+      <c r="AW50" s="32">
         <v>24</v>
       </c>
-      <c r="AI50" s="7">
+      <c r="BD50" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ50" s="33" t="s">
+      <c r="BE50" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK50" s="34" t="s">
+      <c r="BF50" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL50" s="1"/>
-    </row>
-    <row r="51" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="7"/>
+    </row>
+    <row r="51" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>58</v>
       </c>
@@ -10572,25 +10683,26 @@
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
-      <c r="AA51" s="31" t="s">
+      <c r="AV51" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB51" s="32">
+      <c r="AW51" s="32">
         <v>24</v>
       </c>
-      <c r="AI51" s="7">
+      <c r="BD51" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ51" s="33" t="s">
+      <c r="BE51" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK51" s="34" t="s">
+      <c r="BF51" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL51" s="1"/>
-    </row>
-    <row r="52" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="7"/>
+    </row>
+    <row r="52" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>58</v>
       </c>
@@ -10633,25 +10745,26 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
-      <c r="AA52" s="31" t="s">
+      <c r="AV52" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB52" s="32">
+      <c r="AW52" s="32">
         <v>24</v>
       </c>
-      <c r="AI52" s="7">
+      <c r="BD52" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ52" s="33" t="s">
+      <c r="BE52" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK52" s="34" t="s">
+      <c r="BF52" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL52" s="1"/>
-    </row>
-    <row r="53" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="7"/>
+    </row>
+    <row r="53" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>58</v>
       </c>
@@ -10700,25 +10813,26 @@
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="31" t="s">
+      <c r="AV53" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB53" s="32">
+      <c r="AW53" s="32">
         <v>24</v>
       </c>
-      <c r="AI53" s="7">
+      <c r="BD53" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ53" s="33" t="s">
+      <c r="BE53" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK53" s="34" t="s">
+      <c r="BF53" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL53" s="1"/>
-    </row>
-    <row r="54" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="BG53" s="1"/>
+      <c r="BH53" s="7"/>
+    </row>
+    <row r="54" spans="1:60" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>58</v>
       </c>
@@ -10785,25 +10899,26 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
-      <c r="AA54" s="31" t="s">
+      <c r="AV54" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB54" s="32">
+      <c r="AW54" s="32">
         <v>0.5</v>
       </c>
-      <c r="AI54" s="7">
+      <c r="BD54" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="AJ54" s="33" t="s">
+      <c r="BE54" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK54" s="34" t="s">
+      <c r="BF54" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL54" s="1"/>
-    </row>
-    <row r="55" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="7"/>
+    </row>
+    <row r="55" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>256</v>
       </c>
@@ -10840,25 +10955,26 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
-      <c r="AA55" s="35" t="s">
+      <c r="AV55" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AB55" s="32">
+      <c r="AW55" s="32">
         <v>48</v>
       </c>
-      <c r="AI55" s="7">
+      <c r="BD55" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ55" s="33" t="s">
+      <c r="BE55" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="AK55" s="34" t="s">
+      <c r="BF55" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL55" s="1"/>
-    </row>
-    <row r="56" spans="1:38" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="7"/>
+    </row>
+    <row r="56" spans="1:60" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>58</v>
       </c>
@@ -10901,25 +11017,26 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
-      <c r="AA56" s="35" t="s">
+      <c r="AV56" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="AB56" s="32">
+      <c r="AW56" s="32">
         <v>48</v>
       </c>
-      <c r="AI56" s="7">
+      <c r="BD56" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ56" s="33" t="s">
+      <c r="BE56" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="AK56" s="34" t="s">
+      <c r="BF56" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL56" s="1"/>
-    </row>
-    <row r="57" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="7"/>
+    </row>
+    <row r="57" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>58</v>
       </c>
@@ -10962,27 +11079,28 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
-      <c r="AA57" s="31" t="s">
+      <c r="AV57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB57" s="32">
+      <c r="AW57" s="32">
         <v>48</v>
       </c>
-      <c r="AI57" s="7">
+      <c r="BD57" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ57" s="31" t="s">
+      <c r="BE57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK57" s="34" t="s">
+      <c r="BF57" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL57" s="1" t="s">
+      <c r="BG57" s="1" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="58" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH57" s="7"/>
+    </row>
+    <row r="58" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>58</v>
       </c>
@@ -11037,27 +11155,28 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
-      <c r="AA58" s="31" t="s">
+      <c r="AV58" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB58" s="32">
+      <c r="AW58" s="32">
         <v>48</v>
       </c>
-      <c r="AI58" s="7">
+      <c r="BD58" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ58" s="31" t="s">
+      <c r="BE58" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK58" s="34" t="s">
+      <c r="BF58" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL58" s="1" t="s">
+      <c r="BG58" s="1" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="59" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH58" s="7"/>
+    </row>
+    <row r="59" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>58</v>
       </c>
@@ -11112,27 +11231,28 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
-      <c r="AA59" s="31" t="s">
+      <c r="AV59" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB59" s="32">
+      <c r="AW59" s="32">
         <v>48</v>
       </c>
-      <c r="AI59" s="7">
+      <c r="BD59" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ59" s="31" t="s">
+      <c r="BE59" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK59" s="34" t="s">
+      <c r="BF59" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL59" s="1" t="s">
+      <c r="BG59" s="1" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="60" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH59" s="7"/>
+    </row>
+    <row r="60" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>58</v>
       </c>
@@ -11193,27 +11313,28 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
-      <c r="AA60" s="35" t="s">
+      <c r="AV60" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AB60" s="32">
+      <c r="AW60" s="32">
         <v>48</v>
       </c>
-      <c r="AI60" s="7">
+      <c r="BD60" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ60" s="33" t="s">
+      <c r="BE60" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AK60" s="34" t="s">
+      <c r="BF60" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL60" s="1" t="s">
+      <c r="BG60" s="1" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="61" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH60" s="7"/>
+    </row>
+    <row r="61" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>58</v>
       </c>
@@ -11274,27 +11395,28 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-      <c r="AA61" s="35" t="s">
+      <c r="AV61" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AB61" s="32">
+      <c r="AW61" s="32">
         <v>48</v>
       </c>
-      <c r="AI61" s="7">
+      <c r="BD61" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ61" s="33" t="s">
+      <c r="BE61" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AK61" s="34" t="s">
+      <c r="BF61" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL61" s="1" t="s">
+      <c r="BG61" s="1" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="62" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH61" s="7"/>
+    </row>
+    <row r="62" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>58</v>
       </c>
@@ -11337,27 +11459,28 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
-      <c r="AA62" s="35" t="s">
+      <c r="AV62" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AB62" s="32" t="s">
+      <c r="AW62" s="32" t="s">
         <v>865</v>
       </c>
-      <c r="AI62" s="7">
+      <c r="BD62" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ62" s="33" t="s">
+      <c r="BE62" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AK62" s="34" t="s">
+      <c r="BF62" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL62" s="1" t="s">
+      <c r="BG62" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="63" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH62" s="7"/>
+    </row>
+    <row r="63" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>58</v>
       </c>
@@ -11400,27 +11523,28 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
-      <c r="AA63" s="35" t="s">
+      <c r="AV63" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AB63" s="32">
+      <c r="AW63" s="32">
         <v>48</v>
       </c>
-      <c r="AI63" s="7">
+      <c r="BD63" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ63" s="33" t="s">
+      <c r="BE63" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AK63" s="34" t="s">
+      <c r="BF63" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL63" s="1" t="s">
+      <c r="BG63" s="1" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="64" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH63" s="7"/>
+    </row>
+    <row r="64" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>58</v>
       </c>
@@ -11463,27 +11587,28 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
-      <c r="AA64" s="35" t="s">
+      <c r="AV64" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AB64" s="32">
+      <c r="AW64" s="32">
         <v>48</v>
       </c>
-      <c r="AI64" s="7">
+      <c r="BD64" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ64" s="33" t="s">
+      <c r="BE64" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AK64" s="34" t="s">
+      <c r="BF64" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL64" s="1" t="s">
+      <c r="BG64" s="1" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="65" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH64" s="7"/>
+    </row>
+    <row r="65" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>58</v>
       </c>
@@ -11526,27 +11651,28 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-      <c r="AA65" s="35" t="s">
+      <c r="AV65" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AB65" s="32">
+      <c r="AW65" s="32">
         <v>48</v>
       </c>
-      <c r="AI65" s="7">
+      <c r="BD65" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ65" s="33" t="s">
+      <c r="BE65" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AK65" s="34" t="s">
+      <c r="BF65" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL65" s="1" t="s">
+      <c r="BG65" s="1" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH65" s="7"/>
+    </row>
+    <row r="66" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>58</v>
       </c>
@@ -11601,27 +11727,28 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
-      <c r="AA66" s="31" t="s">
+      <c r="AV66" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB66" s="32">
+      <c r="AW66" s="32">
         <v>48</v>
       </c>
-      <c r="AI66" s="7">
+      <c r="BD66" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ66" s="31" t="s">
+      <c r="BE66" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK66" s="34" t="s">
+      <c r="BF66" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL66" s="1" t="s">
+      <c r="BG66" s="1" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="67" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH66" s="7"/>
+    </row>
+    <row r="67" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>58</v>
       </c>
@@ -11670,27 +11797,28 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-      <c r="AA67" s="31" t="s">
+      <c r="AV67" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB67" s="32">
+      <c r="AW67" s="32">
         <v>48</v>
       </c>
-      <c r="AI67" s="7">
-        <f t="shared" ref="AI67:AI130" si="1">SUM(AB67,AD67,AF67,AH67)</f>
+      <c r="BD67" s="7">
+        <f t="shared" ref="BD67:BD130" si="1">SUM(AW67,AY67,BA67,BC67)</f>
         <v>48</v>
       </c>
-      <c r="AJ67" s="31" t="s">
+      <c r="BE67" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK67" s="34" t="s">
+      <c r="BF67" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL67" s="1" t="s">
+      <c r="BG67" s="1" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="68" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH67" s="7"/>
+    </row>
+    <row r="68" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>58</v>
       </c>
@@ -11745,27 +11873,28 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
-      <c r="AA68" s="31" t="s">
+      <c r="AV68" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB68" s="32">
+      <c r="AW68" s="32">
         <v>48</v>
       </c>
-      <c r="AI68" s="7">
+      <c r="BD68" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ68" s="31" t="s">
+      <c r="BE68" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK68" s="34" t="s">
+      <c r="BF68" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL68" s="1" t="s">
+      <c r="BG68" s="1" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="69" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH68" s="7"/>
+    </row>
+    <row r="69" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>58</v>
       </c>
@@ -11808,27 +11937,28 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-      <c r="AA69" s="31" t="s">
+      <c r="AV69" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB69" s="32">
+      <c r="AW69" s="32">
         <v>48</v>
       </c>
-      <c r="AI69" s="7">
+      <c r="BD69" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ69" s="31" t="s">
+      <c r="BE69" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK69" s="34" t="s">
+      <c r="BF69" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL69" s="1" t="s">
+      <c r="BG69" s="1" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="70" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH69" s="7"/>
+    </row>
+    <row r="70" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>58</v>
       </c>
@@ -11883,27 +12013,28 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
-      <c r="AA70" s="31" t="s">
+      <c r="AV70" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB70" s="32">
+      <c r="AW70" s="32">
         <v>48</v>
       </c>
-      <c r="AI70" s="7">
+      <c r="BD70" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ70" s="31" t="s">
+      <c r="BE70" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK70" s="34" t="s">
+      <c r="BF70" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL70" s="1" t="s">
+      <c r="BG70" s="1" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH70" s="7"/>
+    </row>
+    <row r="71" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>58</v>
       </c>
@@ -11958,27 +12089,28 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-      <c r="AA71" s="31" t="s">
+      <c r="AV71" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB71" s="32">
+      <c r="AW71" s="32">
         <v>48</v>
       </c>
-      <c r="AI71" s="7">
+      <c r="BD71" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ71" s="31" t="s">
+      <c r="BE71" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK71" s="34" t="s">
+      <c r="BF71" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL71" s="1" t="s">
+      <c r="BG71" s="1" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="72" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH71" s="7"/>
+    </row>
+    <row r="72" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>58</v>
       </c>
@@ -12021,27 +12153,28 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
-      <c r="AA72" s="31" t="s">
+      <c r="AV72" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB72" s="32">
+      <c r="AW72" s="32">
         <v>48</v>
       </c>
-      <c r="AI72" s="7">
+      <c r="BD72" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ72" s="31" t="s">
+      <c r="BE72" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK72" s="34" t="s">
+      <c r="BF72" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL72" s="1" t="s">
+      <c r="BG72" s="1" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH72" s="7"/>
+    </row>
+    <row r="73" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>58</v>
       </c>
@@ -12090,27 +12223,28 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AA73" s="31" t="s">
+      <c r="AV73" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB73" s="32">
+      <c r="AW73" s="32">
         <v>48</v>
       </c>
-      <c r="AI73" s="7">
+      <c r="BD73" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ73" s="31" t="s">
+      <c r="BE73" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK73" s="34" t="s">
+      <c r="BF73" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL73" s="1" t="s">
+      <c r="BG73" s="1" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="74" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH73" s="7"/>
+    </row>
+    <row r="74" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>58</v>
       </c>
@@ -12159,27 +12293,28 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AA74" s="31" t="s">
+      <c r="AV74" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB74" s="32">
+      <c r="AW74" s="32">
         <v>48</v>
       </c>
-      <c r="AI74" s="7">
+      <c r="BD74" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ74" s="31" t="s">
+      <c r="BE74" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK74" s="34" t="s">
+      <c r="BF74" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL74" s="1" t="s">
+      <c r="BG74" s="1" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="75" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH74" s="7"/>
+    </row>
+    <row r="75" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>58</v>
       </c>
@@ -12234,27 +12369,28 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AA75" s="35" t="s">
+      <c r="AV75" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AB75" s="32">
+      <c r="AW75" s="32">
         <v>48</v>
       </c>
-      <c r="AI75" s="7">
+      <c r="BD75" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ75" s="33" t="s">
+      <c r="BE75" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AK75" s="34" t="s">
+      <c r="BF75" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL75" s="1" t="s">
+      <c r="BG75" s="1" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="76" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH75" s="7"/>
+    </row>
+    <row r="76" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
         <v>58</v>
       </c>
@@ -12309,27 +12445,28 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AA76" s="31" t="s">
+      <c r="AV76" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB76" s="32">
+      <c r="AW76" s="32">
         <v>48</v>
       </c>
-      <c r="AI76" s="7">
+      <c r="BD76" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ76" s="33" t="s">
+      <c r="BE76" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK76" s="34" t="s">
+      <c r="BF76" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL76" s="1" t="s">
+      <c r="BG76" s="1" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="77" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH76" s="7"/>
+    </row>
+    <row r="77" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>58</v>
       </c>
@@ -12372,27 +12509,28 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AA77" s="31" t="s">
+      <c r="AV77" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB77" s="32">
+      <c r="AW77" s="32">
         <v>48</v>
       </c>
-      <c r="AI77" s="7">
+      <c r="BD77" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ77" s="31" t="s">
+      <c r="BE77" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK77" s="34" t="s">
+      <c r="BF77" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL77" s="1" t="s">
+      <c r="BG77" s="1" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="78" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH77" s="7"/>
+    </row>
+    <row r="78" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>58</v>
       </c>
@@ -12435,27 +12573,28 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AA78" s="31" t="s">
+      <c r="AV78" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB78" s="32">
+      <c r="AW78" s="32">
         <v>48</v>
       </c>
-      <c r="AI78" s="7">
+      <c r="BD78" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ78" s="31" t="s">
+      <c r="BE78" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK78" s="34" t="s">
+      <c r="BF78" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL78" s="1" t="s">
+      <c r="BG78" s="1" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="79" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH78" s="7"/>
+    </row>
+    <row r="79" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A79" s="29" t="s">
         <v>58</v>
       </c>
@@ -12498,27 +12637,28 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AA79" s="31" t="s">
+      <c r="AV79" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB79" s="32">
+      <c r="AW79" s="32">
         <v>48</v>
       </c>
-      <c r="AI79" s="7">
+      <c r="BD79" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ79" s="31" t="s">
+      <c r="BE79" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK79" s="34" t="s">
+      <c r="BF79" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL79" s="1" t="s">
+      <c r="BG79" s="1" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="80" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH79" s="7"/>
+    </row>
+    <row r="80" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>58</v>
       </c>
@@ -12573,27 +12713,28 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AA80" s="31" t="s">
+      <c r="AV80" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB80" s="32">
+      <c r="AW80" s="32">
         <v>48</v>
       </c>
-      <c r="AI80" s="7">
+      <c r="BD80" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ80" s="31" t="s">
+      <c r="BE80" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK80" s="34" t="s">
+      <c r="BF80" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL80" s="1" t="s">
+      <c r="BG80" s="1" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="81" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH80" s="7"/>
+    </row>
+    <row r="81" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
         <v>256</v>
       </c>
@@ -12630,27 +12771,28 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
-      <c r="AA81" s="31" t="s">
+      <c r="AV81" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AB81" s="32">
+      <c r="AW81" s="32">
         <v>360</v>
       </c>
-      <c r="AI81" s="7">
+      <c r="BD81" s="7">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="AJ81" s="33" t="s">
+      <c r="BE81" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="AK81" s="34" t="s">
+      <c r="BF81" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL81" s="1" t="s">
+      <c r="BG81" s="1" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="82" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH81" s="7"/>
+    </row>
+    <row r="82" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>58</v>
       </c>
@@ -12693,27 +12835,28 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
-      <c r="AA82" s="31" t="s">
+      <c r="AV82" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB82" s="32">
+      <c r="AW82" s="32">
         <v>72</v>
       </c>
-      <c r="AI82" s="7">
+      <c r="BD82" s="7">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AJ82" s="31" t="s">
+      <c r="BE82" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK82" s="34" t="s">
+      <c r="BF82" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL82" s="1" t="s">
+      <c r="BG82" s="1" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="83" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH82" s="7"/>
+    </row>
+    <row r="83" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>58</v>
       </c>
@@ -12762,27 +12905,28 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
-      <c r="AA83" s="35" t="s">
+      <c r="AV83" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AB83" s="32">
+      <c r="AW83" s="32">
         <v>24</v>
       </c>
-      <c r="AI83" s="7">
+      <c r="BD83" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ83" s="33" t="s">
+      <c r="BE83" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AK83" s="34" t="s">
+      <c r="BF83" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL83" s="1" t="s">
+      <c r="BG83" s="1" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="84" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH83" s="7"/>
+    </row>
+    <row r="84" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
         <v>58</v>
       </c>
@@ -12825,27 +12969,28 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
-      <c r="AA84" s="35" t="s">
+      <c r="AV84" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="AB84" s="32">
+      <c r="AW84" s="32">
         <v>48</v>
       </c>
-      <c r="AI84" s="7">
+      <c r="BD84" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ84" s="35" t="s">
+      <c r="BE84" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="AK84" s="34" t="s">
+      <c r="BF84" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL84" s="1" t="s">
+      <c r="BG84" s="1" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="85" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH84" s="7"/>
+    </row>
+    <row r="85" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>58</v>
       </c>
@@ -12882,27 +13027,28 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
-      <c r="AA85" s="35" t="s">
+      <c r="AV85" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="AB85" s="32">
+      <c r="AW85" s="32">
         <v>48</v>
       </c>
-      <c r="AI85" s="7">
+      <c r="BD85" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ85" s="35" t="s">
+      <c r="BE85" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="AK85" s="34" t="s">
+      <c r="BF85" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL85" s="1" t="s">
+      <c r="BG85" s="1" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="86" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH85" s="7"/>
+    </row>
+    <row r="86" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A86" s="29" t="s">
         <v>256</v>
       </c>
@@ -12957,25 +13103,26 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
-      <c r="AA86" s="31" t="s">
+      <c r="AV86" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB86" s="32">
+      <c r="AW86" s="32">
         <v>2</v>
       </c>
-      <c r="AI86" s="7">
+      <c r="BD86" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ86" s="33" t="s">
+      <c r="BE86" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK86" s="34" t="s">
+      <c r="BF86" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL86" s="1"/>
-    </row>
-    <row r="87" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="7"/>
+    </row>
+    <row r="87" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A87" s="29" t="s">
         <v>256</v>
       </c>
@@ -13042,25 +13189,26 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
-      <c r="AA87" s="31" t="s">
+      <c r="AV87" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB87" s="32">
+      <c r="AW87" s="32">
         <v>4</v>
       </c>
-      <c r="AI87" s="7">
+      <c r="BD87" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ87" s="33" t="s">
+      <c r="BE87" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK87" s="34" t="s">
+      <c r="BF87" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL87" s="1"/>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="7"/>
+    </row>
+    <row r="88" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
         <v>58</v>
       </c>
@@ -13115,27 +13263,28 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
-      <c r="AA88" s="31" t="s">
+      <c r="AV88" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB88" s="32">
+      <c r="AW88" s="32">
         <v>48</v>
       </c>
-      <c r="AI88" s="7">
+      <c r="BD88" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ88" s="33" t="s">
+      <c r="BE88" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK88" s="34" t="s">
+      <c r="BF88" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL88" s="1" t="s">
+      <c r="BG88" s="1" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH88" s="7"/>
+    </row>
+    <row r="89" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
         <v>58</v>
       </c>
@@ -13190,27 +13339,28 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
-      <c r="AA89" s="31" t="s">
+      <c r="AV89" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB89" s="32">
+      <c r="AW89" s="32">
         <v>48</v>
       </c>
-      <c r="AI89" s="7">
+      <c r="BD89" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ89" s="33" t="s">
+      <c r="BE89" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK89" s="34" t="s">
+      <c r="BF89" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL89" s="1" t="s">
+      <c r="BG89" s="1" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="90" spans="1:38" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="BH89" s="7"/>
+    </row>
+    <row r="90" spans="1:60" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A90" s="29" t="s">
         <v>256</v>
       </c>
@@ -13277,27 +13427,28 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
-      <c r="AA90" s="35" t="s">
+      <c r="AV90" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="AB90" s="32">
+      <c r="AW90" s="32">
         <v>48</v>
       </c>
-      <c r="AI90" s="7">
+      <c r="BD90" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ90" s="33" t="s">
+      <c r="BE90" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AK90" s="34" t="s">
+      <c r="BF90" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL90" s="1" t="s">
+      <c r="BG90" s="1" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="91" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH90" s="7"/>
+    </row>
+    <row r="91" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
         <v>58</v>
       </c>
@@ -13340,27 +13491,28 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
-      <c r="AA91" s="31" t="s">
+      <c r="AV91" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB91" s="32">
+      <c r="AW91" s="32">
         <v>2</v>
       </c>
-      <c r="AI91" s="7">
+      <c r="BD91" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ91" s="33" t="s">
+      <c r="BE91" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK91" s="34" t="s">
+      <c r="BF91" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL91" s="1" t="s">
+      <c r="BG91" s="1" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="92" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH91" s="7"/>
+    </row>
+    <row r="92" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A92" s="29" t="s">
         <v>58</v>
       </c>
@@ -13403,27 +13555,28 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
-      <c r="AA92" s="31" t="s">
+      <c r="AV92" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB92" s="32">
+      <c r="AW92" s="32">
         <v>2</v>
       </c>
-      <c r="AI92" s="7">
+      <c r="BD92" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ92" s="33" t="s">
+      <c r="BE92" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK92" s="34" t="s">
+      <c r="BF92" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL92" s="1" t="s">
+      <c r="BG92" s="1" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="93" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH92" s="7"/>
+    </row>
+    <row r="93" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
         <v>58</v>
       </c>
@@ -13466,27 +13619,28 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
-      <c r="AA93" s="31" t="s">
+      <c r="AV93" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB93" s="32">
+      <c r="AW93" s="32">
         <v>2</v>
       </c>
-      <c r="AI93" s="7">
+      <c r="BD93" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ93" s="33" t="s">
+      <c r="BE93" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK93" s="34" t="s">
+      <c r="BF93" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL93" s="1" t="s">
+      <c r="BG93" s="1" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="94" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH93" s="7"/>
+    </row>
+    <row r="94" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
         <v>58</v>
       </c>
@@ -13529,27 +13683,28 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
-      <c r="AA94" s="31" t="s">
+      <c r="AV94" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AB94" s="32">
+      <c r="AW94" s="32">
         <v>2</v>
       </c>
-      <c r="AI94" s="7">
+      <c r="BD94" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ94" s="33" t="s">
+      <c r="BE94" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK94" s="34" t="s">
+      <c r="BF94" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL94" s="1" t="s">
+      <c r="BG94" s="1" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="95" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH94" s="7"/>
+    </row>
+    <row r="95" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
         <v>58</v>
       </c>
@@ -13592,27 +13747,28 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
-      <c r="AA95" s="31" t="s">
+      <c r="AV95" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AB95" s="32">
+      <c r="AW95" s="32">
         <v>24</v>
       </c>
-      <c r="AI95" s="7">
+      <c r="BD95" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ95" s="31" t="s">
+      <c r="BE95" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AK95" s="34" t="s">
+      <c r="BF95" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL95" s="1" t="s">
+      <c r="BG95" s="1" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="96" spans="1:38" ht="102" x14ac:dyDescent="0.25">
+      <c r="BH95" s="7"/>
+    </row>
+    <row r="96" spans="1:60" ht="102" x14ac:dyDescent="0.25">
       <c r="A96" s="29" t="s">
         <v>58</v>
       </c>
@@ -13655,27 +13811,28 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
-      <c r="AA96" s="31" t="s">
+      <c r="AV96" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AB96" s="32">
+      <c r="AW96" s="32">
         <v>24</v>
       </c>
-      <c r="AI96" s="7">
+      <c r="BD96" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ96" s="31" t="s">
+      <c r="BE96" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AK96" s="34" t="s">
+      <c r="BF96" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL96" s="1" t="s">
+      <c r="BG96" s="1" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="97" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH96" s="7"/>
+    </row>
+    <row r="97" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>58</v>
       </c>
@@ -13730,27 +13887,28 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
-      <c r="AA97" s="31" t="s">
+      <c r="AV97" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB97" s="32">
+      <c r="AW97" s="32">
         <v>48</v>
       </c>
-      <c r="AI97" s="7">
+      <c r="BD97" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ97" s="33" t="s">
+      <c r="BE97" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK97" s="34" t="s">
+      <c r="BF97" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL97" s="1" t="s">
+      <c r="BG97" s="1" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="98" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH97" s="7"/>
+    </row>
+    <row r="98" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>58</v>
       </c>
@@ -13805,27 +13963,28 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
-      <c r="AA98" s="31" t="s">
+      <c r="AV98" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB98" s="32">
+      <c r="AW98" s="32">
         <v>48</v>
       </c>
-      <c r="AI98" s="7">
+      <c r="BD98" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ98" s="33" t="s">
+      <c r="BE98" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK98" s="34" t="s">
+      <c r="BF98" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL98" s="1" t="s">
+      <c r="BG98" s="1" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="99" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH98" s="7"/>
+    </row>
+    <row r="99" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>58</v>
       </c>
@@ -13880,27 +14039,28 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
-      <c r="AA99" s="31" t="s">
+      <c r="AV99" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB99" s="32">
+      <c r="AW99" s="32">
         <v>48</v>
       </c>
-      <c r="AI99" s="7">
+      <c r="BD99" s="7">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ99" s="33" t="s">
+      <c r="BE99" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK99" s="34" t="s">
+      <c r="BF99" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL99" s="1" t="s">
+      <c r="BG99" s="1" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="100" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH99" s="7"/>
+    </row>
+    <row r="100" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>58</v>
       </c>
@@ -13955,27 +14115,28 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
-      <c r="AA100" s="31" t="s">
+      <c r="AV100" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB100" s="32">
+      <c r="AW100" s="32">
         <v>2</v>
       </c>
-      <c r="AI100" s="7">
+      <c r="BD100" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ100" s="33" t="s">
+      <c r="BE100" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK100" s="34" t="s">
+      <c r="BF100" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL100" s="1" t="s">
+      <c r="BG100" s="1" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="101" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH100" s="7"/>
+    </row>
+    <row r="101" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>58</v>
       </c>
@@ -14030,27 +14191,28 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
-      <c r="AA101" s="31" t="s">
+      <c r="AV101" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB101" s="32">
+      <c r="AW101" s="32">
         <v>2</v>
       </c>
-      <c r="AI101" s="7">
+      <c r="BD101" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ101" s="33" t="s">
+      <c r="BE101" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK101" s="34" t="s">
+      <c r="BF101" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL101" s="1" t="s">
+      <c r="BG101" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="102" spans="1:38" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="BH101" s="7"/>
+    </row>
+    <row r="102" spans="1:60" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
         <v>58</v>
       </c>
@@ -14117,27 +14279,28 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
-      <c r="AA102" s="31" t="s">
+      <c r="AV102" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB102" s="32">
+      <c r="AW102" s="32">
         <v>2</v>
       </c>
-      <c r="AI102" s="7">
+      <c r="BD102" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ102" s="33" t="s">
+      <c r="BE102" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK102" s="34" t="s">
+      <c r="BF102" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL102" s="1" t="s">
+      <c r="BG102" s="1" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="103" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH102" s="7"/>
+    </row>
+    <row r="103" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>58</v>
       </c>
@@ -14180,27 +14343,28 @@
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
-      <c r="AA103" s="31" t="s">
+      <c r="AV103" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB103" s="32">
+      <c r="AW103" s="32">
         <v>2</v>
       </c>
-      <c r="AI103" s="7">
+      <c r="BD103" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ103" s="33" t="s">
+      <c r="BE103" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK103" s="34" t="s">
+      <c r="BF103" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL103" s="1" t="s">
+      <c r="BG103" s="1" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="104" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH103" s="7"/>
+    </row>
+    <row r="104" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
         <v>58</v>
       </c>
@@ -14255,27 +14419,28 @@
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
-      <c r="AA104" s="31" t="s">
+      <c r="AV104" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB104" s="32">
+      <c r="AW104" s="32">
         <v>2</v>
       </c>
-      <c r="AI104" s="7">
+      <c r="BD104" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ104" s="33" t="s">
+      <c r="BE104" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK104" s="34" t="s">
+      <c r="BF104" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL104" s="1" t="s">
+      <c r="BG104" s="1" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="105" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH104" s="7"/>
+    </row>
+    <row r="105" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>58</v>
       </c>
@@ -14330,27 +14495,28 @@
       <c r="X105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
-      <c r="AA105" s="31" t="s">
+      <c r="AV105" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB105" s="32">
+      <c r="AW105" s="32">
         <v>24</v>
       </c>
-      <c r="AI105" s="7">
+      <c r="BD105" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ105" s="31" t="s">
+      <c r="BE105" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK105" s="34" t="s">
+      <c r="BF105" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL105" s="1" t="s">
+      <c r="BG105" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="106" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH105" s="7"/>
+    </row>
+    <row r="106" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
         <v>58</v>
       </c>
@@ -14405,27 +14571,28 @@
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
-      <c r="AA106" s="31" t="s">
+      <c r="AV106" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB106" s="32">
+      <c r="AW106" s="32">
         <v>24</v>
       </c>
-      <c r="AI106" s="7">
+      <c r="BD106" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ106" s="31" t="s">
+      <c r="BE106" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK106" s="34" t="s">
+      <c r="BF106" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL106" s="1" t="s">
+      <c r="BG106" s="1" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="107" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="BH106" s="7"/>
+    </row>
+    <row r="107" spans="1:60" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>58</v>
       </c>
@@ -14486,27 +14653,28 @@
       <c r="X107" s="1"/>
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
-      <c r="AA107" s="31" t="s">
+      <c r="AV107" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AB107" s="32">
+      <c r="AW107" s="32">
         <v>24</v>
       </c>
-      <c r="AI107" s="7">
+      <c r="BD107" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ107" s="31" t="s">
+      <c r="BE107" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AK107" s="34" t="s">
+      <c r="BF107" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL107" s="1" t="s">
+      <c r="BG107" s="1" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="108" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BH107" s="7"/>
+    </row>
+    <row r="108" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>58</v>
       </c>
@@ -14549,27 +14717,28 @@
       <c r="X108" s="1"/>
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
-      <c r="AA108" s="31" t="s">
+      <c r="AV108" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AB108" s="32">
+      <c r="AW108" s="32">
         <v>24</v>
       </c>
-      <c r="AI108" s="7">
+      <c r="BD108" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ108" s="31" t="s">
+      <c r="BE108" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AK108" s="34" t="s">
+      <c r="BF108" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL108" s="1" t="s">
+      <c r="BG108" s="1" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="109" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="BH108" s="7"/>
+    </row>
+    <row r="109" spans="1:60" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>58</v>
       </c>
@@ -14612,27 +14781,28 @@
       <c r="X109" s="1"/>
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
-      <c r="AA109" s="31" t="s">
+      <c r="AV109" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AB109" s="32">
+      <c r="AW109" s="32">
         <v>24</v>
       </c>
-      <c r="AI109" s="7">
+      <c r="BD109" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ109" s="31" t="s">
+      <c r="BE109" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AK109" s="34" t="s">
+      <c r="BF109" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL109" s="1" t="s">
+      <c r="BG109" s="1" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="110" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BH109" s="7"/>
+    </row>
+    <row r="110" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>58</v>
       </c>
@@ -14675,27 +14845,28 @@
       <c r="X110" s="1"/>
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
-      <c r="AA110" s="31" t="s">
+      <c r="AV110" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AB110" s="32">
+      <c r="AW110" s="32">
         <v>24</v>
       </c>
-      <c r="AI110" s="7">
+      <c r="BD110" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ110" s="33" t="s">
+      <c r="BE110" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="AK110" s="34" t="s">
+      <c r="BF110" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL110" s="1" t="s">
+      <c r="BG110" s="1" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="111" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH110" s="7"/>
+    </row>
+    <row r="111" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>58</v>
       </c>
@@ -14732,27 +14903,28 @@
       <c r="X111" s="1"/>
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
-      <c r="AA111" s="31" t="s">
+      <c r="AV111" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB111" s="32">
+      <c r="AW111" s="32">
         <v>2</v>
       </c>
-      <c r="AI111" s="7">
+      <c r="BD111" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ111" s="33" t="s">
+      <c r="BE111" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK111" s="34" t="s">
+      <c r="BF111" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL111" s="1" t="s">
+      <c r="BG111" s="1" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="112" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH111" s="7"/>
+    </row>
+    <row r="112" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
         <v>58</v>
       </c>
@@ -14789,27 +14961,28 @@
       <c r="X112" s="1"/>
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
-      <c r="AA112" s="31" t="s">
+      <c r="AV112" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB112" s="32">
+      <c r="AW112" s="32">
         <v>2</v>
       </c>
-      <c r="AI112" s="7">
+      <c r="BD112" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ112" s="33" t="s">
+      <c r="BE112" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK112" s="34" t="s">
+      <c r="BF112" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL112" s="1" t="s">
+      <c r="BG112" s="1" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="113" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH112" s="7"/>
+    </row>
+    <row r="113" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
         <v>58</v>
       </c>
@@ -14846,25 +15019,26 @@
       <c r="X113" s="1"/>
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
-      <c r="AA113" s="31" t="s">
+      <c r="AV113" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB113" s="32">
+      <c r="AW113" s="32">
         <v>2</v>
       </c>
-      <c r="AI113" s="7">
+      <c r="BD113" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ113" s="33" t="s">
+      <c r="BE113" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK113" s="34" t="s">
+      <c r="BF113" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL113" s="1"/>
-    </row>
-    <row r="114" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BG113" s="1"/>
+      <c r="BH113" s="7"/>
+    </row>
+    <row r="114" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
         <v>58</v>
       </c>
@@ -14901,27 +15075,28 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
-      <c r="AA114" s="31" t="s">
+      <c r="AV114" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB114" s="32">
+      <c r="AW114" s="32">
         <v>2</v>
       </c>
-      <c r="AI114" s="7">
+      <c r="BD114" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ114" s="33" t="s">
+      <c r="BE114" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK114" s="34" t="s">
+      <c r="BF114" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL114" s="1" t="s">
+      <c r="BG114" s="1" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="115" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH114" s="7"/>
+    </row>
+    <row r="115" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>58</v>
       </c>
@@ -14958,27 +15133,28 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
-      <c r="AA115" s="31" t="s">
+      <c r="AV115" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB115" s="32">
+      <c r="AW115" s="32">
         <v>2</v>
       </c>
-      <c r="AI115" s="7">
+      <c r="BD115" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ115" s="33" t="s">
+      <c r="BE115" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK115" s="34" t="s">
+      <c r="BF115" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL115" s="1" t="s">
+      <c r="BG115" s="1" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="116" spans="1:38" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="BH115" s="7"/>
+    </row>
+    <row r="116" spans="1:60" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
         <v>58</v>
       </c>
@@ -15015,25 +15191,26 @@
       <c r="X116" s="12"/>
       <c r="Y116" s="12"/>
       <c r="Z116" s="12"/>
-      <c r="AA116" s="31" t="s">
+      <c r="AV116" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AB116" s="32">
+      <c r="AW116" s="32">
         <v>2</v>
       </c>
-      <c r="AI116" s="7">
+      <c r="BD116" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ116" s="33" t="s">
+      <c r="BE116" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK116" s="34" t="s">
+      <c r="BF116" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AL116" s="1"/>
-    </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG116" s="1"/>
+      <c r="BH116" s="7"/>
+    </row>
+    <row r="117" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>230</v>
       </c>
@@ -15112,25 +15289,26 @@
       <c r="Z117" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA117" s="25" t="s">
+      <c r="AV117" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB117" s="26">
+      <c r="AW117" s="26">
         <v>8</v>
       </c>
-      <c r="AI117" s="7">
+      <c r="BD117" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ117" s="28" t="s">
+      <c r="BE117" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK117" s="28" t="s">
+      <c r="BF117" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL117" s="1"/>
-    </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG117" s="1"/>
+      <c r="BH117" s="7"/>
+    </row>
+    <row r="118" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>230</v>
       </c>
@@ -15209,25 +15387,26 @@
       <c r="Z118" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA118" s="25" t="s">
+      <c r="AV118" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB118" s="26">
+      <c r="AW118" s="26">
         <v>8</v>
       </c>
-      <c r="AI118" s="7">
+      <c r="BD118" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ118" s="28" t="s">
+      <c r="BE118" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK118" s="28" t="s">
+      <c r="BF118" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL118" s="1"/>
-    </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG118" s="1"/>
+      <c r="BH118" s="7"/>
+    </row>
+    <row r="119" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>230</v>
       </c>
@@ -15300,27 +15479,28 @@
       <c r="X119" s="11"/>
       <c r="Y119" s="11"/>
       <c r="Z119" s="11"/>
-      <c r="AA119" s="25" t="s">
+      <c r="AV119" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB119" s="26">
+      <c r="AW119" s="26">
         <v>8</v>
       </c>
-      <c r="AI119" s="7">
+      <c r="BD119" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ119" s="28" t="s">
+      <c r="BE119" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK119" s="28" t="s">
+      <c r="BF119" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL119" s="1" t="s">
+      <c r="BG119" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH119" s="7"/>
+    </row>
+    <row r="120" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>230</v>
       </c>
@@ -15393,27 +15573,28 @@
       <c r="X120" s="11"/>
       <c r="Y120" s="11"/>
       <c r="Z120" s="11"/>
-      <c r="AA120" s="25" t="s">
+      <c r="AV120" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB120" s="26">
+      <c r="AW120" s="26">
         <v>8</v>
       </c>
-      <c r="AI120" s="7">
+      <c r="BD120" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ120" s="28" t="s">
+      <c r="BE120" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK120" s="28" t="s">
+      <c r="BF120" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL120" s="1" t="s">
+      <c r="BG120" s="1" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH120" s="7"/>
+    </row>
+    <row r="121" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>230</v>
       </c>
@@ -15492,27 +15673,28 @@
       <c r="Z121" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA121" s="25" t="s">
+      <c r="AV121" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB121" s="26">
+      <c r="AW121" s="26">
         <v>8</v>
       </c>
-      <c r="AI121" s="7">
+      <c r="BD121" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ121" s="28" t="s">
+      <c r="BE121" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK121" s="28" t="s">
+      <c r="BF121" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL121" s="1" t="s">
+      <c r="BG121" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH121" s="7"/>
+    </row>
+    <row r="122" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>230</v>
       </c>
@@ -15585,27 +15767,28 @@
       <c r="X122" s="11"/>
       <c r="Y122" s="11"/>
       <c r="Z122" s="11"/>
-      <c r="AA122" s="25" t="s">
+      <c r="AV122" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB122" s="26">
+      <c r="AW122" s="26">
         <v>8</v>
       </c>
-      <c r="AI122" s="7">
+      <c r="BD122" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ122" s="28" t="s">
+      <c r="BE122" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK122" s="28" t="s">
+      <c r="BF122" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL122" s="1" t="s">
+      <c r="BG122" s="1" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH122" s="7"/>
+    </row>
+    <row r="123" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>230</v>
       </c>
@@ -15684,27 +15867,28 @@
       <c r="Z123" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA123" s="25" t="s">
+      <c r="AV123" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB123" s="26">
+      <c r="AW123" s="26">
         <v>8</v>
       </c>
-      <c r="AI123" s="7">
+      <c r="BD123" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ123" s="28" t="s">
+      <c r="BE123" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK123" s="28" t="s">
+      <c r="BF123" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL123" s="1" t="s">
+      <c r="BG123" s="1" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH123" s="7"/>
+    </row>
+    <row r="124" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>230</v>
       </c>
@@ -15777,27 +15961,28 @@
       <c r="X124" s="11"/>
       <c r="Y124" s="11"/>
       <c r="Z124" s="11"/>
-      <c r="AA124" s="25" t="s">
+      <c r="AV124" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB124" s="26">
+      <c r="AW124" s="26">
         <v>8</v>
       </c>
-      <c r="AI124" s="7">
+      <c r="BD124" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ124" s="28" t="s">
+      <c r="BE124" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK124" s="28" t="s">
+      <c r="BF124" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL124" s="1" t="s">
+      <c r="BG124" s="1" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH124" s="7"/>
+    </row>
+    <row r="125" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>230</v>
       </c>
@@ -15870,27 +16055,28 @@
       <c r="X125" s="11"/>
       <c r="Y125" s="11"/>
       <c r="Z125" s="11"/>
-      <c r="AA125" s="25" t="s">
+      <c r="AV125" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB125" s="26">
+      <c r="AW125" s="26">
         <v>24</v>
       </c>
-      <c r="AI125" s="7">
+      <c r="BD125" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ125" s="28" t="s">
+      <c r="BE125" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK125" s="28" t="s">
+      <c r="BF125" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL125" s="1" t="s">
+      <c r="BG125" s="1" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH125" s="7"/>
+    </row>
+    <row r="126" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>230</v>
       </c>
@@ -15963,27 +16149,28 @@
       <c r="X126" s="11"/>
       <c r="Y126" s="11"/>
       <c r="Z126" s="11"/>
-      <c r="AA126" s="25" t="s">
+      <c r="AV126" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB126" s="26">
+      <c r="AW126" s="26">
         <v>24</v>
       </c>
-      <c r="AI126" s="7">
+      <c r="BD126" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ126" s="28" t="s">
+      <c r="BE126" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK126" s="28" t="s">
+      <c r="BF126" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL126" s="1" t="s">
+      <c r="BG126" s="1" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH126" s="7"/>
+    </row>
+    <row r="127" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>230</v>
       </c>
@@ -16056,27 +16243,28 @@
       <c r="X127" s="11"/>
       <c r="Y127" s="11"/>
       <c r="Z127" s="11"/>
-      <c r="AA127" s="25" t="s">
+      <c r="AV127" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB127" s="26">
+      <c r="AW127" s="26">
         <v>24</v>
       </c>
-      <c r="AI127" s="7">
+      <c r="BD127" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ127" s="28" t="s">
+      <c r="BE127" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK127" s="28" t="s">
+      <c r="BF127" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL127" s="1" t="s">
+      <c r="BG127" s="1" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH127" s="7"/>
+    </row>
+    <row r="128" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>230</v>
       </c>
@@ -16149,25 +16337,26 @@
       <c r="X128" s="11"/>
       <c r="Y128" s="11"/>
       <c r="Z128" s="11"/>
-      <c r="AA128" s="25" t="s">
+      <c r="AV128" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB128" s="26">
+      <c r="AW128" s="26">
         <v>24</v>
       </c>
-      <c r="AI128" s="7">
+      <c r="BD128" s="7">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ128" s="28" t="s">
+      <c r="BE128" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK128" s="28" t="s">
+      <c r="BF128" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL128" s="1"/>
-    </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG128" s="1"/>
+      <c r="BH128" s="7"/>
+    </row>
+    <row r="129" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>230</v>
       </c>
@@ -16240,27 +16429,28 @@
       <c r="X129" s="11"/>
       <c r="Y129" s="11"/>
       <c r="Z129" s="11"/>
-      <c r="AA129" s="25" t="s">
+      <c r="AV129" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB129" s="26">
+      <c r="AW129" s="26">
         <v>8</v>
       </c>
-      <c r="AI129" s="7">
+      <c r="BD129" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ129" s="28" t="s">
+      <c r="BE129" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK129" s="28" t="s">
+      <c r="BF129" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL129" s="1" t="s">
+      <c r="BG129" s="1" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BH129" s="7"/>
+    </row>
+    <row r="130" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>230</v>
       </c>
@@ -16339,25 +16529,26 @@
       <c r="Z130" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA130" s="25" t="s">
+      <c r="AV130" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AB130" s="26">
+      <c r="AW130" s="26">
         <v>8</v>
       </c>
-      <c r="AI130" s="7">
+      <c r="BD130" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ130" s="28" t="s">
+      <c r="BE130" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="AK130" s="28" t="s">
+      <c r="BF130" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL130" s="1"/>
-    </row>
-    <row r="131" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BG130" s="1"/>
+      <c r="BH130" s="7"/>
+    </row>
+    <row r="131" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
         <v>58</v>
       </c>
@@ -16400,25 +16591,26 @@
       <c r="X131" s="13"/>
       <c r="Y131" s="13"/>
       <c r="Z131" s="13"/>
-      <c r="AA131" s="8" t="s">
+      <c r="AV131" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AB131" s="27">
+      <c r="AW131" s="27">
         <v>48</v>
       </c>
-      <c r="AI131" s="7">
-        <f t="shared" ref="AI131:AI136" si="2">SUM(AB131,AD131,AF131,AH131)</f>
+      <c r="BD131" s="7">
+        <f t="shared" ref="BD131:BD137" si="2">SUM(AW131,AY131,BA131,BC131)</f>
         <v>48</v>
       </c>
-      <c r="AJ131" s="8" t="s">
+      <c r="BE131" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AK131" s="28" t="s">
+      <c r="BF131" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL131" s="1"/>
-    </row>
-    <row r="132" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BG131" s="1"/>
+      <c r="BH131" s="7"/>
+    </row>
+    <row r="132" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>58</v>
       </c>
@@ -16461,25 +16653,26 @@
       <c r="X132" s="13"/>
       <c r="Y132" s="13"/>
       <c r="Z132" s="13"/>
-      <c r="AA132" s="8" t="s">
+      <c r="AV132" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AB132" s="27">
+      <c r="AW132" s="27">
         <v>48</v>
       </c>
-      <c r="AI132" s="7">
+      <c r="BD132" s="7">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="AJ132" s="8" t="s">
+      <c r="BE132" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AK132" s="28" t="s">
+      <c r="BF132" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL132" s="1"/>
-    </row>
-    <row r="133" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="BG132" s="1"/>
+      <c r="BH132" s="7"/>
+    </row>
+    <row r="133" spans="1:60" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>58</v>
       </c>
@@ -16522,25 +16715,26 @@
       <c r="X133" s="13"/>
       <c r="Y133" s="13"/>
       <c r="Z133" s="13"/>
-      <c r="AA133" s="8" t="s">
+      <c r="AV133" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AB133" s="27">
+      <c r="AW133" s="27">
         <v>48</v>
       </c>
-      <c r="AI133" s="7">
+      <c r="BD133" s="7">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="AJ133" s="8" t="s">
+      <c r="BE133" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AK133" s="28" t="s">
+      <c r="BF133" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL133" s="1"/>
-    </row>
-    <row r="134" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BG133" s="1"/>
+      <c r="BH133" s="7"/>
+    </row>
+    <row r="134" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>58</v>
       </c>
@@ -16583,27 +16777,28 @@
       <c r="X134" s="13"/>
       <c r="Y134" s="13"/>
       <c r="Z134" s="13"/>
-      <c r="AA134" s="8" t="s">
+      <c r="AV134" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AB134" s="27">
+      <c r="AW134" s="27">
         <v>48</v>
       </c>
-      <c r="AI134" s="7">
+      <c r="BD134" s="7">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="AJ134" s="8" t="s">
+      <c r="BE134" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AK134" s="28" t="s">
+      <c r="BF134" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL134" s="1" t="s">
+      <c r="BG134" s="1" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="135" spans="1:38" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="BH134" s="7"/>
+    </row>
+    <row r="135" spans="1:60" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>58</v>
       </c>
@@ -16646,25 +16841,26 @@
       <c r="X135" s="13"/>
       <c r="Y135" s="13"/>
       <c r="Z135" s="13"/>
-      <c r="AA135" s="8" t="s">
+      <c r="AV135" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AB135" s="27">
+      <c r="AW135" s="27">
         <v>6</v>
       </c>
-      <c r="AI135" s="7">
+      <c r="BD135" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AJ135" s="8" t="s">
+      <c r="BE135" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AK135" s="28" t="s">
+      <c r="BF135" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL135" s="1"/>
-    </row>
-    <row r="136" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+      <c r="BG135" s="1"/>
+      <c r="BH135" s="7"/>
+    </row>
+    <row r="136" spans="1:60" ht="51" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>58</v>
       </c>
@@ -16707,25 +16903,29 @@
       <c r="X136" s="13"/>
       <c r="Y136" s="13"/>
       <c r="Z136" s="13"/>
-      <c r="AA136" s="8" t="s">
+      <c r="AV136" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AB136" s="27">
+      <c r="AW136" s="27">
         <v>6</v>
       </c>
-      <c r="AI136" s="7">
+      <c r="BD136" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AJ136" s="8" t="s">
+      <c r="BE136" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AK136" s="28" t="s">
+      <c r="BF136" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="AL136" s="1" t="s">
+      <c r="BG136" s="1" t="s">
         <v>1011</v>
       </c>
+      <c r="BH136" s="7"/>
+    </row>
+    <row r="137" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BD137" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E117:E118">
@@ -16748,7 +16948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
@@ -18875,8 +19075,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="false"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="false"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="1089">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -861,12 +861,6 @@
   </si>
   <si>
     <t>Rm9yZ290QDEyMw</t>
-  </si>
-  <si>
-    <t>U2VwQDIwMjA</t>
-  </si>
-  <si>
-    <t>U2VjdXJlQWlydGVsQDIw</t>
   </si>
   <si>
     <t>Bonus Not Clear Enquiry</t>
@@ -3313,6 +3307,30 @@
   </si>
   <si>
     <t>201020001933</t>
+  </si>
+  <si>
+    <t>Loan Services</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Loan Amount (Ksh)</t>
+  </si>
+  <si>
+    <t>Credited On</t>
+  </si>
+  <si>
+    <t>Current Outstanding</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>QWlydGVsQWZAMjAyMQ</t>
+  </si>
+  <si>
+    <t>T2N0QDIwMjA</t>
   </si>
 </sst>
 </file>
@@ -3516,7 +3534,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3613,6 +3631,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4066,8 +4085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" activeCellId="1" sqref="F8 G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4131,13 +4150,13 @@
         <v>2388006</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>275</v>
+        <v>1087</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="5">
-        <v>735873718</v>
+        <v>751522556</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -4222,13 +4241,13 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>274</v>
+        <v>1088</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D4" s="5">
-        <v>767240995</v>
+        <v>751522556</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4236,7 +4255,7 @@
         <v>2388006</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>275</v>
+        <v>1087</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>181</v>
@@ -4417,49 +4436,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -4485,30 +4504,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>91</v>
@@ -4519,30 +4538,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>88</v>
@@ -4553,13 +4572,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>88</v>
@@ -4570,274 +4589,274 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4845,16 +4864,16 @@
         <v>223</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4862,16 +4881,16 @@
         <v>223</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4879,7 +4898,7 @@
         <v>223</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>207</v>
@@ -4896,7 +4915,7 @@
         <v>223</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>208</v>
@@ -4913,16 +4932,16 @@
         <v>226</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4930,16 +4949,16 @@
         <v>226</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4947,7 +4966,7 @@
         <v>226</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>207</v>
@@ -4964,7 +4983,7 @@
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>208</v>
@@ -4978,44 +4997,44 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>207</v>
@@ -5029,10 +5048,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>208</v>
@@ -5049,16 +5068,16 @@
         <v>229</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5066,16 +5085,16 @@
         <v>229</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5083,7 +5102,7 @@
         <v>229</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>207</v>
@@ -5100,7 +5119,7 @@
         <v>229</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>208</v>
@@ -5114,44 +5133,44 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>207</v>
@@ -5165,10 +5184,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>208</v>
@@ -5182,44 +5201,44 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>207</v>
@@ -5233,10 +5252,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>208</v>
@@ -5250,44 +5269,44 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>207</v>
@@ -5301,10 +5320,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>208</v>
@@ -5318,44 +5337,44 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>207</v>
@@ -5369,10 +5388,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>208</v>
@@ -5386,10 +5405,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>209</v>
@@ -5403,78 +5422,78 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>207</v>
@@ -5488,44 +5507,44 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>207</v>
@@ -5539,10 +5558,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>208</v>
@@ -5556,44 +5575,44 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>207</v>
@@ -5607,10 +5626,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>208</v>
@@ -5624,44 +5643,44 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>207</v>
@@ -5675,10 +5694,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>208</v>
@@ -5692,44 +5711,44 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>207</v>
@@ -5743,10 +5762,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>208</v>
@@ -5760,44 +5779,44 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>207</v>
@@ -5811,10 +5830,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>208</v>
@@ -5828,44 +5847,44 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>207</v>
@@ -5879,10 +5898,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>208</v>
@@ -5896,44 +5915,44 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>207</v>
@@ -5947,10 +5966,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>208</v>
@@ -5994,74 +6013,74 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>1017</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>1018</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>1019</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>1020</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>1021</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>1022</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>1023</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C2" s="7">
         <v>3</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>1028</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="G2" s="41" t="s">
         <v>1029</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>1030</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>1031</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -6086,36 +6105,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B1" t="s">
         <v>1035</v>
       </c>
-      <c r="B1" t="s">
-        <v>1037</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" t="s">
         <v>1042</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -6143,37 +6162,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>1056</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>1057</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>1058</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>1059</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>1060</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>1061</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>1062</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>1063</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>1064</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>1065</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -6300,10 +6319,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6534,11 +6553,34 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6658,16 +6700,16 @@
         <v>43</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>45</v>
@@ -6676,7 +6718,7 @@
         <v>43</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>47</v>
@@ -6685,7 +6727,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AK1" s="7" t="s">
         <v>49</v>
@@ -6694,7 +6736,7 @@
         <v>43</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AN1" s="7" t="s">
         <v>51</v>
@@ -6703,7 +6745,7 @@
         <v>43</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AQ1" s="7" t="s">
         <v>133</v>
@@ -6712,7 +6754,7 @@
         <v>43</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AT1" s="7" t="s">
         <v>248</v>
@@ -6727,25 +6769,25 @@
         <v>75</v>
       </c>
       <c r="AX1" s="24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AY1" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AZ1" s="24" t="s">
         <v>1067</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="BA1" s="24" t="s">
         <v>1068</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="BB1" s="24" t="s">
         <v>1069</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>1070</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BD1" s="51" t="s">
         <v>1071</v>
-      </c>
-      <c r="BC1" s="24" t="s">
-        <v>1072</v>
-      </c>
-      <c r="BD1" s="51" t="s">
-        <v>1073</v>
       </c>
       <c r="BE1" s="7" t="s">
         <v>86</v>
@@ -6829,7 +6871,7 @@
         <v>89</v>
       </c>
       <c r="AL2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="AV2" t="s">
         <v>78</v>
@@ -6848,7 +6890,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -6878,7 +6920,7 @@
         <v>89</v>
       </c>
       <c r="AL3" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="AV3" t="s">
         <v>76</v>
@@ -6897,7 +6939,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -6984,8 +7026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BF4" sqref="BF4"/>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BB7" sqref="BB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7073,16 +7115,16 @@
         <v>43</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>45</v>
@@ -7091,7 +7133,7 @@
         <v>43</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>47</v>
@@ -7100,7 +7142,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AK1" s="7" t="s">
         <v>49</v>
@@ -7109,7 +7151,7 @@
         <v>43</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AN1" s="7" t="s">
         <v>51</v>
@@ -7118,7 +7160,7 @@
         <v>43</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AQ1" s="7" t="s">
         <v>133</v>
@@ -7127,7 +7169,7 @@
         <v>43</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AT1" s="7" t="s">
         <v>248</v>
@@ -7142,25 +7184,25 @@
         <v>75</v>
       </c>
       <c r="AX1" s="24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AY1" s="24" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AZ1" s="24" t="s">
         <v>1067</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="BA1" s="24" t="s">
         <v>1068</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="BB1" s="24" t="s">
         <v>1069</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>1070</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BD1" s="51" t="s">
         <v>1071</v>
-      </c>
-      <c r="BC1" s="24" t="s">
-        <v>1072</v>
-      </c>
-      <c r="BD1" s="51" t="s">
-        <v>1073</v>
       </c>
       <c r="BE1" s="7" t="s">
         <v>86</v>
@@ -7177,19 +7219,19 @@
         <v>256</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>553</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>555</v>
-      </c>
       <c r="F2" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>53</v>
@@ -7207,7 +7249,7 @@
         <v>55</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M2" s="39" t="s">
         <v>53</v>
@@ -7216,7 +7258,7 @@
         <v>54</v>
       </c>
       <c r="O2" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P2" s="39" t="s">
         <v>53</v>
@@ -7250,7 +7292,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="BH2" s="7"/>
     </row>
@@ -7259,16 +7301,16 @@
         <v>256</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>556</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>557</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>557</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>558</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7308,7 +7350,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="BH3" s="7"/>
     </row>
@@ -7396,7 +7438,7 @@
         <v>89</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="BH4" s="7"/>
     </row>
@@ -7405,19 +7447,19 @@
         <v>256</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>558</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>561</v>
-      </c>
       <c r="F5" s="40" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>53</v>
@@ -7426,7 +7468,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>56</v>
@@ -7435,7 +7477,7 @@
         <v>55</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M5" s="40" t="s">
         <v>53</v>
@@ -7478,7 +7520,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="BH5" s="7"/>
     </row>
@@ -7487,16 +7529,16 @@
         <v>256</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>562</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>564</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>52</v>
@@ -7517,7 +7559,7 @@
         <v>55</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>53</v>
@@ -7554,7 +7596,7 @@
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="BH6" s="7"/>
     </row>
@@ -7563,16 +7605,16 @@
         <v>256</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>565</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>567</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>52</v>
@@ -7593,7 +7635,7 @@
         <v>55</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M7" s="40" t="s">
         <v>53</v>
@@ -7630,7 +7672,7 @@
         <v>89</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="BH7" s="7"/>
     </row>
@@ -7639,16 +7681,16 @@
         <v>256</v>
       </c>
       <c r="B8" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>568</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>570</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>52</v>
@@ -7669,7 +7711,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M8" s="40" t="s">
         <v>53</v>
@@ -7706,7 +7748,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="BH8" s="7"/>
     </row>
@@ -7715,16 +7757,16 @@
         <v>256</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>571</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>573</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>52</v>
@@ -7745,7 +7787,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M9" s="39" t="s">
         <v>53</v>
@@ -7782,7 +7824,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="BH9" s="7"/>
     </row>
@@ -7791,16 +7833,16 @@
         <v>256</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>574</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>575</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>576</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>52</v>
@@ -7821,7 +7863,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>53</v>
@@ -7858,7 +7900,7 @@
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="BH10" s="7"/>
     </row>
@@ -7867,16 +7909,16 @@
         <v>256</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>577</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>578</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>579</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>52</v>
@@ -7897,7 +7939,7 @@
         <v>55</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>53</v>
@@ -7934,7 +7976,7 @@
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="BH11" s="7"/>
     </row>
@@ -7943,16 +7985,16 @@
         <v>256</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>580</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>581</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>581</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>582</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>52</v>
@@ -7973,7 +8015,7 @@
         <v>55</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M12" s="40" t="s">
         <v>53</v>
@@ -8010,7 +8052,7 @@
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="BH12" s="7"/>
     </row>
@@ -8019,19 +8061,19 @@
         <v>256</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>584</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>585</v>
-      </c>
       <c r="F13" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>53</v>
@@ -8049,7 +8091,7 @@
         <v>55</v>
       </c>
       <c r="L13" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M13" s="39" t="s">
         <v>53</v>
@@ -8058,7 +8100,7 @@
         <v>54</v>
       </c>
       <c r="O13" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P13" s="39" t="s">
         <v>53</v>
@@ -8092,7 +8134,7 @@
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="BH13" s="7"/>
     </row>
@@ -8101,16 +8143,16 @@
         <v>256</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8150,7 +8192,7 @@
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="BH14" s="7"/>
     </row>
@@ -8208,7 +8250,7 @@
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="BH15" s="7"/>
     </row>
@@ -8220,13 +8262,13 @@
         <v>61</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8266,7 +8308,7 @@
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="BH16" s="7"/>
     </row>
@@ -8324,7 +8366,7 @@
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="BH17" s="7"/>
     </row>
@@ -8336,13 +8378,13 @@
         <v>67</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>52</v>
@@ -8354,7 +8396,7 @@
         <v>54</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J18" s="40" t="s">
         <v>53</v>
@@ -8394,7 +8436,7 @@
         <v>89</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="BH18" s="7"/>
     </row>
@@ -8452,7 +8494,7 @@
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="BH19" s="7"/>
     </row>
@@ -8461,16 +8503,16 @@
         <v>256</v>
       </c>
       <c r="B20" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>592</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>594</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -8510,7 +8552,7 @@
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="BH20" s="7"/>
     </row>
@@ -8519,16 +8561,16 @@
         <v>256</v>
       </c>
       <c r="B21" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>595</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>596</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>596</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>597</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -8568,7 +8610,7 @@
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="BH21" s="7"/>
     </row>
@@ -8577,16 +8619,16 @@
         <v>256</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>598</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>600</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -8626,7 +8668,7 @@
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="BH22" s="7"/>
     </row>
@@ -8635,16 +8677,16 @@
         <v>256</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>601</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>603</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>52</v>
@@ -8690,7 +8732,7 @@
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="BH23" s="7"/>
     </row>
@@ -8699,16 +8741,16 @@
         <v>58</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>604</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>606</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>52</v>
@@ -8729,7 +8771,7 @@
         <v>55</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M24" s="40" t="s">
         <v>53</v>
@@ -8766,7 +8808,7 @@
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="BH24" s="7"/>
     </row>
@@ -8775,16 +8817,16 @@
         <v>58</v>
       </c>
       <c r="B25" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>607</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>608</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>608</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>609</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>52</v>
@@ -8805,7 +8847,7 @@
         <v>55</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M25" s="39" t="s">
         <v>53</v>
@@ -8849,16 +8891,16 @@
         <v>256</v>
       </c>
       <c r="B26" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>610</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>612</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>52</v>
@@ -8870,7 +8912,7 @@
         <v>54</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>56</v>
@@ -8879,7 +8921,7 @@
         <v>55</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M26" s="39" t="s">
         <v>53</v>
@@ -8888,7 +8930,7 @@
         <v>54</v>
       </c>
       <c r="O26" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P26" s="39" t="s">
         <v>53</v>
@@ -8928,7 +8970,7 @@
         <v>89</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="BH26" s="7"/>
     </row>
@@ -8937,16 +8979,16 @@
         <v>256</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F27" s="39" t="s">
         <v>52</v>
@@ -8958,7 +9000,7 @@
         <v>54</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J27" s="39" t="s">
         <v>56</v>
@@ -8967,7 +9009,7 @@
         <v>55</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M27" s="39" t="s">
         <v>53</v>
@@ -8976,7 +9018,7 @@
         <v>54</v>
       </c>
       <c r="O27" s="39" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="P27" s="39" t="s">
         <v>53</v>
@@ -9016,7 +9058,7 @@
         <v>89</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="BH27" s="7"/>
     </row>
@@ -9025,16 +9067,16 @@
         <v>58</v>
       </c>
       <c r="B28" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>615</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>617</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>52</v>
@@ -9046,7 +9088,7 @@
         <v>54</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J28" s="40" t="s">
         <v>56</v>
@@ -9055,7 +9097,7 @@
         <v>55</v>
       </c>
       <c r="L28" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M28" s="40" t="s">
         <v>53</v>
@@ -9064,7 +9106,7 @@
         <v>54</v>
       </c>
       <c r="O28" s="40" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P28" s="40" t="s">
         <v>53</v>
@@ -9111,19 +9153,19 @@
         <v>58</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G29" s="39" t="s">
         <v>53</v>
@@ -9132,7 +9174,7 @@
         <v>54</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J29" s="39" t="s">
         <v>56</v>
@@ -9141,7 +9183,7 @@
         <v>55</v>
       </c>
       <c r="L29" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M29" s="39" t="s">
         <v>53</v>
@@ -9150,7 +9192,7 @@
         <v>54</v>
       </c>
       <c r="O29" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P29" s="39" t="s">
         <v>53</v>
@@ -9197,16 +9239,16 @@
         <v>58</v>
       </c>
       <c r="B30" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="E30" s="29" t="s">
         <v>620</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>621</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>621</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>622</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -9246,7 +9288,7 @@
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="BH30" s="7"/>
     </row>
@@ -9255,16 +9297,16 @@
         <v>58</v>
       </c>
       <c r="B31" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="E31" s="29" t="s">
         <v>623</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>624</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>624</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>625</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -9304,7 +9346,7 @@
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="BH31" s="7"/>
     </row>
@@ -9313,16 +9355,16 @@
         <v>58</v>
       </c>
       <c r="B32" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="E32" s="29" t="s">
         <v>626</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>627</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>627</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>628</v>
       </c>
       <c r="F32" s="40" t="s">
         <v>52</v>
@@ -9334,7 +9376,7 @@
         <v>54</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J32" s="40" t="s">
         <v>56</v>
@@ -9343,7 +9385,7 @@
         <v>55</v>
       </c>
       <c r="L32" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M32" s="40" t="s">
         <v>53</v>
@@ -9386,7 +9428,7 @@
         <v>89</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="BH32" s="7"/>
     </row>
@@ -9395,16 +9437,16 @@
         <v>58</v>
       </c>
       <c r="B33" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>629</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>631</v>
       </c>
       <c r="F33" s="39" t="s">
         <v>52</v>
@@ -9425,7 +9467,7 @@
         <v>55</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M33" s="39" t="s">
         <v>53</v>
@@ -9462,7 +9504,7 @@
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="BH33" s="7"/>
     </row>
@@ -9471,16 +9513,16 @@
         <v>58</v>
       </c>
       <c r="B34" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="E34" s="29" t="s">
         <v>632</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>634</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>52</v>
@@ -9501,7 +9543,7 @@
         <v>55</v>
       </c>
       <c r="L34" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>53</v>
@@ -9538,7 +9580,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="BH34" s="7"/>
     </row>
@@ -9547,16 +9589,16 @@
         <v>58</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F35" s="40" t="s">
         <v>52</v>
@@ -9577,7 +9619,7 @@
         <v>55</v>
       </c>
       <c r="L35" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M35" s="40" t="s">
         <v>53</v>
@@ -9614,7 +9656,7 @@
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="BH35" s="7"/>
     </row>
@@ -9623,16 +9665,16 @@
         <v>58</v>
       </c>
       <c r="B36" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>636</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>636</v>
+      </c>
+      <c r="E36" s="29" t="s">
         <v>637</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>639</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -9672,7 +9714,7 @@
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="BH36" s="7"/>
     </row>
@@ -9681,19 +9723,19 @@
         <v>58</v>
       </c>
       <c r="B37" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="E37" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>642</v>
-      </c>
       <c r="F37" s="40" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>53</v>
@@ -9702,7 +9744,7 @@
         <v>54</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J37" s="40" t="s">
         <v>56</v>
@@ -9711,7 +9753,7 @@
         <v>55</v>
       </c>
       <c r="L37" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M37" s="40" t="s">
         <v>53</v>
@@ -9720,7 +9762,7 @@
         <v>54</v>
       </c>
       <c r="O37" s="40" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P37" s="40" t="s">
         <v>53</v>
@@ -9760,7 +9802,7 @@
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="BH37" s="7"/>
     </row>
@@ -9769,16 +9811,16 @@
         <v>58</v>
       </c>
       <c r="B38" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>642</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>642</v>
+      </c>
+      <c r="E38" s="29" t="s">
         <v>643</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>644</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>644</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>645</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>52</v>
@@ -9824,7 +9866,7 @@
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="BH38" s="7"/>
     </row>
@@ -9833,16 +9875,16 @@
         <v>256</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F39" s="40" t="s">
         <v>52</v>
@@ -9888,7 +9930,7 @@
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="BH39" s="7"/>
     </row>
@@ -9897,16 +9939,16 @@
         <v>58</v>
       </c>
       <c r="B40" s="30" t="s">
+        <v>646</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>647</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>648</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>649</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>650</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>52</v>
@@ -9958,7 +10000,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="BH40" s="7"/>
     </row>
@@ -9967,16 +10009,16 @@
         <v>256</v>
       </c>
       <c r="B41" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E41" s="29" t="s">
         <v>651</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>653</v>
       </c>
       <c r="F41" s="40" t="s">
         <v>52</v>
@@ -10029,16 +10071,16 @@
         <v>58</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>52</v>
@@ -10091,16 +10133,16 @@
         <v>256</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>656</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>658</v>
       </c>
       <c r="F43" s="40" t="s">
         <v>52</v>
@@ -10153,16 +10195,16 @@
         <v>58</v>
       </c>
       <c r="B44" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>659</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>661</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>52</v>
@@ -10215,16 +10257,16 @@
         <v>58</v>
       </c>
       <c r="B45" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E45" s="29" t="s">
         <v>662</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>664</v>
       </c>
       <c r="F45" s="40" t="s">
         <v>52</v>
@@ -10275,16 +10317,16 @@
         <v>58</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F46" s="39" t="s">
         <v>52</v>
@@ -10305,7 +10347,7 @@
         <v>55</v>
       </c>
       <c r="L46" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M46" s="39" t="s">
         <v>53</v>
@@ -10349,16 +10391,16 @@
         <v>58</v>
       </c>
       <c r="B47" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>667</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>668</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>668</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>669</v>
       </c>
       <c r="F47" s="40" t="s">
         <v>52</v>
@@ -10411,16 +10453,16 @@
         <v>58</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F48" s="39" t="s">
         <v>52</v>
@@ -10441,7 +10483,7 @@
         <v>55</v>
       </c>
       <c r="L48" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M48" s="39" t="s">
         <v>53</v>
@@ -10485,16 +10527,16 @@
         <v>58</v>
       </c>
       <c r="B49" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>671</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>672</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>674</v>
       </c>
       <c r="F49" s="40" t="s">
         <v>52</v>
@@ -10515,7 +10557,7 @@
         <v>55</v>
       </c>
       <c r="L49" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M49" s="40" t="s">
         <v>53</v>
@@ -10559,16 +10601,16 @@
         <v>58</v>
       </c>
       <c r="B50" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>675</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>676</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>676</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>677</v>
       </c>
       <c r="F50" s="39" t="s">
         <v>52</v>
@@ -10589,7 +10631,7 @@
         <v>55</v>
       </c>
       <c r="L50" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>53</v>
@@ -10633,16 +10675,16 @@
         <v>58</v>
       </c>
       <c r="B51" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="E51" s="29" t="s">
         <v>678</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>680</v>
       </c>
       <c r="F51" s="40" t="s">
         <v>52</v>
@@ -10663,7 +10705,7 @@
         <v>55</v>
       </c>
       <c r="L51" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M51" s="40" t="s">
         <v>53</v>
@@ -10707,16 +10749,16 @@
         <v>58</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F52" s="39" t="s">
         <v>52</v>
@@ -10769,16 +10811,16 @@
         <v>58</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F53" s="40" t="s">
         <v>52</v>
@@ -10837,16 +10879,16 @@
         <v>58</v>
       </c>
       <c r="B54" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="E54" s="29" t="s">
         <v>685</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>687</v>
       </c>
       <c r="F54" s="39" t="s">
         <v>52</v>
@@ -10867,7 +10909,7 @@
         <v>55</v>
       </c>
       <c r="L54" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M54" s="39" t="s">
         <v>53</v>
@@ -10876,7 +10918,7 @@
         <v>54</v>
       </c>
       <c r="O54" s="39" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="P54" s="39" t="s">
         <v>53</v>
@@ -10923,16 +10965,16 @@
         <v>256</v>
       </c>
       <c r="B55" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="E55" s="29" t="s">
         <v>688</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>689</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>689</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>690</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -10979,16 +11021,16 @@
         <v>58</v>
       </c>
       <c r="B56" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="E56" s="29" t="s">
         <v>691</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>693</v>
       </c>
       <c r="F56" s="39" t="s">
         <v>52</v>
@@ -11050,7 +11092,7 @@
         <v>29</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F57" s="40" t="s">
         <v>52</v>
@@ -11096,7 +11138,7 @@
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="BH57" s="7"/>
     </row>
@@ -11105,16 +11147,16 @@
         <v>58</v>
       </c>
       <c r="B58" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="E58" s="29" t="s">
         <v>695</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>696</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>696</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>697</v>
       </c>
       <c r="F58" s="39" t="s">
         <v>52</v>
@@ -11135,7 +11177,7 @@
         <v>55</v>
       </c>
       <c r="L58" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M58" s="39" t="s">
         <v>53</v>
@@ -11172,7 +11214,7 @@
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="BH58" s="7"/>
     </row>
@@ -11181,16 +11223,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="E59" s="29" t="s">
         <v>698</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>699</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>699</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>700</v>
       </c>
       <c r="F59" s="40" t="s">
         <v>52</v>
@@ -11211,7 +11253,7 @@
         <v>55</v>
       </c>
       <c r="L59" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M59" s="40" t="s">
         <v>53</v>
@@ -11248,7 +11290,7 @@
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="BH59" s="7"/>
     </row>
@@ -11257,16 +11299,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="30" t="s">
+        <v>699</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>700</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>700</v>
+      </c>
+      <c r="E60" s="29" t="s">
         <v>701</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>703</v>
       </c>
       <c r="F60" s="39" t="s">
         <v>52</v>
@@ -11287,7 +11329,7 @@
         <v>55</v>
       </c>
       <c r="L60" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>53</v>
@@ -11296,7 +11338,7 @@
         <v>54</v>
       </c>
       <c r="O60" s="39" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="P60" s="39" t="s">
         <v>53</v>
@@ -11330,7 +11372,7 @@
         <v>89</v>
       </c>
       <c r="BG60" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="BH60" s="7"/>
     </row>
@@ -11339,16 +11381,16 @@
         <v>58</v>
       </c>
       <c r="B61" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E61" s="29" t="s">
         <v>704</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>706</v>
       </c>
       <c r="F61" s="40" t="s">
         <v>52</v>
@@ -11369,7 +11411,7 @@
         <v>55</v>
       </c>
       <c r="L61" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M61" s="40" t="s">
         <v>53</v>
@@ -11378,7 +11420,7 @@
         <v>54</v>
       </c>
       <c r="O61" s="40" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P61" s="40" t="s">
         <v>53</v>
@@ -11412,7 +11454,7 @@
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="BH61" s="7"/>
     </row>
@@ -11421,16 +11463,16 @@
         <v>58</v>
       </c>
       <c r="B62" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="E62" s="29" t="s">
         <v>707</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>709</v>
       </c>
       <c r="F62" s="39" t="s">
         <v>52</v>
@@ -11463,7 +11505,7 @@
         <v>82</v>
       </c>
       <c r="AW62" s="32" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="BD62" s="7">
         <f t="shared" si="0"/>
@@ -11476,7 +11518,7 @@
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="BH62" s="7"/>
     </row>
@@ -11485,16 +11527,16 @@
         <v>58</v>
       </c>
       <c r="B63" s="30" t="s">
+        <v>708</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>709</v>
+      </c>
+      <c r="E63" s="29" t="s">
         <v>710</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>711</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>711</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>712</v>
       </c>
       <c r="F63" s="40" t="s">
         <v>52</v>
@@ -11540,7 +11582,7 @@
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="BH63" s="7"/>
     </row>
@@ -11549,16 +11591,16 @@
         <v>58</v>
       </c>
       <c r="B64" s="30" t="s">
+        <v>711</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="E64" s="29" t="s">
         <v>713</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>714</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>714</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>715</v>
       </c>
       <c r="F64" s="39" t="s">
         <v>52</v>
@@ -11604,7 +11646,7 @@
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="BH64" s="7"/>
     </row>
@@ -11613,16 +11655,16 @@
         <v>58</v>
       </c>
       <c r="B65" s="30" t="s">
+        <v>714</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="E65" s="29" t="s">
         <v>716</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>717</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>717</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>718</v>
       </c>
       <c r="F65" s="40" t="s">
         <v>52</v>
@@ -11668,7 +11710,7 @@
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="BH65" s="7"/>
     </row>
@@ -11677,16 +11719,16 @@
         <v>58</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F66" s="39" t="s">
         <v>52</v>
@@ -11707,7 +11749,7 @@
         <v>55</v>
       </c>
       <c r="L66" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M66" s="39" t="s">
         <v>53</v>
@@ -11744,7 +11786,7 @@
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="BH66" s="7"/>
     </row>
@@ -11753,16 +11795,16 @@
         <v>58</v>
       </c>
       <c r="B67" s="29" t="s">
+        <v>719</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="E67" s="29" t="s">
         <v>721</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>723</v>
       </c>
       <c r="F67" s="40" t="s">
         <v>52</v>
@@ -11814,7 +11856,7 @@
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="BH67" s="7"/>
     </row>
@@ -11823,16 +11865,16 @@
         <v>58</v>
       </c>
       <c r="B68" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="E68" s="29" t="s">
         <v>724</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>725</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>725</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>726</v>
       </c>
       <c r="F68" s="39" t="s">
         <v>52</v>
@@ -11853,7 +11895,7 @@
         <v>55</v>
       </c>
       <c r="L68" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M68" s="39" t="s">
         <v>53</v>
@@ -11890,7 +11932,7 @@
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="BH68" s="7"/>
     </row>
@@ -11899,16 +11941,16 @@
         <v>58</v>
       </c>
       <c r="B69" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>726</v>
+      </c>
+      <c r="E69" s="29" t="s">
         <v>727</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>729</v>
       </c>
       <c r="F69" s="40" t="s">
         <v>52</v>
@@ -11954,7 +11996,7 @@
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="BH69" s="7"/>
     </row>
@@ -11963,16 +12005,16 @@
         <v>58</v>
       </c>
       <c r="B70" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="E70" s="29" t="s">
         <v>730</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>731</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>731</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>732</v>
       </c>
       <c r="F70" s="39" t="s">
         <v>52</v>
@@ -11993,7 +12035,7 @@
         <v>55</v>
       </c>
       <c r="L70" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M70" s="39" t="s">
         <v>53</v>
@@ -12030,7 +12072,7 @@
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="BH70" s="7"/>
     </row>
@@ -12039,16 +12081,16 @@
         <v>58</v>
       </c>
       <c r="B71" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="E71" s="29" t="s">
         <v>733</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>734</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>734</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>735</v>
       </c>
       <c r="F71" s="40" t="s">
         <v>52</v>
@@ -12069,7 +12111,7 @@
         <v>55</v>
       </c>
       <c r="L71" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M71" s="40" t="s">
         <v>53</v>
@@ -12106,7 +12148,7 @@
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="BH71" s="7"/>
     </row>
@@ -12115,16 +12157,16 @@
         <v>58</v>
       </c>
       <c r="B72" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>735</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>735</v>
+      </c>
+      <c r="E72" s="29" t="s">
         <v>736</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>737</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>737</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>738</v>
       </c>
       <c r="F72" s="39" t="s">
         <v>52</v>
@@ -12170,7 +12212,7 @@
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="BH72" s="7"/>
     </row>
@@ -12179,16 +12221,16 @@
         <v>58</v>
       </c>
       <c r="B73" s="29" t="s">
+        <v>737</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="E73" s="29" t="s">
         <v>739</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>740</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>740</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>741</v>
       </c>
       <c r="F73" s="40" t="s">
         <v>52</v>
@@ -12240,7 +12282,7 @@
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="BH73" s="7"/>
     </row>
@@ -12249,16 +12291,16 @@
         <v>58</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>52</v>
@@ -12310,7 +12352,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="BH74" s="7"/>
     </row>
@@ -12319,16 +12361,16 @@
         <v>58</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F75" s="40" t="s">
         <v>52</v>
@@ -12349,7 +12391,7 @@
         <v>55</v>
       </c>
       <c r="L75" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M75" s="40" t="s">
         <v>53</v>
@@ -12386,7 +12428,7 @@
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="BH75" s="7"/>
     </row>
@@ -12395,16 +12437,16 @@
         <v>58</v>
       </c>
       <c r="B76" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E76" s="29" t="s">
         <v>746</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>748</v>
       </c>
       <c r="F76" s="39" t="s">
         <v>52</v>
@@ -12425,7 +12467,7 @@
         <v>55</v>
       </c>
       <c r="L76" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M76" s="39" t="s">
         <v>53</v>
@@ -12462,7 +12504,7 @@
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="BH76" s="7"/>
     </row>
@@ -12471,16 +12513,16 @@
         <v>58</v>
       </c>
       <c r="B77" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E77" s="29" t="s">
         <v>749</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>750</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>750</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>751</v>
       </c>
       <c r="F77" s="40" t="s">
         <v>52</v>
@@ -12526,7 +12568,7 @@
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="BH77" s="7"/>
     </row>
@@ -12535,16 +12577,16 @@
         <v>58</v>
       </c>
       <c r="B78" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="E78" s="29" t="s">
         <v>752</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>753</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>753</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>754</v>
       </c>
       <c r="F78" s="39" t="s">
         <v>52</v>
@@ -12590,7 +12632,7 @@
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="BH78" s="7"/>
     </row>
@@ -12599,16 +12641,16 @@
         <v>58</v>
       </c>
       <c r="B79" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="E79" s="29" t="s">
         <v>755</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>757</v>
       </c>
       <c r="F79" s="40" t="s">
         <v>52</v>
@@ -12654,7 +12696,7 @@
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="BH79" s="7"/>
     </row>
@@ -12663,16 +12705,16 @@
         <v>58</v>
       </c>
       <c r="B80" s="37" t="s">
+        <v>756</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>757</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>757</v>
+      </c>
+      <c r="E80" s="29" t="s">
         <v>758</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>759</v>
-      </c>
-      <c r="D80" s="37" t="s">
-        <v>759</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>760</v>
       </c>
       <c r="F80" s="39" t="s">
         <v>52</v>
@@ -12693,7 +12735,7 @@
         <v>55</v>
       </c>
       <c r="L80" s="39" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M80" s="39" t="s">
         <v>53</v>
@@ -12730,7 +12772,7 @@
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="BH80" s="7"/>
     </row>
@@ -12739,16 +12781,16 @@
         <v>256</v>
       </c>
       <c r="B81" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>760</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>760</v>
+      </c>
+      <c r="E81" s="29" t="s">
         <v>761</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>762</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>762</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>763</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -12788,7 +12830,7 @@
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="BH81" s="7"/>
     </row>
@@ -12797,16 +12839,16 @@
         <v>58</v>
       </c>
       <c r="B82" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="E82" s="29" t="s">
         <v>764</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>765</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>766</v>
       </c>
       <c r="F82" s="39" t="s">
         <v>52</v>
@@ -12852,7 +12894,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="BH82" s="7"/>
     </row>
@@ -12861,16 +12903,16 @@
         <v>58</v>
       </c>
       <c r="B83" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="E83" s="29" t="s">
         <v>767</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>768</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>768</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>769</v>
       </c>
       <c r="F83" s="40" t="s">
         <v>52</v>
@@ -12882,7 +12924,7 @@
         <v>54</v>
       </c>
       <c r="I83" s="40" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J83" s="40" t="s">
         <v>56</v>
@@ -12922,7 +12964,7 @@
         <v>89</v>
       </c>
       <c r="BG83" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="BH83" s="7"/>
     </row>
@@ -12931,16 +12973,16 @@
         <v>58</v>
       </c>
       <c r="B84" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="E84" s="29" t="s">
         <v>770</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>771</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>771</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>772</v>
       </c>
       <c r="F84" s="39" t="s">
         <v>52</v>
@@ -12986,7 +13028,7 @@
         <v>89</v>
       </c>
       <c r="BG84" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="BH84" s="7"/>
     </row>
@@ -12995,16 +13037,16 @@
         <v>58</v>
       </c>
       <c r="B85" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="E85" s="29" t="s">
         <v>773</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>774</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>775</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -13044,7 +13086,7 @@
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="BH85" s="7"/>
     </row>
@@ -13053,16 +13095,16 @@
         <v>256</v>
       </c>
       <c r="B86" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="E86" s="29" t="s">
         <v>776</v>
-      </c>
-      <c r="C86" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>778</v>
       </c>
       <c r="F86" s="40" t="s">
         <v>52</v>
@@ -13074,7 +13116,7 @@
         <v>54</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J86" s="40" t="s">
         <v>56</v>
@@ -13127,16 +13169,16 @@
         <v>256</v>
       </c>
       <c r="B87" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E87" s="29" t="s">
         <v>779</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>780</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>780</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>781</v>
       </c>
       <c r="F87" s="39" t="s">
         <v>52</v>
@@ -13148,7 +13190,7 @@
         <v>54</v>
       </c>
       <c r="I87" s="39" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J87" s="39" t="s">
         <v>56</v>
@@ -13166,7 +13208,7 @@
         <v>54</v>
       </c>
       <c r="O87" s="39" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="P87" s="39" t="s">
         <v>53</v>
@@ -13175,7 +13217,7 @@
         <v>54</v>
       </c>
       <c r="R87" s="39" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="S87" s="39" t="s">
         <v>53</v>
@@ -13213,16 +13255,16 @@
         <v>58</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F88" s="40" t="s">
         <v>52</v>
@@ -13234,7 +13276,7 @@
         <v>54</v>
       </c>
       <c r="I88" s="40" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J88" s="40" t="s">
         <v>56</v>
@@ -13280,7 +13322,7 @@
         <v>89</v>
       </c>
       <c r="BG88" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="BH88" s="7"/>
     </row>
@@ -13289,16 +13331,16 @@
         <v>58</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F89" s="39" t="s">
         <v>52</v>
@@ -13310,7 +13352,7 @@
         <v>54</v>
       </c>
       <c r="I89" s="39" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J89" s="39" t="s">
         <v>56</v>
@@ -13356,7 +13398,7 @@
         <v>89</v>
       </c>
       <c r="BG89" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="BH89" s="7"/>
     </row>
@@ -13365,16 +13407,16 @@
         <v>256</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F90" s="40" t="s">
         <v>52</v>
@@ -13386,7 +13428,7 @@
         <v>54</v>
       </c>
       <c r="I90" s="40" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J90" s="40" t="s">
         <v>56</v>
@@ -13395,7 +13437,7 @@
         <v>55</v>
       </c>
       <c r="L90" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="M90" s="40" t="s">
         <v>53</v>
@@ -13407,13 +13449,13 @@
         <v>144</v>
       </c>
       <c r="P90" s="40" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="Q90" s="40" t="s">
         <v>54</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="S90" s="40" t="s">
         <v>53</v>
@@ -13444,7 +13486,7 @@
         <v>89</v>
       </c>
       <c r="BG90" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="BH90" s="7"/>
     </row>
@@ -13453,16 +13495,16 @@
         <v>58</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F91" s="39" t="s">
         <v>52</v>
@@ -13508,7 +13550,7 @@
         <v>89</v>
       </c>
       <c r="BG91" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="BH91" s="7"/>
     </row>
@@ -13517,16 +13559,16 @@
         <v>58</v>
       </c>
       <c r="B92" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="E92" s="29" t="s">
         <v>786</v>
-      </c>
-      <c r="C92" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="E92" s="29" t="s">
-        <v>788</v>
       </c>
       <c r="F92" s="40" t="s">
         <v>52</v>
@@ -13572,7 +13614,7 @@
         <v>89</v>
       </c>
       <c r="BG92" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="BH92" s="7"/>
     </row>
@@ -13581,16 +13623,16 @@
         <v>58</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F93" s="39" t="s">
         <v>52</v>
@@ -13636,7 +13678,7 @@
         <v>89</v>
       </c>
       <c r="BG93" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="BH93" s="7"/>
     </row>
@@ -13645,16 +13687,16 @@
         <v>58</v>
       </c>
       <c r="B94" s="29" t="s">
+        <v>787</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="E94" s="29" t="s">
         <v>789</v>
-      </c>
-      <c r="C94" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="E94" s="29" t="s">
-        <v>791</v>
       </c>
       <c r="F94" s="40" t="s">
         <v>52</v>
@@ -13700,7 +13742,7 @@
         <v>89</v>
       </c>
       <c r="BG94" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="BH94" s="7"/>
     </row>
@@ -13709,16 +13751,16 @@
         <v>58</v>
       </c>
       <c r="B95" s="29" t="s">
+        <v>790</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="E95" s="29" t="s">
         <v>792</v>
-      </c>
-      <c r="C95" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>794</v>
       </c>
       <c r="F95" s="39" t="s">
         <v>52</v>
@@ -13764,7 +13806,7 @@
         <v>89</v>
       </c>
       <c r="BG95" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="BH95" s="7"/>
     </row>
@@ -13773,16 +13815,16 @@
         <v>58</v>
       </c>
       <c r="B96" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="E96" s="29" t="s">
         <v>795</v>
-      </c>
-      <c r="C96" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>797</v>
       </c>
       <c r="F96" s="40" t="s">
         <v>52</v>
@@ -13828,7 +13870,7 @@
         <v>89</v>
       </c>
       <c r="BG96" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="BH96" s="7"/>
     </row>
@@ -13837,16 +13879,16 @@
         <v>58</v>
       </c>
       <c r="B97" s="30" t="s">
+        <v>796</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E97" s="29" t="s">
         <v>798</v>
-      </c>
-      <c r="C97" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>800</v>
       </c>
       <c r="F97" s="39" t="s">
         <v>52</v>
@@ -13858,7 +13900,7 @@
         <v>54</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J97" s="39" t="s">
         <v>56</v>
@@ -13904,7 +13946,7 @@
         <v>89</v>
       </c>
       <c r="BG97" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="BH97" s="7"/>
     </row>
@@ -13913,16 +13955,16 @@
         <v>58</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F98" s="40" t="s">
         <v>52</v>
@@ -13934,7 +13976,7 @@
         <v>54</v>
       </c>
       <c r="I98" s="40" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J98" s="40" t="s">
         <v>56</v>
@@ -13980,7 +14022,7 @@
         <v>89</v>
       </c>
       <c r="BG98" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="BH98" s="7"/>
     </row>
@@ -13989,16 +14031,16 @@
         <v>58</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F99" s="39" t="s">
         <v>52</v>
@@ -14010,7 +14052,7 @@
         <v>54</v>
       </c>
       <c r="I99" s="39" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J99" s="39" t="s">
         <v>56</v>
@@ -14056,7 +14098,7 @@
         <v>89</v>
       </c>
       <c r="BG99" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="BH99" s="7"/>
     </row>
@@ -14065,16 +14107,16 @@
         <v>58</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F100" s="40" t="s">
         <v>52</v>
@@ -14086,7 +14128,7 @@
         <v>54</v>
       </c>
       <c r="I100" s="40" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J100" s="40" t="s">
         <v>56</v>
@@ -14132,7 +14174,7 @@
         <v>89</v>
       </c>
       <c r="BG100" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="BH100" s="7"/>
     </row>
@@ -14141,16 +14183,16 @@
         <v>58</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F101" s="39" t="s">
         <v>52</v>
@@ -14162,7 +14204,7 @@
         <v>54</v>
       </c>
       <c r="I101" s="39" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J101" s="39" t="s">
         <v>56</v>
@@ -14208,7 +14250,7 @@
         <v>89</v>
       </c>
       <c r="BG101" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="BH101" s="7"/>
     </row>
@@ -14217,16 +14259,16 @@
         <v>58</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F102" s="40" t="s">
         <v>52</v>
@@ -14238,7 +14280,7 @@
         <v>54</v>
       </c>
       <c r="I102" s="40" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J102" s="40" t="s">
         <v>56</v>
@@ -14256,7 +14298,7 @@
         <v>54</v>
       </c>
       <c r="O102" s="40" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="P102" s="40" t="s">
         <v>53</v>
@@ -14265,7 +14307,7 @@
         <v>54</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="S102" s="40" t="s">
         <v>53</v>
@@ -14296,7 +14338,7 @@
         <v>89</v>
       </c>
       <c r="BG102" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="BH102" s="7"/>
     </row>
@@ -14305,16 +14347,16 @@
         <v>58</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F103" s="39" t="s">
         <v>52</v>
@@ -14360,7 +14402,7 @@
         <v>89</v>
       </c>
       <c r="BG103" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="BH103" s="7"/>
     </row>
@@ -14369,16 +14411,16 @@
         <v>58</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F104" s="40" t="s">
         <v>52</v>
@@ -14390,7 +14432,7 @@
         <v>54</v>
       </c>
       <c r="I104" s="40" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J104" s="40" t="s">
         <v>56</v>
@@ -14436,7 +14478,7 @@
         <v>89</v>
       </c>
       <c r="BG104" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="BH104" s="7"/>
     </row>
@@ -14445,16 +14487,16 @@
         <v>58</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F105" s="39" t="s">
         <v>52</v>
@@ -14466,7 +14508,7 @@
         <v>54</v>
       </c>
       <c r="I105" s="39" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J105" s="39" t="s">
         <v>56</v>
@@ -14512,7 +14554,7 @@
         <v>89</v>
       </c>
       <c r="BG105" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="BH105" s="7"/>
     </row>
@@ -14521,16 +14563,16 @@
         <v>58</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F106" s="40" t="s">
         <v>52</v>
@@ -14542,7 +14584,7 @@
         <v>54</v>
       </c>
       <c r="I106" s="40" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J106" s="40" t="s">
         <v>56</v>
@@ -14588,7 +14630,7 @@
         <v>89</v>
       </c>
       <c r="BG106" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="BH106" s="7"/>
     </row>
@@ -14597,16 +14639,16 @@
         <v>58</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F107" s="39" t="s">
         <v>52</v>
@@ -14618,7 +14660,7 @@
         <v>54</v>
       </c>
       <c r="I107" s="39" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J107" s="39" t="s">
         <v>56</v>
@@ -14636,7 +14678,7 @@
         <v>54</v>
       </c>
       <c r="O107" s="39" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P107" s="39" t="s">
         <v>53</v>
@@ -14670,7 +14712,7 @@
         <v>89</v>
       </c>
       <c r="BG107" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="BH107" s="7"/>
     </row>
@@ -14679,16 +14721,16 @@
         <v>58</v>
       </c>
       <c r="B108" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="E108" s="29" t="s">
         <v>821</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>823</v>
       </c>
       <c r="F108" s="40" t="s">
         <v>52</v>
@@ -14734,7 +14776,7 @@
         <v>89</v>
       </c>
       <c r="BG108" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="BH108" s="7"/>
     </row>
@@ -14743,16 +14785,16 @@
         <v>58</v>
       </c>
       <c r="B109" s="30" t="s">
+        <v>822</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="E109" s="29" t="s">
         <v>824</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>826</v>
       </c>
       <c r="F109" s="39" t="s">
         <v>52</v>
@@ -14798,7 +14840,7 @@
         <v>89</v>
       </c>
       <c r="BG109" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="BH109" s="7"/>
     </row>
@@ -14807,16 +14849,16 @@
         <v>58</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F110" s="40" t="s">
         <v>52</v>
@@ -14862,7 +14904,7 @@
         <v>89</v>
       </c>
       <c r="BG110" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="BH110" s="7"/>
     </row>
@@ -14871,16 +14913,16 @@
         <v>58</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D111" s="38" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -14920,7 +14962,7 @@
         <v>89</v>
       </c>
       <c r="BG111" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="BH111" s="7"/>
     </row>
@@ -14929,16 +14971,16 @@
         <v>58</v>
       </c>
       <c r="B112" s="38" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D112" s="38" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -14978,7 +15020,7 @@
         <v>89</v>
       </c>
       <c r="BG112" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BH112" s="7"/>
     </row>
@@ -14987,16 +15029,16 @@
         <v>58</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C113" s="38" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -15043,16 +15085,16 @@
         <v>58</v>
       </c>
       <c r="B114" s="38" t="s">
+        <v>833</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="D114" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="E114" s="29" t="s">
         <v>835</v>
-      </c>
-      <c r="C114" s="38" t="s">
-        <v>836</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>836</v>
-      </c>
-      <c r="E114" s="29" t="s">
-        <v>837</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -15092,7 +15134,7 @@
         <v>89</v>
       </c>
       <c r="BG114" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="BH114" s="7"/>
     </row>
@@ -15101,16 +15143,16 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D115" s="38" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -15150,7 +15192,7 @@
         <v>89</v>
       </c>
       <c r="BG115" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="BH115" s="7"/>
     </row>
@@ -15159,16 +15201,16 @@
         <v>58</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D116" s="38" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F116" s="13"/>
       <c r="G116" s="12"/>
@@ -15257,7 +15299,7 @@
         <v>244</v>
       </c>
       <c r="P117" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q117" s="11" t="s">
         <v>243</v>
@@ -15266,7 +15308,7 @@
         <v>245</v>
       </c>
       <c r="S117" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T117" s="11" t="s">
         <v>54</v>
@@ -15281,7 +15323,7 @@
         <v>54</v>
       </c>
       <c r="X117" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="Y117" s="11" t="s">
         <v>53</v>
@@ -15355,7 +15397,7 @@
         <v>244</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q118" s="11" t="s">
         <v>243</v>
@@ -15364,7 +15406,7 @@
         <v>245</v>
       </c>
       <c r="S118" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T118" s="11" t="s">
         <v>54</v>
@@ -15379,7 +15421,7 @@
         <v>54</v>
       </c>
       <c r="X118" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="Y118" s="11" t="s">
         <v>53</v>
@@ -15453,7 +15495,7 @@
         <v>244</v>
       </c>
       <c r="P119" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q119" s="11" t="s">
         <v>243</v>
@@ -15462,7 +15504,7 @@
         <v>245</v>
       </c>
       <c r="S119" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T119" s="11" t="s">
         <v>54</v>
@@ -15496,7 +15538,7 @@
         <v>89</v>
       </c>
       <c r="BG119" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="BH119" s="7"/>
     </row>
@@ -15505,16 +15547,16 @@
         <v>230</v>
       </c>
       <c r="B120" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>842</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>844</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>240</v>
@@ -15547,7 +15589,7 @@
         <v>244</v>
       </c>
       <c r="P120" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q120" s="11" t="s">
         <v>243</v>
@@ -15556,7 +15598,7 @@
         <v>245</v>
       </c>
       <c r="S120" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T120" s="11" t="s">
         <v>54</v>
@@ -15590,7 +15632,7 @@
         <v>89</v>
       </c>
       <c r="BG120" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="BH120" s="7"/>
     </row>
@@ -15599,16 +15641,16 @@
         <v>230</v>
       </c>
       <c r="B121" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>845</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>847</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>240</v>
@@ -15641,7 +15683,7 @@
         <v>244</v>
       </c>
       <c r="P121" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q121" s="11" t="s">
         <v>243</v>
@@ -15650,7 +15692,7 @@
         <v>245</v>
       </c>
       <c r="S121" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T121" s="11" t="s">
         <v>54</v>
@@ -15690,7 +15732,7 @@
         <v>89</v>
       </c>
       <c r="BG121" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="BH121" s="7"/>
     </row>
@@ -15699,16 +15741,16 @@
         <v>230</v>
       </c>
       <c r="B122" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="E122" s="10" t="s">
         <v>848</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>849</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>850</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>240</v>
@@ -15741,7 +15783,7 @@
         <v>244</v>
       </c>
       <c r="P122" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q122" s="11" t="s">
         <v>243</v>
@@ -15750,7 +15792,7 @@
         <v>245</v>
       </c>
       <c r="S122" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T122" s="11" t="s">
         <v>54</v>
@@ -15784,7 +15826,7 @@
         <v>89</v>
       </c>
       <c r="BG122" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="BH122" s="7"/>
     </row>
@@ -15796,13 +15838,13 @@
         <v>216</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>240</v>
@@ -15835,7 +15877,7 @@
         <v>244</v>
       </c>
       <c r="P123" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q123" s="11" t="s">
         <v>243</v>
@@ -15844,7 +15886,7 @@
         <v>245</v>
       </c>
       <c r="S123" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T123" s="11" t="s">
         <v>54</v>
@@ -15884,7 +15926,7 @@
         <v>89</v>
       </c>
       <c r="BG123" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="BH123" s="7"/>
     </row>
@@ -15893,7 +15935,7 @@
         <v>230</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>219</v>
@@ -15902,7 +15944,7 @@
         <v>219</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>240</v>
@@ -15935,7 +15977,7 @@
         <v>244</v>
       </c>
       <c r="P124" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q124" s="11" t="s">
         <v>243</v>
@@ -15944,7 +15986,7 @@
         <v>245</v>
       </c>
       <c r="S124" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T124" s="11" t="s">
         <v>54</v>
@@ -15978,7 +16020,7 @@
         <v>89</v>
       </c>
       <c r="BG124" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="BH124" s="7"/>
     </row>
@@ -16029,7 +16071,7 @@
         <v>244</v>
       </c>
       <c r="P125" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q125" s="11" t="s">
         <v>243</v>
@@ -16038,7 +16080,7 @@
         <v>245</v>
       </c>
       <c r="S125" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T125" s="11" t="s">
         <v>54</v>
@@ -16072,7 +16114,7 @@
         <v>89</v>
       </c>
       <c r="BG125" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="BH125" s="7"/>
     </row>
@@ -16084,13 +16126,13 @@
         <v>231</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>240</v>
@@ -16123,7 +16165,7 @@
         <v>244</v>
       </c>
       <c r="P126" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q126" s="11" t="s">
         <v>243</v>
@@ -16132,7 +16174,7 @@
         <v>245</v>
       </c>
       <c r="S126" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T126" s="11" t="s">
         <v>54</v>
@@ -16166,7 +16208,7 @@
         <v>89</v>
       </c>
       <c r="BG126" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="BH126" s="7"/>
     </row>
@@ -16178,13 +16220,13 @@
         <v>231</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>240</v>
@@ -16217,7 +16259,7 @@
         <v>244</v>
       </c>
       <c r="P127" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q127" s="11" t="s">
         <v>243</v>
@@ -16226,7 +16268,7 @@
         <v>245</v>
       </c>
       <c r="S127" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T127" s="11" t="s">
         <v>54</v>
@@ -16260,7 +16302,7 @@
         <v>89</v>
       </c>
       <c r="BG127" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="BH127" s="7"/>
     </row>
@@ -16311,7 +16353,7 @@
         <v>244</v>
       </c>
       <c r="P128" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q128" s="11" t="s">
         <v>243</v>
@@ -16320,7 +16362,7 @@
         <v>245</v>
       </c>
       <c r="S128" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T128" s="11" t="s">
         <v>54</v>
@@ -16403,7 +16445,7 @@
         <v>244</v>
       </c>
       <c r="P129" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q129" s="11" t="s">
         <v>243</v>
@@ -16412,7 +16454,7 @@
         <v>245</v>
       </c>
       <c r="S129" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T129" s="11" t="s">
         <v>54</v>
@@ -16446,7 +16488,7 @@
         <v>89</v>
       </c>
       <c r="BG129" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="BH129" s="7"/>
     </row>
@@ -16497,7 +16539,7 @@
         <v>244</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q130" s="11" t="s">
         <v>243</v>
@@ -16506,7 +16548,7 @@
         <v>245</v>
       </c>
       <c r="S130" s="11" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="T130" s="11" t="s">
         <v>54</v>
@@ -16598,7 +16640,7 @@
         <v>48</v>
       </c>
       <c r="BD131" s="7">
-        <f t="shared" ref="BD131:BD137" si="2">SUM(AW131,AY131,BA131,BC131)</f>
+        <f t="shared" ref="BD131:BD136" si="2">SUM(AW131,AY131,BA131,BC131)</f>
         <v>48</v>
       </c>
       <c r="BE131" s="8" t="s">
@@ -16680,13 +16722,13 @@
         <v>263</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>272</v>
@@ -16739,16 +16781,16 @@
         <v>58</v>
       </c>
       <c r="B134" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="E134" s="15" t="s">
         <v>861</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>862</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>862</v>
-      </c>
-      <c r="E134" s="15" t="s">
-        <v>863</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>272</v>
@@ -16794,7 +16836,7 @@
         <v>89</v>
       </c>
       <c r="BG134" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="BH134" s="7"/>
     </row>
@@ -16920,7 +16962,7 @@
         <v>89</v>
       </c>
       <c r="BG136" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="BH136" s="7"/>
     </row>
@@ -17064,16 +17106,16 @@
         <v>18</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>276</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -17081,16 +17123,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>279</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
@@ -17098,16 +17140,16 @@
         <v>24</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -17115,16 +17157,16 @@
         <v>18</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>285</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -17132,16 +17174,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>288</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -17149,16 +17191,16 @@
         <v>18</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>291</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -17166,16 +17208,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>294</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -17183,16 +17225,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>297</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -17200,16 +17242,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>300</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -17217,16 +17259,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>303</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17234,16 +17276,16 @@
         <v>18</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>306</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17251,16 +17293,16 @@
         <v>24</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>309</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17268,16 +17310,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>312</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17285,16 +17327,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17302,16 +17344,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17319,16 +17361,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -17336,16 +17378,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17353,16 +17395,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>325</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17370,16 +17412,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17387,16 +17429,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>331</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17404,16 +17446,16 @@
         <v>18</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>334</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17421,16 +17463,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>337</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17438,16 +17480,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -17455,16 +17497,16 @@
         <v>24</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17472,16 +17514,16 @@
         <v>24</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
@@ -17489,16 +17531,16 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>349</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17506,16 +17548,16 @@
         <v>18</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17523,16 +17565,16 @@
         <v>18</v>
       </c>
       <c r="B34" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17540,16 +17582,16 @@
         <v>18</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>358</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17557,16 +17599,16 @@
         <v>18</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>361</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17574,16 +17616,16 @@
         <v>18</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -17591,16 +17633,16 @@
         <v>18</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>367</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -17608,16 +17650,16 @@
         <v>18</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17625,16 +17667,16 @@
         <v>18</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>372</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17642,16 +17684,16 @@
         <v>18</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>375</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17659,16 +17701,16 @@
         <v>18</v>
       </c>
       <c r="B42" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="E42" s="20" t="s">
         <v>378</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17676,16 +17718,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
@@ -17693,16 +17735,16 @@
         <v>18</v>
       </c>
       <c r="B44" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="E44" s="20" t="s">
         <v>384</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17710,16 +17752,16 @@
         <v>18</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>387</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17727,16 +17769,16 @@
         <v>24</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17744,16 +17786,16 @@
         <v>18</v>
       </c>
       <c r="B47" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="E47" s="20" t="s">
         <v>392</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17761,16 +17803,16 @@
         <v>18</v>
       </c>
       <c r="B48" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E48" s="20" t="s">
         <v>395</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17778,16 +17820,16 @@
         <v>18</v>
       </c>
       <c r="B49" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="E49" s="20" t="s">
         <v>398</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -17795,16 +17837,16 @@
         <v>18</v>
       </c>
       <c r="B50" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E50" s="20" t="s">
         <v>401</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17812,16 +17854,16 @@
         <v>18</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17829,16 +17871,16 @@
         <v>24</v>
       </c>
       <c r="B52" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>407</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17846,16 +17888,16 @@
         <v>18</v>
       </c>
       <c r="B53" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="E53" s="20" t="s">
         <v>410</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17863,16 +17905,16 @@
         <v>18</v>
       </c>
       <c r="B54" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E54" s="20" t="s">
         <v>413</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -17880,16 +17922,16 @@
         <v>18</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E55" s="20" t="s">
         <v>416</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17897,16 +17939,16 @@
         <v>18</v>
       </c>
       <c r="B56" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E56" s="20" t="s">
         <v>419</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17914,16 +17956,16 @@
         <v>18</v>
       </c>
       <c r="B57" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="E57" s="20" t="s">
         <v>422</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17931,16 +17973,16 @@
         <v>18</v>
       </c>
       <c r="B58" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>425</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>426</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="102" x14ac:dyDescent="0.25">
@@ -17948,16 +17990,16 @@
         <v>18</v>
       </c>
       <c r="B59" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>428</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17965,16 +18007,16 @@
         <v>18</v>
       </c>
       <c r="B60" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17982,16 +18024,16 @@
         <v>18</v>
       </c>
       <c r="B61" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>434</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17999,16 +18041,16 @@
         <v>18</v>
       </c>
       <c r="B62" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E62" s="20" t="s">
         <v>437</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18016,16 +18058,16 @@
         <v>18</v>
       </c>
       <c r="B63" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="E63" s="20" t="s">
         <v>440</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
@@ -18033,16 +18075,16 @@
         <v>18</v>
       </c>
       <c r="B64" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="E64" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -18050,16 +18092,16 @@
         <v>18</v>
       </c>
       <c r="B65" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E65" s="20" t="s">
         <v>446</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -18067,16 +18109,16 @@
         <v>24</v>
       </c>
       <c r="B66" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="E66" s="20" t="s">
         <v>866</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>867</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>867</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -18084,16 +18126,16 @@
         <v>211</v>
       </c>
       <c r="B67" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="E67" s="20" t="s">
         <v>449</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -18101,16 +18143,16 @@
         <v>211</v>
       </c>
       <c r="B68" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="E68" s="20" t="s">
         <v>452</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -18118,16 +18160,16 @@
         <v>211</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18135,13 +18177,13 @@
         <v>211</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>33</v>
@@ -18152,13 +18194,13 @@
         <v>211</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>34</v>
@@ -18169,13 +18211,13 @@
         <v>211</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>35</v>
@@ -18186,16 +18228,16 @@
         <v>24</v>
       </c>
       <c r="B73" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>463</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18203,16 +18245,16 @@
         <v>211</v>
       </c>
       <c r="B74" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="E74" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18220,16 +18262,16 @@
         <v>18</v>
       </c>
       <c r="B75" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="E75" s="20" t="s">
         <v>469</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18237,16 +18279,16 @@
         <v>18</v>
       </c>
       <c r="B76" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="E76" s="20" t="s">
         <v>472</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18254,16 +18296,16 @@
         <v>18</v>
       </c>
       <c r="B77" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="E77" s="20" t="s">
         <v>475</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18271,16 +18313,16 @@
         <v>211</v>
       </c>
       <c r="B78" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="E78" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -18288,16 +18330,16 @@
         <v>18</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -18305,16 +18347,16 @@
         <v>18</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -18322,16 +18364,16 @@
         <v>18</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -18339,16 +18381,16 @@
         <v>18</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -18356,16 +18398,16 @@
         <v>18</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -18373,16 +18415,16 @@
         <v>18</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18390,16 +18432,16 @@
         <v>24</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -18407,16 +18449,16 @@
         <v>18</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -18424,16 +18466,16 @@
         <v>18</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -18441,16 +18483,16 @@
         <v>24</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -18458,16 +18500,16 @@
         <v>18</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -18475,16 +18517,16 @@
         <v>18</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -18492,16 +18534,16 @@
         <v>211</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18509,16 +18551,16 @@
         <v>24</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18526,16 +18568,16 @@
         <v>24</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18543,16 +18585,16 @@
         <v>24</v>
       </c>
       <c r="B94" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -18560,16 +18602,16 @@
         <v>24</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -18577,16 +18619,16 @@
         <v>24</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -18594,16 +18636,16 @@
         <v>24</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18611,16 +18653,16 @@
         <v>18</v>
       </c>
       <c r="B98" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="E98" s="20" t="s">
         <v>519</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -18628,16 +18670,16 @@
         <v>18</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E99" s="20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18645,16 +18687,16 @@
         <v>211</v>
       </c>
       <c r="B100" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="E100" s="21" t="s">
         <v>524</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -18662,16 +18704,16 @@
         <v>211</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -18679,16 +18721,16 @@
         <v>211</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18696,16 +18738,16 @@
         <v>211</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -18713,16 +18755,16 @@
         <v>18</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -18730,16 +18772,16 @@
         <v>18</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E105" s="20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -18747,16 +18789,16 @@
         <v>18</v>
       </c>
       <c r="B106" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="E106" s="20" t="s">
         <v>537</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>538</v>
-      </c>
-      <c r="E106" s="20" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -18781,16 +18823,16 @@
         <v>18</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E108" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -18798,16 +18840,16 @@
         <v>18</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18815,16 +18857,16 @@
         <v>18</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -18866,16 +18908,16 @@
         <v>211</v>
       </c>
       <c r="B113" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="E113" s="21" t="s">
         <v>546</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="D113" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -18883,16 +18925,16 @@
         <v>24</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -18900,16 +18942,16 @@
         <v>24</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18934,16 +18976,16 @@
         <v>24</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1095">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3331,6 +3331,24 @@
   </si>
   <si>
     <t>T2N0QDIwMjA</t>
+  </si>
+  <si>
+    <t>Loan Details</t>
+  </si>
+  <si>
+    <t>Total Loan Eligibility</t>
+  </si>
+  <si>
+    <t>Number of Loan Taken</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Total Loan Paid</t>
+  </si>
+  <si>
+    <t>Total Current Outstanding</t>
   </si>
 </sst>
 </file>
@@ -3753,7 +3771,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4085,7 +4103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6319,10 +6337,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6575,6 +6593,29 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3584" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="1023">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3089,11 +3089,57 @@
   <si>
     <t>520920001740</t>
   </si>
+  <si>
+    <t>101120002601</t>
+  </si>
+  <si>
+    <t>101120002602</t>
+  </si>
+  <si>
+    <t>101120002604</t>
+  </si>
+  <si>
+    <t>101120002605</t>
+  </si>
+  <si>
+    <t>101120002607</t>
+  </si>
+  <si>
+    <t>101120002608</t>
+  </si>
+  <si>
+    <t>101120002609</t>
+  </si>
+  <si>
+    <t>101120002611</t>
+  </si>
+  <si>
+    <t>101120002612</t>
+  </si>
+  <si>
+    <t>101120002614</t>
+  </si>
+  <si>
+    <t>101120002615</t>
+  </si>
+  <si>
+    <t>101120002617</t>
+  </si>
+  <si>
+    <t>101120002618</t>
+  </si>
+  <si>
+    <t>101120002619</t>
+  </si>
+  <si>
+    <t>101120002620</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3515,7 +3561,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,11 +3899,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4045,9 +4091,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4192,8 +4238,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="44" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="44" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="44" width="30.875" collapsed="true"/>
+    <col min="2" max="16384" style="44" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4258,10 +4304,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5758,19 +5804,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="41" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="41" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="10" style="41" customWidth="1"/>
-    <col min="8" max="8" width="11" style="41" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="41" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="41" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="41" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="41" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="15.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="19.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="41" width="10.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="41" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="41" width="10.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="41" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="41" width="11.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="41" width="10.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="41" width="10.125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="41" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="41" width="11.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="41" width="11.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -5860,9 +5906,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5915,11 +5961,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="47" customWidth="1"/>
-    <col min="2" max="2" width="9" style="47"/>
-    <col min="3" max="3" width="13.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="47" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="47"/>
+    <col min="1" max="1" customWidth="true" style="47" width="19.25" collapsed="true"/>
+    <col min="2" max="2" style="47" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="47" width="13.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="47" width="11.5" collapsed="true"/>
+    <col min="5" max="16384" style="47" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6030,15 +6076,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" customWidth="true" style="7" width="23.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="24.25" collapsed="true"/>
+    <col min="3" max="16384" style="7" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6089,7 +6135,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6142,15 +6188,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6474,36 +6520,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6776,7 +6822,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>977</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -6825,7 +6871,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="7" t="s">
-        <v>908</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -6843,10 +6889,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6918,8 +6964,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="26" width="9" style="7" collapsed="1"/>
-    <col min="59" max="59" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" style="7" width="9.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -18804,8 +18850,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="1018">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3109,6 +3109,15 @@
   </si>
   <si>
     <t>161120002637</t>
+  </si>
+  <si>
+    <t>Detailed Usage History</t>
+  </si>
+  <si>
+    <t>Transaction Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -3240,7 +3249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3304,6 +3313,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3313,7 +3333,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3415,6 +3435,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3868,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3939,7 +3960,7 @@
         <v>124</v>
       </c>
       <c r="D2" s="7">
-        <v>735948275</v>
+        <v>751522556</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -4030,7 +4051,7 @@
         <v>131</v>
       </c>
       <c r="D4" s="5">
-        <v>735948275</v>
+        <v>751522556</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -6155,10 +6176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6548,6 +6569,32 @@
       </c>
       <c r="K14" s="52" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H15" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -2997,9 +2997,6 @@
     <t>Ticket Field 7 - Label</t>
   </si>
   <si>
-    <t>201020001933</t>
-  </si>
-  <si>
     <t>Loan Services</t>
   </si>
   <si>
@@ -3088,6 +3085,9 @@
   </si>
   <si>
     <t>520920001740</t>
+  </si>
+  <si>
+    <t>171120002643</t>
   </si>
 </sst>
 </file>
@@ -3515,7 +3515,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3912,7 +3912,7 @@
         <v>2388006</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>124</v>
@@ -4003,7 +4003,7 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>131</v>
@@ -4017,7 +4017,7 @@
         <v>2388006</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>179</v>
@@ -4252,8 +4252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6030,8 +6030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6222,7 +6222,7 @@
         <v>150</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6242,7 +6242,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>146</v>
@@ -6370,22 +6370,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>977</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>983</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -6393,22 +6393,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
+        <v>985</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6416,46 +6416,46 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
+        <v>991</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1004</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6776,7 +6776,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>977</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -7407,7 +7407,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="54" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="BH5" s="7"/>
     </row>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="1022">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3118,6 +3118,18 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Search Tune Tab</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Renewal Amount</t>
+  </si>
+  <si>
+    <t>Period</t>
   </si>
 </sst>
 </file>
@@ -3249,7 +3261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3313,17 +3325,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3333,7 +3334,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3435,7 +3436,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3557,7 +3557,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6176,10 +6176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6572,30 +6572,56 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="52" t="s">
         <v>1015</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="52" t="s">
         <v>1016</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3557,7 +3557,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6178,8 +6178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="1027">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3130,6 +3130,21 @@
   </si>
   <si>
     <t>Period</t>
+  </si>
+  <si>
+    <t>Accumulator</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Next Reset Date</t>
   </si>
 </sst>
 </file>
@@ -3557,7 +3572,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6176,10 +6191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6622,6 +6637,29 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -851,9 +851,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Rm9yZ290QDEyMw</t>
-  </si>
-  <si>
     <t>Bonus Not Clear Enquiry</t>
   </si>
   <si>
@@ -3145,6 +3142,9 @@
   </si>
   <si>
     <t>Next Reset Date</t>
+  </si>
+  <si>
+    <t>S3l1Y2hheWllQDEyMw</t>
   </si>
 </sst>
 </file>
@@ -3572,7 +3572,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3904,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3969,7 +3969,7 @@
         <v>2388006</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>124</v>
@@ -4008,7 +4008,7 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4016,7 +4016,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>270</v>
+        <v>1026</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>123</v>
@@ -4060,7 +4060,7 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>131</v>
@@ -4074,7 +4074,7 @@
         <v>2388006</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>178</v>
@@ -4255,49 +4255,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -4323,30 +4323,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>91</v>
@@ -4357,30 +4357,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>88</v>
@@ -4391,13 +4391,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>88</v>
@@ -4408,274 +4408,274 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4683,16 +4683,16 @@
         <v>220</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4700,16 +4700,16 @@
         <v>220</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4717,7 +4717,7 @@
         <v>220</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>204</v>
@@ -4734,7 +4734,7 @@
         <v>220</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>205</v>
@@ -4751,16 +4751,16 @@
         <v>223</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4768,16 +4768,16 @@
         <v>223</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4785,7 +4785,7 @@
         <v>223</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>204</v>
@@ -4802,7 +4802,7 @@
         <v>223</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>205</v>
@@ -4816,44 +4816,44 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>204</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>205</v>
@@ -4887,16 +4887,16 @@
         <v>226</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4904,16 +4904,16 @@
         <v>226</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4921,7 +4921,7 @@
         <v>226</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>204</v>
@@ -4938,7 +4938,7 @@
         <v>226</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>205</v>
@@ -4952,44 +4952,44 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>204</v>
@@ -5003,10 +5003,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>205</v>
@@ -5020,44 +5020,44 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>204</v>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>205</v>
@@ -5088,44 +5088,44 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>204</v>
@@ -5139,10 +5139,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>205</v>
@@ -5156,44 +5156,44 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>204</v>
@@ -5207,10 +5207,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>205</v>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>206</v>
@@ -5241,78 +5241,78 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>204</v>
@@ -5326,44 +5326,44 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>204</v>
@@ -5377,10 +5377,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>205</v>
@@ -5394,44 +5394,44 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>204</v>
@@ -5445,10 +5445,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>205</v>
@@ -5462,44 +5462,44 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>204</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>205</v>
@@ -5530,44 +5530,44 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>204</v>
@@ -5581,10 +5581,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>205</v>
@@ -5598,44 +5598,44 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>204</v>
@@ -5649,10 +5649,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>205</v>
@@ -5666,44 +5666,44 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>204</v>
@@ -5717,10 +5717,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>205</v>
@@ -5734,44 +5734,44 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>204</v>
@@ -5785,10 +5785,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>205</v>
@@ -5832,74 +5832,74 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>908</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>919</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>928</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>909</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>916</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>917</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>920</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>921</v>
       </c>
       <c r="C2" s="7">
         <v>3</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>921</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>922</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>923</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="G2" s="41" t="s">
         <v>924</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>925</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>926</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -5924,36 +5924,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>932</v>
-      </c>
       <c r="D1" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" t="s">
         <v>937</v>
-      </c>
-      <c r="G1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C2" t="s">
         <v>933</v>
-      </c>
-      <c r="C2" t="s">
-        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -5981,37 +5981,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>949</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>950</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="46" t="s">
         <v>951</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>952</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>953</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>954</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>955</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>956</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>957</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>958</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>959</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -6100,10 +6100,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6193,7 +6193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6241,10 +6241,10 @@
         <v>164</v>
       </c>
       <c r="J1" s="52" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K1" s="52" t="s">
         <v>1010</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>150</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6311,7 +6311,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>146</v>
@@ -6451,22 +6451,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>975</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -6476,22 +6476,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
+        <v>983</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6501,28 +6501,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -6530,19 +6530,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>151</v>
@@ -6565,22 +6565,22 @@
         <v>152</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>146</v>
       </c>
       <c r="G14" s="52" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H14" s="52" t="s">
         <v>1008</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>1009</v>
       </c>
       <c r="I14" s="52" t="s">
         <v>169</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K14" s="52" t="s">
         <v>158</v>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -6600,13 +6600,13 @@
         <v>150</v>
       </c>
       <c r="E15" s="52" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>1017</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>152</v>
@@ -6617,19 +6617,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -6640,19 +6640,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>1022</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="C17" s="52" t="s">
         <v>1023</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="D17" s="52" t="s">
         <v>1024</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>1025</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>1026</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -6785,16 +6785,16 @@
         <v>43</v>
       </c>
       <c r="AA1" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>968</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>969</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>45</v>
@@ -6803,7 +6803,7 @@
         <v>43</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>47</v>
@@ -6812,7 +6812,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AK1" s="7" t="s">
         <v>49</v>
@@ -6821,7 +6821,7 @@
         <v>43</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AN1" s="7" t="s">
         <v>51</v>
@@ -6830,7 +6830,7 @@
         <v>43</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AQ1" s="7" t="s">
         <v>133</v>
@@ -6839,7 +6839,7 @@
         <v>43</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AT1" s="7" t="s">
         <v>245</v>
@@ -6854,25 +6854,25 @@
         <v>75</v>
       </c>
       <c r="AX1" s="24" t="s">
+        <v>960</v>
+      </c>
+      <c r="AY1" s="24" t="s">
         <v>961</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="AZ1" s="24" t="s">
         <v>962</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="BA1" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BB1" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>965</v>
       </c>
-      <c r="BC1" s="24" t="s">
+      <c r="BD1" s="51" t="s">
         <v>966</v>
-      </c>
-      <c r="BD1" s="51" t="s">
-        <v>967</v>
       </c>
       <c r="BE1" s="7" t="s">
         <v>86</v>
@@ -6956,7 +6956,7 @@
         <v>89</v>
       </c>
       <c r="AL2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AV2" t="s">
         <v>78</v>
@@ -6975,7 +6975,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -7005,7 +7005,7 @@
         <v>89</v>
       </c>
       <c r="AL3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AV3" t="s">
         <v>76</v>
@@ -7024,7 +7024,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -7201,16 +7201,16 @@
         <v>43</v>
       </c>
       <c r="AA1" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>968</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>969</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>45</v>
@@ -7219,7 +7219,7 @@
         <v>43</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>47</v>
@@ -7228,7 +7228,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AK1" s="7" t="s">
         <v>49</v>
@@ -7237,7 +7237,7 @@
         <v>43</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AN1" s="7" t="s">
         <v>51</v>
@@ -7246,7 +7246,7 @@
         <v>43</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AQ1" s="7" t="s">
         <v>133</v>
@@ -7255,7 +7255,7 @@
         <v>43</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AT1" s="7" t="s">
         <v>245</v>
@@ -7270,25 +7270,25 @@
         <v>75</v>
       </c>
       <c r="AX1" s="24" t="s">
+        <v>960</v>
+      </c>
+      <c r="AY1" s="24" t="s">
         <v>961</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="AZ1" s="24" t="s">
         <v>962</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="BA1" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BB1" s="24" t="s">
         <v>964</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>965</v>
       </c>
-      <c r="BC1" s="24" t="s">
+      <c r="BD1" s="51" t="s">
         <v>966</v>
-      </c>
-      <c r="BD1" s="51" t="s">
-        <v>967</v>
       </c>
       <c r="BE1" s="7" t="s">
         <v>86</v>
@@ -7305,19 +7305,19 @@
         <v>253</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>550</v>
-      </c>
       <c r="F2" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>53</v>
@@ -7335,16 +7335,16 @@
         <v>55</v>
       </c>
       <c r="L2" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="39" t="s">
         <v>865</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>866</v>
       </c>
       <c r="P2" s="39" t="s">
         <v>53</v>
@@ -7378,7 +7378,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="BH2" s="7"/>
     </row>
@@ -7387,16 +7387,16 @@
         <v>253</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>552</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>552</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>553</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7436,7 +7436,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="BH3" s="7"/>
     </row>
@@ -7524,7 +7524,7 @@
         <v>89</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="BH4" s="7"/>
     </row>
@@ -7533,28 +7533,28 @@
         <v>253</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>554</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>555</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>556</v>
-      </c>
       <c r="F5" s="40" t="s">
+        <v>866</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="40" t="s">
         <v>867</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>868</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>56</v>
@@ -7563,7 +7563,7 @@
         <v>55</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M5" s="40" t="s">
         <v>53</v>
@@ -7606,7 +7606,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="54" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="BH5" s="7"/>
     </row>
@@ -7615,16 +7615,16 @@
         <v>253</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>558</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>558</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>559</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>52</v>
@@ -7645,7 +7645,7 @@
         <v>55</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>53</v>
@@ -7689,16 +7689,16 @@
         <v>253</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>561</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>562</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>52</v>
@@ -7719,7 +7719,7 @@
         <v>55</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M7" s="40" t="s">
         <v>53</v>
@@ -7763,16 +7763,16 @@
         <v>253</v>
       </c>
       <c r="B8" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>564</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>565</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>52</v>
@@ -7793,7 +7793,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M8" s="40" t="s">
         <v>53</v>
@@ -7837,16 +7837,16 @@
         <v>253</v>
       </c>
       <c r="B9" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>566</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>567</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>568</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>52</v>
@@ -7867,7 +7867,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M9" s="39" t="s">
         <v>53</v>
@@ -7911,16 +7911,16 @@
         <v>253</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>569</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>570</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>571</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>52</v>
@@ -7941,7 +7941,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>53</v>
@@ -7985,16 +7985,16 @@
         <v>253</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>572</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>573</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>574</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>52</v>
@@ -8015,7 +8015,7 @@
         <v>55</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M11" s="39" t="s">
         <v>53</v>
@@ -8059,16 +8059,16 @@
         <v>253</v>
       </c>
       <c r="B12" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>575</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>576</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>577</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>52</v>
@@ -8089,7 +8089,7 @@
         <v>55</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M12" s="40" t="s">
         <v>53</v>
@@ -8133,19 +8133,19 @@
         <v>253</v>
       </c>
       <c r="B13" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>578</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="D13" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>579</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>580</v>
-      </c>
       <c r="F13" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>53</v>
@@ -8163,16 +8163,16 @@
         <v>55</v>
       </c>
       <c r="L13" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="39" t="s">
         <v>865</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="39" t="s">
-        <v>866</v>
       </c>
       <c r="P13" s="39" t="s">
         <v>53</v>
@@ -8213,16 +8213,16 @@
         <v>253</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>581</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>581</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>581</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>582</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -8328,13 +8328,13 @@
         <v>61</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>583</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>584</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -8440,13 +8440,13 @@
         <v>67</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>585</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>586</v>
       </c>
       <c r="F18" s="40" t="s">
         <v>52</v>
@@ -8458,7 +8458,7 @@
         <v>54</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J18" s="40" t="s">
         <v>53</v>
@@ -8561,16 +8561,16 @@
         <v>253</v>
       </c>
       <c r="B20" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="D20" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="E20" s="29" t="s">
         <v>588</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>589</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -8617,16 +8617,16 @@
         <v>253</v>
       </c>
       <c r="B21" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>590</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>591</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>592</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -8673,16 +8673,16 @@
         <v>253</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="E22" s="29" t="s">
         <v>594</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>595</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -8729,16 +8729,16 @@
         <v>253</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>597</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>597</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>598</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>52</v>
@@ -8791,16 +8791,16 @@
         <v>58</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>599</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="D24" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>600</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>601</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>52</v>
@@ -8821,7 +8821,7 @@
         <v>55</v>
       </c>
       <c r="L24" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M24" s="40" t="s">
         <v>53</v>
@@ -8865,16 +8865,16 @@
         <v>58</v>
       </c>
       <c r="B25" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>602</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="D25" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>603</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>604</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>52</v>
@@ -8895,7 +8895,7 @@
         <v>55</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M25" s="39" t="s">
         <v>53</v>
@@ -8939,16 +8939,16 @@
         <v>253</v>
       </c>
       <c r="B26" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>605</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="D26" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>606</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>606</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>607</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>52</v>
@@ -8960,7 +8960,7 @@
         <v>54</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>56</v>
@@ -8969,16 +8969,16 @@
         <v>55</v>
       </c>
       <c r="L26" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="39" t="s">
         <v>865</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N26" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="39" t="s">
-        <v>866</v>
       </c>
       <c r="P26" s="39" t="s">
         <v>53</v>
@@ -9025,16 +9025,16 @@
         <v>253</v>
       </c>
       <c r="B27" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>608</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>608</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>608</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>609</v>
       </c>
       <c r="F27" s="39" t="s">
         <v>52</v>
@@ -9046,7 +9046,7 @@
         <v>54</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J27" s="39" t="s">
         <v>56</v>
@@ -9055,7 +9055,7 @@
         <v>55</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M27" s="39" t="s">
         <v>53</v>
@@ -9064,7 +9064,7 @@
         <v>54</v>
       </c>
       <c r="O27" s="39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="P27" s="39" t="s">
         <v>53</v>
@@ -9111,16 +9111,16 @@
         <v>58</v>
       </c>
       <c r="B28" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>610</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="D28" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="E28" s="29" t="s">
         <v>611</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>612</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>52</v>
@@ -9132,7 +9132,7 @@
         <v>54</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J28" s="40" t="s">
         <v>56</v>
@@ -9141,16 +9141,16 @@
         <v>55</v>
       </c>
       <c r="L28" s="40" t="s">
+        <v>864</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="40" t="s">
         <v>865</v>
-      </c>
-      <c r="M28" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O28" s="40" t="s">
-        <v>866</v>
       </c>
       <c r="P28" s="40" t="s">
         <v>53</v>
@@ -9197,19 +9197,19 @@
         <v>58</v>
       </c>
       <c r="B29" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>613</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>614</v>
-      </c>
       <c r="F29" s="39" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G29" s="39" t="s">
         <v>53</v>
@@ -9218,7 +9218,7 @@
         <v>54</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J29" s="39" t="s">
         <v>56</v>
@@ -9227,16 +9227,16 @@
         <v>55</v>
       </c>
       <c r="L29" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="39" t="s">
         <v>865</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="N29" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>866</v>
       </c>
       <c r="P29" s="39" t="s">
         <v>53</v>
@@ -9283,16 +9283,16 @@
         <v>58</v>
       </c>
       <c r="B30" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="D30" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="E30" s="29" t="s">
         <v>616</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>617</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -9339,16 +9339,16 @@
         <v>58</v>
       </c>
       <c r="B31" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="E31" s="29" t="s">
         <v>619</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>620</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -9395,16 +9395,16 @@
         <v>58</v>
       </c>
       <c r="B32" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>621</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="D32" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="E32" s="29" t="s">
         <v>622</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>622</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>623</v>
       </c>
       <c r="F32" s="40" t="s">
         <v>52</v>
@@ -9416,7 +9416,7 @@
         <v>54</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J32" s="40" t="s">
         <v>56</v>
@@ -9425,7 +9425,7 @@
         <v>55</v>
       </c>
       <c r="L32" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M32" s="40" t="s">
         <v>53</v>
@@ -9475,16 +9475,16 @@
         <v>58</v>
       </c>
       <c r="B33" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>624</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="D33" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>625</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>625</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>626</v>
       </c>
       <c r="F33" s="39" t="s">
         <v>52</v>
@@ -9505,7 +9505,7 @@
         <v>55</v>
       </c>
       <c r="L33" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M33" s="39" t="s">
         <v>53</v>
@@ -9549,16 +9549,16 @@
         <v>58</v>
       </c>
       <c r="B34" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="D34" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="E34" s="29" t="s">
         <v>628</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>629</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>52</v>
@@ -9579,7 +9579,7 @@
         <v>55</v>
       </c>
       <c r="L34" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M34" s="39" t="s">
         <v>53</v>
@@ -9623,16 +9623,16 @@
         <v>58</v>
       </c>
       <c r="B35" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="E35" s="29" t="s">
         <v>630</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>631</v>
       </c>
       <c r="F35" s="40" t="s">
         <v>52</v>
@@ -9653,7 +9653,7 @@
         <v>55</v>
       </c>
       <c r="L35" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M35" s="40" t="s">
         <v>53</v>
@@ -9697,16 +9697,16 @@
         <v>58</v>
       </c>
       <c r="B36" s="30" t="s">
+        <v>631</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>632</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="E36" s="29" t="s">
         <v>633</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>634</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -9753,19 +9753,19 @@
         <v>58</v>
       </c>
       <c r="B37" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>635</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="D37" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="E37" s="29" t="s">
         <v>636</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>636</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>637</v>
-      </c>
       <c r="F37" s="40" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G37" s="40" t="s">
         <v>53</v>
@@ -9774,7 +9774,7 @@
         <v>54</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J37" s="40" t="s">
         <v>56</v>
@@ -9783,16 +9783,16 @@
         <v>55</v>
       </c>
       <c r="L37" s="40" t="s">
+        <v>864</v>
+      </c>
+      <c r="M37" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="N37" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="40" t="s">
         <v>865</v>
-      </c>
-      <c r="M37" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="N37" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O37" s="40" t="s">
-        <v>866</v>
       </c>
       <c r="P37" s="40" t="s">
         <v>53</v>
@@ -9839,16 +9839,16 @@
         <v>58</v>
       </c>
       <c r="B38" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>638</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="E38" s="29" t="s">
         <v>639</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>640</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>52</v>
@@ -9901,16 +9901,16 @@
         <v>253</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C39" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>641</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>642</v>
       </c>
       <c r="F39" s="40" t="s">
         <v>52</v>
@@ -9963,16 +9963,16 @@
         <v>58</v>
       </c>
       <c r="B40" s="30" t="s">
+        <v>642</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>643</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="D40" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>644</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>644</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>645</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>52</v>
@@ -10031,16 +10031,16 @@
         <v>253</v>
       </c>
       <c r="B41" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="D41" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="E41" s="29" t="s">
         <v>647</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>647</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>648</v>
       </c>
       <c r="F41" s="40" t="s">
         <v>52</v>
@@ -10093,16 +10093,16 @@
         <v>58</v>
       </c>
       <c r="B42" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="E42" s="29" t="s">
         <v>649</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>650</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>52</v>
@@ -10155,16 +10155,16 @@
         <v>253</v>
       </c>
       <c r="B43" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>651</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="D43" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>652</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>653</v>
       </c>
       <c r="F43" s="40" t="s">
         <v>52</v>
@@ -10217,16 +10217,16 @@
         <v>58</v>
       </c>
       <c r="B44" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>654</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="D44" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="E44" s="29" t="s">
         <v>655</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>656</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>52</v>
@@ -10279,16 +10279,16 @@
         <v>58</v>
       </c>
       <c r="B45" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>657</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="D45" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="E45" s="29" t="s">
         <v>658</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>659</v>
       </c>
       <c r="F45" s="40" t="s">
         <v>52</v>
@@ -10339,16 +10339,16 @@
         <v>58</v>
       </c>
       <c r="B46" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="E46" s="29" t="s">
         <v>660</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>661</v>
       </c>
       <c r="F46" s="39" t="s">
         <v>52</v>
@@ -10369,7 +10369,7 @@
         <v>55</v>
       </c>
       <c r="L46" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M46" s="39" t="s">
         <v>53</v>
@@ -10413,16 +10413,16 @@
         <v>58</v>
       </c>
       <c r="B47" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="D47" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E47" s="29" t="s">
         <v>663</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>664</v>
       </c>
       <c r="F47" s="40" t="s">
         <v>52</v>
@@ -10475,16 +10475,16 @@
         <v>58</v>
       </c>
       <c r="B48" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E48" s="29" t="s">
         <v>665</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>666</v>
       </c>
       <c r="F48" s="39" t="s">
         <v>52</v>
@@ -10505,7 +10505,7 @@
         <v>55</v>
       </c>
       <c r="L48" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M48" s="39" t="s">
         <v>53</v>
@@ -10549,16 +10549,16 @@
         <v>58</v>
       </c>
       <c r="B49" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="D49" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>668</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>668</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>669</v>
       </c>
       <c r="F49" s="40" t="s">
         <v>52</v>
@@ -10579,7 +10579,7 @@
         <v>55</v>
       </c>
       <c r="L49" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M49" s="40" t="s">
         <v>53</v>
@@ -10623,16 +10623,16 @@
         <v>58</v>
       </c>
       <c r="B50" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="D50" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="E50" s="29" t="s">
         <v>671</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>671</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>672</v>
       </c>
       <c r="F50" s="39" t="s">
         <v>52</v>
@@ -10653,7 +10653,7 @@
         <v>55</v>
       </c>
       <c r="L50" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M50" s="39" t="s">
         <v>53</v>
@@ -10697,16 +10697,16 @@
         <v>58</v>
       </c>
       <c r="B51" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="C51" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="D51" s="30" t="s">
+        <v>673</v>
+      </c>
+      <c r="E51" s="29" t="s">
         <v>674</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>675</v>
       </c>
       <c r="F51" s="40" t="s">
         <v>52</v>
@@ -10727,7 +10727,7 @@
         <v>55</v>
       </c>
       <c r="L51" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M51" s="40" t="s">
         <v>53</v>
@@ -10771,16 +10771,16 @@
         <v>58</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C52" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="E52" s="29" t="s">
         <v>676</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>676</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>677</v>
       </c>
       <c r="F52" s="39" t="s">
         <v>52</v>
@@ -10833,16 +10833,16 @@
         <v>58</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C53" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="E53" s="29" t="s">
         <v>678</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>678</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>679</v>
       </c>
       <c r="F53" s="40" t="s">
         <v>52</v>
@@ -10901,16 +10901,16 @@
         <v>58</v>
       </c>
       <c r="B54" s="30" t="s">
+        <v>679</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="D54" s="30" t="s">
+        <v>680</v>
+      </c>
+      <c r="E54" s="29" t="s">
         <v>681</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>682</v>
       </c>
       <c r="F54" s="39" t="s">
         <v>52</v>
@@ -10931,7 +10931,7 @@
         <v>55</v>
       </c>
       <c r="L54" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M54" s="39" t="s">
         <v>53</v>
@@ -10940,7 +10940,7 @@
         <v>54</v>
       </c>
       <c r="O54" s="39" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P54" s="39" t="s">
         <v>53</v>
@@ -10987,16 +10987,16 @@
         <v>253</v>
       </c>
       <c r="B55" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="C55" s="30" t="s">
         <v>683</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="D55" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="E55" s="29" t="s">
         <v>684</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>685</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -11043,16 +11043,16 @@
         <v>58</v>
       </c>
       <c r="B56" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="C56" s="30" t="s">
         <v>686</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="D56" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="E56" s="29" t="s">
         <v>687</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>688</v>
       </c>
       <c r="F56" s="39" t="s">
         <v>52</v>
@@ -11114,7 +11114,7 @@
         <v>29</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F57" s="40" t="s">
         <v>52</v>
@@ -11167,16 +11167,16 @@
         <v>58</v>
       </c>
       <c r="B58" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="D58" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="E58" s="29" t="s">
         <v>691</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>692</v>
       </c>
       <c r="F58" s="39" t="s">
         <v>52</v>
@@ -11197,7 +11197,7 @@
         <v>55</v>
       </c>
       <c r="L58" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M58" s="39" t="s">
         <v>53</v>
@@ -11241,16 +11241,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="D59" s="30" t="s">
+        <v>693</v>
+      </c>
+      <c r="E59" s="29" t="s">
         <v>694</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>694</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>695</v>
       </c>
       <c r="F59" s="40" t="s">
         <v>52</v>
@@ -11271,7 +11271,7 @@
         <v>55</v>
       </c>
       <c r="L59" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M59" s="40" t="s">
         <v>53</v>
@@ -11315,16 +11315,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="30" t="s">
+        <v>695</v>
+      </c>
+      <c r="C60" s="30" t="s">
         <v>696</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="D60" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="E60" s="29" t="s">
         <v>697</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>698</v>
       </c>
       <c r="F60" s="39" t="s">
         <v>52</v>
@@ -11345,7 +11345,7 @@
         <v>55</v>
       </c>
       <c r="L60" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M60" s="39" t="s">
         <v>53</v>
@@ -11354,7 +11354,7 @@
         <v>54</v>
       </c>
       <c r="O60" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="P60" s="39" t="s">
         <v>53</v>
@@ -11395,16 +11395,16 @@
         <v>58</v>
       </c>
       <c r="B61" s="30" t="s">
+        <v>698</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>699</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="D61" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E61" s="29" t="s">
         <v>700</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>701</v>
       </c>
       <c r="F61" s="40" t="s">
         <v>52</v>
@@ -11425,16 +11425,16 @@
         <v>55</v>
       </c>
       <c r="L61" s="40" t="s">
+        <v>864</v>
+      </c>
+      <c r="M61" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="N61" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O61" s="40" t="s">
         <v>865</v>
-      </c>
-      <c r="M61" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="N61" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="O61" s="40" t="s">
-        <v>866</v>
       </c>
       <c r="P61" s="40" t="s">
         <v>53</v>
@@ -11475,16 +11475,16 @@
         <v>58</v>
       </c>
       <c r="B62" s="30" t="s">
+        <v>701</v>
+      </c>
+      <c r="C62" s="30" t="s">
         <v>702</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="D62" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="E62" s="29" t="s">
         <v>703</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>703</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>704</v>
       </c>
       <c r="F62" s="39" t="s">
         <v>52</v>
@@ -11517,7 +11517,7 @@
         <v>82</v>
       </c>
       <c r="AW62" s="32" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="BD62" s="7">
         <f t="shared" si="0"/>
@@ -11537,16 +11537,16 @@
         <v>58</v>
       </c>
       <c r="B63" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="C63" s="30" t="s">
         <v>705</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="D63" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="E63" s="29" t="s">
         <v>706</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>707</v>
       </c>
       <c r="F63" s="40" t="s">
         <v>52</v>
@@ -11599,16 +11599,16 @@
         <v>58</v>
       </c>
       <c r="B64" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>708</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="D64" s="30" t="s">
+        <v>708</v>
+      </c>
+      <c r="E64" s="29" t="s">
         <v>709</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>709</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>710</v>
       </c>
       <c r="F64" s="39" t="s">
         <v>52</v>
@@ -11661,16 +11661,16 @@
         <v>58</v>
       </c>
       <c r="B65" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>711</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="D65" s="30" t="s">
+        <v>711</v>
+      </c>
+      <c r="E65" s="29" t="s">
         <v>712</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>712</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>713</v>
       </c>
       <c r="F65" s="40" t="s">
         <v>52</v>
@@ -11723,16 +11723,16 @@
         <v>58</v>
       </c>
       <c r="B66" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="E66" s="29" t="s">
         <v>714</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>714</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>714</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>715</v>
       </c>
       <c r="F66" s="39" t="s">
         <v>52</v>
@@ -11753,7 +11753,7 @@
         <v>55</v>
       </c>
       <c r="L66" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M66" s="39" t="s">
         <v>53</v>
@@ -11797,16 +11797,16 @@
         <v>58</v>
       </c>
       <c r="B67" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>716</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="D67" s="30" t="s">
+        <v>716</v>
+      </c>
+      <c r="E67" s="29" t="s">
         <v>717</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>717</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>718</v>
       </c>
       <c r="F67" s="40" t="s">
         <v>52</v>
@@ -11865,16 +11865,16 @@
         <v>58</v>
       </c>
       <c r="B68" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>719</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="D68" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E68" s="29" t="s">
         <v>720</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>721</v>
       </c>
       <c r="F68" s="39" t="s">
         <v>52</v>
@@ -11895,7 +11895,7 @@
         <v>55</v>
       </c>
       <c r="L68" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M68" s="39" t="s">
         <v>53</v>
@@ -11939,16 +11939,16 @@
         <v>58</v>
       </c>
       <c r="B69" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>722</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="D69" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="E69" s="29" t="s">
         <v>723</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>724</v>
       </c>
       <c r="F69" s="40" t="s">
         <v>52</v>
@@ -12001,16 +12001,16 @@
         <v>58</v>
       </c>
       <c r="B70" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>725</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="D70" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="E70" s="29" t="s">
         <v>726</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>727</v>
       </c>
       <c r="F70" s="39" t="s">
         <v>52</v>
@@ -12031,7 +12031,7 @@
         <v>55</v>
       </c>
       <c r="L70" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M70" s="39" t="s">
         <v>53</v>
@@ -12075,16 +12075,16 @@
         <v>58</v>
       </c>
       <c r="B71" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="D71" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E71" s="29" t="s">
         <v>729</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>730</v>
       </c>
       <c r="F71" s="40" t="s">
         <v>52</v>
@@ -12105,7 +12105,7 @@
         <v>55</v>
       </c>
       <c r="L71" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M71" s="40" t="s">
         <v>53</v>
@@ -12149,16 +12149,16 @@
         <v>58</v>
       </c>
       <c r="B72" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="C72" s="30" t="s">
         <v>731</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="D72" s="30" t="s">
+        <v>731</v>
+      </c>
+      <c r="E72" s="29" t="s">
         <v>732</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>732</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>733</v>
       </c>
       <c r="F72" s="39" t="s">
         <v>52</v>
@@ -12211,16 +12211,16 @@
         <v>58</v>
       </c>
       <c r="B73" s="29" t="s">
+        <v>733</v>
+      </c>
+      <c r="C73" s="30" t="s">
         <v>734</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="D73" s="30" t="s">
+        <v>734</v>
+      </c>
+      <c r="E73" s="29" t="s">
         <v>735</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>735</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>736</v>
       </c>
       <c r="F73" s="40" t="s">
         <v>52</v>
@@ -12279,16 +12279,16 @@
         <v>58</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C74" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="E74" s="29" t="s">
         <v>737</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>737</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>738</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>52</v>
@@ -12347,16 +12347,16 @@
         <v>58</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>738</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>739</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>739</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>740</v>
       </c>
       <c r="F75" s="40" t="s">
         <v>52</v>
@@ -12377,7 +12377,7 @@
         <v>55</v>
       </c>
       <c r="L75" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M75" s="40" t="s">
         <v>53</v>
@@ -12421,16 +12421,16 @@
         <v>58</v>
       </c>
       <c r="B76" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="C76" s="30" t="s">
         <v>741</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="D76" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="E76" s="29" t="s">
         <v>742</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>743</v>
       </c>
       <c r="F76" s="39" t="s">
         <v>52</v>
@@ -12451,7 +12451,7 @@
         <v>55</v>
       </c>
       <c r="L76" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M76" s="39" t="s">
         <v>53</v>
@@ -12495,16 +12495,16 @@
         <v>58</v>
       </c>
       <c r="B77" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="D77" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="E77" s="29" t="s">
         <v>745</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>746</v>
       </c>
       <c r="F77" s="40" t="s">
         <v>52</v>
@@ -12557,16 +12557,16 @@
         <v>58</v>
       </c>
       <c r="B78" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="C78" s="29" t="s">
         <v>747</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="D78" s="29" t="s">
+        <v>747</v>
+      </c>
+      <c r="E78" s="29" t="s">
         <v>748</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>748</v>
-      </c>
-      <c r="E78" s="29" t="s">
-        <v>749</v>
       </c>
       <c r="F78" s="39" t="s">
         <v>52</v>
@@ -12619,16 +12619,16 @@
         <v>58</v>
       </c>
       <c r="B79" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>750</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="D79" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="E79" s="29" t="s">
         <v>751</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="E79" s="29" t="s">
-        <v>752</v>
       </c>
       <c r="F79" s="40" t="s">
         <v>52</v>
@@ -12681,16 +12681,16 @@
         <v>58</v>
       </c>
       <c r="B80" s="37" t="s">
+        <v>752</v>
+      </c>
+      <c r="C80" s="37" t="s">
         <v>753</v>
       </c>
-      <c r="C80" s="37" t="s">
+      <c r="D80" s="37" t="s">
+        <v>753</v>
+      </c>
+      <c r="E80" s="29" t="s">
         <v>754</v>
-      </c>
-      <c r="D80" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>755</v>
       </c>
       <c r="F80" s="39" t="s">
         <v>52</v>
@@ -12711,7 +12711,7 @@
         <v>55</v>
       </c>
       <c r="L80" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M80" s="39" t="s">
         <v>53</v>
@@ -12755,16 +12755,16 @@
         <v>253</v>
       </c>
       <c r="B81" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="C81" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="D81" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="E81" s="29" t="s">
         <v>757</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>757</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>758</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -12811,16 +12811,16 @@
         <v>58</v>
       </c>
       <c r="B82" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="C82" s="30" t="s">
         <v>759</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="D82" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="E82" s="29" t="s">
         <v>760</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>760</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>761</v>
       </c>
       <c r="F82" s="39" t="s">
         <v>52</v>
@@ -12873,16 +12873,16 @@
         <v>58</v>
       </c>
       <c r="B83" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="C83" s="29" t="s">
         <v>762</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="D83" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="E83" s="29" t="s">
         <v>763</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>763</v>
-      </c>
-      <c r="E83" s="29" t="s">
-        <v>764</v>
       </c>
       <c r="F83" s="40" t="s">
         <v>52</v>
@@ -12894,7 +12894,7 @@
         <v>54</v>
       </c>
       <c r="I83" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J83" s="40" t="s">
         <v>56</v>
@@ -12941,16 +12941,16 @@
         <v>58</v>
       </c>
       <c r="B84" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="C84" s="29" t="s">
         <v>765</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="D84" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="E84" s="29" t="s">
         <v>766</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>766</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>767</v>
       </c>
       <c r="F84" s="39" t="s">
         <v>52</v>
@@ -13003,16 +13003,16 @@
         <v>58</v>
       </c>
       <c r="B85" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="C85" s="30" t="s">
         <v>768</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="D85" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="E85" s="29" t="s">
         <v>769</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>770</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -13059,16 +13059,16 @@
         <v>253</v>
       </c>
       <c r="B86" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="D86" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="E86" s="29" t="s">
         <v>772</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>772</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>773</v>
       </c>
       <c r="F86" s="40" t="s">
         <v>52</v>
@@ -13080,7 +13080,7 @@
         <v>54</v>
       </c>
       <c r="I86" s="40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J86" s="40" t="s">
         <v>56</v>
@@ -13133,16 +13133,16 @@
         <v>253</v>
       </c>
       <c r="B87" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="D87" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="E87" s="29" t="s">
         <v>775</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>775</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>776</v>
       </c>
       <c r="F87" s="39" t="s">
         <v>52</v>
@@ -13154,7 +13154,7 @@
         <v>54</v>
       </c>
       <c r="I87" s="39" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J87" s="39" t="s">
         <v>56</v>
@@ -13172,16 +13172,16 @@
         <v>54</v>
       </c>
       <c r="O87" s="39" t="s">
+        <v>873</v>
+      </c>
+      <c r="P87" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q87" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="R87" s="39" t="s">
         <v>874</v>
-      </c>
-      <c r="P87" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q87" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="R87" s="39" t="s">
-        <v>875</v>
       </c>
       <c r="S87" s="39" t="s">
         <v>53</v>
@@ -13219,16 +13219,16 @@
         <v>58</v>
       </c>
       <c r="B88" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C88" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="C88" s="29" t="s">
-        <v>448</v>
-      </c>
       <c r="D88" s="29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F88" s="40" t="s">
         <v>52</v>
@@ -13240,7 +13240,7 @@
         <v>54</v>
       </c>
       <c r="I88" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J88" s="40" t="s">
         <v>56</v>
@@ -13293,16 +13293,16 @@
         <v>58</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F89" s="39" t="s">
         <v>52</v>
@@ -13314,7 +13314,7 @@
         <v>54</v>
       </c>
       <c r="I89" s="39" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J89" s="39" t="s">
         <v>56</v>
@@ -13367,16 +13367,16 @@
         <v>253</v>
       </c>
       <c r="B90" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E90" s="29" t="s">
         <v>779</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="D90" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="E90" s="29" t="s">
-        <v>780</v>
       </c>
       <c r="F90" s="40" t="s">
         <v>52</v>
@@ -13388,7 +13388,7 @@
         <v>54</v>
       </c>
       <c r="I90" s="40" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J90" s="40" t="s">
         <v>56</v>
@@ -13397,7 +13397,7 @@
         <v>55</v>
       </c>
       <c r="L90" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M90" s="40" t="s">
         <v>53</v>
@@ -13409,13 +13409,13 @@
         <v>144</v>
       </c>
       <c r="P90" s="40" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q90" s="40" t="s">
         <v>54</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="S90" s="40" t="s">
         <v>53</v>
@@ -13453,16 +13453,16 @@
         <v>58</v>
       </c>
       <c r="B91" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="E91" s="29" t="s">
         <v>781</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>781</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>781</v>
-      </c>
-      <c r="E91" s="29" t="s">
-        <v>782</v>
       </c>
       <c r="F91" s="39" t="s">
         <v>52</v>
@@ -13515,16 +13515,16 @@
         <v>58</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F92" s="40" t="s">
         <v>52</v>
@@ -13577,16 +13577,16 @@
         <v>58</v>
       </c>
       <c r="B93" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E93" s="29" t="s">
         <v>784</v>
-      </c>
-      <c r="C93" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="E93" s="29" t="s">
-        <v>785</v>
       </c>
       <c r="F93" s="39" t="s">
         <v>52</v>
@@ -13639,16 +13639,16 @@
         <v>58</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F94" s="40" t="s">
         <v>52</v>
@@ -13701,16 +13701,16 @@
         <v>58</v>
       </c>
       <c r="B95" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="C95" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="D95" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="E95" s="29" t="s">
         <v>788</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="E95" s="29" t="s">
-        <v>789</v>
       </c>
       <c r="F95" s="39" t="s">
         <v>52</v>
@@ -13763,16 +13763,16 @@
         <v>58</v>
       </c>
       <c r="B96" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="C96" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="C96" s="30" t="s">
+      <c r="D96" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="E96" s="29" t="s">
         <v>791</v>
-      </c>
-      <c r="D96" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>792</v>
       </c>
       <c r="F96" s="40" t="s">
         <v>52</v>
@@ -13825,16 +13825,16 @@
         <v>58</v>
       </c>
       <c r="B97" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="C97" s="30" t="s">
         <v>793</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="D97" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="E97" s="29" t="s">
         <v>794</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>794</v>
-      </c>
-      <c r="E97" s="29" t="s">
-        <v>795</v>
       </c>
       <c r="F97" s="39" t="s">
         <v>52</v>
@@ -13846,7 +13846,7 @@
         <v>54</v>
       </c>
       <c r="I97" s="39" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J97" s="39" t="s">
         <v>56</v>
@@ -13899,16 +13899,16 @@
         <v>58</v>
       </c>
       <c r="B98" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="E98" s="29" t="s">
         <v>796</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>797</v>
       </c>
       <c r="F98" s="40" t="s">
         <v>52</v>
@@ -13920,7 +13920,7 @@
         <v>54</v>
       </c>
       <c r="I98" s="40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J98" s="40" t="s">
         <v>56</v>
@@ -13973,16 +13973,16 @@
         <v>58</v>
       </c>
       <c r="B99" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>797</v>
+      </c>
+      <c r="E99" s="29" t="s">
         <v>798</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="D99" s="30" t="s">
-        <v>798</v>
-      </c>
-      <c r="E99" s="29" t="s">
-        <v>799</v>
       </c>
       <c r="F99" s="39" t="s">
         <v>52</v>
@@ -13994,7 +13994,7 @@
         <v>54</v>
       </c>
       <c r="I99" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J99" s="39" t="s">
         <v>56</v>
@@ -14047,16 +14047,16 @@
         <v>58</v>
       </c>
       <c r="B100" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="E100" s="29" t="s">
         <v>800</v>
-      </c>
-      <c r="C100" s="29" t="s">
-        <v>800</v>
-      </c>
-      <c r="D100" s="29" t="s">
-        <v>800</v>
-      </c>
-      <c r="E100" s="29" t="s">
-        <v>801</v>
       </c>
       <c r="F100" s="40" t="s">
         <v>52</v>
@@ -14068,7 +14068,7 @@
         <v>54</v>
       </c>
       <c r="I100" s="40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J100" s="40" t="s">
         <v>56</v>
@@ -14121,16 +14121,16 @@
         <v>58</v>
       </c>
       <c r="B101" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="E101" s="29" t="s">
         <v>802</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>803</v>
       </c>
       <c r="F101" s="39" t="s">
         <v>52</v>
@@ -14142,7 +14142,7 @@
         <v>54</v>
       </c>
       <c r="I101" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J101" s="39" t="s">
         <v>56</v>
@@ -14195,16 +14195,16 @@
         <v>58</v>
       </c>
       <c r="B102" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="E102" s="29" t="s">
         <v>804</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>804</v>
-      </c>
-      <c r="E102" s="29" t="s">
-        <v>805</v>
       </c>
       <c r="F102" s="40" t="s">
         <v>52</v>
@@ -14216,7 +14216,7 @@
         <v>54</v>
       </c>
       <c r="I102" s="40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J102" s="40" t="s">
         <v>56</v>
@@ -14234,7 +14234,7 @@
         <v>54</v>
       </c>
       <c r="O102" s="40" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="P102" s="40" t="s">
         <v>53</v>
@@ -14243,7 +14243,7 @@
         <v>54</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="S102" s="40" t="s">
         <v>53</v>
@@ -14281,16 +14281,16 @@
         <v>58</v>
       </c>
       <c r="B103" s="29" t="s">
+        <v>805</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>805</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>805</v>
+      </c>
+      <c r="E103" s="29" t="s">
         <v>806</v>
-      </c>
-      <c r="C103" s="29" t="s">
-        <v>806</v>
-      </c>
-      <c r="D103" s="29" t="s">
-        <v>806</v>
-      </c>
-      <c r="E103" s="29" t="s">
-        <v>807</v>
       </c>
       <c r="F103" s="39" t="s">
         <v>52</v>
@@ -14343,16 +14343,16 @@
         <v>58</v>
       </c>
       <c r="B104" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="E104" s="29" t="s">
         <v>808</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="D104" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="E104" s="29" t="s">
-        <v>809</v>
       </c>
       <c r="F104" s="40" t="s">
         <v>52</v>
@@ -14364,7 +14364,7 @@
         <v>54</v>
       </c>
       <c r="I104" s="40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J104" s="40" t="s">
         <v>56</v>
@@ -14417,16 +14417,16 @@
         <v>58</v>
       </c>
       <c r="B105" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="E105" s="29" t="s">
         <v>810</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="E105" s="29" t="s">
-        <v>811</v>
       </c>
       <c r="F105" s="39" t="s">
         <v>52</v>
@@ -14438,7 +14438,7 @@
         <v>54</v>
       </c>
       <c r="I105" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J105" s="39" t="s">
         <v>56</v>
@@ -14491,16 +14491,16 @@
         <v>58</v>
       </c>
       <c r="B106" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="E106" s="29" t="s">
         <v>812</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>813</v>
       </c>
       <c r="F106" s="40" t="s">
         <v>52</v>
@@ -14512,7 +14512,7 @@
         <v>54</v>
       </c>
       <c r="I106" s="40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J106" s="40" t="s">
         <v>56</v>
@@ -14565,16 +14565,16 @@
         <v>58</v>
       </c>
       <c r="B107" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="E107" s="29" t="s">
         <v>814</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="D107" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>815</v>
       </c>
       <c r="F107" s="39" t="s">
         <v>52</v>
@@ -14586,7 +14586,7 @@
         <v>54</v>
       </c>
       <c r="I107" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J107" s="39" t="s">
         <v>56</v>
@@ -14604,7 +14604,7 @@
         <v>54</v>
       </c>
       <c r="O107" s="39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="P107" s="39" t="s">
         <v>53</v>
@@ -14645,16 +14645,16 @@
         <v>58</v>
       </c>
       <c r="B108" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>816</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="D108" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="E108" s="29" t="s">
         <v>817</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>818</v>
       </c>
       <c r="F108" s="40" t="s">
         <v>52</v>
@@ -14707,16 +14707,16 @@
         <v>58</v>
       </c>
       <c r="B109" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="C109" s="30" t="s">
         <v>819</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="D109" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="E109" s="29" t="s">
         <v>820</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>821</v>
       </c>
       <c r="F109" s="39" t="s">
         <v>52</v>
@@ -14769,16 +14769,16 @@
         <v>58</v>
       </c>
       <c r="B110" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="E110" s="29" t="s">
         <v>822</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>823</v>
       </c>
       <c r="F110" s="40" t="s">
         <v>52</v>
@@ -14831,16 +14831,16 @@
         <v>58</v>
       </c>
       <c r="B111" s="38" t="s">
+        <v>823</v>
+      </c>
+      <c r="C111" s="38" t="s">
+        <v>823</v>
+      </c>
+      <c r="D111" s="38" t="s">
+        <v>823</v>
+      </c>
+      <c r="E111" s="29" t="s">
         <v>824</v>
-      </c>
-      <c r="C111" s="38" t="s">
-        <v>824</v>
-      </c>
-      <c r="D111" s="38" t="s">
-        <v>824</v>
-      </c>
-      <c r="E111" s="29" t="s">
-        <v>825</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -14887,16 +14887,16 @@
         <v>58</v>
       </c>
       <c r="B112" s="38" t="s">
+        <v>825</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>825</v>
+      </c>
+      <c r="D112" s="38" t="s">
+        <v>825</v>
+      </c>
+      <c r="E112" s="29" t="s">
         <v>826</v>
-      </c>
-      <c r="C112" s="38" t="s">
-        <v>826</v>
-      </c>
-      <c r="D112" s="38" t="s">
-        <v>826</v>
-      </c>
-      <c r="E112" s="29" t="s">
-        <v>827</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -14943,16 +14943,16 @@
         <v>58</v>
       </c>
       <c r="B113" s="38" t="s">
+        <v>827</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>827</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>827</v>
+      </c>
+      <c r="E113" s="29" t="s">
         <v>828</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>828</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>828</v>
-      </c>
-      <c r="E113" s="29" t="s">
-        <v>829</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -14999,16 +14999,16 @@
         <v>58</v>
       </c>
       <c r="B114" s="38" t="s">
+        <v>829</v>
+      </c>
+      <c r="C114" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="D114" s="38" t="s">
+        <v>830</v>
+      </c>
+      <c r="E114" s="29" t="s">
         <v>831</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>831</v>
-      </c>
-      <c r="E114" s="29" t="s">
-        <v>832</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -15055,16 +15055,16 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
+        <v>832</v>
+      </c>
+      <c r="C115" s="38" t="s">
+        <v>832</v>
+      </c>
+      <c r="D115" s="38" t="s">
+        <v>832</v>
+      </c>
+      <c r="E115" s="29" t="s">
         <v>833</v>
-      </c>
-      <c r="C115" s="38" t="s">
-        <v>833</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>833</v>
-      </c>
-      <c r="E115" s="29" t="s">
-        <v>834</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -15111,16 +15111,16 @@
         <v>58</v>
       </c>
       <c r="B116" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="D116" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="E116" s="29" t="s">
         <v>835</v>
-      </c>
-      <c r="C116" s="38" t="s">
-        <v>835</v>
-      </c>
-      <c r="D116" s="38" t="s">
-        <v>835</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>836</v>
       </c>
       <c r="F116" s="13"/>
       <c r="G116" s="12"/>
@@ -15209,7 +15209,7 @@
         <v>241</v>
       </c>
       <c r="P117" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q117" s="11" t="s">
         <v>240</v>
@@ -15218,7 +15218,7 @@
         <v>242</v>
       </c>
       <c r="S117" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T117" s="11" t="s">
         <v>54</v>
@@ -15233,7 +15233,7 @@
         <v>54</v>
       </c>
       <c r="X117" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Y117" s="11" t="s">
         <v>53</v>
@@ -15307,7 +15307,7 @@
         <v>241</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q118" s="11" t="s">
         <v>240</v>
@@ -15316,7 +15316,7 @@
         <v>242</v>
       </c>
       <c r="S118" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T118" s="11" t="s">
         <v>54</v>
@@ -15331,7 +15331,7 @@
         <v>54</v>
       </c>
       <c r="X118" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Y118" s="11" t="s">
         <v>53</v>
@@ -15405,7 +15405,7 @@
         <v>241</v>
       </c>
       <c r="P119" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q119" s="11" t="s">
         <v>240</v>
@@ -15414,7 +15414,7 @@
         <v>242</v>
       </c>
       <c r="S119" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T119" s="11" t="s">
         <v>54</v>
@@ -15455,16 +15455,16 @@
         <v>227</v>
       </c>
       <c r="B120" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="D120" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>838</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>839</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>237</v>
@@ -15497,7 +15497,7 @@
         <v>241</v>
       </c>
       <c r="P120" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q120" s="11" t="s">
         <v>240</v>
@@ -15506,7 +15506,7 @@
         <v>242</v>
       </c>
       <c r="S120" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T120" s="11" t="s">
         <v>54</v>
@@ -15547,16 +15547,16 @@
         <v>227</v>
       </c>
       <c r="B121" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>840</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="D121" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>841</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>842</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>237</v>
@@ -15589,7 +15589,7 @@
         <v>241</v>
       </c>
       <c r="P121" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q121" s="11" t="s">
         <v>240</v>
@@ -15598,7 +15598,7 @@
         <v>242</v>
       </c>
       <c r="S121" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T121" s="11" t="s">
         <v>54</v>
@@ -15645,16 +15645,16 @@
         <v>227</v>
       </c>
       <c r="B122" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="D122" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="E122" s="10" t="s">
         <v>844</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>845</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>237</v>
@@ -15687,7 +15687,7 @@
         <v>241</v>
       </c>
       <c r="P122" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q122" s="11" t="s">
         <v>240</v>
@@ -15696,7 +15696,7 @@
         <v>242</v>
       </c>
       <c r="S122" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T122" s="11" t="s">
         <v>54</v>
@@ -15740,13 +15740,13 @@
         <v>213</v>
       </c>
       <c r="C123" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="E123" s="10" t="s">
         <v>846</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>847</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>237</v>
@@ -15779,7 +15779,7 @@
         <v>241</v>
       </c>
       <c r="P123" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q123" s="11" t="s">
         <v>240</v>
@@ -15788,7 +15788,7 @@
         <v>242</v>
       </c>
       <c r="S123" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T123" s="11" t="s">
         <v>54</v>
@@ -15835,7 +15835,7 @@
         <v>227</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>216</v>
@@ -15844,7 +15844,7 @@
         <v>216</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>237</v>
@@ -15877,7 +15877,7 @@
         <v>241</v>
       </c>
       <c r="P124" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q124" s="11" t="s">
         <v>240</v>
@@ -15886,7 +15886,7 @@
         <v>242</v>
       </c>
       <c r="S124" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T124" s="11" t="s">
         <v>54</v>
@@ -15969,7 +15969,7 @@
         <v>241</v>
       </c>
       <c r="P125" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q125" s="11" t="s">
         <v>240</v>
@@ -15978,7 +15978,7 @@
         <v>242</v>
       </c>
       <c r="S125" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T125" s="11" t="s">
         <v>54</v>
@@ -16022,13 +16022,13 @@
         <v>228</v>
       </c>
       <c r="C126" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="E126" s="10" t="s">
         <v>850</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>850</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>851</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>237</v>
@@ -16061,7 +16061,7 @@
         <v>241</v>
       </c>
       <c r="P126" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q126" s="11" t="s">
         <v>240</v>
@@ -16070,7 +16070,7 @@
         <v>242</v>
       </c>
       <c r="S126" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T126" s="11" t="s">
         <v>54</v>
@@ -16114,13 +16114,13 @@
         <v>228</v>
       </c>
       <c r="C127" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="E127" s="10" t="s">
         <v>852</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>852</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>853</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>237</v>
@@ -16153,7 +16153,7 @@
         <v>241</v>
       </c>
       <c r="P127" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q127" s="11" t="s">
         <v>240</v>
@@ -16162,7 +16162,7 @@
         <v>242</v>
       </c>
       <c r="S127" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T127" s="11" t="s">
         <v>54</v>
@@ -16245,7 +16245,7 @@
         <v>241</v>
       </c>
       <c r="P128" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q128" s="11" t="s">
         <v>240</v>
@@ -16254,7 +16254,7 @@
         <v>242</v>
       </c>
       <c r="S128" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T128" s="11" t="s">
         <v>54</v>
@@ -16337,7 +16337,7 @@
         <v>241</v>
       </c>
       <c r="P129" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q129" s="11" t="s">
         <v>240</v>
@@ -16346,7 +16346,7 @@
         <v>242</v>
       </c>
       <c r="S129" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T129" s="11" t="s">
         <v>54</v>
@@ -16429,7 +16429,7 @@
         <v>241</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="Q130" s="11" t="s">
         <v>240</v>
@@ -16438,7 +16438,7 @@
         <v>242</v>
       </c>
       <c r="S130" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="T130" s="11" t="s">
         <v>54</v>
@@ -16612,13 +16612,13 @@
         <v>260</v>
       </c>
       <c r="C133" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="E133" s="15" t="s">
         <v>854</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>854</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>855</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>269</v>
@@ -16671,16 +16671,16 @@
         <v>58</v>
       </c>
       <c r="B134" s="16" t="s">
+        <v>855</v>
+      </c>
+      <c r="C134" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="D134" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="E134" s="15" t="s">
         <v>857</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>857</v>
-      </c>
-      <c r="E134" s="15" t="s">
-        <v>858</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>269</v>
@@ -16992,16 +16992,16 @@
         <v>18</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="D7" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>272</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -17009,16 +17009,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="D8" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>275</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
@@ -17026,16 +17026,16 @@
         <v>24</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>278</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -17043,16 +17043,16 @@
         <v>18</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>281</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -17060,16 +17060,16 @@
         <v>18</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>284</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -17077,16 +17077,16 @@
         <v>18</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>287</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -17094,16 +17094,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>290</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -17111,16 +17111,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>293</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -17128,16 +17128,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -17145,16 +17145,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>299</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17162,16 +17162,16 @@
         <v>18</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17179,16 +17179,16 @@
         <v>24</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>305</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17196,16 +17196,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>308</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17213,16 +17213,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17230,16 +17230,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>313</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17247,16 +17247,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="D22" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>316</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -17264,16 +17264,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>318</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17281,16 +17281,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="D24" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17298,16 +17298,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="D25" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>324</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17315,16 +17315,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="D26" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17332,16 +17332,16 @@
         <v>18</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="D27" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>330</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17349,16 +17349,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="D28" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17366,16 +17366,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>336</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -17383,16 +17383,16 @@
         <v>24</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="D30" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>339</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17400,16 +17400,16 @@
         <v>24</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="D31" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
@@ -17417,16 +17417,16 @@
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="D32" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17434,16 +17434,16 @@
         <v>18</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="D33" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17451,16 +17451,16 @@
         <v>18</v>
       </c>
       <c r="B34" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>350</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="D34" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>351</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17468,16 +17468,16 @@
         <v>18</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D35" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="E35" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17485,16 +17485,16 @@
         <v>18</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>357</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17502,16 +17502,16 @@
         <v>18</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>360</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -17519,16 +17519,16 @@
         <v>18</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="D38" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -17536,16 +17536,16 @@
         <v>18</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>365</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17553,16 +17553,16 @@
         <v>18</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="D40" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17570,16 +17570,16 @@
         <v>18</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>371</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17587,16 +17587,16 @@
         <v>18</v>
       </c>
       <c r="B42" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C42" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="D42" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="E42" s="20" t="s">
         <v>374</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17604,16 +17604,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="D43" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="E43" s="20" t="s">
         <v>377</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
@@ -17621,16 +17621,16 @@
         <v>18</v>
       </c>
       <c r="B44" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="D44" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="E44" s="20" t="s">
         <v>380</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17638,16 +17638,16 @@
         <v>18</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="D45" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>383</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17655,16 +17655,16 @@
         <v>24</v>
       </c>
       <c r="B46" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E46" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17672,16 +17672,16 @@
         <v>18</v>
       </c>
       <c r="B47" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="E47" s="20" t="s">
         <v>388</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17689,16 +17689,16 @@
         <v>18</v>
       </c>
       <c r="B48" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="E48" s="20" t="s">
         <v>391</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17706,16 +17706,16 @@
         <v>18</v>
       </c>
       <c r="B49" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E49" s="20" t="s">
         <v>394</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -17723,16 +17723,16 @@
         <v>18</v>
       </c>
       <c r="B50" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="D50" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="E50" s="20" t="s">
         <v>397</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17740,16 +17740,16 @@
         <v>18</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="D51" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>400</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17757,16 +17757,16 @@
         <v>24</v>
       </c>
       <c r="B52" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="D52" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>403</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17774,16 +17774,16 @@
         <v>18</v>
       </c>
       <c r="B53" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="D53" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="E53" s="20" t="s">
         <v>406</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17791,16 +17791,16 @@
         <v>18</v>
       </c>
       <c r="B54" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="D54" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="E54" s="20" t="s">
         <v>409</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -17808,16 +17808,16 @@
         <v>18</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="D55" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E55" s="20" t="s">
         <v>412</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17825,16 +17825,16 @@
         <v>18</v>
       </c>
       <c r="B56" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="D56" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="E56" s="20" t="s">
         <v>415</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17842,16 +17842,16 @@
         <v>18</v>
       </c>
       <c r="B57" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="D57" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="E57" s="20" t="s">
         <v>418</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17859,16 +17859,16 @@
         <v>18</v>
       </c>
       <c r="B58" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="D58" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E58" s="20" t="s">
         <v>421</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="102" x14ac:dyDescent="0.25">
@@ -17876,16 +17876,16 @@
         <v>18</v>
       </c>
       <c r="B59" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="D59" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="E59" s="20" t="s">
         <v>424</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17893,16 +17893,16 @@
         <v>18</v>
       </c>
       <c r="B60" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="D60" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E60" s="20" t="s">
         <v>427</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -17910,16 +17910,16 @@
         <v>18</v>
       </c>
       <c r="B61" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="D61" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E61" s="20" t="s">
         <v>430</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -17927,16 +17927,16 @@
         <v>18</v>
       </c>
       <c r="B62" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="D62" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E62" s="20" t="s">
         <v>433</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -17944,16 +17944,16 @@
         <v>18</v>
       </c>
       <c r="B63" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="D63" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="E63" s="20" t="s">
         <v>436</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
@@ -17961,16 +17961,16 @@
         <v>18</v>
       </c>
       <c r="B64" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="D64" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="E64" s="20" t="s">
         <v>439</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17978,16 +17978,16 @@
         <v>18</v>
       </c>
       <c r="B65" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="D65" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="E65" s="20" t="s">
         <v>442</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -17995,16 +17995,16 @@
         <v>24</v>
       </c>
       <c r="B66" s="21" t="s">
+        <v>860</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="D66" s="21" t="s">
+        <v>861</v>
+      </c>
+      <c r="E66" s="20" t="s">
         <v>862</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>862</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -18012,16 +18012,16 @@
         <v>208</v>
       </c>
       <c r="B67" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="D67" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E67" s="20" t="s">
         <v>445</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -18029,16 +18029,16 @@
         <v>208</v>
       </c>
       <c r="B68" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="D68" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="E68" s="20" t="s">
         <v>448</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -18046,16 +18046,16 @@
         <v>208</v>
       </c>
       <c r="B69" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="E69" s="20" t="s">
         <v>450</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18063,13 +18063,13 @@
         <v>208</v>
       </c>
       <c r="B70" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C70" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>453</v>
-      </c>
       <c r="D70" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>33</v>
@@ -18080,13 +18080,13 @@
         <v>208</v>
       </c>
       <c r="B71" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="C71" s="21" t="s">
-        <v>455</v>
-      </c>
       <c r="D71" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>34</v>
@@ -18097,13 +18097,13 @@
         <v>208</v>
       </c>
       <c r="B72" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C72" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>457</v>
-      </c>
       <c r="D72" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E72" s="20" t="s">
         <v>35</v>
@@ -18114,16 +18114,16 @@
         <v>24</v>
       </c>
       <c r="B73" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="D73" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>459</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18131,16 +18131,16 @@
         <v>208</v>
       </c>
       <c r="B74" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="D74" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E74" s="20" t="s">
         <v>462</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18148,16 +18148,16 @@
         <v>18</v>
       </c>
       <c r="B75" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="D75" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="E75" s="20" t="s">
         <v>465</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18165,16 +18165,16 @@
         <v>18</v>
       </c>
       <c r="B76" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="D76" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="E76" s="20" t="s">
         <v>468</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18182,16 +18182,16 @@
         <v>18</v>
       </c>
       <c r="B77" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C77" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="D77" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="E77" s="20" t="s">
         <v>471</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18199,16 +18199,16 @@
         <v>208</v>
       </c>
       <c r="B78" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="D78" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E78" s="20" t="s">
         <v>474</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -18216,16 +18216,16 @@
         <v>18</v>
       </c>
       <c r="B79" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="E79" s="20" t="s">
         <v>476</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -18233,16 +18233,16 @@
         <v>18</v>
       </c>
       <c r="B80" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="E80" s="20" t="s">
         <v>478</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -18250,16 +18250,16 @@
         <v>18</v>
       </c>
       <c r="B81" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="E81" s="20" t="s">
         <v>480</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -18267,16 +18267,16 @@
         <v>18</v>
       </c>
       <c r="B82" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="E82" s="20" t="s">
         <v>482</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -18284,16 +18284,16 @@
         <v>18</v>
       </c>
       <c r="B83" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="E83" s="20" t="s">
         <v>484</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -18301,16 +18301,16 @@
         <v>18</v>
       </c>
       <c r="B84" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="E84" s="20" t="s">
         <v>486</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18318,16 +18318,16 @@
         <v>24</v>
       </c>
       <c r="B85" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="E85" s="20" t="s">
         <v>488</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -18335,16 +18335,16 @@
         <v>18</v>
       </c>
       <c r="B86" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="E86" s="20" t="s">
         <v>490</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -18352,16 +18352,16 @@
         <v>18</v>
       </c>
       <c r="B87" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="E87" s="20" t="s">
         <v>492</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>492</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -18369,16 +18369,16 @@
         <v>24</v>
       </c>
       <c r="B88" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="E88" s="20" t="s">
         <v>494</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -18386,16 +18386,16 @@
         <v>18</v>
       </c>
       <c r="B89" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="E89" s="20" t="s">
         <v>496</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -18403,16 +18403,16 @@
         <v>18</v>
       </c>
       <c r="B90" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="E90" s="20" t="s">
         <v>498</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -18420,16 +18420,16 @@
         <v>208</v>
       </c>
       <c r="B91" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="E91" s="20" t="s">
         <v>500</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18437,16 +18437,16 @@
         <v>24</v>
       </c>
       <c r="B92" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>502</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18454,16 +18454,16 @@
         <v>24</v>
       </c>
       <c r="B93" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="E93" s="22" t="s">
         <v>504</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18471,16 +18471,16 @@
         <v>24</v>
       </c>
       <c r="B94" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="E94" s="22" t="s">
         <v>506</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -18488,16 +18488,16 @@
         <v>24</v>
       </c>
       <c r="B95" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="E95" s="22" t="s">
         <v>508</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -18505,16 +18505,16 @@
         <v>24</v>
       </c>
       <c r="B96" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="E96" s="22" t="s">
         <v>510</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -18522,16 +18522,16 @@
         <v>24</v>
       </c>
       <c r="B97" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="E97" s="22" t="s">
         <v>512</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18539,16 +18539,16 @@
         <v>18</v>
       </c>
       <c r="B98" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="D98" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="E98" s="20" t="s">
         <v>515</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -18556,16 +18556,16 @@
         <v>18</v>
       </c>
       <c r="B99" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="E99" s="20" t="s">
         <v>517</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18573,16 +18573,16 @@
         <v>208</v>
       </c>
       <c r="B100" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="C100" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="D100" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="E100" s="21" t="s">
         <v>520</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -18590,16 +18590,16 @@
         <v>208</v>
       </c>
       <c r="B101" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="E101" s="21" t="s">
         <v>522</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -18607,16 +18607,16 @@
         <v>208</v>
       </c>
       <c r="B102" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="E102" s="21" t="s">
         <v>524</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="51" x14ac:dyDescent="0.25">
@@ -18624,16 +18624,16 @@
         <v>208</v>
       </c>
       <c r="B103" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="E103" s="21" t="s">
         <v>526</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -18641,16 +18641,16 @@
         <v>18</v>
       </c>
       <c r="B104" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="E104" s="20" t="s">
         <v>528</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -18658,16 +18658,16 @@
         <v>18</v>
       </c>
       <c r="B105" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="E105" s="20" t="s">
         <v>530</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -18675,16 +18675,16 @@
         <v>18</v>
       </c>
       <c r="B106" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="C106" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="D106" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="E106" s="20" t="s">
         <v>533</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="E106" s="20" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
@@ -18709,16 +18709,16 @@
         <v>18</v>
       </c>
       <c r="B108" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="E108" s="20" t="s">
         <v>535</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -18726,16 +18726,16 @@
         <v>18</v>
       </c>
       <c r="B109" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="E109" s="20" t="s">
         <v>537</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>537</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18743,16 +18743,16 @@
         <v>18</v>
       </c>
       <c r="B110" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="E110" s="20" t="s">
         <v>539</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="E110" s="20" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
@@ -18794,16 +18794,16 @@
         <v>208</v>
       </c>
       <c r="B113" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="C113" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="D113" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="E113" s="21" t="s">
         <v>542</v>
-      </c>
-      <c r="D113" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -18811,16 +18811,16 @@
         <v>24</v>
       </c>
       <c r="B114" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="E114" s="22" t="s">
         <v>544</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
@@ -18828,16 +18828,16 @@
         <v>24</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
@@ -18862,16 +18862,16 @@
         <v>24</v>
       </c>
       <c r="B117" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C117" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="C117" s="21" t="s">
-        <v>388</v>
-      </c>
       <c r="D117" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>546</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="1029">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2781,12 +2781,6 @@
     <t>250920001740</t>
   </si>
   <si>
-    <t>061020001891</t>
-  </si>
-  <si>
-    <t>061020001892</t>
-  </si>
-  <si>
     <t>Policy Name</t>
   </si>
   <si>
@@ -3145,12 +3139,25 @@
   </si>
   <si>
     <t>S3l1Y2hheWllQDEyMw</t>
+  </si>
+  <si>
+    <t>031220002917</t>
+  </si>
+  <si>
+    <t>031220002918</t>
+  </si>
+  <si>
+    <t>031220002919</t>
+  </si>
+  <si>
+    <t>031220002920</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3572,7 +3579,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3904,17 +3911,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3969,7 +3976,7 @@
         <v>2388006</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>124</v>
@@ -4008,7 +4015,7 @@
         <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4016,7 +4023,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>123</v>
@@ -4060,7 +4067,7 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>131</v>
@@ -4074,7 +4081,7 @@
         <v>2388006</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>178</v>
@@ -4102,9 +4109,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4249,55 +4256,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="44" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="44" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="44" width="30.875" collapsed="true"/>
+    <col min="2" max="16384" style="44" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -4315,10 +4322,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5815,91 +5822,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.875" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.75" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.875" style="41" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" style="41" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.125" style="41" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" style="41" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" style="41" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.25" style="41" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.125" style="41" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" style="41" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.625" style="41" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.875" style="41" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="15.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="19.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="41" width="10.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="41" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="41" width="10.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="41" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="41" width="11.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="41" width="10.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="41" width="10.125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="41" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="41" width="11.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="41" width="11.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>925</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>906</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>907</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>918</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>927</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>908</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>909</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>914</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>915</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>916</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C2" s="7">
         <v>3</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>919</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>920</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>921</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="G2" s="41" t="s">
         <v>922</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>923</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>924</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>925</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -5917,43 +5924,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B1" t="s">
         <v>928</v>
       </c>
-      <c r="B1" t="s">
-        <v>930</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" t="s">
         <v>935</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="G1" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -5972,46 +5979,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" style="47" collapsed="1"/>
-    <col min="3" max="3" width="13.875" style="47" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5" style="47" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9" style="47" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="47" width="19.25" collapsed="true"/>
+    <col min="2" max="2" style="47" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="47" width="13.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="47" width="11.5" collapsed="true"/>
+    <col min="5" max="16384" style="47" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>948</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>949</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>950</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>951</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>952</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>953</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>954</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>955</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>956</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="K1" s="46" t="s">
         <v>957</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>958</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -6093,9 +6100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.25" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9" style="7" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="23.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="24.25" collapsed="true"/>
+    <col min="3" max="16384" style="7" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6146,7 +6153,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6199,17 +6206,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6241,10 +6248,10 @@
         <v>164</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="K1" s="52" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6289,7 +6296,7 @@
         <v>150</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6311,7 +6318,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>146</v>
@@ -6451,22 +6458,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
+        <v>973</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -6476,22 +6483,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
+        <v>981</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6501,28 +6508,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
+        <v>987</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -6530,19 +6537,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>1001</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6553,7 +6560,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>151</v>
@@ -6565,22 +6572,22 @@
         <v>152</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>146</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I14" s="52" t="s">
         <v>169</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="K14" s="52" t="s">
         <v>158</v>
@@ -6588,7 +6595,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -6600,13 +6607,13 @@
         <v>150</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>152</v>
@@ -6617,19 +6624,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1020</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -6640,19 +6647,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>1021</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="D17" s="52" t="s">
         <v>1022</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>1023</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>1025</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -6673,36 +6680,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:BG1"/>
+    <sheetView topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6785,16 +6792,16 @@
         <v>43</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>45</v>
@@ -6803,7 +6810,7 @@
         <v>43</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>47</v>
@@ -6812,7 +6819,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AK1" s="7" t="s">
         <v>49</v>
@@ -6821,7 +6828,7 @@
         <v>43</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AN1" s="7" t="s">
         <v>51</v>
@@ -6830,7 +6837,7 @@
         <v>43</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="AQ1" s="7" t="s">
         <v>133</v>
@@ -6839,7 +6846,7 @@
         <v>43</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AT1" s="7" t="s">
         <v>245</v>
@@ -6854,25 +6861,25 @@
         <v>75</v>
       </c>
       <c r="AX1" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="AY1" s="24" t="s">
+        <v>959</v>
+      </c>
+      <c r="AZ1" s="24" t="s">
         <v>960</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="BA1" s="24" t="s">
         <v>961</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="BB1" s="24" t="s">
         <v>962</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BD1" s="51" t="s">
         <v>964</v>
-      </c>
-      <c r="BC1" s="24" t="s">
-        <v>965</v>
-      </c>
-      <c r="BD1" s="51" t="s">
-        <v>966</v>
       </c>
       <c r="BE1" s="7" t="s">
         <v>86</v>
@@ -6945,19 +6952,7 @@
       <c r="T2" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="7">
-        <f>SUM(AW2,AD2,AF2,AH2)</f>
-        <v>3</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>905</v>
-      </c>
+      <c r="AI2" s="7"/>
       <c r="AV2" t="s">
         <v>78</v>
       </c>
@@ -6975,7 +6970,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -6994,19 +6989,7 @@
       <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="AI3" s="7">
-        <f>SUM(AW3,AD3,AF3,AH3)</f>
-        <v>8</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>906</v>
-      </c>
+      <c r="AI3" s="7"/>
       <c r="AV3" t="s">
         <v>76</v>
       </c>
@@ -7024,7 +7007,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="7" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -7037,15 +7020,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7069,20 +7052,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" t="s">
-        <v>211</v>
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7111,14 +7094,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH137"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
       <selection activeCell="BC4" sqref="BC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="26" width="9" style="7" collapsed="1"/>
-    <col min="59" max="59" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="26" style="7" width="9.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -7201,16 +7184,16 @@
         <v>43</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="AE1" s="7" t="s">
         <v>45</v>
@@ -7219,7 +7202,7 @@
         <v>43</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AH1" s="7" t="s">
         <v>47</v>
@@ -7228,7 +7211,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="AK1" s="7" t="s">
         <v>49</v>
@@ -7237,7 +7220,7 @@
         <v>43</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AN1" s="7" t="s">
         <v>51</v>
@@ -7246,7 +7229,7 @@
         <v>43</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="AQ1" s="7" t="s">
         <v>133</v>
@@ -7255,7 +7238,7 @@
         <v>43</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="AT1" s="7" t="s">
         <v>245</v>
@@ -7270,25 +7253,25 @@
         <v>75</v>
       </c>
       <c r="AX1" s="24" t="s">
+        <v>958</v>
+      </c>
+      <c r="AY1" s="24" t="s">
+        <v>959</v>
+      </c>
+      <c r="AZ1" s="24" t="s">
         <v>960</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="BA1" s="24" t="s">
         <v>961</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="BB1" s="24" t="s">
         <v>962</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>963</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BD1" s="51" t="s">
         <v>964</v>
-      </c>
-      <c r="BC1" s="24" t="s">
-        <v>965</v>
-      </c>
-      <c r="BD1" s="51" t="s">
-        <v>966</v>
       </c>
       <c r="BE1" s="7" t="s">
         <v>86</v>
@@ -7606,7 +7589,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="54" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="BH5" s="7"/>
     </row>
@@ -16877,7 +16860,7 @@
   <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19003,8 +18986,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="10" r:id="rId2"/>
     <sheet name="Headers" sheetId="9" r:id="rId3"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId4"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId5"/>
-    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="12" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="3" r:id="rId4"/>
+    <sheet name="FTRTickets-Reg" sheetId="2" r:id="rId5"/>
+    <sheet name="NFTRTickets-san1" sheetId="11" r:id="rId6"/>
+    <sheet name="FTRTickets-San1" sheetId="12" r:id="rId7"/>
     <sheet name="UserManagement" sheetId="19" r:id="rId8"/>
     <sheet name="PinnedTags" sheetId="5" r:id="rId9"/>
     <sheet name="Ticket State" sheetId="6" r:id="rId10"/>
@@ -31,7 +31,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="1025">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3096,12 +3096,6 @@
     <t>Old Expiry Date</t>
   </si>
   <si>
-    <t>161120002636</t>
-  </si>
-  <si>
-    <t>161120002637</t>
-  </si>
-  <si>
     <t>Detailed Usage History</t>
   </si>
   <si>
@@ -3141,23 +3135,16 @@
     <t>S3l1Y2hheWllQDEyMw</t>
   </si>
   <si>
-    <t>031220002917</t>
-  </si>
-  <si>
-    <t>031220002918</t>
-  </si>
-  <si>
-    <t>031220002919</t>
-  </si>
-  <si>
-    <t>031220002920</t>
+    <t>071220002922</t>
+  </si>
+  <si>
+    <t>071220002923</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3579,7 +3566,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3917,11 +3904,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4023,7 +4010,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>123</v>
@@ -4109,9 +4096,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4256,8 +4243,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="44" width="30.875" collapsed="true"/>
-    <col min="2" max="16384" style="44" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="30.875" style="44" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9" style="44" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4322,10 +4309,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5822,19 +5809,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="15.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="19.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="41" width="10.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="41" width="11.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="41" width="10.125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="41" width="10.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="41" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="41" width="10.25" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="41" width="10.125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="41" width="10.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="41" width="11.625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="41" width="11.875" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.875" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.75" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.875" style="41" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" style="41" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.125" style="41" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" style="41" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" style="41" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.25" style="41" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.125" style="41" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" style="41" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.625" style="41" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.875" style="41" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -5924,9 +5911,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5979,11 +5966,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="47" width="19.25" collapsed="true"/>
-    <col min="2" max="2" style="47" width="9.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="47" width="13.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="47" width="11.5" collapsed="true"/>
-    <col min="5" max="16384" style="47" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.25" style="47" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="47" collapsed="1"/>
+    <col min="3" max="3" width="13.875" style="47" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5" style="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9" style="47" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6100,9 +6087,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="23.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="24.25" collapsed="true"/>
-    <col min="3" max="16384" style="7" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="23.125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.25" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6153,7 +6140,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6200,23 +6187,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.75" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.625" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6595,7 +6582,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -6607,13 +6594,13 @@
         <v>150</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1000</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>152</v>
@@ -6624,16 +6611,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>926</v>
@@ -6647,19 +6634,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>1019</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="D17" s="52" t="s">
         <v>1020</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="E17" s="52" t="s">
         <v>1021</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>1023</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -6680,36 +6667,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6970,7 +6957,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -7007,7 +6994,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="7" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -7020,15 +7007,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7100,8 +7087,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="26" style="7" width="9.0" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="21" max="26" width="9" style="7" collapsed="1"/>
+    <col min="59" max="59" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -18986,8 +18973,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="true"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -2954,9 +2954,6 @@
     <t>QWlydGVsQWZAMjAyMQ</t>
   </si>
   <si>
-    <t>T2N0QDIwMjA</t>
-  </si>
-  <si>
     <t>Loan Details</t>
   </si>
   <si>
@@ -3077,9 +3074,6 @@
     <t>Next Reset Date</t>
   </si>
   <si>
-    <t>S3l1Y2hheWllQDEyMw</t>
-  </si>
-  <si>
     <t>071220002922</t>
   </si>
   <si>
@@ -3549,6 +3543,12 @@
   </si>
   <si>
     <t>Airtel Money_Agent</t>
+  </si>
+  <si>
+    <t>SmFuQDIwMjE</t>
+  </si>
+  <si>
+    <t>Tm90ZXBhZEAxMjM</t>
   </si>
 </sst>
 </file>
@@ -4037,7 +4037,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4481,7 +4481,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1002</v>
+        <v>1159</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>123</v>
@@ -4525,7 +4525,7 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>961</v>
+        <v>1158</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>131</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>114</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>114</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>114</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>114</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>114</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>114</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>114</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>114</v>
@@ -4958,7 +4958,7 @@
         <v>201</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>82</v>
@@ -4972,13 +4972,13 @@
         <v>880</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4989,10 +4989,10 @@
         <v>880</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E4" s="61" t="s">
         <v>84</v>
@@ -5006,10 +5006,10 @@
         <v>880</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E5" s="61" t="s">
         <v>84</v>
@@ -5023,13 +5023,13 @@
         <v>880</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D6" s="61" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E6" s="61" t="s">
         <v>1015</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5040,13 +5040,13 @@
         <v>880</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D7" s="61" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E7" s="61" t="s">
         <v>1015</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5057,13 +5057,13 @@
         <v>880</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5074,13 +5074,13 @@
         <v>880</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,13 +5091,13 @@
         <v>880</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5108,13 +5108,13 @@
         <v>880</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5142,13 +5142,13 @@
         <v>880</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5159,13 +5159,13 @@
         <v>880</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D14" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5176,13 +5176,13 @@
         <v>880</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D15" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5210,13 +5210,13 @@
         <v>880</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5227,13 +5227,13 @@
         <v>880</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5244,13 +5244,13 @@
         <v>880</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D19" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5261,13 +5261,13 @@
         <v>880</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5312,13 +5312,13 @@
         <v>880</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D23" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5329,13 +5329,13 @@
         <v>880</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D24" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5346,13 +5346,13 @@
         <v>880</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D25" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5397,13 +5397,13 @@
         <v>880</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D28" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5414,13 +5414,13 @@
         <v>880</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5431,13 +5431,13 @@
         <v>880</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D30" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5482,13 +5482,13 @@
         <v>880</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D33" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5499,13 +5499,13 @@
         <v>880</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D34" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5516,13 +5516,13 @@
         <v>880</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D35" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5567,13 +5567,13 @@
         <v>880</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D38" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5584,13 +5584,13 @@
         <v>880</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D39" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5601,13 +5601,13 @@
         <v>880</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D40" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5652,13 +5652,13 @@
         <v>880</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D43" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5669,13 +5669,13 @@
         <v>880</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D44" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5686,13 +5686,13 @@
         <v>880</v>
       </c>
       <c r="C45" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D45" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5703,13 +5703,13 @@
         <v>880</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D46" s="61" t="s">
         <v>82</v>
       </c>
       <c r="E46" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5720,13 +5720,13 @@
         <v>880</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D47" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5737,13 +5737,13 @@
         <v>880</v>
       </c>
       <c r="C48" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D48" s="61" t="s">
         <v>82</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5754,13 +5754,13 @@
         <v>880</v>
       </c>
       <c r="C49" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D49" s="61" t="s">
         <v>82</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5771,13 +5771,13 @@
         <v>880</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E50" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5788,10 +5788,10 @@
         <v>880</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E51" s="61" t="s">
         <v>84</v>
@@ -5805,13 +5805,13 @@
         <v>880</v>
       </c>
       <c r="C52" s="61" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D52" s="61" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E52" s="61" t="s">
         <v>1015</v>
-      </c>
-      <c r="E52" s="61" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5822,13 +5822,13 @@
         <v>880</v>
       </c>
       <c r="C53" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D53" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5839,13 +5839,13 @@
         <v>880</v>
       </c>
       <c r="C54" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D54" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5856,13 +5856,13 @@
         <v>880</v>
       </c>
       <c r="C55" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E55" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5873,13 +5873,13 @@
         <v>880</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E56" s="61" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5890,13 +5890,13 @@
         <v>880</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D57" s="61" t="s">
         <v>79</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5907,13 +5907,13 @@
         <v>880</v>
       </c>
       <c r="C58" s="61" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E58" s="61" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -6357,10 +6357,10 @@
         <v>164</v>
       </c>
       <c r="J1" s="42" t="s">
+        <v>986</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>987</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6405,7 +6405,7 @@
         <v>150</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6427,7 +6427,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>146</v>
@@ -6592,22 +6592,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
+        <v>961</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6617,28 +6617,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
+        <v>967</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>975</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -6646,19 +6646,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>151</v>
@@ -6681,22 +6681,22 @@
         <v>152</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>146</v>
       </c>
       <c r="G14" s="42" t="s">
+        <v>984</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>985</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>986</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>169</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>158</v>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -6716,13 +6716,13 @@
         <v>150</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>990</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>992</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>152</v>
@@ -6733,16 +6733,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
+        <v>992</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>907</v>
@@ -6756,19 +6756,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
+        <v>996</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>997</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="C17" s="42" t="s">
         <v>998</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="D17" s="42" t="s">
         <v>999</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="E17" s="42" t="s">
         <v>1000</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>1001</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7079,7 +7079,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -7116,7 +7116,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -7128,7 +7128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -7464,7 +7464,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AV2" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW2" s="58">
         <v>3</v>
@@ -7474,13 +7474,13 @@
         <v>3</v>
       </c>
       <c r="BE2" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF2" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -7536,7 +7536,7 @@
         <v>54</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>53</v>
@@ -7551,7 +7551,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AV3" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW3" s="58">
         <v>8</v>
@@ -7561,13 +7561,13 @@
         <v>8</v>
       </c>
       <c r="BE3" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF3" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AV4" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW4" s="58">
         <v>4</v>
@@ -7642,13 +7642,13 @@
         <v>4</v>
       </c>
       <c r="BE4" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF4" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -7704,7 +7704,7 @@
         <v>54</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>53</v>
@@ -7719,7 +7719,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AV5" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW5" s="58">
         <v>8</v>
@@ -7729,13 +7729,13 @@
         <v>8</v>
       </c>
       <c r="BE5" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF5" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -7794,7 +7794,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AV6" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW6" s="58">
         <v>24</v>
@@ -7804,13 +7804,13 @@
         <v>24</v>
       </c>
       <c r="BE6" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF6" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -7869,7 +7869,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AV7" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW7" s="58">
         <v>24</v>
@@ -7879,13 +7879,13 @@
         <v>24</v>
       </c>
       <c r="BE7" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF7" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -7960,7 +7960,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -8035,7 +8035,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -8106,7 +8106,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AV10" s="57" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="AW10" s="58">
         <v>24</v>
@@ -8116,13 +8116,13 @@
         <v>24</v>
       </c>
       <c r="BE10" s="57" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="BF10" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -8185,7 +8185,7 @@
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -8244,7 +8244,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AV12" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW12" s="58">
         <v>2</v>
@@ -8254,13 +8254,13 @@
         <v>2</v>
       </c>
       <c r="BE12" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF12" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -8319,7 +8319,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AV13" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW13" s="58">
         <v>48</v>
@@ -8329,13 +8329,13 @@
         <v>48</v>
       </c>
       <c r="BE13" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF13" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -8394,7 +8394,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AV14" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW14" s="58">
         <v>48</v>
@@ -8404,13 +8404,13 @@
         <v>48</v>
       </c>
       <c r="BE14" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF14" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -8475,7 +8475,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AV15" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW15" s="58">
         <v>48</v>
@@ -8485,13 +8485,13 @@
         <v>48</v>
       </c>
       <c r="BE15" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF15" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -8538,7 +8538,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AV16" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW16" s="58">
         <v>48</v>
@@ -8548,13 +8548,13 @@
         <v>48</v>
       </c>
       <c r="BE16" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF16" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -8601,7 +8601,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AV17" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW17" s="58">
         <v>48</v>
@@ -8611,13 +8611,13 @@
         <v>48</v>
       </c>
       <c r="BE17" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF17" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -8688,7 +8688,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AV18" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AW18" s="58">
         <v>24</v>
@@ -8698,7 +8698,7 @@
         <v>24</v>
       </c>
       <c r="BE18" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BF18" s="27" t="s">
         <v>89</v>
@@ -8765,7 +8765,7 @@
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -8858,7 +8858,7 @@
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -8951,7 +8951,7 @@
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -9044,7 +9044,7 @@
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -9121,7 +9121,7 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
       <c r="AV23" s="57" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AW23" s="58">
         <v>48</v>
@@ -9131,13 +9131,13 @@
         <v>48</v>
       </c>
       <c r="BE23" s="57" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="BF23" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -9214,7 +9214,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AV24" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW24" s="58">
         <v>24</v>
@@ -9224,13 +9224,13 @@
         <v>24</v>
       </c>
       <c r="BE24" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF24" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -9323,7 +9323,7 @@
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -9491,7 +9491,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AV27" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AW27" s="58">
         <v>24</v>
@@ -9501,7 +9501,7 @@
         <v>24</v>
       </c>
       <c r="BE27" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BF27" s="27" t="s">
         <v>89</v>
@@ -9552,7 +9552,7 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AV28" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW28" s="58">
         <v>48</v>
@@ -9562,13 +9562,13 @@
         <v>48</v>
       </c>
       <c r="BE28" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF28" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -9615,7 +9615,7 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AV29" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW29" s="58">
         <v>48</v>
@@ -9625,13 +9625,13 @@
         <v>48</v>
       </c>
       <c r="BE29" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF29" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -9678,7 +9678,7 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AV30" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW30" s="58">
         <v>48</v>
@@ -9688,13 +9688,13 @@
         <v>48</v>
       </c>
       <c r="BE30" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF30" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -9741,7 +9741,7 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AV31" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW31" s="58">
         <v>48</v>
@@ -9751,13 +9751,13 @@
         <v>48</v>
       </c>
       <c r="BE31" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF31" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -9804,7 +9804,7 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AV32" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW32" s="58">
         <v>6</v>
@@ -9814,7 +9814,7 @@
         <v>6</v>
       </c>
       <c r="BE32" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF32" s="24" t="s">
         <v>89</v>
@@ -9865,7 +9865,7 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AV33" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW33" s="58">
         <v>6</v>
@@ -9875,13 +9875,13 @@
         <v>6</v>
       </c>
       <c r="BE33" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF33" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -9928,7 +9928,7 @@
         <v>54</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="P34" s="31" t="s">
         <v>53</v>
@@ -9937,7 +9937,7 @@
         <v>54</v>
       </c>
       <c r="R34" s="31" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="S34" s="31" t="s">
         <v>144</v>
@@ -9968,7 +9968,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -10024,7 +10024,7 @@
         <v>54</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>53</v>
@@ -10045,7 +10045,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AV35" s="57" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AW35" s="58">
         <v>48</v>
@@ -10055,13 +10055,13 @@
         <v>48</v>
       </c>
       <c r="BE35" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BF35" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -10126,7 +10126,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AV36" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW36" s="58">
         <v>24</v>
@@ -10136,13 +10136,13 @@
         <v>24</v>
       </c>
       <c r="BE36" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF36" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -10217,7 +10217,7 @@
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -10276,7 +10276,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AV38" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW38" s="58">
         <v>48</v>
@@ -10286,13 +10286,13 @@
         <v>48</v>
       </c>
       <c r="BE38" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF38" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -10351,7 +10351,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AV39" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW39" s="58">
         <v>24</v>
@@ -10361,13 +10361,13 @@
         <v>24</v>
       </c>
       <c r="BE39" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF39" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -10414,7 +10414,7 @@
         <v>54</v>
       </c>
       <c r="O40" s="31" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="P40" s="31" t="s">
         <v>53</v>
@@ -10423,7 +10423,7 @@
         <v>54</v>
       </c>
       <c r="R40" s="31" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="S40" s="31" t="s">
         <v>144</v>
@@ -10454,7 +10454,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -10525,7 +10525,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AV41" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW41" s="58">
         <v>24</v>
@@ -10535,13 +10535,13 @@
         <v>24</v>
       </c>
       <c r="BE41" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF41" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -10588,7 +10588,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
       <c r="AV42" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW42" s="58">
         <v>24</v>
@@ -10598,13 +10598,13 @@
         <v>24</v>
       </c>
       <c r="BE42" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF42" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -10657,7 +10657,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AV43" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW43" s="58">
         <v>24</v>
@@ -10667,13 +10667,13 @@
         <v>24</v>
       </c>
       <c r="BE43" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF43" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -10720,7 +10720,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AV44" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW44" s="58">
         <v>24</v>
@@ -10730,13 +10730,13 @@
         <v>24</v>
       </c>
       <c r="BE44" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF44" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -10783,7 +10783,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AV45" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW45" s="58">
         <v>24</v>
@@ -10793,13 +10793,13 @@
         <v>24</v>
       </c>
       <c r="BE45" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF45" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -10844,7 +10844,7 @@
       <c r="Y46" s="31"/>
       <c r="Z46" s="31"/>
       <c r="AV46" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW46" s="58">
         <v>24</v>
@@ -10854,13 +10854,13 @@
         <v>24</v>
       </c>
       <c r="BE46" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF46" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AV47" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW47" s="58">
         <v>24</v>
@@ -10929,13 +10929,13 @@
         <v>24</v>
       </c>
       <c r="BE47" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF47" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -10982,7 +10982,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AV48" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW48" s="58">
         <v>24</v>
@@ -10992,7 +10992,7 @@
         <v>24</v>
       </c>
       <c r="BE48" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF48" s="27" t="s">
         <v>89</v>
@@ -11055,7 +11055,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AV49" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW49" s="58">
         <v>24</v>
@@ -11065,13 +11065,13 @@
         <v>24</v>
       </c>
       <c r="BE49" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF49" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11130,7 +11130,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AV50" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW50" s="58">
         <v>24</v>
@@ -11140,13 +11140,13 @@
         <v>24</v>
       </c>
       <c r="BE50" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF50" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -11221,7 +11221,7 @@
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11296,7 +11296,7 @@
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11359,7 +11359,7 @@
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11428,7 +11428,7 @@
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -11499,7 +11499,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AV55" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW55" s="58">
         <v>12</v>
@@ -11509,13 +11509,13 @@
         <v>12</v>
       </c>
       <c r="BE55" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF55" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -11562,7 +11562,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AV56" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW56" s="58">
         <v>24</v>
@@ -11572,13 +11572,13 @@
         <v>24</v>
       </c>
       <c r="BE56" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF56" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -11625,7 +11625,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AV57" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW57" s="58">
         <v>24</v>
@@ -11635,13 +11635,13 @@
         <v>24</v>
       </c>
       <c r="BE57" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF57" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -11716,7 +11716,7 @@
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11781,7 +11781,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AV59" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW59" s="58">
         <v>24</v>
@@ -11791,13 +11791,13 @@
         <v>24</v>
       </c>
       <c r="BE59" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF59" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -11862,7 +11862,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AV60" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW60" s="58">
         <v>4</v>
@@ -11872,13 +11872,13 @@
         <v>4</v>
       </c>
       <c r="BE60" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF60" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG60" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -11925,7 +11925,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AV61" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW61" s="58">
         <v>24</v>
@@ -11935,13 +11935,13 @@
         <v>24</v>
       </c>
       <c r="BE61" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF61" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -11988,7 +11988,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AV62" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW62" s="58">
         <v>24</v>
@@ -11998,13 +11998,13 @@
         <v>24</v>
       </c>
       <c r="BE62" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF62" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -12051,7 +12051,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AV63" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW63" s="58">
         <v>24</v>
@@ -12061,13 +12061,13 @@
         <v>24</v>
       </c>
       <c r="BE63" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF63" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -12114,7 +12114,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AV64" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW64" s="58">
         <v>24</v>
@@ -12124,13 +12124,13 @@
         <v>24</v>
       </c>
       <c r="BE64" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF64" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12189,7 +12189,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AV65" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW65" s="58">
         <v>48</v>
@@ -12199,13 +12199,13 @@
         <v>48</v>
       </c>
       <c r="BE65" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF65" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -12258,7 +12258,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AV66" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW66" s="58">
         <v>24</v>
@@ -12268,13 +12268,13 @@
         <v>24</v>
       </c>
       <c r="BE66" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF66" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -12333,7 +12333,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AV67" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW67" s="58">
         <v>48</v>
@@ -12343,13 +12343,13 @@
         <v>48</v>
       </c>
       <c r="BE67" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF67" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12396,7 +12396,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AV68" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW68" s="58">
         <v>24</v>
@@ -12406,13 +12406,13 @@
         <v>24</v>
       </c>
       <c r="BE68" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF68" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12471,7 +12471,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AV69" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW69" s="58">
         <v>24</v>
@@ -12481,13 +12481,13 @@
         <v>24</v>
       </c>
       <c r="BE69" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF69" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12546,7 +12546,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AV70" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW70" s="58">
         <v>24</v>
@@ -12556,13 +12556,13 @@
         <v>24</v>
       </c>
       <c r="BE70" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF70" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12609,7 +12609,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AV71" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW71" s="58">
         <v>24</v>
@@ -12619,13 +12619,13 @@
         <v>24</v>
       </c>
       <c r="BE71" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF71" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12678,7 +12678,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AV72" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW72" s="58">
         <v>48</v>
@@ -12688,13 +12688,13 @@
         <v>48</v>
       </c>
       <c r="BE72" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF72" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -12747,7 +12747,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AV73" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW73" s="58">
         <v>48</v>
@@ -12757,13 +12757,13 @@
         <v>48</v>
       </c>
       <c r="BE73" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF73" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -12838,7 +12838,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -12913,7 +12913,7 @@
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12960,7 +12960,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AV76" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW76" s="58">
         <v>48</v>
@@ -12970,13 +12970,13 @@
         <v>48</v>
       </c>
       <c r="BE76" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF76" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -13023,7 +13023,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
       <c r="AV77" s="57" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AW77" s="58">
         <v>48</v>
@@ -13033,13 +13033,13 @@
         <v>48</v>
       </c>
       <c r="BE77" s="57" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="BF77" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13102,7 +13102,7 @@
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13177,7 +13177,7 @@
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13234,13 +13234,13 @@
         <v>72</v>
       </c>
       <c r="BE80" s="59" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="BF80" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -13293,7 +13293,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AV81" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW81" s="58">
         <v>24</v>
@@ -13303,13 +13303,13 @@
         <v>24</v>
       </c>
       <c r="BE81" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF81" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
@@ -13408,7 +13408,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
@@ -13507,7 +13507,7 @@
         <v>89</v>
       </c>
       <c r="BG83" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -13570,7 +13570,7 @@
         <v>89</v>
       </c>
       <c r="BG84" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
@@ -13663,7 +13663,7 @@
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="86" spans="1:59" x14ac:dyDescent="0.25">
@@ -13756,7 +13756,7 @@
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
@@ -13855,7 +13855,7 @@
         <v>89</v>
       </c>
       <c r="BG87" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
@@ -13948,7 +13948,7 @@
         <v>89</v>
       </c>
       <c r="BG88" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="89" spans="1:59" x14ac:dyDescent="0.25">
@@ -14047,7 +14047,7 @@
         <v>89</v>
       </c>
       <c r="BG89" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -14112,7 +14112,7 @@
         <v>54</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>885</v>
@@ -14140,7 +14140,7 @@
         <v>89</v>
       </c>
       <c r="BG90" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -14199,7 +14199,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
       <c r="AV91" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW91" s="58">
         <v>48</v>
@@ -14209,13 +14209,13 @@
         <v>48</v>
       </c>
       <c r="BE91" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF91" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG91" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="92" spans="1:59" x14ac:dyDescent="0.25">
@@ -14290,7 +14290,7 @@
         <v>89</v>
       </c>
       <c r="BG92" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="93" spans="1:59" x14ac:dyDescent="0.25">
@@ -14365,7 +14365,7 @@
         <v>89</v>
       </c>
       <c r="BG93" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14412,7 +14412,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
       <c r="AV94" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW94" s="58">
         <v>2</v>
@@ -14422,13 +14422,13 @@
         <v>2</v>
       </c>
       <c r="BE94" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF94" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG94" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14475,7 +14475,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
       <c r="AV95" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW95" s="58">
         <v>2</v>
@@ -14485,13 +14485,13 @@
         <v>2</v>
       </c>
       <c r="BE95" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF95" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG95" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14538,7 +14538,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
       <c r="AV96" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW96" s="58">
         <v>2</v>
@@ -14548,13 +14548,13 @@
         <v>2</v>
       </c>
       <c r="BE96" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF96" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG96" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14601,7 +14601,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
       <c r="AV97" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW97" s="58">
         <v>2</v>
@@ -14611,13 +14611,13 @@
         <v>2</v>
       </c>
       <c r="BE97" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF97" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG97" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14664,7 +14664,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
       <c r="AV98" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW98" s="58">
         <v>24</v>
@@ -14674,13 +14674,13 @@
         <v>24</v>
       </c>
       <c r="BE98" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF98" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG98" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -14727,7 +14727,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
       <c r="AV99" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW99" s="58">
         <v>24</v>
@@ -14737,13 +14737,13 @@
         <v>24</v>
       </c>
       <c r="BE99" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF99" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG99" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -14802,7 +14802,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
       <c r="AV100" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW100" s="58">
         <v>48</v>
@@ -14812,13 +14812,13 @@
         <v>48</v>
       </c>
       <c r="BE100" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF100" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG100" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -14877,7 +14877,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
       <c r="AV101" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW101" s="58">
         <v>48</v>
@@ -14887,13 +14887,13 @@
         <v>48</v>
       </c>
       <c r="BE101" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF101" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG101" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -14952,7 +14952,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
       <c r="AV102" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW102" s="58">
         <v>48</v>
@@ -14962,13 +14962,13 @@
         <v>48</v>
       </c>
       <c r="BE102" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF102" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG102" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15024,7 +15024,7 @@
         <v>54</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="S103" s="1" t="s">
         <v>144</v>
@@ -15055,7 +15055,7 @@
         <v>89</v>
       </c>
       <c r="BG103" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
@@ -15120,7 +15120,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
       <c r="AV104" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW104" s="58">
         <v>4</v>
@@ -15130,13 +15130,13 @@
         <v>4</v>
       </c>
       <c r="BE104" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF104" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG104" s="44" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15195,7 +15195,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
       <c r="AV105" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW105" s="58">
         <v>24</v>
@@ -15205,13 +15205,13 @@
         <v>24</v>
       </c>
       <c r="BE105" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF105" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG105" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15270,7 +15270,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
       <c r="AV106" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW106" s="58">
         <v>24</v>
@@ -15280,13 +15280,13 @@
         <v>24</v>
       </c>
       <c r="BE106" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF106" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG106" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15345,7 +15345,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
       <c r="AV107" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW107" s="58">
         <v>24</v>
@@ -15355,13 +15355,13 @@
         <v>24</v>
       </c>
       <c r="BE107" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF107" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG107" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15420,7 +15420,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
       <c r="AV108" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW108" s="58">
         <v>24</v>
@@ -15430,13 +15430,13 @@
         <v>24</v>
       </c>
       <c r="BE108" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF108" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG108" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15495,7 +15495,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
       <c r="AV109" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW109" s="58">
         <v>24</v>
@@ -15505,13 +15505,13 @@
         <v>24</v>
       </c>
       <c r="BE109" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF109" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG109" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -15570,7 +15570,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
       <c r="AV110" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW110" s="58">
         <v>24</v>
@@ -15580,13 +15580,13 @@
         <v>24</v>
       </c>
       <c r="BE110" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF110" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG110" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -15651,7 +15651,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
       <c r="AV111" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW111" s="58">
         <v>24</v>
@@ -15661,13 +15661,13 @@
         <v>24</v>
       </c>
       <c r="BE111" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF111" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG111" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15714,7 +15714,7 @@
         <v>54</v>
       </c>
       <c r="O112" s="31" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="P112" s="31" t="s">
         <v>53</v>
@@ -15723,7 +15723,7 @@
         <v>54</v>
       </c>
       <c r="R112" s="31" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="S112" s="31" t="s">
         <v>53</v>
@@ -15744,7 +15744,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
       <c r="AV112" s="57" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AW112" s="58">
         <v>8</v>
@@ -15754,13 +15754,13 @@
         <v>8</v>
       </c>
       <c r="BE112" s="57" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="BF112" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG112" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15816,7 +15816,7 @@
         <v>54</v>
       </c>
       <c r="R113" s="31" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="S113" s="31" t="s">
         <v>53</v>
@@ -15831,7 +15831,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
       <c r="AV113" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW113" s="58">
         <v>8</v>
@@ -15841,13 +15841,13 @@
         <v>8</v>
       </c>
       <c r="BE113" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF113" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG113" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15900,7 +15900,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
       <c r="AV114" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW114" s="58">
         <v>4</v>
@@ -15910,13 +15910,13 @@
         <v>4</v>
       </c>
       <c r="BE114" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF114" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG114" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15972,7 +15972,7 @@
         <v>54</v>
       </c>
       <c r="R115" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>53</v>
@@ -15993,7 +15993,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
       <c r="AV115" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW115" s="58">
         <v>720</v>
@@ -16003,13 +16003,13 @@
         <v>720</v>
       </c>
       <c r="BE115" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF115" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG115" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16065,7 +16065,7 @@
         <v>54</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>53</v>
@@ -16086,7 +16086,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
       <c r="AV116" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW116" s="58">
         <v>720</v>
@@ -16096,13 +16096,13 @@
         <v>720</v>
       </c>
       <c r="BE116" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF116" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG116" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16158,7 +16158,7 @@
         <v>54</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>53</v>
@@ -16179,7 +16179,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
       <c r="AV117" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW117" s="58">
         <v>8</v>
@@ -16189,13 +16189,13 @@
         <v>8</v>
       </c>
       <c r="BE117" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF117" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG117" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -16258,7 +16258,7 @@
         <v>89</v>
       </c>
       <c r="BG118" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -16323,7 +16323,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
       <c r="AV119" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW119" s="58">
         <v>24</v>
@@ -16333,13 +16333,13 @@
         <v>24</v>
       </c>
       <c r="BE119" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF119" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG119" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -16410,7 +16410,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
       <c r="AV120" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AW120" s="58">
         <v>24</v>
@@ -16420,13 +16420,13 @@
         <v>24</v>
       </c>
       <c r="BE120" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BF120" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG120" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16497,7 +16497,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
       <c r="AV121" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW121" s="58">
         <v>48</v>
@@ -16507,13 +16507,13 @@
         <v>48</v>
       </c>
       <c r="BE121" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF121" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG121" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16560,7 +16560,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
       <c r="AV122" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW122" s="58">
         <v>24</v>
@@ -16570,13 +16570,13 @@
         <v>24</v>
       </c>
       <c r="BE122" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF122" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG122" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16623,7 +16623,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
       <c r="AV123" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW123" s="58">
         <v>24</v>
@@ -16633,13 +16633,13 @@
         <v>24</v>
       </c>
       <c r="BE123" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF123" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG123" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
@@ -16686,7 +16686,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
       <c r="AV124" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW124" s="58">
         <v>24</v>
@@ -16696,13 +16696,13 @@
         <v>24</v>
       </c>
       <c r="BE124" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF124" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG124" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16758,7 +16758,7 @@
         <v>54</v>
       </c>
       <c r="R125" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="S125" s="1" t="s">
         <v>144</v>
@@ -16773,7 +16773,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
       <c r="AV125" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW125" s="58">
         <v>24</v>
@@ -16783,13 +16783,13 @@
         <v>24</v>
       </c>
       <c r="BE125" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF125" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG125" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16845,7 +16845,7 @@
         <v>54</v>
       </c>
       <c r="R126" s="31" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="S126" s="31" t="s">
         <v>885</v>
@@ -16860,7 +16860,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
       <c r="AV126" s="57" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AW126" s="58">
         <v>720</v>
@@ -16876,7 +16876,7 @@
         <v>89</v>
       </c>
       <c r="BG126" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16935,7 +16935,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
       <c r="AV127" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW127" s="58">
         <v>2</v>
@@ -16945,7 +16945,7 @@
         <v>2</v>
       </c>
       <c r="BE127" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF127" s="27" t="s">
         <v>89</v>
@@ -17020,7 +17020,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
       <c r="AV128" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW128" s="58">
         <v>4</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="BE128" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF128" s="27" t="s">
         <v>89</v>
@@ -17105,7 +17105,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
       <c r="AV129" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AW129" s="58">
         <v>3</v>
@@ -17115,13 +17115,13 @@
         <v>3</v>
       </c>
       <c r="BE129" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BF129" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG129" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -17180,7 +17180,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
       <c r="AV130" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AW130" s="58">
         <v>24</v>
@@ -17190,13 +17190,13 @@
         <v>24</v>
       </c>
       <c r="BE130" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BF130" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG130" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -17458,7 +17458,7 @@
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
       <c r="AV2" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW2" s="58">
         <v>24</v>
@@ -17468,13 +17468,13 @@
         <v>24</v>
       </c>
       <c r="BE2" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF2" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="3" spans="1:59" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -17533,7 +17533,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AV3" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW3" s="58">
         <v>24</v>
@@ -17543,13 +17543,13 @@
         <v>24</v>
       </c>
       <c r="BE3" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF3" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="4" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -17596,7 +17596,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AV4" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW4" s="58">
         <v>24</v>
@@ -17606,7 +17606,7 @@
         <v>24</v>
       </c>
       <c r="BE4" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF4" s="27" t="s">
         <v>89</v>
@@ -17669,7 +17669,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AV5" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW5" s="58">
         <v>24</v>
@@ -17679,13 +17679,13 @@
         <v>24</v>
       </c>
       <c r="BE5" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF5" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="6" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -17744,7 +17744,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AV6" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW6" s="58">
         <v>24</v>
@@ -17754,13 +17754,13 @@
         <v>24</v>
       </c>
       <c r="BE6" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF6" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -17835,7 +17835,7 @@
         <v>89</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="8" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -17910,7 +17910,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -17973,7 +17973,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="10" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -18042,7 +18042,7 @@
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -18113,7 +18113,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AV11" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW11" s="58">
         <v>12</v>
@@ -18123,13 +18123,13 @@
         <v>12</v>
       </c>
       <c r="BE11" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF11" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="1:59" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -18176,7 +18176,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AV12" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW12" s="58">
         <v>24</v>
@@ -18186,13 +18186,13 @@
         <v>24</v>
       </c>
       <c r="BE12" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF12" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -18239,7 +18239,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AV13" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW13" s="58">
         <v>24</v>
@@ -18249,13 +18249,13 @@
         <v>24</v>
       </c>
       <c r="BE13" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF13" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="14" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -18330,7 +18330,7 @@
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="15" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -18395,7 +18395,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AV15" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW15" s="58">
         <v>24</v>
@@ -18405,13 +18405,13 @@
         <v>24</v>
       </c>
       <c r="BE15" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF15" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="16" spans="1:59" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -18476,7 +18476,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AV16" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW16" s="58">
         <v>4</v>
@@ -18486,13 +18486,13 @@
         <v>4</v>
       </c>
       <c r="BE16" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF16" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="17" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18539,7 +18539,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AV17" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW17" s="58">
         <v>24</v>
@@ -18549,13 +18549,13 @@
         <v>24</v>
       </c>
       <c r="BE17" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF17" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="18" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18602,7 +18602,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AV18" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW18" s="58">
         <v>24</v>
@@ -18612,13 +18612,13 @@
         <v>24</v>
       </c>
       <c r="BE18" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF18" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="19" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18665,7 +18665,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AV19" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW19" s="58">
         <v>24</v>
@@ -18675,13 +18675,13 @@
         <v>24</v>
       </c>
       <c r="BE19" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF19" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="20" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18728,7 +18728,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AV20" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW20" s="58">
         <v>24</v>
@@ -18738,13 +18738,13 @@
         <v>24</v>
       </c>
       <c r="BE20" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF20" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="21" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -18803,7 +18803,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AV21" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW21" s="58">
         <v>48</v>
@@ -18813,13 +18813,13 @@
         <v>48</v>
       </c>
       <c r="BE21" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF21" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="22" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18872,7 +18872,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AV22" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW22" s="58">
         <v>24</v>
@@ -18882,13 +18882,13 @@
         <v>24</v>
       </c>
       <c r="BE22" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF22" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="23" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18947,7 +18947,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AV23" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW23" s="58">
         <v>48</v>
@@ -18957,13 +18957,13 @@
         <v>48</v>
       </c>
       <c r="BE23" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF23" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="24" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19010,7 +19010,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AV24" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW24" s="58">
         <v>24</v>
@@ -19020,13 +19020,13 @@
         <v>24</v>
       </c>
       <c r="BE24" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF24" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="25" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19085,7 +19085,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AV25" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW25" s="58">
         <v>24</v>
@@ -19095,13 +19095,13 @@
         <v>24</v>
       </c>
       <c r="BE25" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF25" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="26" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19160,7 +19160,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AV26" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW26" s="58">
         <v>24</v>
@@ -19170,13 +19170,13 @@
         <v>24</v>
       </c>
       <c r="BE26" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF26" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="27" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19223,7 +19223,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AV27" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW27" s="58">
         <v>24</v>
@@ -19233,13 +19233,13 @@
         <v>24</v>
       </c>
       <c r="BE27" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF27" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="28" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19292,7 +19292,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AV28" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW28" s="58">
         <v>48</v>
@@ -19302,13 +19302,13 @@
         <v>48</v>
       </c>
       <c r="BE28" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF28" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="29" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19361,7 +19361,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AV29" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW29" s="58">
         <v>48</v>
@@ -19371,13 +19371,13 @@
         <v>48</v>
       </c>
       <c r="BE29" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF29" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="30" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19452,7 +19452,7 @@
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="31" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19527,7 +19527,7 @@
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="32" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19574,7 +19574,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AV32" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW32" s="58">
         <v>48</v>
@@ -19584,13 +19584,13 @@
         <v>48</v>
       </c>
       <c r="BE32" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF32" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="33" spans="1:59" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -19637,7 +19637,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AV33" s="57" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AW33" s="58">
         <v>48</v>
@@ -19647,13 +19647,13 @@
         <v>48</v>
       </c>
       <c r="BE33" s="57" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="BF33" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19716,7 +19716,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="35" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19791,7 +19791,7 @@
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="36" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19848,13 +19848,13 @@
         <v>72</v>
       </c>
       <c r="BE36" s="59" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="BF36" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -19907,7 +19907,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AV37" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW37" s="58">
         <v>24</v>
@@ -19917,13 +19917,13 @@
         <v>24</v>
       </c>
       <c r="BE37" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF37" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="38" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20022,7 +20022,7 @@
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="39" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20121,7 +20121,7 @@
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -20184,7 +20184,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="41" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20277,7 +20277,7 @@
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="42" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20370,7 +20370,7 @@
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="43" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20469,7 +20469,7 @@
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="44" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20562,7 +20562,7 @@
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="45" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20661,7 +20661,7 @@
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -20726,7 +20726,7 @@
         <v>54</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>885</v>
@@ -20754,7 +20754,7 @@
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -20813,7 +20813,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AV47" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW47" s="58">
         <v>48</v>
@@ -20823,13 +20823,13 @@
         <v>48</v>
       </c>
       <c r="BE47" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF47" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20904,7 +20904,7 @@
         <v>89</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="49" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20979,7 +20979,7 @@
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="50" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21026,7 +21026,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AV50" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW50" s="58">
         <v>2</v>
@@ -21036,13 +21036,13 @@
         <v>2</v>
       </c>
       <c r="BE50" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF50" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="51" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21089,7 +21089,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AV51" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW51" s="58">
         <v>2</v>
@@ -21099,13 +21099,13 @@
         <v>2</v>
       </c>
       <c r="BE51" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF51" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="52" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21152,7 +21152,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AV52" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW52" s="58">
         <v>2</v>
@@ -21162,13 +21162,13 @@
         <v>2</v>
       </c>
       <c r="BE52" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF52" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="53" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21215,7 +21215,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AV53" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW53" s="58">
         <v>2</v>
@@ -21225,13 +21225,13 @@
         <v>2</v>
       </c>
       <c r="BE53" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF53" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="54" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21278,7 +21278,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AV54" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW54" s="58">
         <v>24</v>
@@ -21288,13 +21288,13 @@
         <v>24</v>
       </c>
       <c r="BE54" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF54" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="55" spans="1:59" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.25">
@@ -21341,7 +21341,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AV55" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW55" s="58">
         <v>24</v>
@@ -21351,13 +21351,13 @@
         <v>24</v>
       </c>
       <c r="BE55" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF55" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="56" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -21416,7 +21416,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AV56" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW56" s="58">
         <v>48</v>
@@ -21426,13 +21426,13 @@
         <v>48</v>
       </c>
       <c r="BE56" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF56" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="57" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -21491,7 +21491,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AV57" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW57" s="58">
         <v>48</v>
@@ -21501,13 +21501,13 @@
         <v>48</v>
       </c>
       <c r="BE57" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF57" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="58" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -21566,7 +21566,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AV58" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="AW58" s="58">
         <v>48</v>
@@ -21576,13 +21576,13 @@
         <v>48</v>
       </c>
       <c r="BE58" s="57" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="BF58" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="59" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -21638,7 +21638,7 @@
         <v>54</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>144</v>
@@ -21669,7 +21669,7 @@
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="60" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -21734,7 +21734,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AV60" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW60" s="58">
         <v>4</v>
@@ -21744,13 +21744,13 @@
         <v>4</v>
       </c>
       <c r="BE60" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF60" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG60" s="44" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="61" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21809,7 +21809,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AV61" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW61" s="58">
         <v>24</v>
@@ -21819,13 +21819,13 @@
         <v>24</v>
       </c>
       <c r="BE61" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF61" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="62" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21884,7 +21884,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AV62" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW62" s="58">
         <v>24</v>
@@ -21894,13 +21894,13 @@
         <v>24</v>
       </c>
       <c r="BE62" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF62" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="63" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21959,7 +21959,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AV63" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW63" s="58">
         <v>24</v>
@@ -21969,13 +21969,13 @@
         <v>24</v>
       </c>
       <c r="BE63" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF63" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="64" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22034,7 +22034,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AV64" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW64" s="58">
         <v>24</v>
@@ -22044,13 +22044,13 @@
         <v>24</v>
       </c>
       <c r="BE64" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF64" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="65" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22109,7 +22109,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AV65" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW65" s="58">
         <v>24</v>
@@ -22119,13 +22119,13 @@
         <v>24</v>
       </c>
       <c r="BE65" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF65" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="66" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -22184,7 +22184,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AV66" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW66" s="58">
         <v>24</v>
@@ -22194,13 +22194,13 @@
         <v>24</v>
       </c>
       <c r="BE66" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF66" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="67" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -22265,7 +22265,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AV67" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW67" s="58">
         <v>24</v>
@@ -22275,13 +22275,13 @@
         <v>24</v>
       </c>
       <c r="BE67" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF67" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="68" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22328,7 +22328,7 @@
         <v>54</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="P68" s="31" t="s">
         <v>53</v>
@@ -22337,7 +22337,7 @@
         <v>54</v>
       </c>
       <c r="R68" s="31" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="S68" s="31" t="s">
         <v>53</v>
@@ -22358,7 +22358,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AV68" s="57" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="AW68" s="58">
         <v>8</v>
@@ -22368,13 +22368,13 @@
         <v>8</v>
       </c>
       <c r="BE68" s="57" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="BF68" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="69" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22430,7 +22430,7 @@
         <v>54</v>
       </c>
       <c r="R69" s="31" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="S69" s="31" t="s">
         <v>53</v>
@@ -22445,7 +22445,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AV69" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW69" s="58">
         <v>8</v>
@@ -22455,13 +22455,13 @@
         <v>8</v>
       </c>
       <c r="BE69" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF69" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="70" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22514,7 +22514,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AV70" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW70" s="58">
         <v>4</v>
@@ -22524,13 +22524,13 @@
         <v>4</v>
       </c>
       <c r="BE70" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF70" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="71" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22586,7 +22586,7 @@
         <v>54</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>53</v>
@@ -22607,7 +22607,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AV71" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW71" s="58">
         <v>720</v>
@@ -22617,13 +22617,13 @@
         <v>720</v>
       </c>
       <c r="BE71" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF71" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="72" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22679,7 +22679,7 @@
         <v>54</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>53</v>
@@ -22700,7 +22700,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AV72" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW72" s="58">
         <v>720</v>
@@ -22710,13 +22710,13 @@
         <v>720</v>
       </c>
       <c r="BE72" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF72" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="73" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22772,7 +22772,7 @@
         <v>54</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="S73" s="1" t="s">
         <v>53</v>
@@ -22793,7 +22793,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AV73" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW73" s="58">
         <v>8</v>
@@ -22803,13 +22803,13 @@
         <v>8</v>
       </c>
       <c r="BE73" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF73" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="74" spans="1:59" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -22872,7 +22872,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="75" spans="1:59" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -22937,7 +22937,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
       <c r="AV75" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW75" s="58">
         <v>24</v>
@@ -22947,13 +22947,13 @@
         <v>24</v>
       </c>
       <c r="BE75" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF75" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="76" spans="1:59" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -23024,7 +23024,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AV76" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AW76" s="58">
         <v>24</v>
@@ -23034,13 +23034,13 @@
         <v>24</v>
       </c>
       <c r="BE76" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BF76" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="77" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -23111,7 +23111,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
       <c r="AV77" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW77" s="58">
         <v>48</v>
@@ -23121,13 +23121,13 @@
         <v>48</v>
       </c>
       <c r="BE77" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF77" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="78" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23174,7 +23174,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
       <c r="AV78" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW78" s="58">
         <v>24</v>
@@ -23184,13 +23184,13 @@
         <v>24</v>
       </c>
       <c r="BE78" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF78" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="79" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -23237,7 +23237,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
       <c r="AV79" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW79" s="58">
         <v>24</v>
@@ -23247,13 +23247,13 @@
         <v>24</v>
       </c>
       <c r="BE79" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF79" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="80" spans="1:59" s="7" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
@@ -23300,7 +23300,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
       <c r="AV80" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW80" s="58">
         <v>24</v>
@@ -23310,13 +23310,13 @@
         <v>24</v>
       </c>
       <c r="BE80" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF80" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="81" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23372,7 +23372,7 @@
         <v>54</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="S81" s="1" t="s">
         <v>144</v>
@@ -23387,7 +23387,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AV81" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="AW81" s="58">
         <v>24</v>
@@ -23397,13 +23397,13 @@
         <v>24</v>
       </c>
       <c r="BE81" s="57" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="BF81" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="82" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -23459,7 +23459,7 @@
         <v>54</v>
       </c>
       <c r="R82" s="31" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="S82" s="31" t="s">
         <v>885</v>
@@ -23474,7 +23474,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
       <c r="AV82" s="57" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AW82" s="58">
         <v>720</v>
@@ -23490,7 +23490,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="83" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -23549,7 +23549,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AV83" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW83" s="58">
         <v>2</v>
@@ -23559,7 +23559,7 @@
         <v>2</v>
       </c>
       <c r="BE83" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF83" s="27" t="s">
         <v>89</v>
@@ -23634,7 +23634,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
       <c r="AV84" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="AW84" s="58">
         <v>4</v>
@@ -23644,7 +23644,7 @@
         <v>4</v>
       </c>
       <c r="BE84" s="57" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="BF84" s="27" t="s">
         <v>89</v>
@@ -23719,7 +23719,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AV85" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AW85" s="58">
         <v>3</v>
@@ -23729,13 +23729,13 @@
         <v>3</v>
       </c>
       <c r="BE85" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BF85" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="86" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23794,7 +23794,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
       <c r="AV86" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AW86" s="58">
         <v>24</v>
@@ -23804,13 +23804,13 @@
         <v>24</v>
       </c>
       <c r="BE86" s="57" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="BF86" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -26145,7 +26145,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>98</v>
@@ -26153,7 +26153,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>99</v>
@@ -26169,7 +26169,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>81</v>
@@ -26177,7 +26177,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>101</v>
@@ -26185,7 +26185,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>102</v>
@@ -26193,7 +26193,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>103</v>
@@ -26201,7 +26201,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>104</v>
@@ -26209,7 +26209,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>76</v>
@@ -26217,18 +26217,18 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -26236,7 +26236,7 @@
         <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -26244,7 +26244,7 @@
         <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -26252,7 +26252,7 @@
         <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -26260,7 +26260,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -26268,7 +26268,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -2951,9 +2951,6 @@
     <t>Due Date</t>
   </si>
   <si>
-    <t>QWlydGVsQWZAMjAyMQ</t>
-  </si>
-  <si>
     <t>Loan Details</t>
   </si>
   <si>
@@ -3549,6 +3546,9 @@
   </si>
   <si>
     <t>Tm90ZXBhZEAxMjM</t>
+  </si>
+  <si>
+    <t>QWFpcnRlbEAxOTE4</t>
   </si>
 </sst>
 </file>
@@ -4037,7 +4037,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,10 +4431,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2388006</v>
+        <v>2388008</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>960</v>
+        <v>1159</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>124</v>
@@ -4481,7 +4481,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>123</v>
@@ -4525,7 +4525,7 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>131</v>
@@ -4536,10 +4536,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>2388006</v>
+        <v>2388008</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>960</v>
+        <v>1159</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>178</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>114</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>114</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>114</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>114</v>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>114</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>114</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>114</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>114</v>
@@ -4958,7 +4958,7 @@
         <v>201</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E2" s="61" t="s">
         <v>82</v>
@@ -4972,13 +4972,13 @@
         <v>880</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4989,10 +4989,10 @@
         <v>880</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E4" s="61" t="s">
         <v>84</v>
@@ -5006,10 +5006,10 @@
         <v>880</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E5" s="61" t="s">
         <v>84</v>
@@ -5023,13 +5023,13 @@
         <v>880</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5040,13 +5040,13 @@
         <v>880</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5057,13 +5057,13 @@
         <v>880</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D8" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5074,13 +5074,13 @@
         <v>880</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D9" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,13 +5091,13 @@
         <v>880</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D10" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5108,13 +5108,13 @@
         <v>880</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D11" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5142,13 +5142,13 @@
         <v>880</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D13" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5159,13 +5159,13 @@
         <v>880</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D14" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5176,13 +5176,13 @@
         <v>880</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D15" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5210,13 +5210,13 @@
         <v>880</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D17" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5227,13 +5227,13 @@
         <v>880</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D18" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5244,13 +5244,13 @@
         <v>880</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D19" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5261,13 +5261,13 @@
         <v>880</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5312,13 +5312,13 @@
         <v>880</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D23" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5329,13 +5329,13 @@
         <v>880</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D24" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5346,13 +5346,13 @@
         <v>880</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D25" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5397,13 +5397,13 @@
         <v>880</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D28" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -5414,13 +5414,13 @@
         <v>880</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5431,13 +5431,13 @@
         <v>880</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D30" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5482,13 +5482,13 @@
         <v>880</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D33" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5499,13 +5499,13 @@
         <v>880</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D34" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5516,13 +5516,13 @@
         <v>880</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D35" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5567,13 +5567,13 @@
         <v>880</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D38" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5584,13 +5584,13 @@
         <v>880</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D39" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -5601,13 +5601,13 @@
         <v>880</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D40" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -5652,13 +5652,13 @@
         <v>880</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D43" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -5669,13 +5669,13 @@
         <v>880</v>
       </c>
       <c r="C44" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D44" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -5686,13 +5686,13 @@
         <v>880</v>
       </c>
       <c r="C45" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D45" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -5703,13 +5703,13 @@
         <v>880</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D46" s="61" t="s">
         <v>82</v>
       </c>
       <c r="E46" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -5720,13 +5720,13 @@
         <v>880</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D47" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5737,13 +5737,13 @@
         <v>880</v>
       </c>
       <c r="C48" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D48" s="61" t="s">
         <v>82</v>
       </c>
       <c r="E48" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5754,13 +5754,13 @@
         <v>880</v>
       </c>
       <c r="C49" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D49" s="61" t="s">
         <v>82</v>
       </c>
       <c r="E49" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5771,13 +5771,13 @@
         <v>880</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D50" s="61" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E50" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5788,10 +5788,10 @@
         <v>880</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E51" s="61" t="s">
         <v>84</v>
@@ -5805,13 +5805,13 @@
         <v>880</v>
       </c>
       <c r="C52" s="61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E52" s="61" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5822,13 +5822,13 @@
         <v>880</v>
       </c>
       <c r="C53" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D53" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5839,13 +5839,13 @@
         <v>880</v>
       </c>
       <c r="C54" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D54" s="61" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5856,13 +5856,13 @@
         <v>880</v>
       </c>
       <c r="C55" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D55" s="61" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E55" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5873,13 +5873,13 @@
         <v>880</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E56" s="61" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5890,13 +5890,13 @@
         <v>880</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D57" s="61" t="s">
         <v>79</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5907,13 +5907,13 @@
         <v>880</v>
       </c>
       <c r="C58" s="61" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E58" s="61" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -6357,10 +6357,10 @@
         <v>164</v>
       </c>
       <c r="J1" s="42" t="s">
+        <v>985</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>986</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6405,7 +6405,7 @@
         <v>150</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6427,7 +6427,7 @@
         <v>152</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>146</v>
@@ -6592,22 +6592,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
+        <v>960</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6617,28 +6617,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
+        <v>966</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>974</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -6646,19 +6646,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>979</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>151</v>
@@ -6681,22 +6681,22 @@
         <v>152</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F14" s="42" t="s">
         <v>146</v>
       </c>
       <c r="G14" s="42" t="s">
+        <v>983</v>
+      </c>
+      <c r="H14" s="42" t="s">
         <v>984</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>985</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>169</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>158</v>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -6716,13 +6716,13 @@
         <v>150</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>989</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>152</v>
@@ -6733,16 +6733,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
+        <v>991</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>995</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>907</v>
@@ -6756,19 +6756,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
+        <v>995</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>996</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="C17" s="42" t="s">
         <v>997</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="D17" s="42" t="s">
         <v>998</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="E17" s="42" t="s">
         <v>999</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>1000</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7079,7 +7079,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -7116,7 +7116,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -7464,7 +7464,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AV2" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW2" s="58">
         <v>3</v>
@@ -7474,13 +7474,13 @@
         <v>3</v>
       </c>
       <c r="BE2" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF2" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -7536,7 +7536,7 @@
         <v>54</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>53</v>
@@ -7551,7 +7551,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AV3" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW3" s="58">
         <v>8</v>
@@ -7561,13 +7561,13 @@
         <v>8</v>
       </c>
       <c r="BE3" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF3" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -7632,7 +7632,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AV4" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW4" s="58">
         <v>4</v>
@@ -7642,13 +7642,13 @@
         <v>4</v>
       </c>
       <c r="BE4" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF4" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -7704,7 +7704,7 @@
         <v>54</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>53</v>
@@ -7719,7 +7719,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AV5" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW5" s="58">
         <v>8</v>
@@ -7729,13 +7729,13 @@
         <v>8</v>
       </c>
       <c r="BE5" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF5" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -7794,7 +7794,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AV6" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW6" s="58">
         <v>24</v>
@@ -7804,13 +7804,13 @@
         <v>24</v>
       </c>
       <c r="BE6" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF6" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -7869,7 +7869,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AV7" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW7" s="58">
         <v>24</v>
@@ -7879,13 +7879,13 @@
         <v>24</v>
       </c>
       <c r="BE7" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF7" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -7960,7 +7960,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -8035,7 +8035,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -8106,7 +8106,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AV10" s="57" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AW10" s="58">
         <v>24</v>
@@ -8116,13 +8116,13 @@
         <v>24</v>
       </c>
       <c r="BE10" s="57" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="BF10" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -8185,7 +8185,7 @@
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -8244,7 +8244,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AV12" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW12" s="58">
         <v>2</v>
@@ -8254,13 +8254,13 @@
         <v>2</v>
       </c>
       <c r="BE12" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF12" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -8319,7 +8319,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AV13" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW13" s="58">
         <v>48</v>
@@ -8329,13 +8329,13 @@
         <v>48</v>
       </c>
       <c r="BE13" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF13" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -8394,7 +8394,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AV14" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW14" s="58">
         <v>48</v>
@@ -8404,13 +8404,13 @@
         <v>48</v>
       </c>
       <c r="BE14" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF14" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -8475,7 +8475,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AV15" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW15" s="58">
         <v>48</v>
@@ -8485,13 +8485,13 @@
         <v>48</v>
       </c>
       <c r="BE15" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF15" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -8538,7 +8538,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AV16" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW16" s="58">
         <v>48</v>
@@ -8548,13 +8548,13 @@
         <v>48</v>
       </c>
       <c r="BE16" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF16" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -8601,7 +8601,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AV17" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW17" s="58">
         <v>48</v>
@@ -8611,13 +8611,13 @@
         <v>48</v>
       </c>
       <c r="BE17" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF17" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -8688,7 +8688,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AV18" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AW18" s="58">
         <v>24</v>
@@ -8698,7 +8698,7 @@
         <v>24</v>
       </c>
       <c r="BE18" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BF18" s="27" t="s">
         <v>89</v>
@@ -8765,7 +8765,7 @@
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -8858,7 +8858,7 @@
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -8951,7 +8951,7 @@
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -9044,7 +9044,7 @@
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -9121,7 +9121,7 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
       <c r="AV23" s="57" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AW23" s="58">
         <v>48</v>
@@ -9131,13 +9131,13 @@
         <v>48</v>
       </c>
       <c r="BE23" s="57" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="BF23" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -9214,7 +9214,7 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AV24" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW24" s="58">
         <v>24</v>
@@ -9224,13 +9224,13 @@
         <v>24</v>
       </c>
       <c r="BE24" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF24" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -9323,7 +9323,7 @@
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -9491,7 +9491,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AV27" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AW27" s="58">
         <v>24</v>
@@ -9501,7 +9501,7 @@
         <v>24</v>
       </c>
       <c r="BE27" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BF27" s="27" t="s">
         <v>89</v>
@@ -9552,7 +9552,7 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AV28" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW28" s="58">
         <v>48</v>
@@ -9562,13 +9562,13 @@
         <v>48</v>
       </c>
       <c r="BE28" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF28" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -9615,7 +9615,7 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
       <c r="AV29" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW29" s="58">
         <v>48</v>
@@ -9625,13 +9625,13 @@
         <v>48</v>
       </c>
       <c r="BE29" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF29" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -9678,7 +9678,7 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AV30" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW30" s="58">
         <v>48</v>
@@ -9688,13 +9688,13 @@
         <v>48</v>
       </c>
       <c r="BE30" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF30" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -9741,7 +9741,7 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AV31" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW31" s="58">
         <v>48</v>
@@ -9751,13 +9751,13 @@
         <v>48</v>
       </c>
       <c r="BE31" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF31" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -9804,7 +9804,7 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AV32" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW32" s="58">
         <v>6</v>
@@ -9814,7 +9814,7 @@
         <v>6</v>
       </c>
       <c r="BE32" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF32" s="24" t="s">
         <v>89</v>
@@ -9865,7 +9865,7 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AV33" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW33" s="58">
         <v>6</v>
@@ -9875,13 +9875,13 @@
         <v>6</v>
       </c>
       <c r="BE33" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF33" s="24" t="s">
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -9928,7 +9928,7 @@
         <v>54</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="P34" s="31" t="s">
         <v>53</v>
@@ -9937,7 +9937,7 @@
         <v>54</v>
       </c>
       <c r="R34" s="31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="S34" s="31" t="s">
         <v>144</v>
@@ -9968,7 +9968,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -10024,7 +10024,7 @@
         <v>54</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>53</v>
@@ -10045,7 +10045,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AV35" s="57" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AW35" s="58">
         <v>48</v>
@@ -10055,13 +10055,13 @@
         <v>48</v>
       </c>
       <c r="BE35" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BF35" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -10126,7 +10126,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AV36" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW36" s="58">
         <v>24</v>
@@ -10136,13 +10136,13 @@
         <v>24</v>
       </c>
       <c r="BE36" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF36" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -10217,7 +10217,7 @@
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -10276,7 +10276,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AV38" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW38" s="58">
         <v>48</v>
@@ -10286,13 +10286,13 @@
         <v>48</v>
       </c>
       <c r="BE38" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF38" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -10351,7 +10351,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AV39" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW39" s="58">
         <v>24</v>
@@ -10361,13 +10361,13 @@
         <v>24</v>
       </c>
       <c r="BE39" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF39" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -10414,7 +10414,7 @@
         <v>54</v>
       </c>
       <c r="O40" s="31" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="P40" s="31" t="s">
         <v>53</v>
@@ -10423,7 +10423,7 @@
         <v>54</v>
       </c>
       <c r="R40" s="31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="S40" s="31" t="s">
         <v>144</v>
@@ -10454,7 +10454,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -10525,7 +10525,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AV41" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW41" s="58">
         <v>24</v>
@@ -10535,13 +10535,13 @@
         <v>24</v>
       </c>
       <c r="BE41" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF41" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -10588,7 +10588,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
       <c r="AV42" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW42" s="58">
         <v>24</v>
@@ -10598,13 +10598,13 @@
         <v>24</v>
       </c>
       <c r="BE42" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF42" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -10657,7 +10657,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AV43" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW43" s="58">
         <v>24</v>
@@ -10667,13 +10667,13 @@
         <v>24</v>
       </c>
       <c r="BE43" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF43" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -10720,7 +10720,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AV44" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW44" s="58">
         <v>24</v>
@@ -10730,13 +10730,13 @@
         <v>24</v>
       </c>
       <c r="BE44" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF44" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -10783,7 +10783,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AV45" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW45" s="58">
         <v>24</v>
@@ -10793,13 +10793,13 @@
         <v>24</v>
       </c>
       <c r="BE45" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF45" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -10844,7 +10844,7 @@
       <c r="Y46" s="31"/>
       <c r="Z46" s="31"/>
       <c r="AV46" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW46" s="58">
         <v>24</v>
@@ -10854,13 +10854,13 @@
         <v>24</v>
       </c>
       <c r="BE46" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF46" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AV47" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW47" s="58">
         <v>24</v>
@@ -10929,13 +10929,13 @@
         <v>24</v>
       </c>
       <c r="BE47" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF47" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -10982,7 +10982,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AV48" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW48" s="58">
         <v>24</v>
@@ -10992,7 +10992,7 @@
         <v>24</v>
       </c>
       <c r="BE48" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF48" s="27" t="s">
         <v>89</v>
@@ -11055,7 +11055,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AV49" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW49" s="58">
         <v>24</v>
@@ -11065,13 +11065,13 @@
         <v>24</v>
       </c>
       <c r="BE49" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF49" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11130,7 +11130,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AV50" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW50" s="58">
         <v>24</v>
@@ -11140,13 +11140,13 @@
         <v>24</v>
       </c>
       <c r="BE50" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF50" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -11221,7 +11221,7 @@
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11296,7 +11296,7 @@
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11359,7 +11359,7 @@
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11428,7 +11428,7 @@
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -11499,7 +11499,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AV55" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW55" s="58">
         <v>12</v>
@@ -11509,13 +11509,13 @@
         <v>12</v>
       </c>
       <c r="BE55" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF55" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -11562,7 +11562,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AV56" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW56" s="58">
         <v>24</v>
@@ -11572,13 +11572,13 @@
         <v>24</v>
       </c>
       <c r="BE56" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF56" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -11625,7 +11625,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AV57" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW57" s="58">
         <v>24</v>
@@ -11635,13 +11635,13 @@
         <v>24</v>
       </c>
       <c r="BE57" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF57" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -11716,7 +11716,7 @@
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11781,7 +11781,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AV59" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW59" s="58">
         <v>24</v>
@@ -11791,13 +11791,13 @@
         <v>24</v>
       </c>
       <c r="BE59" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF59" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -11862,7 +11862,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AV60" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW60" s="58">
         <v>4</v>
@@ -11872,13 +11872,13 @@
         <v>4</v>
       </c>
       <c r="BE60" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF60" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG60" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -11925,7 +11925,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AV61" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW61" s="58">
         <v>24</v>
@@ -11935,13 +11935,13 @@
         <v>24</v>
       </c>
       <c r="BE61" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF61" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -11988,7 +11988,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AV62" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW62" s="58">
         <v>24</v>
@@ -11998,13 +11998,13 @@
         <v>24</v>
       </c>
       <c r="BE62" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF62" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -12051,7 +12051,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AV63" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW63" s="58">
         <v>24</v>
@@ -12061,13 +12061,13 @@
         <v>24</v>
       </c>
       <c r="BE63" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF63" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -12114,7 +12114,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AV64" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW64" s="58">
         <v>24</v>
@@ -12124,13 +12124,13 @@
         <v>24</v>
       </c>
       <c r="BE64" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF64" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12189,7 +12189,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AV65" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW65" s="58">
         <v>48</v>
@@ -12199,13 +12199,13 @@
         <v>48</v>
       </c>
       <c r="BE65" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF65" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -12258,7 +12258,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AV66" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW66" s="58">
         <v>24</v>
@@ -12268,13 +12268,13 @@
         <v>24</v>
       </c>
       <c r="BE66" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF66" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -12333,7 +12333,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AV67" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW67" s="58">
         <v>48</v>
@@ -12343,13 +12343,13 @@
         <v>48</v>
       </c>
       <c r="BE67" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF67" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12396,7 +12396,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AV68" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW68" s="58">
         <v>24</v>
@@ -12406,13 +12406,13 @@
         <v>24</v>
       </c>
       <c r="BE68" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF68" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12471,7 +12471,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AV69" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW69" s="58">
         <v>24</v>
@@ -12481,13 +12481,13 @@
         <v>24</v>
       </c>
       <c r="BE69" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF69" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12546,7 +12546,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AV70" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW70" s="58">
         <v>24</v>
@@ -12556,13 +12556,13 @@
         <v>24</v>
       </c>
       <c r="BE70" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF70" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12609,7 +12609,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AV71" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW71" s="58">
         <v>24</v>
@@ -12619,13 +12619,13 @@
         <v>24</v>
       </c>
       <c r="BE71" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF71" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12678,7 +12678,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AV72" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW72" s="58">
         <v>48</v>
@@ -12688,13 +12688,13 @@
         <v>48</v>
       </c>
       <c r="BE72" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF72" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -12747,7 +12747,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AV73" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW73" s="58">
         <v>48</v>
@@ -12757,13 +12757,13 @@
         <v>48</v>
       </c>
       <c r="BE73" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF73" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -12838,7 +12838,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -12913,7 +12913,7 @@
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12960,7 +12960,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AV76" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW76" s="58">
         <v>48</v>
@@ -12970,13 +12970,13 @@
         <v>48</v>
       </c>
       <c r="BE76" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF76" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -13023,7 +13023,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
       <c r="AV77" s="57" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AW77" s="58">
         <v>48</v>
@@ -13033,13 +13033,13 @@
         <v>48</v>
       </c>
       <c r="BE77" s="57" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="BF77" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13102,7 +13102,7 @@
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13177,7 +13177,7 @@
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13234,13 +13234,13 @@
         <v>72</v>
       </c>
       <c r="BE80" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="BF80" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -13293,7 +13293,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AV81" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW81" s="58">
         <v>24</v>
@@ -13303,13 +13303,13 @@
         <v>24</v>
       </c>
       <c r="BE81" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF81" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
@@ -13408,7 +13408,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
@@ -13507,7 +13507,7 @@
         <v>89</v>
       </c>
       <c r="BG83" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -13570,7 +13570,7 @@
         <v>89</v>
       </c>
       <c r="BG84" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
@@ -13663,7 +13663,7 @@
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="86" spans="1:59" x14ac:dyDescent="0.25">
@@ -13756,7 +13756,7 @@
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
@@ -13855,7 +13855,7 @@
         <v>89</v>
       </c>
       <c r="BG87" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
@@ -13948,7 +13948,7 @@
         <v>89</v>
       </c>
       <c r="BG88" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="89" spans="1:59" x14ac:dyDescent="0.25">
@@ -14047,7 +14047,7 @@
         <v>89</v>
       </c>
       <c r="BG89" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -14112,7 +14112,7 @@
         <v>54</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>885</v>
@@ -14140,7 +14140,7 @@
         <v>89</v>
       </c>
       <c r="BG90" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -14199,7 +14199,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
       <c r="AV91" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW91" s="58">
         <v>48</v>
@@ -14209,13 +14209,13 @@
         <v>48</v>
       </c>
       <c r="BE91" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF91" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG91" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="92" spans="1:59" x14ac:dyDescent="0.25">
@@ -14290,7 +14290,7 @@
         <v>89</v>
       </c>
       <c r="BG92" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="93" spans="1:59" x14ac:dyDescent="0.25">
@@ -14365,7 +14365,7 @@
         <v>89</v>
       </c>
       <c r="BG93" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14412,7 +14412,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
       <c r="AV94" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW94" s="58">
         <v>2</v>
@@ -14422,13 +14422,13 @@
         <v>2</v>
       </c>
       <c r="BE94" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF94" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG94" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14475,7 +14475,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
       <c r="AV95" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW95" s="58">
         <v>2</v>
@@ -14485,13 +14485,13 @@
         <v>2</v>
       </c>
       <c r="BE95" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF95" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG95" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14538,7 +14538,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
       <c r="AV96" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW96" s="58">
         <v>2</v>
@@ -14548,13 +14548,13 @@
         <v>2</v>
       </c>
       <c r="BE96" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF96" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG96" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14601,7 +14601,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
       <c r="AV97" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW97" s="58">
         <v>2</v>
@@ -14611,13 +14611,13 @@
         <v>2</v>
       </c>
       <c r="BE97" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF97" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG97" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14664,7 +14664,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
       <c r="AV98" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW98" s="58">
         <v>24</v>
@@ -14674,13 +14674,13 @@
         <v>24</v>
       </c>
       <c r="BE98" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF98" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG98" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -14727,7 +14727,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
       <c r="AV99" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW99" s="58">
         <v>24</v>
@@ -14737,13 +14737,13 @@
         <v>24</v>
       </c>
       <c r="BE99" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF99" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG99" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -14802,7 +14802,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
       <c r="AV100" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW100" s="58">
         <v>48</v>
@@ -14812,13 +14812,13 @@
         <v>48</v>
       </c>
       <c r="BE100" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF100" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG100" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -14877,7 +14877,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
       <c r="AV101" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW101" s="58">
         <v>48</v>
@@ -14887,13 +14887,13 @@
         <v>48</v>
       </c>
       <c r="BE101" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF101" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG101" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -14952,7 +14952,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
       <c r="AV102" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW102" s="58">
         <v>48</v>
@@ -14962,13 +14962,13 @@
         <v>48</v>
       </c>
       <c r="BE102" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF102" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG102" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15024,7 +15024,7 @@
         <v>54</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="S103" s="1" t="s">
         <v>144</v>
@@ -15055,7 +15055,7 @@
         <v>89</v>
       </c>
       <c r="BG103" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
@@ -15120,7 +15120,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
       <c r="AV104" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW104" s="58">
         <v>4</v>
@@ -15130,13 +15130,13 @@
         <v>4</v>
       </c>
       <c r="BE104" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF104" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG104" s="44" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15195,7 +15195,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
       <c r="AV105" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW105" s="58">
         <v>24</v>
@@ -15205,13 +15205,13 @@
         <v>24</v>
       </c>
       <c r="BE105" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF105" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG105" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15270,7 +15270,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
       <c r="AV106" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW106" s="58">
         <v>24</v>
@@ -15280,13 +15280,13 @@
         <v>24</v>
       </c>
       <c r="BE106" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF106" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG106" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15345,7 +15345,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
       <c r="AV107" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW107" s="58">
         <v>24</v>
@@ -15355,13 +15355,13 @@
         <v>24</v>
       </c>
       <c r="BE107" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF107" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG107" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15420,7 +15420,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
       <c r="AV108" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW108" s="58">
         <v>24</v>
@@ -15430,13 +15430,13 @@
         <v>24</v>
       </c>
       <c r="BE108" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF108" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG108" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15495,7 +15495,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
       <c r="AV109" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW109" s="58">
         <v>24</v>
@@ -15505,13 +15505,13 @@
         <v>24</v>
       </c>
       <c r="BE109" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF109" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG109" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -15570,7 +15570,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
       <c r="AV110" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW110" s="58">
         <v>24</v>
@@ -15580,13 +15580,13 @@
         <v>24</v>
       </c>
       <c r="BE110" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF110" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG110" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -15651,7 +15651,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
       <c r="AV111" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW111" s="58">
         <v>24</v>
@@ -15661,13 +15661,13 @@
         <v>24</v>
       </c>
       <c r="BE111" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF111" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG111" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15714,16 +15714,16 @@
         <v>54</v>
       </c>
       <c r="O112" s="31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P112" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q112" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R112" s="31" t="s">
         <v>1004</v>
-      </c>
-      <c r="P112" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q112" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="R112" s="31" t="s">
-        <v>1005</v>
       </c>
       <c r="S112" s="31" t="s">
         <v>53</v>
@@ -15744,7 +15744,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
       <c r="AV112" s="57" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AW112" s="58">
         <v>8</v>
@@ -15754,13 +15754,13 @@
         <v>8</v>
       </c>
       <c r="BE112" s="57" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="BF112" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG112" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15816,7 +15816,7 @@
         <v>54</v>
       </c>
       <c r="R113" s="31" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="S113" s="31" t="s">
         <v>53</v>
@@ -15831,7 +15831,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
       <c r="AV113" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW113" s="58">
         <v>8</v>
@@ -15841,13 +15841,13 @@
         <v>8</v>
       </c>
       <c r="BE113" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF113" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG113" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15900,7 +15900,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
       <c r="AV114" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW114" s="58">
         <v>4</v>
@@ -15910,13 +15910,13 @@
         <v>4</v>
       </c>
       <c r="BE114" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF114" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG114" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15972,7 +15972,7 @@
         <v>54</v>
       </c>
       <c r="R115" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="S115" s="1" t="s">
         <v>53</v>
@@ -15993,7 +15993,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
       <c r="AV115" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW115" s="58">
         <v>720</v>
@@ -16003,13 +16003,13 @@
         <v>720</v>
       </c>
       <c r="BE115" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF115" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG115" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16065,7 +16065,7 @@
         <v>54</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>53</v>
@@ -16086,7 +16086,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
       <c r="AV116" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW116" s="58">
         <v>720</v>
@@ -16096,13 +16096,13 @@
         <v>720</v>
       </c>
       <c r="BE116" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF116" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG116" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16158,7 +16158,7 @@
         <v>54</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>53</v>
@@ -16179,7 +16179,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
       <c r="AV117" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW117" s="58">
         <v>8</v>
@@ -16189,13 +16189,13 @@
         <v>8</v>
       </c>
       <c r="BE117" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF117" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG117" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -16258,7 +16258,7 @@
         <v>89</v>
       </c>
       <c r="BG118" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -16323,7 +16323,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
       <c r="AV119" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW119" s="58">
         <v>24</v>
@@ -16333,13 +16333,13 @@
         <v>24</v>
       </c>
       <c r="BE119" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF119" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG119" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -16410,7 +16410,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
       <c r="AV120" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AW120" s="58">
         <v>24</v>
@@ -16420,13 +16420,13 @@
         <v>24</v>
       </c>
       <c r="BE120" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BF120" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG120" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16497,7 +16497,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
       <c r="AV121" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW121" s="58">
         <v>48</v>
@@ -16507,13 +16507,13 @@
         <v>48</v>
       </c>
       <c r="BE121" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF121" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG121" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16560,7 +16560,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
       <c r="AV122" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW122" s="58">
         <v>24</v>
@@ -16570,13 +16570,13 @@
         <v>24</v>
       </c>
       <c r="BE122" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF122" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG122" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16623,7 +16623,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
       <c r="AV123" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW123" s="58">
         <v>24</v>
@@ -16633,13 +16633,13 @@
         <v>24</v>
       </c>
       <c r="BE123" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF123" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG123" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
@@ -16686,7 +16686,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
       <c r="AV124" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW124" s="58">
         <v>24</v>
@@ -16696,13 +16696,13 @@
         <v>24</v>
       </c>
       <c r="BE124" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF124" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG124" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16758,7 +16758,7 @@
         <v>54</v>
       </c>
       <c r="R125" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="S125" s="1" t="s">
         <v>144</v>
@@ -16773,7 +16773,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
       <c r="AV125" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW125" s="58">
         <v>24</v>
@@ -16783,13 +16783,13 @@
         <v>24</v>
       </c>
       <c r="BE125" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF125" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG125" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16845,7 +16845,7 @@
         <v>54</v>
       </c>
       <c r="R126" s="31" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S126" s="31" t="s">
         <v>885</v>
@@ -16860,7 +16860,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
       <c r="AV126" s="57" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AW126" s="58">
         <v>720</v>
@@ -16876,7 +16876,7 @@
         <v>89</v>
       </c>
       <c r="BG126" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16935,7 +16935,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
       <c r="AV127" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW127" s="58">
         <v>2</v>
@@ -16945,7 +16945,7 @@
         <v>2</v>
       </c>
       <c r="BE127" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF127" s="27" t="s">
         <v>89</v>
@@ -17020,7 +17020,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
       <c r="AV128" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW128" s="58">
         <v>4</v>
@@ -17030,7 +17030,7 @@
         <v>4</v>
       </c>
       <c r="BE128" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF128" s="27" t="s">
         <v>89</v>
@@ -17105,7 +17105,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
       <c r="AV129" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AW129" s="58">
         <v>3</v>
@@ -17115,13 +17115,13 @@
         <v>3</v>
       </c>
       <c r="BE129" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BF129" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG129" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -17180,7 +17180,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
       <c r="AV130" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AW130" s="58">
         <v>24</v>
@@ -17190,13 +17190,13 @@
         <v>24</v>
       </c>
       <c r="BE130" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BF130" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG130" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
   </sheetData>
@@ -17458,7 +17458,7 @@
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
       <c r="AV2" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW2" s="58">
         <v>24</v>
@@ -17468,13 +17468,13 @@
         <v>24</v>
       </c>
       <c r="BE2" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF2" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="3" spans="1:59" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -17533,7 +17533,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AV3" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW3" s="58">
         <v>24</v>
@@ -17543,13 +17543,13 @@
         <v>24</v>
       </c>
       <c r="BE3" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF3" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="4" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -17596,7 +17596,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AV4" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW4" s="58">
         <v>24</v>
@@ -17606,7 +17606,7 @@
         <v>24</v>
       </c>
       <c r="BE4" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF4" s="27" t="s">
         <v>89</v>
@@ -17669,7 +17669,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AV5" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW5" s="58">
         <v>24</v>
@@ -17679,13 +17679,13 @@
         <v>24</v>
       </c>
       <c r="BE5" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF5" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -17744,7 +17744,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AV6" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW6" s="58">
         <v>24</v>
@@ -17754,13 +17754,13 @@
         <v>24</v>
       </c>
       <c r="BE6" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF6" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -17835,7 +17835,7 @@
         <v>89</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="8" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -17910,7 +17910,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -17973,7 +17973,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="10" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -18042,7 +18042,7 @@
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -18113,7 +18113,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AV11" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW11" s="58">
         <v>12</v>
@@ -18123,13 +18123,13 @@
         <v>12</v>
       </c>
       <c r="BE11" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF11" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="12" spans="1:59" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -18176,7 +18176,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AV12" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW12" s="58">
         <v>24</v>
@@ -18186,13 +18186,13 @@
         <v>24</v>
       </c>
       <c r="BE12" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF12" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -18239,7 +18239,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AV13" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW13" s="58">
         <v>24</v>
@@ -18249,13 +18249,13 @@
         <v>24</v>
       </c>
       <c r="BE13" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF13" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="14" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -18330,7 +18330,7 @@
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="15" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -18395,7 +18395,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AV15" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW15" s="58">
         <v>24</v>
@@ -18405,13 +18405,13 @@
         <v>24</v>
       </c>
       <c r="BE15" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF15" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="16" spans="1:59" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -18476,7 +18476,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AV16" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW16" s="58">
         <v>4</v>
@@ -18486,13 +18486,13 @@
         <v>4</v>
       </c>
       <c r="BE16" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF16" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="17" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18539,7 +18539,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AV17" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW17" s="58">
         <v>24</v>
@@ -18549,13 +18549,13 @@
         <v>24</v>
       </c>
       <c r="BE17" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF17" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="18" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18602,7 +18602,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AV18" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW18" s="58">
         <v>24</v>
@@ -18612,13 +18612,13 @@
         <v>24</v>
       </c>
       <c r="BE18" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF18" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="19" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18665,7 +18665,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AV19" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW19" s="58">
         <v>24</v>
@@ -18675,13 +18675,13 @@
         <v>24</v>
       </c>
       <c r="BE19" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF19" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="20" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18728,7 +18728,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AV20" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW20" s="58">
         <v>24</v>
@@ -18738,13 +18738,13 @@
         <v>24</v>
       </c>
       <c r="BE20" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF20" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="21" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -18803,7 +18803,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AV21" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW21" s="58">
         <v>48</v>
@@ -18813,13 +18813,13 @@
         <v>48</v>
       </c>
       <c r="BE21" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF21" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="22" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18872,7 +18872,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AV22" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW22" s="58">
         <v>24</v>
@@ -18882,13 +18882,13 @@
         <v>24</v>
       </c>
       <c r="BE22" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF22" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="23" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18947,7 +18947,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AV23" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW23" s="58">
         <v>48</v>
@@ -18957,13 +18957,13 @@
         <v>48</v>
       </c>
       <c r="BE23" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF23" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="24" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19010,7 +19010,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AV24" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW24" s="58">
         <v>24</v>
@@ -19020,13 +19020,13 @@
         <v>24</v>
       </c>
       <c r="BE24" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF24" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="25" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19085,7 +19085,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AV25" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW25" s="58">
         <v>24</v>
@@ -19095,13 +19095,13 @@
         <v>24</v>
       </c>
       <c r="BE25" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF25" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="26" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19160,7 +19160,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AV26" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW26" s="58">
         <v>24</v>
@@ -19170,13 +19170,13 @@
         <v>24</v>
       </c>
       <c r="BE26" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF26" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="27" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19223,7 +19223,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AV27" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW27" s="58">
         <v>24</v>
@@ -19233,13 +19233,13 @@
         <v>24</v>
       </c>
       <c r="BE27" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF27" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="28" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19292,7 +19292,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AV28" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW28" s="58">
         <v>48</v>
@@ -19302,13 +19302,13 @@
         <v>48</v>
       </c>
       <c r="BE28" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF28" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="29" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19361,7 +19361,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AV29" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW29" s="58">
         <v>48</v>
@@ -19371,13 +19371,13 @@
         <v>48</v>
       </c>
       <c r="BE29" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF29" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="30" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19452,7 +19452,7 @@
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="31" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19527,7 +19527,7 @@
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="32" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19574,7 +19574,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AV32" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW32" s="58">
         <v>48</v>
@@ -19584,13 +19584,13 @@
         <v>48</v>
       </c>
       <c r="BE32" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF32" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="33" spans="1:59" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -19637,7 +19637,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AV33" s="57" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AW33" s="58">
         <v>48</v>
@@ -19647,13 +19647,13 @@
         <v>48</v>
       </c>
       <c r="BE33" s="57" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="BF33" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="34" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19716,7 +19716,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="35" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19791,7 +19791,7 @@
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="36" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19848,13 +19848,13 @@
         <v>72</v>
       </c>
       <c r="BE36" s="59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="BF36" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -19907,7 +19907,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AV37" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW37" s="58">
         <v>24</v>
@@ -19917,13 +19917,13 @@
         <v>24</v>
       </c>
       <c r="BE37" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF37" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="38" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20022,7 +20022,7 @@
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="39" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20121,7 +20121,7 @@
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -20184,7 +20184,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="41" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20277,7 +20277,7 @@
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="42" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20370,7 +20370,7 @@
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="43" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20469,7 +20469,7 @@
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="44" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20562,7 +20562,7 @@
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="45" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20661,7 +20661,7 @@
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -20726,7 +20726,7 @@
         <v>54</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>885</v>
@@ -20754,7 +20754,7 @@
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -20813,7 +20813,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AV47" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW47" s="58">
         <v>48</v>
@@ -20823,13 +20823,13 @@
         <v>48</v>
       </c>
       <c r="BE47" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF47" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20904,7 +20904,7 @@
         <v>89</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="49" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -20979,7 +20979,7 @@
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="50" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21026,7 +21026,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AV50" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW50" s="58">
         <v>2</v>
@@ -21036,13 +21036,13 @@
         <v>2</v>
       </c>
       <c r="BE50" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF50" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="51" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21089,7 +21089,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AV51" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW51" s="58">
         <v>2</v>
@@ -21099,13 +21099,13 @@
         <v>2</v>
       </c>
       <c r="BE51" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF51" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="52" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21152,7 +21152,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AV52" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW52" s="58">
         <v>2</v>
@@ -21162,13 +21162,13 @@
         <v>2</v>
       </c>
       <c r="BE52" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF52" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="53" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21215,7 +21215,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AV53" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW53" s="58">
         <v>2</v>
@@ -21225,13 +21225,13 @@
         <v>2</v>
       </c>
       <c r="BE53" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF53" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="54" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21278,7 +21278,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AV54" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW54" s="58">
         <v>24</v>
@@ -21288,13 +21288,13 @@
         <v>24</v>
       </c>
       <c r="BE54" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF54" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="55" spans="1:59" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.25">
@@ -21341,7 +21341,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AV55" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW55" s="58">
         <v>24</v>
@@ -21351,13 +21351,13 @@
         <v>24</v>
       </c>
       <c r="BE55" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF55" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="56" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -21416,7 +21416,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AV56" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW56" s="58">
         <v>48</v>
@@ -21426,13 +21426,13 @@
         <v>48</v>
       </c>
       <c r="BE56" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF56" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="57" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -21491,7 +21491,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AV57" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW57" s="58">
         <v>48</v>
@@ -21501,13 +21501,13 @@
         <v>48</v>
       </c>
       <c r="BE57" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF57" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="58" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -21566,7 +21566,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AV58" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AW58" s="58">
         <v>48</v>
@@ -21576,13 +21576,13 @@
         <v>48</v>
       </c>
       <c r="BE58" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="BF58" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="59" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -21638,7 +21638,7 @@
         <v>54</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>144</v>
@@ -21669,7 +21669,7 @@
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="60" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -21734,7 +21734,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AV60" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW60" s="58">
         <v>4</v>
@@ -21744,13 +21744,13 @@
         <v>4</v>
       </c>
       <c r="BE60" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF60" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG60" s="44" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="61" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21809,7 +21809,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AV61" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW61" s="58">
         <v>24</v>
@@ -21819,13 +21819,13 @@
         <v>24</v>
       </c>
       <c r="BE61" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF61" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="62" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21884,7 +21884,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AV62" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW62" s="58">
         <v>24</v>
@@ -21894,13 +21894,13 @@
         <v>24</v>
       </c>
       <c r="BE62" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF62" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="63" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21959,7 +21959,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AV63" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW63" s="58">
         <v>24</v>
@@ -21969,13 +21969,13 @@
         <v>24</v>
       </c>
       <c r="BE63" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF63" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="64" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22034,7 +22034,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AV64" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW64" s="58">
         <v>24</v>
@@ -22044,13 +22044,13 @@
         <v>24</v>
       </c>
       <c r="BE64" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF64" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="65" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22109,7 +22109,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AV65" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW65" s="58">
         <v>24</v>
@@ -22119,13 +22119,13 @@
         <v>24</v>
       </c>
       <c r="BE65" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF65" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="66" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -22184,7 +22184,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AV66" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW66" s="58">
         <v>24</v>
@@ -22194,13 +22194,13 @@
         <v>24</v>
       </c>
       <c r="BE66" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF66" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="67" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -22265,7 +22265,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AV67" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW67" s="58">
         <v>24</v>
@@ -22275,13 +22275,13 @@
         <v>24</v>
       </c>
       <c r="BE67" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF67" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="68" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22328,16 +22328,16 @@
         <v>54</v>
       </c>
       <c r="O68" s="31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P68" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q68" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R68" s="31" t="s">
         <v>1004</v>
-      </c>
-      <c r="P68" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q68" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="R68" s="31" t="s">
-        <v>1005</v>
       </c>
       <c r="S68" s="31" t="s">
         <v>53</v>
@@ -22358,7 +22358,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AV68" s="57" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AW68" s="58">
         <v>8</v>
@@ -22368,13 +22368,13 @@
         <v>8</v>
       </c>
       <c r="BE68" s="57" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="BF68" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="69" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22430,7 +22430,7 @@
         <v>54</v>
       </c>
       <c r="R69" s="31" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="S69" s="31" t="s">
         <v>53</v>
@@ -22445,7 +22445,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AV69" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW69" s="58">
         <v>8</v>
@@ -22455,13 +22455,13 @@
         <v>8</v>
       </c>
       <c r="BE69" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF69" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="70" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22514,7 +22514,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AV70" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW70" s="58">
         <v>4</v>
@@ -22524,13 +22524,13 @@
         <v>4</v>
       </c>
       <c r="BE70" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF70" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="71" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22586,7 +22586,7 @@
         <v>54</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>53</v>
@@ -22607,7 +22607,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AV71" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW71" s="58">
         <v>720</v>
@@ -22617,13 +22617,13 @@
         <v>720</v>
       </c>
       <c r="BE71" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF71" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="72" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22679,7 +22679,7 @@
         <v>54</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="S72" s="1" t="s">
         <v>53</v>
@@ -22700,7 +22700,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AV72" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW72" s="58">
         <v>720</v>
@@ -22710,13 +22710,13 @@
         <v>720</v>
       </c>
       <c r="BE72" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF72" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="73" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22772,7 +22772,7 @@
         <v>54</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="S73" s="1" t="s">
         <v>53</v>
@@ -22793,7 +22793,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AV73" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW73" s="58">
         <v>8</v>
@@ -22803,13 +22803,13 @@
         <v>8</v>
       </c>
       <c r="BE73" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF73" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="74" spans="1:59" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -22872,7 +22872,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="75" spans="1:59" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -22937,7 +22937,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
       <c r="AV75" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW75" s="58">
         <v>24</v>
@@ -22947,13 +22947,13 @@
         <v>24</v>
       </c>
       <c r="BE75" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF75" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="76" spans="1:59" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -23024,7 +23024,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AV76" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AW76" s="58">
         <v>24</v>
@@ -23034,13 +23034,13 @@
         <v>24</v>
       </c>
       <c r="BE76" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BF76" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="77" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -23111,7 +23111,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
       <c r="AV77" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW77" s="58">
         <v>48</v>
@@ -23121,13 +23121,13 @@
         <v>48</v>
       </c>
       <c r="BE77" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF77" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="78" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23174,7 +23174,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
       <c r="AV78" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW78" s="58">
         <v>24</v>
@@ -23184,13 +23184,13 @@
         <v>24</v>
       </c>
       <c r="BE78" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF78" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="79" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -23237,7 +23237,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
       <c r="AV79" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW79" s="58">
         <v>24</v>
@@ -23247,13 +23247,13 @@
         <v>24</v>
       </c>
       <c r="BE79" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF79" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="80" spans="1:59" s="7" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
@@ -23300,7 +23300,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
       <c r="AV80" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW80" s="58">
         <v>24</v>
@@ -23310,13 +23310,13 @@
         <v>24</v>
       </c>
       <c r="BE80" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF80" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="81" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23372,7 +23372,7 @@
         <v>54</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="S81" s="1" t="s">
         <v>144</v>
@@ -23387,7 +23387,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AV81" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AW81" s="58">
         <v>24</v>
@@ -23397,13 +23397,13 @@
         <v>24</v>
       </c>
       <c r="BE81" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BF81" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="82" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -23459,7 +23459,7 @@
         <v>54</v>
       </c>
       <c r="R82" s="31" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S82" s="31" t="s">
         <v>885</v>
@@ -23474,7 +23474,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
       <c r="AV82" s="57" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AW82" s="58">
         <v>720</v>
@@ -23490,7 +23490,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="83" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -23549,7 +23549,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AV83" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW83" s="58">
         <v>2</v>
@@ -23559,7 +23559,7 @@
         <v>2</v>
       </c>
       <c r="BE83" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF83" s="27" t="s">
         <v>89</v>
@@ -23634,7 +23634,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
       <c r="AV84" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AW84" s="58">
         <v>4</v>
@@ -23644,7 +23644,7 @@
         <v>4</v>
       </c>
       <c r="BE84" s="57" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BF84" s="27" t="s">
         <v>89</v>
@@ -23719,7 +23719,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
       <c r="AV85" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AW85" s="58">
         <v>3</v>
@@ -23729,13 +23729,13 @@
         <v>3</v>
       </c>
       <c r="BE85" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BF85" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="86" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23794,7 +23794,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
       <c r="AV86" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AW86" s="58">
         <v>24</v>
@@ -23804,13 +23804,13 @@
         <v>24</v>
       </c>
       <c r="BE86" s="57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="BF86" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
   </sheetData>
@@ -26145,7 +26145,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>98</v>
@@ -26153,7 +26153,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>99</v>
@@ -26169,7 +26169,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>81</v>
@@ -26177,7 +26177,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>101</v>
@@ -26185,7 +26185,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>102</v>
@@ -26193,7 +26193,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>103</v>
@@ -26201,7 +26201,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>104</v>
@@ -26209,7 +26209,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>76</v>
@@ -26217,18 +26217,18 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -26236,7 +26236,7 @@
         <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -26244,7 +26244,7 @@
         <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -26252,7 +26252,7 @@
         <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -26260,7 +26260,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -26268,7 +26268,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5436" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="1160">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -4037,7 +4037,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -5925,8 +5925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6016,6 +6016,9 @@
       </c>
       <c r="I2" s="32" t="s">
         <v>905</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4037,7 +4037,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5925,7 +5925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -6792,8 +6792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI5" sqref="BI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="AI2" s="7"/>
       <c r="AV2" t="s">
-        <v>78</v>
+        <v>1012</v>
       </c>
       <c r="AW2">
         <v>3</v>
@@ -7076,7 +7076,7 @@
         <v>3</v>
       </c>
       <c r="BE2" s="7" t="s">
-        <v>91</v>
+        <v>1012</v>
       </c>
       <c r="BF2" s="7" t="s">
         <v>89</v>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="AI3" s="7"/>
       <c r="AV3" t="s">
-        <v>76</v>
+        <v>1012</v>
       </c>
       <c r="AW3">
         <v>8</v>
@@ -7113,7 +7113,7 @@
         <v>8</v>
       </c>
       <c r="BE3" s="7" t="s">
-        <v>88</v>
+        <v>1012</v>
       </c>
       <c r="BF3" s="7" t="s">
         <v>89</v>
@@ -7124,6 +7124,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3548,7 +3548,7 @@
     <t>Tm90ZXBhZEAxMjM</t>
   </si>
   <si>
-    <t>QWFpcnRlbEAxOTE4</t>
+    <t>QWFpcnRlbEAwOTE5</t>
   </si>
 </sst>
 </file>
@@ -4037,7 +4037,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6792,7 +6792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BI5" sqref="BI5"/>
     </sheetView>
   </sheetViews>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="12" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,11 @@
     <sheet name="Ticket State" sheetId="6" r:id="rId11"/>
     <sheet name="TemplateManagement" sheetId="20" r:id="rId12"/>
     <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId13"/>
-    <sheet name="Authentication Policy" sheetId="17" r:id="rId14"/>
-    <sheet name="Action Tagging" sheetId="18" r:id="rId15"/>
-    <sheet name="State Queue Mapping" sheetId="21" r:id="rId16"/>
-    <sheet name="Transfer To Queue" sheetId="24" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId14"/>
+    <sheet name="Authentication Policy" sheetId="17" r:id="rId15"/>
+    <sheet name="Action Tagging" sheetId="18" r:id="rId16"/>
+    <sheet name="State Queue Mapping" sheetId="21" r:id="rId17"/>
+    <sheet name="Transfer To Queue" sheetId="24" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-Reg'!$A$1:$BG$45</definedName>
@@ -36,7 +37,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5545" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5786" uniqueCount="1161">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3536,9 +3537,6 @@
     <t>Airtel Money_Agent</t>
   </si>
   <si>
-    <t>SmFuQDIwMjE</t>
-  </si>
-  <si>
     <t>Tm90ZXBhZEAxMjM</t>
   </si>
   <si>
@@ -3549,12 +3547,19 @@
   </si>
   <si>
     <t>080221003433</t>
+  </si>
+  <si>
+    <t>TWFyQDIwMjE</t>
+  </si>
+  <si>
+    <t>100221003564</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4098,7 +4103,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,16 +4436,16 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4495,7 +4500,7 @@
         <v>2388008</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>124</v>
@@ -4542,7 +4547,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>123</v>
@@ -4586,7 +4591,7 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>131</v>
@@ -4600,7 +4605,7 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>178</v>
@@ -4700,9 +4705,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4919,8 +4924,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="34" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="34" width="30.875" collapsed="true"/>
+    <col min="2" max="16384" style="34" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4979,16 +4984,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5033,7 +5038,7 @@
         <v>880</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D3" s="60" t="s">
         <v>1012</v>
@@ -5135,7 +5140,7 @@
         <v>880</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>84</v>
@@ -5203,7 +5208,7 @@
         <v>880</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D13" s="60" t="s">
         <v>84</v>
@@ -5288,7 +5293,7 @@
         <v>880</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D18" s="60" t="s">
         <v>84</v>
@@ -5373,7 +5378,7 @@
         <v>880</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>84</v>
@@ -5458,7 +5463,7 @@
         <v>880</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D28" s="60" t="s">
         <v>84</v>
@@ -5543,7 +5548,7 @@
         <v>880</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D33" s="60" t="s">
         <v>84</v>
@@ -5628,7 +5633,7 @@
         <v>880</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D38" s="60" t="s">
         <v>84</v>
@@ -5983,6 +5988,837 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection sqref="A1:E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>883</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>883</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>836</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>836</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>883</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>836</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>836</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>836</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>883</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
+        <v>842</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="60" t="s">
+        <v>842</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>883</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="60" t="s">
+        <v>842</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
+        <v>842</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="60" t="s">
+        <v>842</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
+        <v>844</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="60" t="s">
+        <v>844</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>883</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="60" t="s">
+        <v>844</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="60" t="s">
+        <v>844</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
+        <v>844</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="60" t="s">
+        <v>804</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>846</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="60" t="s">
+        <v>848</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="60" t="s">
+        <v>850</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="60" t="s">
+        <v>850</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="60" t="s">
+        <v>802</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E45" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="60" t="s">
+        <v>579</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -5992,19 +6828,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.875" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.75" style="7" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.875" style="32" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5" style="32" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.125" style="32" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" style="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" style="32" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.25" style="32" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.125" style="32" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5" style="32" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.625" style="32" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.875" style="32" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="15.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="19.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="32" width="10.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="32" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="32" width="10.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="32" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="32" width="11.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="32" width="10.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="32" width="10.125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="32" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="32" width="11.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="32" width="11.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -6087,7 +6923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6097,9 +6933,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6142,7 +6978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
@@ -6152,11 +6988,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" style="37" collapsed="1"/>
-    <col min="3" max="3" width="13.875" style="37" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5" style="37" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9" style="37" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="37" width="19.25" collapsed="true"/>
+    <col min="2" max="2" style="37" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="37" width="13.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="37" width="11.5" collapsed="true"/>
+    <col min="5" max="16384" style="37" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6627,7 +7463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6637,9 +7473,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="7" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.25" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9" style="7" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="7" width="23.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="24.25" collapsed="true"/>
+    <col min="3" max="16384" style="7" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6690,7 +7526,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -6743,17 +7579,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7223,30 +8059,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7506,7 +8342,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -7543,7 +8379,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -7562,10 +8398,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7637,12 +8473,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9" style="7" collapsed="1"/>
-    <col min="6" max="46" width="9" style="7" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="3.25" style="7" customWidth="1" collapsed="1"/>
-    <col min="48" max="58" width="9" style="7" collapsed="1"/>
-    <col min="59" max="59" width="10.875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="16384" width="9" style="7" collapsed="1"/>
+    <col min="1" max="5" style="7" width="9.0" collapsed="true"/>
+    <col min="6" max="46" customWidth="true" style="7" width="9.0" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="7" width="3.25" collapsed="true"/>
+    <col min="48" max="58" style="7" width="9.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="7" width="10.875" collapsed="true"/>
+    <col min="60" max="16384" style="7" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
@@ -17659,10 +18495,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="20" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="26" width="0" style="7" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="47" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="20" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="21" max="26" customWidth="true" hidden="true" style="7" width="0.0" collapsed="true"/>
+    <col min="27" max="47" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
@@ -26496,8 +27332,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20205" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5786" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5788" uniqueCount="1245">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3168,126 +3168,9 @@
     <t>Transferred to IT_AirtelKE</t>
   </si>
   <si>
-    <t>111220001499</t>
-  </si>
-  <si>
-    <t>111220001500</t>
-  </si>
-  <si>
-    <t>111220001501</t>
-  </si>
-  <si>
-    <t>111220001502</t>
-  </si>
-  <si>
-    <t>111220001503</t>
-  </si>
-  <si>
     <t>111220001504</t>
   </si>
   <si>
-    <t>111220001505</t>
-  </si>
-  <si>
-    <t>111220001506</t>
-  </si>
-  <si>
-    <t>111220001507</t>
-  </si>
-  <si>
-    <t>111220001508</t>
-  </si>
-  <si>
-    <t>111220001509</t>
-  </si>
-  <si>
-    <t>111220001510</t>
-  </si>
-  <si>
-    <t>111220001511</t>
-  </si>
-  <si>
-    <t>111220001512</t>
-  </si>
-  <si>
-    <t>111220001513</t>
-  </si>
-  <si>
-    <t>111220001514</t>
-  </si>
-  <si>
-    <t>111220001515</t>
-  </si>
-  <si>
-    <t>111220001516</t>
-  </si>
-  <si>
-    <t>111220001517</t>
-  </si>
-  <si>
-    <t>111220001518</t>
-  </si>
-  <si>
-    <t>111220001519</t>
-  </si>
-  <si>
-    <t>111220001520</t>
-  </si>
-  <si>
-    <t>111220001521</t>
-  </si>
-  <si>
-    <t>111220001522</t>
-  </si>
-  <si>
-    <t>111220001523</t>
-  </si>
-  <si>
-    <t>111220001524</t>
-  </si>
-  <si>
-    <t>111220001525</t>
-  </si>
-  <si>
-    <t>111220001526</t>
-  </si>
-  <si>
-    <t>111220001527</t>
-  </si>
-  <si>
-    <t>111220001528</t>
-  </si>
-  <si>
-    <t>111220001529</t>
-  </si>
-  <si>
-    <t>111220001530</t>
-  </si>
-  <si>
-    <t>111220001531</t>
-  </si>
-  <si>
-    <t>111220001532</t>
-  </si>
-  <si>
-    <t>111220001533</t>
-  </si>
-  <si>
-    <t>111220001534</t>
-  </si>
-  <si>
-    <t>111220001535</t>
-  </si>
-  <si>
-    <t>111220001536</t>
-  </si>
-  <si>
-    <t>111220001537</t>
-  </si>
-  <si>
-    <t>111220001538</t>
-  </si>
-  <si>
     <t>111220001539</t>
   </si>
   <si>
@@ -3543,9 +3426,6 @@
     <t>QWFpcnRlbEAwOTE5</t>
   </si>
   <si>
-    <t>080221003432</t>
-  </si>
-  <si>
     <t>080221003433</t>
   </si>
   <si>
@@ -3553,13 +3433,384 @@
   </si>
   <si>
     <t>100221003564</t>
+  </si>
+  <si>
+    <t>110221003574</t>
+  </si>
+  <si>
+    <t>110221003575</t>
+  </si>
+  <si>
+    <t>110221003576</t>
+  </si>
+  <si>
+    <t>110221003577</t>
+  </si>
+  <si>
+    <t>110221003578</t>
+  </si>
+  <si>
+    <t>110221003579</t>
+  </si>
+  <si>
+    <t>110221003580</t>
+  </si>
+  <si>
+    <t>110221003581</t>
+  </si>
+  <si>
+    <t>110221003582</t>
+  </si>
+  <si>
+    <t>110221003583</t>
+  </si>
+  <si>
+    <t>110221003584</t>
+  </si>
+  <si>
+    <t>110221003585</t>
+  </si>
+  <si>
+    <t>110221003586</t>
+  </si>
+  <si>
+    <t>110221003587</t>
+  </si>
+  <si>
+    <t>110221003588</t>
+  </si>
+  <si>
+    <t>110221003589</t>
+  </si>
+  <si>
+    <t>110221003590</t>
+  </si>
+  <si>
+    <t>110221003591</t>
+  </si>
+  <si>
+    <t>110221003592</t>
+  </si>
+  <si>
+    <t>110221003593</t>
+  </si>
+  <si>
+    <t>110221003594</t>
+  </si>
+  <si>
+    <t>110221003595</t>
+  </si>
+  <si>
+    <t>110221003596</t>
+  </si>
+  <si>
+    <t>110221003597</t>
+  </si>
+  <si>
+    <t>110221003598</t>
+  </si>
+  <si>
+    <t>110221003599</t>
+  </si>
+  <si>
+    <t>110221003600</t>
+  </si>
+  <si>
+    <t>110221003601</t>
+  </si>
+  <si>
+    <t>110221003602</t>
+  </si>
+  <si>
+    <t>110221003603</t>
+  </si>
+  <si>
+    <t>110221003604</t>
+  </si>
+  <si>
+    <t>110221003605</t>
+  </si>
+  <si>
+    <t>110221003606</t>
+  </si>
+  <si>
+    <t>110221003607</t>
+  </si>
+  <si>
+    <t>110221003608</t>
+  </si>
+  <si>
+    <t>110221003609</t>
+  </si>
+  <si>
+    <t>110221003610</t>
+  </si>
+  <si>
+    <t>110221003611</t>
+  </si>
+  <si>
+    <t>110221003612</t>
+  </si>
+  <si>
+    <t>110221003613</t>
+  </si>
+  <si>
+    <t>110221003614</t>
+  </si>
+  <si>
+    <t>110221003615</t>
+  </si>
+  <si>
+    <t>110221003616</t>
+  </si>
+  <si>
+    <t>110221003617</t>
+  </si>
+  <si>
+    <t>110221003618</t>
+  </si>
+  <si>
+    <t>110221003619</t>
+  </si>
+  <si>
+    <t>110221003620</t>
+  </si>
+  <si>
+    <t>110221003621</t>
+  </si>
+  <si>
+    <t>110221003622</t>
+  </si>
+  <si>
+    <t>110221003623</t>
+  </si>
+  <si>
+    <t>110221003624</t>
+  </si>
+  <si>
+    <t>110221003625</t>
+  </si>
+  <si>
+    <t>110221003626</t>
+  </si>
+  <si>
+    <t>110221003627</t>
+  </si>
+  <si>
+    <t>110221003628</t>
+  </si>
+  <si>
+    <t>110221003629</t>
+  </si>
+  <si>
+    <t>110221003630</t>
+  </si>
+  <si>
+    <t>110221003631</t>
+  </si>
+  <si>
+    <t>110221003632</t>
+  </si>
+  <si>
+    <t>110221003633</t>
+  </si>
+  <si>
+    <t>110221003634</t>
+  </si>
+  <si>
+    <t>110221003635</t>
+  </si>
+  <si>
+    <t>110221003636</t>
+  </si>
+  <si>
+    <t>110221003637</t>
+  </si>
+  <si>
+    <t>110221003638</t>
+  </si>
+  <si>
+    <t>110221003639</t>
+  </si>
+  <si>
+    <t>110221003640</t>
+  </si>
+  <si>
+    <t>110221003641</t>
+  </si>
+  <si>
+    <t>110221003642</t>
+  </si>
+  <si>
+    <t>110221003643</t>
+  </si>
+  <si>
+    <t>110221003644</t>
+  </si>
+  <si>
+    <t>110221003645</t>
+  </si>
+  <si>
+    <t>110221003646</t>
+  </si>
+  <si>
+    <t>110221003647</t>
+  </si>
+  <si>
+    <t>110221003648</t>
+  </si>
+  <si>
+    <t>110221003649</t>
+  </si>
+  <si>
+    <t>110221003650</t>
+  </si>
+  <si>
+    <t>110221003651</t>
+  </si>
+  <si>
+    <t>110221003652</t>
+  </si>
+  <si>
+    <t>110221003653</t>
+  </si>
+  <si>
+    <t>110221003654</t>
+  </si>
+  <si>
+    <t>110221003655</t>
+  </si>
+  <si>
+    <t>110221003656</t>
+  </si>
+  <si>
+    <t>110221003657</t>
+  </si>
+  <si>
+    <t>110221003658</t>
+  </si>
+  <si>
+    <t>110221003659</t>
+  </si>
+  <si>
+    <t>110221003660</t>
+  </si>
+  <si>
+    <t>110221003661</t>
+  </si>
+  <si>
+    <t>110221003662</t>
+  </si>
+  <si>
+    <t>110221003663</t>
+  </si>
+  <si>
+    <t>110221003664</t>
+  </si>
+  <si>
+    <t>110221003665</t>
+  </si>
+  <si>
+    <t>110221003666</t>
+  </si>
+  <si>
+    <t>110221003667</t>
+  </si>
+  <si>
+    <t>110221003668</t>
+  </si>
+  <si>
+    <t>110221003669</t>
+  </si>
+  <si>
+    <t>110221003670</t>
+  </si>
+  <si>
+    <t>110221003671</t>
+  </si>
+  <si>
+    <t>110221003672</t>
+  </si>
+  <si>
+    <t>110221003673</t>
+  </si>
+  <si>
+    <t>110221003674</t>
+  </si>
+  <si>
+    <t>110221003675</t>
+  </si>
+  <si>
+    <t>110221003676</t>
+  </si>
+  <si>
+    <t>110221003677</t>
+  </si>
+  <si>
+    <t>110221003678</t>
+  </si>
+  <si>
+    <t>110221003679</t>
+  </si>
+  <si>
+    <t>110221003680</t>
+  </si>
+  <si>
+    <t>110221003681</t>
+  </si>
+  <si>
+    <t>110221003682</t>
+  </si>
+  <si>
+    <t>110221003683</t>
+  </si>
+  <si>
+    <t>110221003684</t>
+  </si>
+  <si>
+    <t>110221003685</t>
+  </si>
+  <si>
+    <t>110221003686</t>
+  </si>
+  <si>
+    <t>110221003687</t>
+  </si>
+  <si>
+    <t>110221003688</t>
+  </si>
+  <si>
+    <t>110221003689</t>
+  </si>
+  <si>
+    <t>110221003690</t>
+  </si>
+  <si>
+    <t>110221003691</t>
+  </si>
+  <si>
+    <t>110221003692</t>
+  </si>
+  <si>
+    <t>110221003693</t>
+  </si>
+  <si>
+    <t>110221003694</t>
+  </si>
+  <si>
+    <t>110221003695</t>
+  </si>
+  <si>
+    <t>110221003696</t>
+  </si>
+  <si>
+    <t>110221003697</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4103,7 +4354,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4441,11 +4692,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4500,7 +4751,7 @@
         <v>2388008</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1156</v>
+        <v>1117</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>124</v>
@@ -4547,7 +4798,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1155</v>
+        <v>1116</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>123</v>
@@ -4591,7 +4842,7 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1159</v>
+        <v>1119</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>131</v>
@@ -4605,7 +4856,7 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1156</v>
+        <v>1117</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>178</v>
@@ -4705,9 +4956,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4924,8 +5175,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="34" width="30.875" collapsed="true"/>
-    <col min="2" max="16384" style="34" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="30.875" style="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9" style="34" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4984,16 +5235,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5718,7 +5969,7 @@
         <v>880</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D43" s="60" t="s">
         <v>84</v>
@@ -6828,19 +7079,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="15.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="19.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="32" width="10.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="32" width="11.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="32" width="10.125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="32" width="10.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="32" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="32" width="10.25" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="32" width="10.125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="32" width="10.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="32" width="11.625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="32" width="11.875" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.875" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.75" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.875" style="32" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" style="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.125" style="32" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" style="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" style="32" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.25" style="32" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.125" style="32" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" style="32" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.625" style="32" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.875" style="32" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -6933,9 +7184,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6988,11 +7239,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="37" width="19.25" collapsed="true"/>
-    <col min="2" max="2" style="37" width="9.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="37" width="13.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="37" width="11.5" collapsed="true"/>
-    <col min="5" max="16384" style="37" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.25" style="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="37" collapsed="1"/>
+    <col min="3" max="3" width="13.875" style="37" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5" style="37" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9" style="37" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -7473,9 +7724,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="23.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="24.25" collapsed="true"/>
-    <col min="3" max="16384" style="7" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="23.125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.25" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7526,7 +7777,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.625" collapsed="true"/>
+    <col min="1" max="1" width="16.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -7579,17 +7830,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.75" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.625" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8059,30 +8310,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="26" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="26" width="23.875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8342,7 +8593,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>1160</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -8379,7 +8630,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>1158</v>
+        <v>1118</v>
       </c>
     </row>
   </sheetData>
@@ -8398,10 +8649,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8467,18 +8718,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG130"/>
   <sheetViews>
-    <sheetView topLeftCell="AX40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BH3" sqref="BH3"/>
+    <sheetView topLeftCell="AS129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BA130" sqref="BA130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" style="7" width="9.0" collapsed="true"/>
-    <col min="6" max="46" customWidth="true" style="7" width="9.0" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" style="7" width="3.25" collapsed="true"/>
-    <col min="48" max="58" style="7" width="9.0" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" style="7" width="10.875" collapsed="true"/>
-    <col min="60" max="16384" style="7" width="9.0" collapsed="true"/>
+    <col min="1" max="5" width="9" style="7" collapsed="1"/>
+    <col min="6" max="46" width="9" style="7" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="3.25" style="7" customWidth="1" collapsed="1"/>
+    <col min="48" max="58" width="9" style="7" collapsed="1"/>
+    <col min="59" max="59" width="10.875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="16384" width="9" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
@@ -8744,7 +8995,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1032</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -8831,7 +9082,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1033</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -8912,7 +9163,7 @@
         <v>89</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>1034</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -8999,7 +9250,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1035</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -9074,7 +9325,7 @@
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1036</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -9149,7 +9400,7 @@
         <v>89</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -9224,7 +9475,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1038</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -9299,7 +9550,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1039</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -9386,7 +9637,7 @@
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1040</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -9449,7 +9700,7 @@
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1041</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -9524,7 +9775,7 @@
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1042</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -9599,7 +9850,7 @@
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1043</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -9674,7 +9925,7 @@
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1044</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -9755,7 +10006,7 @@
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1045</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -9818,7 +10069,7 @@
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1046</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -9881,7 +10132,7 @@
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1047</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -10029,7 +10280,7 @@
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1048</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -10122,7 +10373,7 @@
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1049</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -10215,7 +10466,7 @@
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1050</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -10308,7 +10559,7 @@
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1051</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -10401,7 +10652,7 @@
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1052</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -10494,7 +10745,7 @@
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1053</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -10587,7 +10838,7 @@
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1054</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -10685,7 +10936,9 @@
       <c r="BF26" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG26" s="1"/>
+      <c r="BG26" s="1" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="27" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
@@ -10832,7 +11085,7 @@
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1055</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -10895,7 +11148,7 @@
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1056</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -10958,7 +11211,7 @@
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1057</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -11021,7 +11274,7 @@
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1058</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -11083,7 +11336,9 @@
       <c r="BF32" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="BG32" s="1"/>
+      <c r="BG32" s="1" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="33" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -11145,7 +11400,7 @@
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1059</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11232,7 +11487,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1060</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -11309,7 +11564,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AV35" s="56" t="s">
-        <v>1154</v>
+        <v>1115</v>
       </c>
       <c r="AW35" s="57">
         <v>48</v>
@@ -11325,7 +11580,7 @@
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1061</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -11406,7 +11661,7 @@
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1062</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -11481,7 +11736,7 @@
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1063</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -11556,7 +11811,7 @@
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1064</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -11631,7 +11886,7 @@
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1065</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -11718,7 +11973,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1066</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -11805,7 +12060,7 @@
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1067</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -11868,7 +12123,7 @@
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1068</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -11937,7 +12192,7 @@
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1069</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12000,7 +12255,7 @@
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1070</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -12063,7 +12318,7 @@
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1071</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -12124,7 +12379,7 @@
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1072</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -12199,7 +12454,7 @@
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1073</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -12261,7 +12516,9 @@
       <c r="BF48" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="BG48" s="1"/>
+      <c r="BG48" s="1" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="49" spans="1:59" ht="51" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
@@ -12335,7 +12592,7 @@
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1074</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -12410,7 +12667,7 @@
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1075</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -12485,7 +12742,7 @@
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1076</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -12560,7 +12817,7 @@
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1077</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -12623,7 +12880,7 @@
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1078</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -12692,7 +12949,7 @@
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1079</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -12779,7 +13036,7 @@
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1080</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -12842,7 +13099,7 @@
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1081</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12905,7 +13162,7 @@
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1082</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -12980,7 +13237,7 @@
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1083</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -13061,7 +13318,7 @@
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1084</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -13142,7 +13399,7 @@
         <v>89</v>
       </c>
       <c r="BG60" s="1" t="s">
-        <v>1085</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -13205,7 +13462,7 @@
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1086</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -13268,7 +13525,7 @@
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1087</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -13331,7 +13588,7 @@
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1088</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -13394,7 +13651,7 @@
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1089</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13469,7 +13726,7 @@
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1090</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -13538,7 +13795,7 @@
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1091</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -13613,7 +13870,7 @@
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1092</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13676,7 +13933,7 @@
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1093</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13751,7 +14008,7 @@
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1094</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13826,7 +14083,7 @@
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1095</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13889,7 +14146,7 @@
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1096</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -13958,7 +14215,7 @@
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1097</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -14027,7 +14284,7 @@
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1098</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -14102,7 +14359,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1099</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -14177,7 +14434,7 @@
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1100</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14240,7 +14497,7 @@
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1101</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -14303,7 +14560,7 @@
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1102</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14366,7 +14623,7 @@
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1103</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14441,7 +14698,7 @@
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1104</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -14498,13 +14755,13 @@
         <v>72</v>
       </c>
       <c r="BE80" s="58" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="BF80" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1105</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -14573,7 +14830,7 @@
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1106</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
@@ -14672,7 +14929,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1107</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
@@ -14771,7 +15028,7 @@
         <v>89</v>
       </c>
       <c r="BG83" s="1" t="s">
-        <v>1108</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -14834,7 +15091,7 @@
         <v>89</v>
       </c>
       <c r="BG84" s="1" t="s">
-        <v>1109</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
@@ -14927,7 +15184,7 @@
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1110</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="86" spans="1:59" x14ac:dyDescent="0.25">
@@ -15020,7 +15277,7 @@
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1111</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
@@ -15119,7 +15376,7 @@
         <v>89</v>
       </c>
       <c r="BG87" s="1" t="s">
-        <v>1112</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
@@ -15212,7 +15469,7 @@
         <v>89</v>
       </c>
       <c r="BG88" s="1" t="s">
-        <v>1113</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="89" spans="1:59" x14ac:dyDescent="0.25">
@@ -15311,7 +15568,7 @@
         <v>89</v>
       </c>
       <c r="BG89" s="1" t="s">
-        <v>1114</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15404,7 +15661,7 @@
         <v>89</v>
       </c>
       <c r="BG90" s="1" t="s">
-        <v>1115</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -15479,7 +15736,7 @@
         <v>89</v>
       </c>
       <c r="BG91" s="1" t="s">
-        <v>1116</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="92" spans="1:59" x14ac:dyDescent="0.25">
@@ -15548,13 +15805,13 @@
         <v>48</v>
       </c>
       <c r="BE92" s="58" t="s">
-        <v>88</v>
+        <v>1018</v>
       </c>
       <c r="BF92" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG92" s="1" t="s">
-        <v>1117</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="93" spans="1:59" x14ac:dyDescent="0.25">
@@ -15623,13 +15880,13 @@
         <v>48</v>
       </c>
       <c r="BE93" s="58" t="s">
-        <v>88</v>
+        <v>1018</v>
       </c>
       <c r="BF93" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG93" s="1" t="s">
-        <v>1118</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15692,7 +15949,7 @@
         <v>89</v>
       </c>
       <c r="BG94" s="1" t="s">
-        <v>1119</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15755,7 +16012,7 @@
         <v>89</v>
       </c>
       <c r="BG95" s="1" t="s">
-        <v>1120</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15818,7 +16075,7 @@
         <v>89</v>
       </c>
       <c r="BG96" s="1" t="s">
-        <v>1121</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15881,7 +16138,7 @@
         <v>89</v>
       </c>
       <c r="BG97" s="1" t="s">
-        <v>1122</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -15944,7 +16201,7 @@
         <v>89</v>
       </c>
       <c r="BG98" s="1" t="s">
-        <v>1123</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -16007,7 +16264,7 @@
         <v>89</v>
       </c>
       <c r="BG99" s="1" t="s">
-        <v>1124</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16082,7 +16339,7 @@
         <v>89</v>
       </c>
       <c r="BG100" s="1" t="s">
-        <v>1125</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16157,7 +16414,7 @@
         <v>89</v>
       </c>
       <c r="BG101" s="1" t="s">
-        <v>1126</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16232,7 +16489,7 @@
         <v>89</v>
       </c>
       <c r="BG102" s="1" t="s">
-        <v>1127</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16319,7 +16576,7 @@
         <v>89</v>
       </c>
       <c r="BG103" s="1" t="s">
-        <v>1128</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
@@ -16400,7 +16657,7 @@
         <v>89</v>
       </c>
       <c r="BG104" s="43" t="s">
-        <v>1129</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16475,7 +16732,7 @@
         <v>89</v>
       </c>
       <c r="BG105" s="1" t="s">
-        <v>1130</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16550,7 +16807,7 @@
         <v>89</v>
       </c>
       <c r="BG106" s="1" t="s">
-        <v>1131</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16625,7 +16882,7 @@
         <v>89</v>
       </c>
       <c r="BG107" s="1" t="s">
-        <v>1132</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16700,7 +16957,7 @@
         <v>89</v>
       </c>
       <c r="BG108" s="1" t="s">
-        <v>1133</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16775,7 +17032,7 @@
         <v>89</v>
       </c>
       <c r="BG109" s="1" t="s">
-        <v>1134</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16850,7 +17107,7 @@
         <v>89</v>
       </c>
       <c r="BG110" s="1" t="s">
-        <v>1135</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16931,7 +17188,7 @@
         <v>89</v>
       </c>
       <c r="BG111" s="1" t="s">
-        <v>1136</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17024,7 +17281,7 @@
         <v>89</v>
       </c>
       <c r="BG112" s="1" t="s">
-        <v>1137</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17111,7 +17368,7 @@
         <v>89</v>
       </c>
       <c r="BG113" s="1" t="s">
-        <v>1138</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17180,7 +17437,7 @@
         <v>89</v>
       </c>
       <c r="BG114" s="1" t="s">
-        <v>1139</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17273,7 +17530,7 @@
         <v>89</v>
       </c>
       <c r="BG115" s="1" t="s">
-        <v>1140</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -17366,7 +17623,7 @@
         <v>89</v>
       </c>
       <c r="BG116" s="1" t="s">
-        <v>1141</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -17459,7 +17716,7 @@
         <v>89</v>
       </c>
       <c r="BG117" s="1" t="s">
-        <v>1142</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -17522,7 +17779,7 @@
         <v>89</v>
       </c>
       <c r="BG118" s="1" t="s">
-        <v>1143</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -17603,7 +17860,7 @@
         <v>89</v>
       </c>
       <c r="BG119" s="1" t="s">
-        <v>1144</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -17690,7 +17947,7 @@
         <v>89</v>
       </c>
       <c r="BG120" s="1" t="s">
-        <v>1145</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -17777,7 +18034,7 @@
         <v>89</v>
       </c>
       <c r="BG121" s="1" t="s">
-        <v>1146</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -17840,7 +18097,7 @@
         <v>89</v>
       </c>
       <c r="BG122" s="1" t="s">
-        <v>1147</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17903,7 +18160,7 @@
         <v>89</v>
       </c>
       <c r="BG123" s="1" t="s">
-        <v>1148</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
@@ -17966,7 +18223,7 @@
         <v>89</v>
       </c>
       <c r="BG124" s="1" t="s">
-        <v>1149</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18053,7 +18310,7 @@
         <v>89</v>
       </c>
       <c r="BG125" s="1" t="s">
-        <v>1150</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -18140,7 +18397,7 @@
         <v>89</v>
       </c>
       <c r="BG126" s="1" t="s">
-        <v>1151</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -18209,7 +18466,7 @@
         <v>2</v>
       </c>
       <c r="BE127" s="56" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="BF127" s="27" t="s">
         <v>89</v>
@@ -18294,7 +18551,7 @@
         <v>4</v>
       </c>
       <c r="BE128" s="56" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="BF128" s="27" t="s">
         <v>89</v>
@@ -18379,13 +18636,13 @@
         <v>3</v>
       </c>
       <c r="BE129" s="56" t="s">
-        <v>1013</v>
+        <v>1115</v>
       </c>
       <c r="BF129" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG129" s="1" t="s">
-        <v>1152</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18454,13 +18711,13 @@
         <v>24</v>
       </c>
       <c r="BE130" s="56" t="s">
-        <v>1013</v>
+        <v>1115</v>
       </c>
       <c r="BF130" s="27" t="s">
         <v>89</v>
       </c>
       <c r="BG130" s="1" t="s">
-        <v>1153</v>
+        <v>1244</v>
       </c>
     </row>
   </sheetData>
@@ -18495,10 +18752,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="20" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="21" max="26" customWidth="true" hidden="true" style="7" width="0.0" collapsed="true"/>
-    <col min="27" max="47" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="6" max="20" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="26" width="0" style="7" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="47" width="0" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
@@ -18738,7 +18995,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1072</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:59" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -18813,7 +19070,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1073</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -18949,7 +19206,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1074</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19024,7 +19281,7 @@
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1075</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -19099,7 +19356,7 @@
         <v>89</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>1076</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="8" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19174,7 +19431,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1077</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19237,7 +19494,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1078</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="10" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19306,7 +19563,7 @@
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1079</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -19393,7 +19650,7 @@
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1080</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="12" spans="1:59" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -19456,7 +19713,7 @@
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1081</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19519,7 +19776,7 @@
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1082</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="14" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -19594,7 +19851,7 @@
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1083</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="15" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -19675,7 +19932,7 @@
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1084</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="16" spans="1:59" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -19756,7 +20013,7 @@
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1085</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="17" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -19819,7 +20076,7 @@
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1086</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -19882,7 +20139,7 @@
         <v>89</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>1087</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="19" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -19945,7 +20202,7 @@
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1088</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="20" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -20008,7 +20265,7 @@
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1089</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="21" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -20083,7 +20340,7 @@
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1090</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="22" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -20152,7 +20409,7 @@
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1091</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="23" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -20227,7 +20484,7 @@
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1092</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="24" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -20290,7 +20547,7 @@
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1093</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="25" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -20365,7 +20622,7 @@
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1094</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="26" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -20440,7 +20697,7 @@
         <v>89</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>1095</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="27" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -20503,7 +20760,7 @@
         <v>89</v>
       </c>
       <c r="BG27" s="1" t="s">
-        <v>1096</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="28" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -20572,7 +20829,7 @@
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1097</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="29" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -20641,7 +20898,7 @@
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1098</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="30" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -20716,7 +20973,7 @@
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1099</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="31" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -20791,7 +21048,7 @@
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1100</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="32" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -20854,7 +21111,7 @@
         <v>89</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>1101</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="33" spans="1:59" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
@@ -20917,7 +21174,7 @@
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1102</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="34" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -20980,7 +21237,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1103</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="35" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21055,7 +21312,7 @@
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1104</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="36" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -21118,7 +21375,7 @@
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1105</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="37" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -21187,7 +21444,7 @@
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1106</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="38" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -21286,7 +21543,7 @@
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1107</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="39" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -21385,7 +21642,7 @@
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1108</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="40" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -21448,7 +21705,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1109</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="41" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -21541,7 +21798,7 @@
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1110</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="42" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -21634,7 +21891,7 @@
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1111</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="43" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -21733,7 +21990,7 @@
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1112</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="44" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -21826,7 +22083,7 @@
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1113</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="45" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -21925,7 +22182,7 @@
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1114</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="46" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22018,7 +22275,7 @@
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1115</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="47" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22093,7 +22350,7 @@
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1116</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="48" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -22168,7 +22425,7 @@
         <v>89</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>1117</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="49" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -22243,7 +22500,7 @@
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1118</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="50" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22306,7 +22563,7 @@
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1119</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="51" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22369,7 +22626,7 @@
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1120</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="52" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22432,7 +22689,7 @@
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1121</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="53" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22495,7 +22752,7 @@
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1122</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="54" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -22558,7 +22815,7 @@
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1123</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="55" spans="1:59" s="7" customFormat="1" ht="102" x14ac:dyDescent="0.25">
@@ -22621,7 +22878,7 @@
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1124</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="56" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22696,7 +22953,7 @@
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1125</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="57" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22771,7 +23028,7 @@
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1126</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="58" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -22846,7 +23103,7 @@
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1127</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="59" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -22933,7 +23190,7 @@
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1128</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="60" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -23014,7 +23271,7 @@
         <v>89</v>
       </c>
       <c r="BG60" s="43" t="s">
-        <v>1129</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="61" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23089,7 +23346,7 @@
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1130</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="62" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23164,7 +23421,7 @@
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1131</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="63" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23239,7 +23496,7 @@
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1132</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="64" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23314,7 +23571,7 @@
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1133</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="65" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23389,7 +23646,7 @@
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1134</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="66" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -23464,7 +23721,7 @@
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1135</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="67" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -23545,7 +23802,7 @@
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1136</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="68" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -23638,7 +23895,7 @@
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1137</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="69" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -23725,7 +23982,7 @@
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1138</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="70" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -23794,7 +24051,7 @@
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1139</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="71" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -23887,7 +24144,7 @@
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1140</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="72" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -23980,7 +24237,7 @@
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1141</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="73" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -24073,7 +24330,7 @@
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1142</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="74" spans="1:59" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -24136,7 +24393,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1143</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="75" spans="1:59" s="7" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -24217,7 +24474,7 @@
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1144</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="76" spans="1:59" s="7" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
@@ -24304,7 +24561,7 @@
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1145</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="77" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -24391,7 +24648,7 @@
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1146</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="78" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -24454,7 +24711,7 @@
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1147</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="79" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -24517,7 +24774,7 @@
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1148</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="80" spans="1:59" s="7" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
@@ -24580,7 +24837,7 @@
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1149</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="81" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -24667,7 +24924,7 @@
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1150</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="82" spans="1:59" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
@@ -24754,7 +25011,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1151</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="83" spans="1:59" s="7" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
@@ -24999,7 +25256,7 @@
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1152</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="86" spans="1:59" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -25074,7 +25331,7 @@
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1153</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -27332,8 +27589,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="22.625" collapsed="true"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3811,9 +3811,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4034,19 +4041,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
@@ -4069,56 +4077,56 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4126,10 +4134,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -4146,52 +4154,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="5"/>
@@ -4199,6 +4207,7 @@
     <cellStyle name="Normal 4" xfId="3"/>
     <cellStyle name="Normal 5" xfId="4"/>
     <cellStyle name="Normal 90 3 2 3" xfId="6"/>
+    <cellStyle name="Normal 90 3 2 3 2" xfId="7"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -4354,7 +4363,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5235,7 +5244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -8293,7 +8302,7 @@
       <c r="K17" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8718,8 +8727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG130"/>
   <sheetViews>
-    <sheetView topLeftCell="AS129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BA130" sqref="BA130"/>
+    <sheetView topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25360,8 +25369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:E129"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -26543,8 +26552,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>206</v>
+      <c r="A70" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>449</v>
@@ -26560,8 +26569,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>206</v>
+      <c r="A71" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>451</v>
@@ -26577,8 +26586,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
-        <v>206</v>
+      <c r="A72" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>453</v>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5788" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="1248">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3805,6 +3805,15 @@
   </si>
   <si>
     <t>110221003697</t>
+  </si>
+  <si>
+    <t>Service Profile</t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>HLR Code</t>
   </si>
 </sst>
 </file>
@@ -4363,7 +4372,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7831,10 +7840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8300,6 +8309,27 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -25367,10 +25397,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView topLeftCell="A112" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27316,55 +27346,55 @@
         <v>542</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="21" t="s">
+    <row r="115" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="D115" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>189</v>
+      <c r="B116" s="19" t="s">
+        <v>384</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="C117" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D116" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="E117" s="21" t="s">
+      <c r="E116" s="21" t="s">
         <v>544</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -27372,16 +27402,16 @@
         <v>206</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -27392,81 +27422,81 @@
         <v>210</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E120" s="9" t="s">
         <v>215</v>
       </c>
     </row>
+    <row r="120" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
     <row r="121" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B122" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C122" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D122" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E122" s="17" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>821</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>821</v>
+      </c>
+      <c r="D123" s="47" t="s">
+        <v>821</v>
+      </c>
+      <c r="E123" s="47" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -27474,16 +27504,16 @@
         <v>58</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D124" s="47" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E124" s="47" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -27491,16 +27521,16 @@
         <v>58</v>
       </c>
       <c r="B125" s="47" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D125" s="47" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E125" s="47" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -27508,16 +27538,16 @@
         <v>58</v>
       </c>
       <c r="B126" s="47" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D126" s="47" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E126" s="47" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -27525,16 +27555,16 @@
         <v>58</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D127" s="47" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E127" s="47" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -27542,46 +27572,29 @@
         <v>58</v>
       </c>
       <c r="B128" s="47" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D128" s="47" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E128" s="47" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B129" s="47" t="s">
-        <v>832</v>
-      </c>
-      <c r="C129" s="47" t="s">
-        <v>832</v>
-      </c>
-      <c r="D129" s="47" t="s">
-        <v>832</v>
-      </c>
-      <c r="E129" s="47" t="s">
         <v>833</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E118">
+  <conditionalFormatting sqref="E117">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119:E120">
+  <conditionalFormatting sqref="E118:E119">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
+  <conditionalFormatting sqref="E120">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
+  <conditionalFormatting sqref="E121">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7767" uniqueCount="1249">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3815,12 +3815,15 @@
   <si>
     <t>HLR Code</t>
   </si>
+  <si>
+    <t>TECHNICAL SUPPORT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3930,6 +3933,16 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3987,7 +4000,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4049,6 +4062,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4066,7 +4092,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4207,6 +4233,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4372,7 +4413,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5251,10 +5292,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E444"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5283,972 +5324,7534 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="92" t="s">
         <v>715</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C2" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E2" s="60" t="s">
+      <c r="D2" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E2" s="93" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="92" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="92" t="s">
+        <v>715</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
+        <v>715</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="92" t="s">
+        <v>715</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="s">
         <v>718</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D3" s="60" t="s">
+      <c r="B9" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>1012</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E9" s="93" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="92" t="s">
+        <v>718</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D10" s="92" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="E10" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
+        <v>718</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E11" s="93" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="92" t="s">
+        <v>718</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="92" t="s">
+        <v>718</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="92" t="s">
+        <v>718</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D14" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="92" t="s">
+        <v>718</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="92" t="s">
+        <v>718</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="92" t="s">
         <v>721</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C4" s="60" t="s">
+      <c r="B17" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C17" s="92" t="s">
         <v>1025</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E4" s="60" t="s">
+      <c r="D17" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E17" s="93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
+        <v>721</v>
+      </c>
+      <c r="B18" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="92" t="s">
+        <v>721</v>
+      </c>
+      <c r="B19" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="92" t="s">
+        <v>721</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D20" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="92" t="s">
+        <v>721</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="92" t="s">
+        <v>721</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E22" s="93" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="92" t="s">
+        <v>721</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D23" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="92" t="s">
+        <v>721</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="92" t="s">
         <v>724</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="B25" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C25" s="92" t="s">
         <v>1025</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E5" s="60" t="s">
+      <c r="D25" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E25" s="93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="92" t="s">
+        <v>724</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C26" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="92" t="s">
+        <v>724</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="92" t="s">
+        <v>724</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D28" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E28" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="92" t="s">
+        <v>724</v>
+      </c>
+      <c r="B29" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E29" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="92" t="s">
+        <v>724</v>
+      </c>
+      <c r="B30" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="92" t="s">
+        <v>724</v>
+      </c>
+      <c r="B31" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E31" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="92" t="s">
         <v>727</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C6" s="60" t="s">
+      <c r="B32" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C32" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E6" s="60" t="s">
+      <c r="D32" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E32" s="93" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="92" t="s">
+        <v>727</v>
+      </c>
+      <c r="B33" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D33" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E33" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="92" t="s">
+        <v>727</v>
+      </c>
+      <c r="B34" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E34" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="92" t="s">
+        <v>727</v>
+      </c>
+      <c r="B35" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E35" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="92" t="s">
+        <v>727</v>
+      </c>
+      <c r="B36" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C36" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E36" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="92" t="s">
+        <v>727</v>
+      </c>
+      <c r="B37" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="92" t="s">
+        <v>727</v>
+      </c>
+      <c r="B38" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="92" t="s">
+        <v>727</v>
+      </c>
+      <c r="B39" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E39" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="92" t="s">
         <v>730</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C7" s="60" t="s">
+      <c r="B40" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C40" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E7" s="60" t="s">
+      <c r="D40" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E40" s="93" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="B41" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D41" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E41" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="B42" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D42" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E42" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="B43" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E43" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D44" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E44" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="B45" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D45" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E45" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="B46" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D46" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="92" t="s">
+        <v>730</v>
+      </c>
+      <c r="B47" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E47" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C8" s="60" t="s">
+      <c r="B48" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C48" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D48" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E48" s="93" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D9" s="60" t="s">
+      <c r="B49" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D49" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E49" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="60" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D50" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="93" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C10" s="60" t="s">
+      <c r="B51" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C51" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D51" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="E51" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D52" s="92" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E52" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C53" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D53" s="92" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E53" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D54" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E54" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C55" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D55" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E55" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C56" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D56" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C57" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E57" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C11" s="60" t="s">
+      <c r="B58" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C58" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D58" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E58" s="93" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C12" s="60" t="s">
+      <c r="B59" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C59" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D59" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E59" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C60" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D60" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E60" s="93" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D13" s="60" t="s">
+      <c r="B61" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C61" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D61" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E61" s="93" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C14" s="60" t="s">
+      <c r="B62" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C62" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D62" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="E62" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C63" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D63" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E63" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C64" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D64" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E64" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C65" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D65" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E65" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C66" s="92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E66" s="93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C67" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D67" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E67" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C68" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D68" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E69" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="92" t="s">
         <v>764</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C15" s="60" t="s">
+      <c r="B70" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C70" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D70" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E70" s="93" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="92" t="s">
         <v>764</v>
       </c>
-      <c r="B16" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C16" s="60" t="s">
+      <c r="B71" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C71" s="92" t="s">
         <v>883</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D71" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E71" s="93" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="92" t="s">
         <v>764</v>
       </c>
-      <c r="B17" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C17" s="60" t="s">
+      <c r="B72" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C72" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D72" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E72" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="B73" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C73" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D73" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E73" s="93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="B74" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C74" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D74" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E74" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="B75" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C75" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D75" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E75" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="B76" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C76" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D76" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E76" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="B77" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C77" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D77" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E77" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="B78" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C78" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D78" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E78" s="93" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="60" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="92" t="s">
         <v>764</v>
       </c>
-      <c r="B18" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D18" s="60" t="s">
+      <c r="B79" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C79" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D79" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E79" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="B80" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C80" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D80" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E80" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="60" t="s">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="B81" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C81" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D81" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="B82" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C82" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D82" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E82" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C83" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D83" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C84" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D84" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C85" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D85" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E85" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C86" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D86" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="93" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
-        <v>764</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C19" s="60" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C87" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D87" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="E87" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C20" s="60" t="s">
+      <c r="B88" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C88" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D88" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E88" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C89" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D89" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E89" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C90" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D90" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E90" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C91" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D91" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E91" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C92" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D92" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E92" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="60" t="s">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C93" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D93" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B94" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C94" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="92" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C21" s="60" t="s">
+      <c r="E94" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B95" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C95" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D95" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B96" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C96" s="92" t="s">
         <v>883</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D96" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E96" s="93" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="60" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B97" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C97" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D97" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E97" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D23" s="60" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B98" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C98" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D98" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E98" s="93" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C24" s="60" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B99" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C99" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D99" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="E99" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="92" t="s">
         <v>836</v>
       </c>
-      <c r="B25" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C25" s="60" t="s">
+      <c r="B100" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C100" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D100" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E100" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B101" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C101" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D101" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E101" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B102" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C102" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D102" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E102" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B103" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C103" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D103" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E103" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B104" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C104" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D104" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E104" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="60" t="s">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B105" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C105" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D105" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="92" t="s">
+        <v>836</v>
+      </c>
+      <c r="B106" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C106" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D106" s="92" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
-        <v>836</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C26" s="60" t="s">
+      <c r="E106" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B107" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C107" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D107" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B108" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C108" s="92" t="s">
         <v>883</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D108" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E108" s="93" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="60" t="s">
-        <v>836</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="60" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B109" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C109" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D109" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E109" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
-        <v>836</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D28" s="60" t="s">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B110" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C110" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D110" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E110" s="93" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
-        <v>836</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C29" s="60" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B111" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C111" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D111" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="E111" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="92" t="s">
         <v>839</v>
       </c>
-      <c r="B30" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C30" s="60" t="s">
+      <c r="B112" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C112" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D112" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E112" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B113" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C113" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D113" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E113" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B114" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C114" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D114" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E114" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B115" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C115" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D115" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E115" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B116" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C116" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D116" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E116" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="60" t="s">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B117" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C117" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D117" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E117" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="92" t="s">
+        <v>839</v>
+      </c>
+      <c r="B118" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C118" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" s="92" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
-        <v>839</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C31" s="60" t="s">
+      <c r="E118" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B119" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C119" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D119" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E119" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B120" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C120" s="92" t="s">
         <v>883</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D120" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E120" s="93" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
-        <v>839</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" s="60" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B121" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C121" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D121" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E121" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="60" t="s">
-        <v>839</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D33" s="60" t="s">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B122" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C122" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D122" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E122" s="93" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
-        <v>839</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C34" s="60" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B123" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C123" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D123" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="60" t="s">
+      <c r="E123" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="92" t="s">
         <v>842</v>
       </c>
-      <c r="B35" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C35" s="60" t="s">
+      <c r="B124" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C124" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D124" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E124" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B125" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C125" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D125" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E125" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B126" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C126" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D126" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E126" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B127" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C127" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D127" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E127" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B128" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C128" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D128" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E128" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="60" t="s">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B129" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C129" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D129" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E129" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="B130" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C130" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" s="92" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="60" t="s">
-        <v>842</v>
-      </c>
-      <c r="B36" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C36" s="60" t="s">
+      <c r="E130" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B131" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C131" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D131" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E131" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B132" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C132" s="92" t="s">
         <v>883</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D132" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E132" s="93" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
-        <v>842</v>
-      </c>
-      <c r="B37" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="60" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B133" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C133" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D133" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E133" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
-        <v>842</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D38" s="60" t="s">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B134" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C134" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D134" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E134" s="93" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
-        <v>842</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C39" s="60" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B135" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C135" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D39" s="60" t="s">
+      <c r="D135" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+      <c r="E135" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="92" t="s">
         <v>844</v>
       </c>
-      <c r="B40" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C40" s="60" t="s">
+      <c r="B136" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C136" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D136" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E136" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B137" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C137" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D137" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E137" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B138" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C138" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D138" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E138" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B139" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C139" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D139" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E139" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B140" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C140" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D140" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E140" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E40" s="60" t="s">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B141" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C141" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D141" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E141" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="92" t="s">
+        <v>844</v>
+      </c>
+      <c r="B142" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C142" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D142" s="92" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="60" t="s">
-        <v>844</v>
-      </c>
-      <c r="B41" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C41" s="60" t="s">
+      <c r="E142" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B143" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C143" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D143" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E143" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B144" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C144" s="92" t="s">
         <v>883</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D144" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E144" s="93" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
-        <v>844</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="D42" s="60" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B145" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C145" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D145" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E145" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="60" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
-        <v>844</v>
-      </c>
-      <c r="B43" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D43" s="60" t="s">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B146" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C146" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D146" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E146" s="93" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="60" t="s">
-        <v>844</v>
-      </c>
-      <c r="B44" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C44" s="60" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B147" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C147" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D44" s="60" t="s">
+      <c r="D147" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="E147" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="92" t="s">
         <v>767</v>
       </c>
-      <c r="B45" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C45" s="60" t="s">
+      <c r="B148" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C148" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D148" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E148" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B149" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C149" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D149" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E149" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B150" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C150" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D150" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E150" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B151" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C151" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D151" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E151" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B152" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C152" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D152" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E152" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B153" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C153" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D153" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E153" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="B154" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C154" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D154" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E154" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B155" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C155" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D155" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E155" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B156" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C156" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D156" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E156" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B157" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C157" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D157" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E157" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B158" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C158" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D158" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E158" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B159" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C159" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D159" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E159" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B160" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C160" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D160" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E160" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="60" t="s">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="92" t="s">
         <v>804</v>
       </c>
-      <c r="B46" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C46" s="60" t="s">
+      <c r="B161" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C161" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D161" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E161" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B162" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C162" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D162" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E162" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B163" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C163" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D163" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E163" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B164" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C164" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D164" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E164" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B165" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C165" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D165" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E165" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="B166" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C166" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D166" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E166" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="B167" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C167" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D46" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="60" t="s">
+      <c r="D167" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E167" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="92" t="s">
         <v>846</v>
       </c>
-      <c r="B47" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C47" s="60" t="s">
+      <c r="B168" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C168" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D168" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E168" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="B169" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C169" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D169" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E169" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="B170" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C170" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D170" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E170" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="B171" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C171" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D171" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E171" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="B172" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C172" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D172" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E172" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="B173" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C173" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D173" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E173" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="B174" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C174" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D174" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E174" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="B175" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C175" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D175" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E175" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B176" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C176" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D47" s="60" t="s">
+      <c r="D176" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E176" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B177" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C177" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D177" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E177" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B178" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C178" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D178" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E178" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B179" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C179" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D179" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E179" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B180" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C180" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D180" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E180" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B181" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C181" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D181" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E181" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="B48" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C48" s="60" t="s">
+      <c r="B182" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C182" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D182" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E182" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B183" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C183" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D183" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E183" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B184" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C184" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D184" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E184" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B185" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C185" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D185" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E185" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="B186" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C186" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D186" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E186" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B187" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C187" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D48" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="60" t="s">
+      <c r="D187" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E187" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="92" t="s">
         <v>848</v>
       </c>
-      <c r="B49" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C49" s="60" t="s">
+      <c r="B188" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C188" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D188" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E188" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B189" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C189" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D189" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E189" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B190" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C190" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D190" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E190" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B191" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C191" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D191" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E191" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B192" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C192" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D192" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E192" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B193" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C193" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D193" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E193" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B194" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C194" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D194" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E194" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B195" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C195" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D195" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E195" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B196" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C196" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D196" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E196" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="92" t="s">
+        <v>848</v>
+      </c>
+      <c r="B197" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C197" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D197" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E197" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B198" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C198" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D49" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="60" t="s">
+      <c r="D198" s="92" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E198" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="92" t="s">
         <v>850</v>
       </c>
-      <c r="B50" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C50" s="60" t="s">
+      <c r="B199" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C199" s="92" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D199" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E199" s="93" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B200" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C200" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D200" s="92" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E200" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B201" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C201" s="92" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D201" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E201" s="93" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B202" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C202" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D202" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E202" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B203" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C203" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D203" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E203" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B204" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C204" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D204" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E204" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B205" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C205" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D205" s="92" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E205" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B206" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C206" s="92" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D206" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E206" s="93" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B207" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C207" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D207" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E207" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B208" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C208" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D208" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E208" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="92" t="s">
+        <v>850</v>
+      </c>
+      <c r="B209" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C209" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D209" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E209" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B210" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C210" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D50" s="60" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E50" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="60" t="s">
-        <v>850</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C51" s="60" t="s">
+      <c r="D210" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E210" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B211" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C211" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D211" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E211" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B212" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C212" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D212" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E212" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B213" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C213" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D213" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E213" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B214" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C214" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D214" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E214" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B215" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C215" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D215" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E215" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B216" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C216" s="92" t="s">
         <v>1025</v>
       </c>
-      <c r="D51" s="60" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E51" s="60" t="s">
+      <c r="D216" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E216" s="93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="60" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C52" s="60" t="s">
+      <c r="B217" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C217" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D217" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E217" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B218" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C218" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D218" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E218" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B219" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C219" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D219" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E219" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B220" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C220" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D220" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E220" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B221" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C221" s="92" t="s">
         <v>1026</v>
       </c>
-      <c r="D52" s="60" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E52" s="60" t="s">
+      <c r="D221" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E221" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B222" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C222" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D222" s="92" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="60" t="s">
+      <c r="E222" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="B53" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C53" s="60" t="s">
+      <c r="B223" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C223" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D223" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E223" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B224" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C224" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D224" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E224" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C225" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D225" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E225" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C226" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D226" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E226" s="93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C227" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D227" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="60" t="s">
+      <c r="E227" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C228" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D228" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E228" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C229" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D229" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E229" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C230" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D230" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E230" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C231" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D231" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E231" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C232" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D232" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E232" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C233" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D233" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E233" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C234" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D234" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E234" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="B54" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C54" s="60" t="s">
+      <c r="B235" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C235" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="D235" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="60" t="s">
+      <c r="E235" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B236" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C236" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D236" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E236" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B237" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C237" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D237" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E237" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B238" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C238" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D238" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E238" s="93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B239" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C239" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D239" s="92" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E239" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B240" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C240" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D240" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E240" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B241" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C241" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D241" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E241" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B242" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C242" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D242" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E242" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B243" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C243" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D243" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E243" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B244" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C244" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D244" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E244" s="93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="92" t="s">
         <v>802</v>
       </c>
-      <c r="B55" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C55" s="60" t="s">
+      <c r="B245" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C245" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="D245" s="92" t="s">
         <v>1011</v>
       </c>
-      <c r="E55" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
+      <c r="E245" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="92" t="s">
+        <v>802</v>
+      </c>
+      <c r="B246" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C246" s="92" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D246" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E246" s="93" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="92" t="s">
         <v>626</v>
       </c>
-      <c r="B56" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C56" s="60" t="s">
+      <c r="B247" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C247" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D247" s="92" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E247" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="92" t="s">
+        <v>626</v>
+      </c>
+      <c r="B248" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C248" s="92" t="s">
         <v>1030</v>
       </c>
-      <c r="D56" s="60" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E56" s="60" t="s">
+      <c r="D248" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E248" s="93" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="60" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="92" t="s">
         <v>550</v>
       </c>
-      <c r="B57" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C57" s="60" t="s">
+      <c r="B249" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C249" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D249" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="60" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="60" t="s">
+      <c r="E249" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="92" t="s">
+        <v>550</v>
+      </c>
+      <c r="B250" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C250" s="92" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D250" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E250" s="93" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="92" t="s">
         <v>579</v>
       </c>
-      <c r="B58" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C58" s="60" t="s">
+      <c r="B251" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C251" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="D251" s="92" t="s">
         <v>1016</v>
       </c>
-      <c r="E58" s="60" t="s">
-        <v>1010</v>
+      <c r="E251" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="92" t="s">
+        <v>579</v>
+      </c>
+      <c r="B252" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C252" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D252" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E252" s="93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B253" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C253" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D253" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E253" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B254" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C254" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D254" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E254" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B255" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C255" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D255" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E255" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B256" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C256" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D256" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E256" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B257" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C257" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D257" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E257" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B258" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C258" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D258" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E258" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B259" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C259" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D259" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E259" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B260" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C260" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D260" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E260" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B261" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C261" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D261" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E261" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B262" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C262" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D262" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E262" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B263" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C263" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D263" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E263" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B264" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C264" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D264" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E264" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B265" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C265" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D265" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E265" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B266" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C266" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D266" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E266" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B267" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C267" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D267" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E267" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B268" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C268" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D268" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E268" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B269" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C269" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D269" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E269" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B270" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C270" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D270" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E270" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B271" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C271" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D271" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E271" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B272" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C272" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D272" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E272" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B273" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C273" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D273" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E273" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B274" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C274" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D274" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E274" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B275" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C275" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D275" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E275" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B276" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C276" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D276" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E276" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B277" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C277" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D277" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E277" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="25" t="s">
+        <v>712</v>
+      </c>
+      <c r="B278" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C278" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D278" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E278" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B279" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C279" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D279" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E279" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B280" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C280" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D280" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E280" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B281" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C281" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D281" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E281" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B282" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C282" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D282" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E282" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B283" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C283" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D283" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E283" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B284" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C284" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D284" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E284" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B285" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C285" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D285" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E285" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B286" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C286" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D286" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E286" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B287" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C287" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D287" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E287" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B288" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C288" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D288" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E288" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B289" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C289" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D289" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E289" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B290" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C290" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D290" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E290" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B291" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C291" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D291" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E291" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B292" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C292" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D292" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E292" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B293" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C293" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D293" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E293" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B294" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C294" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D294" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E294" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B295" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C295" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D295" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E295" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B296" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C296" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D296" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E296" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B297" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C297" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D297" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E297" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B298" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C298" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D298" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E298" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B299" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C299" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D299" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E299" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B300" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C300" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D300" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E300" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B301" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C301" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D301" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E301" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B302" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C302" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D302" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E302" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B303" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C303" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D303" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E303" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="B304" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C304" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D304" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E304" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B305" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C305" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D305" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E305" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B306" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C306" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D306" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E306" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B307" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C307" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D307" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E307" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B308" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C308" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D308" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E308" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B309" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C309" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D309" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E309" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B310" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C310" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D310" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E310" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B311" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C311" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D311" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E311" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B312" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C312" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D312" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E312" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B313" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C313" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D313" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E313" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B314" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C314" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D314" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E314" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B315" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C315" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D315" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E315" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B316" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C316" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D316" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E316" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B317" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C317" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D317" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E317" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B318" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C318" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D318" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E318" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B319" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C319" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D319" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E319" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B320" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C320" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D320" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E320" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B321" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C321" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D321" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E321" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B322" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C322" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D322" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E322" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B323" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C323" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D323" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E323" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B324" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C324" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D324" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E324" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B325" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C325" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D325" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E325" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B326" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C326" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D326" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E326" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B327" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C327" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D327" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E327" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B328" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C328" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D328" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E328" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B329" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C329" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D329" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E329" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B330" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C330" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D330" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E330" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B331" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C331" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D331" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E331" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B332" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C332" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D332" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E332" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B333" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C333" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D333" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E333" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B334" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C334" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D334" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E334" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B335" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C335" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D335" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E335" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B336" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C336" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D336" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E336" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B337" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C337" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D337" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E337" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B338" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C338" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D338" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E338" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B339" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C339" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D339" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E339" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B340" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C340" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D340" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E340" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B341" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C341" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D341" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E341" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B342" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C342" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D342" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E342" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B343" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C343" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D343" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E343" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B344" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C344" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D344" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E344" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B345" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C345" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D345" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E345" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B346" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C346" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D346" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E346" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B347" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C347" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D347" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E347" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B348" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C348" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D348" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E348" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B349" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C349" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D349" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E349" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B350" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C350" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D350" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E350" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B351" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C351" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D351" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E351" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B352" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C352" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D352" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E352" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B353" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C353" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D353" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E353" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B354" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C354" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D354" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E354" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B355" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C355" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D355" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E355" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B356" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C356" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D356" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E356" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B357" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C357" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D357" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E357" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B358" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C358" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D358" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E358" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B359" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C359" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D359" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E359" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B360" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C360" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D360" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E360" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B361" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C361" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D361" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E361" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B362" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C362" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D362" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E362" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B363" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C363" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D363" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E363" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B364" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C364" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D364" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E364" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B365" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C365" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D365" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E365" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B366" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C366" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D366" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E366" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B367" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C367" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D367" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E367" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B368" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C368" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D368" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E368" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="B369" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C369" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D369" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E369" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B370" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C370" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D370" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E370" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B371" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C371" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D371" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E371" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B372" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C372" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D372" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E372" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B373" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C373" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D373" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E373" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B374" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C374" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D374" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E374" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B375" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C375" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D375" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E375" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B376" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C376" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D376" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E376" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B377" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C377" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D377" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E377" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B378" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C378" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D378" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E378" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B379" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C379" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D379" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E379" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B380" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C380" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D380" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E380" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B381" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C381" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D381" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E381" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B382" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C382" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D382" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E382" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B383" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C383" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D383" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E383" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B384" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C384" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D384" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E384" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B385" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C385" s="95" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D385" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E385" s="96" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B386" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C386" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D386" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E386" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B387" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C387" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D387" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E387" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B388" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C388" s="95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D388" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E388" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B389" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C389" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D389" s="95" t="s">
+        <v>884</v>
+      </c>
+      <c r="E389" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B390" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C390" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D390" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E390" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B391" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C391" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D391" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E391" s="96" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B392" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C392" s="95" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D392" s="95" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E392" s="96" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B393" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C393" s="95" t="s">
+        <v>883</v>
+      </c>
+      <c r="D393" s="95" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E393" s="96" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B394" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C394" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D394" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E394" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B395" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C395" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D395" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E395" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B396" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C396" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D396" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E396" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B397" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C397" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D397" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E397" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B398" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C398" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D398" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E398" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B399" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C399" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D399" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E399" s="93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B400" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C400" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D400" s="92" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E400" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B401" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C401" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D401" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E401" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B402" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C402" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D402" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E402" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B403" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C403" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D403" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E403" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B404" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C404" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D404" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E404" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B405" s="95" t="s">
+        <v>880</v>
+      </c>
+      <c r="C405" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D405" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E405" s="93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B406" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C406" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D406" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E406" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B407" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C407" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D407" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E407" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B408" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C408" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D408" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E408" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B409" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C409" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D409" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E409" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B410" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C410" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D410" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E410" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B411" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C411" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D411" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E411" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B412" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C412" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D412" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E412" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B413" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C413" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D413" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E413" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B414" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C414" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D414" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E414" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B415" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C415" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D415" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E415" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B416" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C416" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D416" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E416" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B417" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C417" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D417" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E417" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="B418" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C418" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D418" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E418" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B419" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C419" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D419" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E419" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B420" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C420" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D420" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E420" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B421" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C421" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D421" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E421" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B422" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C422" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D422" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E422" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B423" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C423" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D423" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E423" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B424" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C424" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D424" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E424" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B425" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C425" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D425" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E425" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B426" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C426" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D426" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E426" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B427" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C427" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D427" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E427" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B428" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C428" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D428" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E428" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B429" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C429" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D429" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E429" s="93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B430" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C430" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D430" s="92" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E430" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B431" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C431" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D431" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E431" s="93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B432" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C432" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D432" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E432" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B433" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C433" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D433" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E433" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B434" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C434" s="92" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D434" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E434" s="93" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B435" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C435" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D435" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E435" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B436" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C436" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D436" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E436" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B437" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C437" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="D437" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E437" s="93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B438" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C438" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D438" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E438" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B439" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C439" s="92" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D439" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E439" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B440" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C440" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D440" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="E440" s="93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B441" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C441" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D441" s="92" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E441" s="93" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B442" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C442" s="92" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D442" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E442" s="93" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B443" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C443" s="92" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D443" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="E443" s="93" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="B444" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="C444" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D444" s="92" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E444" s="93" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6258,34 +12861,34 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection sqref="A1:E48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>1012</v>
+      <c r="A1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>221</v>
+        <v>715</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>880</v>
@@ -6294,7 +12897,7 @@
         <v>201</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>84</v>
+        <v>1010</v>
       </c>
       <c r="E2" s="60" t="s">
         <v>82</v>
@@ -6302,16 +12905,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
-        <v>221</v>
+        <v>718</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>84</v>
+        <v>1012</v>
       </c>
       <c r="E3" s="60" t="s">
         <v>1016</v>
@@ -6319,58 +12922,58 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
-        <v>221</v>
+        <v>721</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D4" s="60" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>84</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
-        <v>764</v>
+        <v>724</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D5" s="60" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>84</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
-        <v>764</v>
+        <v>727</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>883</v>
+        <v>1026</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>84</v>
+        <v>1010</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>884</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
-        <v>764</v>
+        <v>730</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>880</v>
@@ -6379,7 +12982,7 @@
         <v>1026</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>84</v>
+        <v>1010</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>1012</v>
@@ -6387,98 +12990,98 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>764</v>
+        <v>218</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
-        <v>764</v>
+        <v>218</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="D9" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B10" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D10" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="60" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B11" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>883</v>
+        <v>1026</v>
       </c>
       <c r="D11" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="60" t="s">
-        <v>884</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B13" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D13" s="60" t="s">
         <v>84</v>
@@ -6489,7 +13092,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B14" s="60" t="s">
         <v>880</v>
@@ -6506,7 +13109,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
-        <v>836</v>
+        <v>764</v>
       </c>
       <c r="B15" s="60" t="s">
         <v>880</v>
@@ -6523,7 +13126,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
-        <v>836</v>
+        <v>764</v>
       </c>
       <c r="B16" s="60" t="s">
         <v>880</v>
@@ -6540,30 +13143,30 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
-        <v>836</v>
+        <v>764</v>
       </c>
       <c r="B17" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>202</v>
+        <v>1026</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>198</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="s">
-        <v>836</v>
+        <v>764</v>
       </c>
       <c r="B18" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D18" s="60" t="s">
         <v>84</v>
@@ -6574,7 +13177,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="s">
-        <v>836</v>
+        <v>764</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>880</v>
@@ -6591,7 +13194,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
-        <v>839</v>
+        <v>224</v>
       </c>
       <c r="B20" s="60" t="s">
         <v>880</v>
@@ -6608,7 +13211,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
-        <v>839</v>
+        <v>224</v>
       </c>
       <c r="B21" s="60" t="s">
         <v>880</v>
@@ -6625,7 +13228,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
-        <v>839</v>
+        <v>224</v>
       </c>
       <c r="B22" s="60" t="s">
         <v>880</v>
@@ -6642,13 +13245,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
-        <v>839</v>
+        <v>224</v>
       </c>
       <c r="B23" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>84</v>
@@ -6659,7 +13262,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
-        <v>839</v>
+        <v>224</v>
       </c>
       <c r="B24" s="60" t="s">
         <v>880</v>
@@ -6676,7 +13279,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B25" s="60" t="s">
         <v>880</v>
@@ -6693,7 +13296,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B26" s="60" t="s">
         <v>880</v>
@@ -6710,7 +13313,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B27" s="60" t="s">
         <v>880</v>
@@ -6727,13 +13330,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="60" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D28" s="60" t="s">
         <v>84</v>
@@ -6744,7 +13347,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="60" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B29" s="60" t="s">
         <v>880</v>
@@ -6761,7 +13364,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="60" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B30" s="60" t="s">
         <v>880</v>
@@ -6778,7 +13381,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="60" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B31" s="60" t="s">
         <v>880</v>
@@ -6795,7 +13398,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B32" s="60" t="s">
         <v>880</v>
@@ -6812,13 +13415,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B33" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D33" s="60" t="s">
         <v>84</v>
@@ -6829,7 +13432,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B34" s="60" t="s">
         <v>880</v>
@@ -6846,75 +13449,75 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="s">
-        <v>767</v>
+        <v>842</v>
       </c>
       <c r="B35" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C35" s="60" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D35" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="60" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="s">
-        <v>804</v>
+        <v>842</v>
       </c>
       <c r="B36" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C36" s="60" t="s">
-        <v>1024</v>
+        <v>883</v>
       </c>
       <c r="D36" s="60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>1010</v>
+        <v>884</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B37" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>1024</v>
+        <v>202</v>
       </c>
       <c r="D37" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="60" t="s">
-        <v>1010</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
-        <v>228</v>
+        <v>842</v>
       </c>
       <c r="B38" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="60" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B39" s="60" t="s">
         <v>880</v>
@@ -6923,7 +13526,7 @@
         <v>1024</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="60" t="s">
         <v>1010</v>
@@ -6931,75 +13534,75 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B40" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>1014</v>
+        <v>84</v>
       </c>
       <c r="E40" s="60" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B41" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C41" s="60" t="s">
-        <v>1025</v>
+        <v>883</v>
       </c>
       <c r="D41" s="60" t="s">
-        <v>1014</v>
+        <v>84</v>
       </c>
       <c r="E41" s="60" t="s">
-        <v>84</v>
+        <v>884</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
-        <v>230</v>
+        <v>844</v>
       </c>
       <c r="B42" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>1026</v>
+        <v>202</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>1010</v>
+        <v>84</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>1012</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
-        <v>232</v>
+        <v>844</v>
       </c>
       <c r="B43" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C43" s="60" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="D43" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="60" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="s">
-        <v>234</v>
+        <v>844</v>
       </c>
       <c r="B44" s="60" t="s">
         <v>880</v>
@@ -7016,7 +13619,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="60" t="s">
-        <v>802</v>
+        <v>767</v>
       </c>
       <c r="B45" s="60" t="s">
         <v>880</v>
@@ -7025,7 +13628,7 @@
         <v>1024</v>
       </c>
       <c r="D45" s="60" t="s">
-        <v>1011</v>
+        <v>84</v>
       </c>
       <c r="E45" s="60" t="s">
         <v>1010</v>
@@ -7033,24 +13636,24 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="60" t="s">
-        <v>626</v>
+        <v>804</v>
       </c>
       <c r="B46" s="60" t="s">
         <v>880</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>1010</v>
+        <v>82</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
-        <v>550</v>
+        <v>846</v>
       </c>
       <c r="B47" s="60" t="s">
         <v>880</v>
@@ -7059,7 +13662,7 @@
         <v>1024</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E47" s="60" t="s">
         <v>1010</v>
@@ -7067,7 +13670,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
-        <v>579</v>
+        <v>228</v>
       </c>
       <c r="B48" s="60" t="s">
         <v>880</v>
@@ -7076,9 +13679,179 @@
         <v>1024</v>
       </c>
       <c r="D48" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="60" t="s">
+        <v>848</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="60" t="s">
+        <v>850</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="60" t="s">
+        <v>850</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E51" s="60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D54" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="60" t="s">
+        <v>802</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D55" s="60" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E55" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D56" s="60" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="60" t="s">
+        <v>579</v>
+      </c>
+      <c r="B58" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D58" s="60" t="s">
         <v>1016</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E58" s="60" t="s">
         <v>1010</v>
       </c>
     </row>
@@ -7842,7 +14615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="13" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4413,7 +4413,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4746,7 +4746,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5294,7 +5294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E444"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -15530,8 +15530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG130"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25558,8 +25558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BG86"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7782" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7781" uniqueCount="1261">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3884,6 +3884,9 @@
       </rPr>
       <t>(Ksh)</t>
     </r>
+  </si>
+  <si>
+    <t>Transfer Anyway</t>
   </si>
 </sst>
 </file>
@@ -14583,10 +14586,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14596,36 +14599,37 @@
     <col min="3" max="16384" width="9" style="7" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>877</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>1015</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
+      <c r="C3" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14691,7 +14695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+    <sheetView topLeftCell="E13" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3411,9 +3411,6 @@
     <t>Airtel Money_Agent</t>
   </si>
   <si>
-    <t>Tm90ZXBhZEAxMjM</t>
-  </si>
-  <si>
     <t>QWFpcnRlbEAwOTE5</t>
   </si>
   <si>
@@ -3896,6 +3893,9 @@
   </si>
   <si>
     <t>Any Last Dialled Numbers</t>
+  </si>
+  <si>
+    <t>RGVhdGhub3RlQDEyMw</t>
   </si>
 </sst>
 </file>
@@ -4500,7 +4500,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4832,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4892,10 +4892,10 @@
         <v>174</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1259</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4903,7 +4903,7 @@
         <v>2388008</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>124</v>
@@ -4948,7 +4948,7 @@
         <v>789474747</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4956,7 +4956,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1113</v>
+        <v>1263</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>123</v>
@@ -5005,7 +5005,7 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>131</v>
@@ -5028,7 +5028,7 @@
         <v>789474747</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -5036,7 +5036,7 @@
         <v>2388008</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>177</v>
@@ -6337,7 +6337,7 @@
         <v>1022</v>
       </c>
       <c r="D53" s="89" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E53" s="90" t="s">
         <v>84</v>
@@ -14000,7 +14000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -14069,7 +14069,7 @@
         <v>897</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -14084,7 +14084,7 @@
         <v>900</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>901</v>
@@ -14662,7 +14662,7 @@
         <v>878</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14805,10 +14805,10 @@
         <v>983</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -14816,7 +14816,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>142</v>
@@ -15259,13 +15259,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>1242</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="C18" s="38" t="s">
         <v>1243</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>1244</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>145</v>
@@ -15282,43 +15282,43 @@
     </row>
     <row r="19" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D19" s="38" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>1247</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>1248</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="G19" s="38" t="s">
         <v>1249</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>1250</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>144</v>
       </c>
       <c r="I19" s="95" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J19" s="95" t="s">
         <v>1255</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="K19" s="95" t="s">
         <v>1256</v>
-      </c>
-      <c r="K19" s="95" t="s">
-        <v>1257</v>
       </c>
       <c r="L19" s="38" t="s">
         <v>145</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="N19" s="94"/>
     </row>
@@ -15623,7 +15623,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -15660,7 +15660,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -16025,7 +16025,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16112,7 +16112,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16193,7 +16193,7 @@
         <v>89</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16280,7 +16280,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16355,7 +16355,7 @@
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16505,7 +16505,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16580,7 +16580,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -16667,7 +16667,7 @@
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -16730,7 +16730,7 @@
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16805,7 +16805,7 @@
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16880,7 +16880,7 @@
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16955,7 +16955,7 @@
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -17099,7 +17099,7 @@
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -17162,7 +17162,7 @@
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -17310,7 +17310,7 @@
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -17403,7 +17403,7 @@
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -17496,7 +17496,7 @@
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -17589,7 +17589,7 @@
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -17682,7 +17682,7 @@
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -17775,7 +17775,7 @@
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -17868,7 +17868,7 @@
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -17967,7 +17967,7 @@
         <v>89</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -18115,7 +18115,7 @@
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18178,7 +18178,7 @@
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -18241,7 +18241,7 @@
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18304,7 +18304,7 @@
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -18367,7 +18367,7 @@
         <v>89</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="33" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18430,7 +18430,7 @@
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -18517,7 +18517,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -18610,7 +18610,7 @@
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18691,7 +18691,7 @@
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18766,7 +18766,7 @@
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -18841,7 +18841,7 @@
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -18916,7 +18916,7 @@
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -19003,7 +19003,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19090,7 +19090,7 @@
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -19153,7 +19153,7 @@
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -19222,7 +19222,7 @@
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -19285,7 +19285,7 @@
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -19348,7 +19348,7 @@
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -19409,7 +19409,7 @@
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -19484,7 +19484,7 @@
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -19547,7 +19547,7 @@
         <v>89</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="49" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -19622,7 +19622,7 @@
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19697,7 +19697,7 @@
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -19772,7 +19772,7 @@
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19847,7 +19847,7 @@
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19910,7 +19910,7 @@
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19979,7 +19979,7 @@
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -20066,7 +20066,7 @@
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -20129,7 +20129,7 @@
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20192,7 +20192,7 @@
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20267,7 +20267,7 @@
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20348,7 +20348,7 @@
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -20429,7 +20429,7 @@
         <v>89</v>
       </c>
       <c r="BG60" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20492,7 +20492,7 @@
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20555,7 +20555,7 @@
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20618,7 +20618,7 @@
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20681,7 +20681,7 @@
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20756,7 +20756,7 @@
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20825,7 +20825,7 @@
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20900,7 +20900,7 @@
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20963,7 +20963,7 @@
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21038,7 +21038,7 @@
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21113,7 +21113,7 @@
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21176,7 +21176,7 @@
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21245,7 +21245,7 @@
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -21314,7 +21314,7 @@
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -21389,7 +21389,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -21464,7 +21464,7 @@
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21527,7 +21527,7 @@
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -21590,7 +21590,7 @@
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21653,7 +21653,7 @@
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21728,7 +21728,7 @@
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21791,7 +21791,7 @@
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -21860,7 +21860,7 @@
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
@@ -21959,7 +21959,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
@@ -22058,7 +22058,7 @@
         <v>89</v>
       </c>
       <c r="BG83" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -22121,7 +22121,7 @@
         <v>89</v>
       </c>
       <c r="BG84" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
@@ -22214,7 +22214,7 @@
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="86" spans="1:59" x14ac:dyDescent="0.25">
@@ -22307,7 +22307,7 @@
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
@@ -22406,7 +22406,7 @@
         <v>89</v>
       </c>
       <c r="BG87" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
@@ -22499,7 +22499,7 @@
         <v>89</v>
       </c>
       <c r="BG88" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="89" spans="1:59" x14ac:dyDescent="0.25">
@@ -22598,7 +22598,7 @@
         <v>89</v>
       </c>
       <c r="BG89" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -22691,7 +22691,7 @@
         <v>89</v>
       </c>
       <c r="BG90" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -22766,7 +22766,7 @@
         <v>89</v>
       </c>
       <c r="BG91" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="92" spans="1:59" x14ac:dyDescent="0.25">
@@ -22841,7 +22841,7 @@
         <v>89</v>
       </c>
       <c r="BG92" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="93" spans="1:59" x14ac:dyDescent="0.25">
@@ -22916,7 +22916,7 @@
         <v>89</v>
       </c>
       <c r="BG93" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -22979,7 +22979,7 @@
         <v>89</v>
       </c>
       <c r="BG94" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23042,7 +23042,7 @@
         <v>89</v>
       </c>
       <c r="BG95" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23105,7 +23105,7 @@
         <v>89</v>
       </c>
       <c r="BG96" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23168,7 +23168,7 @@
         <v>89</v>
       </c>
       <c r="BG97" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23231,7 +23231,7 @@
         <v>89</v>
       </c>
       <c r="BG98" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -23294,7 +23294,7 @@
         <v>89</v>
       </c>
       <c r="BG99" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -23369,7 +23369,7 @@
         <v>89</v>
       </c>
       <c r="BG100" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -23444,7 +23444,7 @@
         <v>89</v>
       </c>
       <c r="BG101" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -23519,7 +23519,7 @@
         <v>89</v>
       </c>
       <c r="BG102" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -23606,7 +23606,7 @@
         <v>89</v>
       </c>
       <c r="BG103" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
@@ -23687,7 +23687,7 @@
         <v>89</v>
       </c>
       <c r="BG104" s="40" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23762,7 +23762,7 @@
         <v>89</v>
       </c>
       <c r="BG105" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23837,7 +23837,7 @@
         <v>89</v>
       </c>
       <c r="BG106" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23912,7 +23912,7 @@
         <v>89</v>
       </c>
       <c r="BG107" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23987,7 +23987,7 @@
         <v>89</v>
       </c>
       <c r="BG108" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24062,7 +24062,7 @@
         <v>89</v>
       </c>
       <c r="BG109" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -24137,7 +24137,7 @@
         <v>89</v>
       </c>
       <c r="BG110" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -24218,7 +24218,7 @@
         <v>89</v>
       </c>
       <c r="BG111" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24311,7 +24311,7 @@
         <v>89</v>
       </c>
       <c r="BG112" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24398,7 +24398,7 @@
         <v>89</v>
       </c>
       <c r="BG113" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24467,7 +24467,7 @@
         <v>89</v>
       </c>
       <c r="BG114" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24560,7 +24560,7 @@
         <v>89</v>
       </c>
       <c r="BG115" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24653,7 +24653,7 @@
         <v>89</v>
       </c>
       <c r="BG116" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24746,7 +24746,7 @@
         <v>89</v>
       </c>
       <c r="BG117" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -24809,7 +24809,7 @@
         <v>89</v>
       </c>
       <c r="BG118" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -24890,7 +24890,7 @@
         <v>89</v>
       </c>
       <c r="BG119" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -24977,7 +24977,7 @@
         <v>89</v>
       </c>
       <c r="BG120" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -25064,7 +25064,7 @@
         <v>89</v>
       </c>
       <c r="BG121" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25127,7 +25127,7 @@
         <v>89</v>
       </c>
       <c r="BG122" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -25190,7 +25190,7 @@
         <v>89</v>
       </c>
       <c r="BG123" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
@@ -25253,7 +25253,7 @@
         <v>89</v>
       </c>
       <c r="BG124" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25340,7 +25340,7 @@
         <v>89</v>
       </c>
       <c r="BG125" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -25427,7 +25427,7 @@
         <v>89</v>
       </c>
       <c r="BG126" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -25672,7 +25672,7 @@
         <v>89</v>
       </c>
       <c r="BG129" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25747,7 +25747,7 @@
         <v>89</v>
       </c>
       <c r="BG130" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7784" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7791" uniqueCount="1270">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3896,6 +3896,24 @@
   </si>
   <si>
     <t>RGVhdGhub3RlQDEyMw</t>
+  </si>
+  <si>
+    <t>Voucher Id</t>
+  </si>
+  <si>
+    <t>106222035384</t>
+  </si>
+  <si>
+    <t>Test Data-UAT(if Required)</t>
+  </si>
+  <si>
+    <t>Test Data-Prod</t>
+  </si>
+  <si>
+    <t>Service Details</t>
+  </si>
+  <si>
+    <t>HLR Code Detail</t>
   </si>
 </sst>
 </file>
@@ -4084,7 +4102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -4159,6 +4177,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4176,7 +4205,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -4335,6 +4364,7 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4832,7 +4862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -14101,10 +14131,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14114,7 +14144,7 @@
     <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>904</v>
       </c>
@@ -14136,8 +14166,14 @@
       <c r="G1" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>905</v>
       </c>
@@ -14146,6 +14182,17 @@
       </c>
       <c r="C2" t="s">
         <v>909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1265</v>
       </c>
     </row>
   </sheetData>
@@ -14750,8 +14797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15257,21 +15304,25 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>1241</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>1242</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="98" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>1243</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="98" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>904</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3411,9 +3411,6 @@
     <t>Airtel Money_Agent</t>
   </si>
   <si>
-    <t>QWFpcnRlbEAwOTE5</t>
-  </si>
-  <si>
     <t>080221003433</t>
   </si>
   <si>
@@ -3914,6 +3911,9 @@
   </si>
   <si>
     <t>HLR Code Detail</t>
+  </si>
+  <si>
+    <t>TWFyY2hAMTIzJA</t>
   </si>
 </sst>
 </file>
@@ -4530,7 +4530,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4862,8 +4862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4922,18 +4922,18 @@
         <v>174</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2388008</v>
+        <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1113</v>
+        <v>1269</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>124</v>
@@ -4978,7 +4978,7 @@
         <v>789474747</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4986,7 +4986,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>123</v>
@@ -5035,7 +5035,7 @@
         <v>2390932</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>131</v>
@@ -5058,15 +5058,15 @@
         <v>789474747</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2388008</v>
+        <v>2390495</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1113</v>
+        <v>1269</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>177</v>
@@ -6367,7 +6367,7 @@
         <v>1022</v>
       </c>
       <c r="D53" s="89" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E53" s="90" t="s">
         <v>84</v>
@@ -14099,7 +14099,7 @@
         <v>897</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -14114,7 +14114,7 @@
         <v>900</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>901</v>
@@ -14167,10 +14167,10 @@
         <v>913</v>
       </c>
       <c r="H1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I1" t="s">
         <v>1266</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -14186,13 +14186,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>1264</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>1265</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -14709,7 +14709,7 @@
         <v>878</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14797,7 +14797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -14852,10 +14852,10 @@
         <v>983</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -14863,7 +14863,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>142</v>
@@ -15306,19 +15306,19 @@
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>1241</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="C18" s="98" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>1242</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="E18" s="98" t="s">
         <v>1268</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E18" s="98" t="s">
-        <v>1269</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>904</v>
@@ -15333,43 +15333,43 @@
     </row>
     <row r="19" spans="1:14" ht="42" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>143</v>
       </c>
       <c r="D19" s="38" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>1246</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>1247</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="G19" s="38" t="s">
         <v>1248</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>1249</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>144</v>
       </c>
       <c r="I19" s="95" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J19" s="95" t="s">
         <v>1254</v>
       </c>
-      <c r="J19" s="95" t="s">
+      <c r="K19" s="95" t="s">
         <v>1255</v>
-      </c>
-      <c r="K19" s="95" t="s">
-        <v>1256</v>
       </c>
       <c r="L19" s="38" t="s">
         <v>145</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="N19" s="94"/>
     </row>
@@ -15674,7 +15674,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -15711,7 +15711,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
@@ -16076,7 +16076,7 @@
         <v>89</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16163,7 +16163,7 @@
         <v>89</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16244,7 +16244,7 @@
         <v>89</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16331,7 +16331,7 @@
         <v>89</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -16406,7 +16406,7 @@
         <v>89</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -16556,7 +16556,7 @@
         <v>89</v>
       </c>
       <c r="BG8" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16631,7 +16631,7 @@
         <v>89</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -16718,7 +16718,7 @@
         <v>89</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -16781,7 +16781,7 @@
         <v>89</v>
       </c>
       <c r="BG11" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16856,7 +16856,7 @@
         <v>89</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -16931,7 +16931,7 @@
         <v>89</v>
       </c>
       <c r="BG13" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -17006,7 +17006,7 @@
         <v>89</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -17087,7 +17087,7 @@
         <v>89</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -17150,7 +17150,7 @@
         <v>89</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -17213,7 +17213,7 @@
         <v>89</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -17361,7 +17361,7 @@
         <v>89</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -17454,7 +17454,7 @@
         <v>89</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -17547,7 +17547,7 @@
         <v>89</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -17640,7 +17640,7 @@
         <v>89</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -17733,7 +17733,7 @@
         <v>89</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -17826,7 +17826,7 @@
         <v>89</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -17919,7 +17919,7 @@
         <v>89</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -18018,7 +18018,7 @@
         <v>89</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="27" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -18166,7 +18166,7 @@
         <v>89</v>
       </c>
       <c r="BG28" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="29" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18229,7 +18229,7 @@
         <v>89</v>
       </c>
       <c r="BG29" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="30" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -18292,7 +18292,7 @@
         <v>89</v>
       </c>
       <c r="BG30" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="31" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18355,7 +18355,7 @@
         <v>89</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="32" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -18418,7 +18418,7 @@
         <v>89</v>
       </c>
       <c r="BG32" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="33" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18481,7 +18481,7 @@
         <v>89</v>
       </c>
       <c r="BG33" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="34" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -18568,7 +18568,7 @@
         <v>89</v>
       </c>
       <c r="BG34" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="35" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -18661,7 +18661,7 @@
         <v>89</v>
       </c>
       <c r="BG35" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="36" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18742,7 +18742,7 @@
         <v>89</v>
       </c>
       <c r="BG36" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="37" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -18817,7 +18817,7 @@
         <v>89</v>
       </c>
       <c r="BG37" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="38" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -18892,7 +18892,7 @@
         <v>89</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="39" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -18967,7 +18967,7 @@
         <v>89</v>
       </c>
       <c r="BG39" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="40" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -19054,7 +19054,7 @@
         <v>89</v>
       </c>
       <c r="BG40" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="41" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19141,7 +19141,7 @@
         <v>89</v>
       </c>
       <c r="BG41" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="42" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -19204,7 +19204,7 @@
         <v>89</v>
       </c>
       <c r="BG42" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="43" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -19273,7 +19273,7 @@
         <v>89</v>
       </c>
       <c r="BG43" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="44" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -19336,7 +19336,7 @@
         <v>89</v>
       </c>
       <c r="BG44" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="45" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -19399,7 +19399,7 @@
         <v>89</v>
       </c>
       <c r="BG45" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="46" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -19460,7 +19460,7 @@
         <v>89</v>
       </c>
       <c r="BG46" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="47" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -19535,7 +19535,7 @@
         <v>89</v>
       </c>
       <c r="BG47" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="48" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -19598,7 +19598,7 @@
         <v>89</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="49" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -19673,7 +19673,7 @@
         <v>89</v>
       </c>
       <c r="BG49" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="50" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19748,7 +19748,7 @@
         <v>89</v>
       </c>
       <c r="BG50" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="51" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -19823,7 +19823,7 @@
         <v>89</v>
       </c>
       <c r="BG51" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="52" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19898,7 +19898,7 @@
         <v>89</v>
       </c>
       <c r="BG52" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="53" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -19961,7 +19961,7 @@
         <v>89</v>
       </c>
       <c r="BG53" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="54" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20030,7 +20030,7 @@
         <v>89</v>
       </c>
       <c r="BG54" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="55" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -20117,7 +20117,7 @@
         <v>89</v>
       </c>
       <c r="BG55" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="56" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -20180,7 +20180,7 @@
         <v>89</v>
       </c>
       <c r="BG56" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="57" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20243,7 +20243,7 @@
         <v>89</v>
       </c>
       <c r="BG57" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="58" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20318,7 +20318,7 @@
         <v>89</v>
       </c>
       <c r="BG58" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="59" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -20399,7 +20399,7 @@
         <v>89</v>
       </c>
       <c r="BG59" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="60" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -20480,7 +20480,7 @@
         <v>89</v>
       </c>
       <c r="BG60" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="61" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20543,7 +20543,7 @@
         <v>89</v>
       </c>
       <c r="BG61" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="62" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20606,7 +20606,7 @@
         <v>89</v>
       </c>
       <c r="BG62" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="63" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20669,7 +20669,7 @@
         <v>89</v>
       </c>
       <c r="BG63" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="64" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20732,7 +20732,7 @@
         <v>89</v>
       </c>
       <c r="BG64" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="65" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -20807,7 +20807,7 @@
         <v>89</v>
       </c>
       <c r="BG65" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="66" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20876,7 +20876,7 @@
         <v>89</v>
       </c>
       <c r="BG66" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="67" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -20951,7 +20951,7 @@
         <v>89</v>
       </c>
       <c r="BG67" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="68" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21014,7 +21014,7 @@
         <v>89</v>
       </c>
       <c r="BG68" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="69" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21089,7 +21089,7 @@
         <v>89</v>
       </c>
       <c r="BG69" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="70" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21164,7 +21164,7 @@
         <v>89</v>
       </c>
       <c r="BG70" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="71" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21227,7 +21227,7 @@
         <v>89</v>
       </c>
       <c r="BG71" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="72" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21296,7 +21296,7 @@
         <v>89</v>
       </c>
       <c r="BG72" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="73" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -21365,7 +21365,7 @@
         <v>89</v>
       </c>
       <c r="BG73" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="74" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -21440,7 +21440,7 @@
         <v>89</v>
       </c>
       <c r="BG74" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="75" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -21515,7 +21515,7 @@
         <v>89</v>
       </c>
       <c r="BG75" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="76" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21578,7 +21578,7 @@
         <v>89</v>
       </c>
       <c r="BG76" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="77" spans="1:59" ht="25.5" x14ac:dyDescent="0.25">
@@ -21641,7 +21641,7 @@
         <v>89</v>
       </c>
       <c r="BG77" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="78" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21704,7 +21704,7 @@
         <v>89</v>
       </c>
       <c r="BG78" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="79" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21779,7 +21779,7 @@
         <v>89</v>
       </c>
       <c r="BG79" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="80" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -21842,7 +21842,7 @@
         <v>89</v>
       </c>
       <c r="BG80" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="81" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -21911,7 +21911,7 @@
         <v>89</v>
       </c>
       <c r="BG81" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
@@ -22010,7 +22010,7 @@
         <v>89</v>
       </c>
       <c r="BG82" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
@@ -22109,7 +22109,7 @@
         <v>89</v>
       </c>
       <c r="BG83" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="84" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -22172,7 +22172,7 @@
         <v>89</v>
       </c>
       <c r="BG84" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
@@ -22265,7 +22265,7 @@
         <v>89</v>
       </c>
       <c r="BG85" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="86" spans="1:59" x14ac:dyDescent="0.25">
@@ -22358,7 +22358,7 @@
         <v>89</v>
       </c>
       <c r="BG86" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
@@ -22457,7 +22457,7 @@
         <v>89</v>
       </c>
       <c r="BG87" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
@@ -22550,7 +22550,7 @@
         <v>89</v>
       </c>
       <c r="BG88" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="89" spans="1:59" x14ac:dyDescent="0.25">
@@ -22649,7 +22649,7 @@
         <v>89</v>
       </c>
       <c r="BG89" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="90" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -22742,7 +22742,7 @@
         <v>89</v>
       </c>
       <c r="BG90" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="91" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -22817,7 +22817,7 @@
         <v>89</v>
       </c>
       <c r="BG91" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="92" spans="1:59" x14ac:dyDescent="0.25">
@@ -22892,7 +22892,7 @@
         <v>89</v>
       </c>
       <c r="BG92" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="93" spans="1:59" x14ac:dyDescent="0.25">
@@ -22967,7 +22967,7 @@
         <v>89</v>
       </c>
       <c r="BG93" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="94" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23030,7 +23030,7 @@
         <v>89</v>
       </c>
       <c r="BG94" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="95" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23093,7 +23093,7 @@
         <v>89</v>
       </c>
       <c r="BG95" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="96" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23156,7 +23156,7 @@
         <v>89</v>
       </c>
       <c r="BG96" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="97" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23219,7 +23219,7 @@
         <v>89</v>
       </c>
       <c r="BG97" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="98" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23282,7 +23282,7 @@
         <v>89</v>
       </c>
       <c r="BG98" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="99" spans="1:59" ht="102" x14ac:dyDescent="0.25">
@@ -23345,7 +23345,7 @@
         <v>89</v>
       </c>
       <c r="BG99" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="100" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -23420,7 +23420,7 @@
         <v>89</v>
       </c>
       <c r="BG100" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="101" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -23495,7 +23495,7 @@
         <v>89</v>
       </c>
       <c r="BG101" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="102" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -23570,7 +23570,7 @@
         <v>89</v>
       </c>
       <c r="BG102" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="103" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -23657,7 +23657,7 @@
         <v>89</v>
       </c>
       <c r="BG103" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
@@ -23738,7 +23738,7 @@
         <v>89</v>
       </c>
       <c r="BG104" s="40" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="105" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23813,7 +23813,7 @@
         <v>89</v>
       </c>
       <c r="BG105" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="106" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23888,7 +23888,7 @@
         <v>89</v>
       </c>
       <c r="BG106" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="107" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -23963,7 +23963,7 @@
         <v>89</v>
       </c>
       <c r="BG107" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="108" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24038,7 +24038,7 @@
         <v>89</v>
       </c>
       <c r="BG108" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="109" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24113,7 +24113,7 @@
         <v>89</v>
       </c>
       <c r="BG109" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="110" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -24188,7 +24188,7 @@
         <v>89</v>
       </c>
       <c r="BG110" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="111" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -24269,7 +24269,7 @@
         <v>89</v>
       </c>
       <c r="BG111" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="112" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24362,7 +24362,7 @@
         <v>89</v>
       </c>
       <c r="BG112" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="113" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24449,7 +24449,7 @@
         <v>89</v>
       </c>
       <c r="BG113" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="114" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24518,7 +24518,7 @@
         <v>89</v>
       </c>
       <c r="BG114" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="115" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -24611,7 +24611,7 @@
         <v>89</v>
       </c>
       <c r="BG115" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="116" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24704,7 +24704,7 @@
         <v>89</v>
       </c>
       <c r="BG116" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="117" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -24797,7 +24797,7 @@
         <v>89</v>
       </c>
       <c r="BG117" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="118" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -24860,7 +24860,7 @@
         <v>89</v>
       </c>
       <c r="BG118" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="119" spans="1:59" ht="76.5" x14ac:dyDescent="0.25">
@@ -24941,7 +24941,7 @@
         <v>89</v>
       </c>
       <c r="BG119" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="120" spans="1:59" ht="89.25" x14ac:dyDescent="0.25">
@@ -25028,7 +25028,7 @@
         <v>89</v>
       </c>
       <c r="BG120" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="121" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -25115,7 +25115,7 @@
         <v>89</v>
       </c>
       <c r="BG121" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="122" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25178,7 +25178,7 @@
         <v>89</v>
       </c>
       <c r="BG122" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="123" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -25241,7 +25241,7 @@
         <v>89</v>
       </c>
       <c r="BG123" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="124" spans="1:59" ht="127.5" x14ac:dyDescent="0.25">
@@ -25304,7 +25304,7 @@
         <v>89</v>
       </c>
       <c r="BG124" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="125" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25391,7 +25391,7 @@
         <v>89</v>
       </c>
       <c r="BG125" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="126" spans="1:59" ht="38.25" x14ac:dyDescent="0.25">
@@ -25478,7 +25478,7 @@
         <v>89</v>
       </c>
       <c r="BG126" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="127" spans="1:59" ht="63.75" x14ac:dyDescent="0.25">
@@ -25723,7 +25723,7 @@
         <v>89</v>
       </c>
       <c r="BG129" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="130" spans="1:59" ht="51" x14ac:dyDescent="0.25">
@@ -25798,7 +25798,7 @@
         <v>89</v>
       </c>
       <c r="BG130" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/KE.xlsx
+++ b/Excels/KE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -4530,7 +4530,7 @@
         <xdr:cNvPr id="9217" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4862,7 +4862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -14030,8 +14030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14102,7 +14102,7 @@
         <v>1260</v>
       </c>
       <c r="C2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>898</v>
